--- a/data/schedule_2026.xlsx
+++ b/data/schedule_2026.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W96"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1110,7 +1110,7 @@
         <v/>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>Full</v>
       </c>
       <c r="E11" t="str">
         <v/>
@@ -3879,25 +3879,25 @@
         <v>FA</v>
       </c>
       <c r="D50" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E50" t="str">
         <v>CS</v>
       </c>
       <c r="F50" t="str">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="G50" t="str">
         <v>A</v>
       </c>
       <c r="H50" t="str">
-        <v>Victor T. Norman</v>
+        <v>Staff</v>
       </c>
       <c r="I50" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J50" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K50" t="str">
         <v/>
@@ -3906,16 +3906,16 @@
         <v>MWF</v>
       </c>
       <c r="M50" t="str">
-        <v>09:15:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N50">
         <v>65</v>
       </c>
       <c r="O50" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="P50" t="str">
-        <v>Web Development</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="Q50" t="str">
         <v/>
@@ -3927,7 +3927,7 @@
         <v/>
       </c>
       <c r="T50" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="U50" t="str">
         <v/>
@@ -3947,22 +3947,22 @@
         <v/>
       </c>
       <c r="C51" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D51" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E51" t="str">
         <v>CS</v>
       </c>
       <c r="F51" t="str">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="G51" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H51" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Staff</v>
       </c>
       <c r="I51" t="str">
         <v>2</v>
@@ -3977,7 +3977,7 @@
         <v>MWF</v>
       </c>
       <c r="M51" t="str">
-        <v>08:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N51">
         <v>65</v>
@@ -3986,7 +3986,7 @@
         <v>SB 382</v>
       </c>
       <c r="P51" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="Q51" t="str">
         <v/>
@@ -3998,7 +3998,7 @@
         <v/>
       </c>
       <c r="T51" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="U51" t="str">
         <v/>
@@ -4018,28 +4018,28 @@
         <v/>
       </c>
       <c r="C52" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D52" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E52" t="str">
         <v>CS</v>
       </c>
       <c r="F52" t="str">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G52" t="str">
         <v>A</v>
       </c>
       <c r="H52" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I52" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J52" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K52" t="str">
         <v/>
@@ -4048,16 +4048,16 @@
         <v>MWF</v>
       </c>
       <c r="M52" t="str">
-        <v>08:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N52">
         <v>65</v>
       </c>
       <c r="O52" t="str">
-        <v>SB 382</v>
+        <v>HH 336</v>
       </c>
       <c r="P52" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>Web Development</v>
       </c>
       <c r="Q52" t="str">
         <v/>
@@ -4092,19 +4092,19 @@
         <v>SP</v>
       </c>
       <c r="D53" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E53" t="str">
         <v>CS</v>
       </c>
       <c r="F53" t="str">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G53" t="str">
         <v>A</v>
       </c>
       <c r="H53" t="str">
-        <v>Eric Araujo</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="I53" t="str">
         <v>2</v>
@@ -4119,7 +4119,7 @@
         <v>MWF</v>
       </c>
       <c r="M53" t="str">
-        <v>09:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N53">
         <v>65</v>
@@ -4128,7 +4128,7 @@
         <v>SB 382</v>
       </c>
       <c r="P53" t="str">
-        <v>Database Management Systems</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="Q53" t="str">
         <v/>
@@ -4160,46 +4160,46 @@
         <v/>
       </c>
       <c r="C54" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D54" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E54" t="str">
         <v>CS</v>
       </c>
       <c r="F54" t="str">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="G54" t="str">
         <v>A</v>
       </c>
       <c r="H54" t="str">
-        <v>Brian D Paige, Adam Vedra</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="I54" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J54" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K54" t="str">
         <v/>
       </c>
       <c r="L54" t="str">
-        <v>MR</v>
+        <v>MWF</v>
       </c>
       <c r="M54" t="str">
-        <v>19:00:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N54">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O54" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P54" t="str">
-        <v>Computer Security</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="Q54" t="str">
         <v/>
@@ -4234,19 +4234,19 @@
         <v>SP</v>
       </c>
       <c r="D55" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E55" t="str">
         <v>CS</v>
       </c>
       <c r="F55" t="str">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="G55" t="str">
         <v>A</v>
       </c>
       <c r="H55" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I55" t="str">
         <v>2</v>
@@ -4261,7 +4261,7 @@
         <v>MWF</v>
       </c>
       <c r="M55" t="str">
-        <v>11:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N55">
         <v>65</v>
@@ -4270,7 +4270,7 @@
         <v>SB 382</v>
       </c>
       <c r="P55" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Database Management Systems</v>
       </c>
       <c r="Q55" t="str">
         <v/>
@@ -4302,46 +4302,46 @@
         <v/>
       </c>
       <c r="C56" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D56" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E56" t="str">
         <v>CS</v>
       </c>
       <c r="F56" t="str">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G56" t="str">
         <v>A</v>
       </c>
       <c r="H56" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Brian D Paige, Adam Vedra</v>
       </c>
       <c r="I56" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J56" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K56" t="str">
         <v/>
       </c>
       <c r="L56" t="str">
-        <v>MWF</v>
+        <v>MR</v>
       </c>
       <c r="M56" t="str">
-        <v>11:00:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N56">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O56" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P56" t="str">
-        <v>Machine Learning</v>
+        <v>Computer Security</v>
       </c>
       <c r="Q56" t="str">
         <v/>
@@ -4373,46 +4373,46 @@
         <v/>
       </c>
       <c r="C57" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D57" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E57" t="str">
         <v>CS</v>
       </c>
       <c r="F57" t="str">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G57" t="str">
         <v>A</v>
       </c>
       <c r="H57" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I57" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" t="str">
         <v/>
       </c>
       <c r="L57" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="M57" t="str">
-        <v>19:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N57">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O57" t="str">
         <v>SB 382</v>
       </c>
       <c r="P57" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="Q57" t="str">
         <v/>
@@ -4447,43 +4447,43 @@
         <v>SP</v>
       </c>
       <c r="D58" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E58" t="str">
         <v>CS</v>
       </c>
       <c r="F58" t="str">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G58" t="str">
         <v>A</v>
       </c>
       <c r="H58" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I58" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" t="str">
         <v/>
       </c>
       <c r="L58" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="M58" t="str">
-        <v>19:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N58">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O58" t="str">
         <v>SB 382</v>
       </c>
       <c r="P58" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>Machine Learning</v>
       </c>
       <c r="Q58" t="str">
         <v/>
@@ -4515,7 +4515,7 @@
         <v/>
       </c>
       <c r="C59" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D59" t="str">
         <v>Full</v>
@@ -4524,7 +4524,7 @@
         <v>CS</v>
       </c>
       <c r="F59" t="str">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G59" t="str">
         <v>A</v>
@@ -4533,28 +4533,28 @@
         <v>Derek C Schuurman</v>
       </c>
       <c r="I59" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J59" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K59" t="str">
         <v/>
       </c>
       <c r="L59" t="str">
-        <v>TR</v>
+        <v>R</v>
       </c>
       <c r="M59" t="str">
-        <v>10:20:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O59" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="P59" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="Q59" t="str">
         <v/>
@@ -4595,37 +4595,37 @@
         <v>CS</v>
       </c>
       <c r="F60" t="str">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G60" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H60" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I60" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J60" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K60" t="str">
         <v/>
       </c>
       <c r="L60" t="str">
-        <v>TR</v>
+        <v>R</v>
       </c>
       <c r="M60" t="str">
-        <v>12:15:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O60" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="P60" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="Q60" t="str">
         <v/>
@@ -4657,28 +4657,28 @@
         <v/>
       </c>
       <c r="C61" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D61" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E61" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F61" t="str">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="G61" t="str">
         <v>A</v>
       </c>
       <c r="H61" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I61" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J61" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K61" t="str">
         <v/>
@@ -4687,22 +4687,22 @@
         <v>TR</v>
       </c>
       <c r="M61" t="str">
-        <v>08:00:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N61">
         <v>100</v>
       </c>
       <c r="O61" t="str">
-        <v>SB 354</v>
+        <v>HH 336</v>
       </c>
       <c r="P61" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="Q61" t="str">
         <v/>
       </c>
       <c r="R61" t="str">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S61" t="str">
         <v/>
@@ -4728,28 +4728,28 @@
         <v/>
       </c>
       <c r="C62" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D62" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E62" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F62" t="str">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="G62" t="str">
         <v>B</v>
       </c>
       <c r="H62" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I62" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J62" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K62" t="str">
         <v/>
@@ -4764,16 +4764,16 @@
         <v>100</v>
       </c>
       <c r="O62" t="str">
-        <v>SB 354</v>
+        <v>HH 336</v>
       </c>
       <c r="P62" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="Q62" t="str">
         <v/>
       </c>
       <c r="R62" t="str">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S62" t="str">
         <v/>
@@ -4799,7 +4799,7 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D63" t="str">
         <v>First</v>
@@ -4811,10 +4811,10 @@
         <v>102</v>
       </c>
       <c r="G63" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H63" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I63" t="str">
         <v>2</v>
@@ -4829,7 +4829,7 @@
         <v>TR</v>
       </c>
       <c r="M63" t="str">
-        <v>12:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N63">
         <v>100</v>
@@ -4882,7 +4882,7 @@
         <v>102</v>
       </c>
       <c r="G64" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="H64" t="str">
         <v>Cancelled-DATA</v>
@@ -4900,7 +4900,7 @@
         <v>TR</v>
       </c>
       <c r="M64" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N64">
         <v>100</v>
@@ -4953,7 +4953,7 @@
         <v>102</v>
       </c>
       <c r="G65" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="H65" t="str">
         <v>Cancelled-DATA</v>
@@ -4971,7 +4971,7 @@
         <v>TR</v>
       </c>
       <c r="M65" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N65">
         <v>100</v>
@@ -5024,10 +5024,10 @@
         <v>102</v>
       </c>
       <c r="G66" t="str">
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="H66" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I66" t="str">
         <v>2</v>
@@ -5042,7 +5042,7 @@
         <v>TR</v>
       </c>
       <c r="M66" t="str">
-        <v>19:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N66">
         <v>100</v>
@@ -5095,10 +5095,10 @@
         <v>102</v>
       </c>
       <c r="G67" t="str">
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="H67" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I67" t="str">
         <v>2</v>
@@ -5113,7 +5113,7 @@
         <v>TR</v>
       </c>
       <c r="M67" t="str">
-        <v>19:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N67">
         <v>100</v>
@@ -5157,7 +5157,7 @@
         <v>FA</v>
       </c>
       <c r="D68" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E68" t="str">
         <v>DATA</v>
@@ -5166,10 +5166,10 @@
         <v>102</v>
       </c>
       <c r="G68" t="str">
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="H68" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I68" t="str">
         <v>2</v>
@@ -5184,7 +5184,7 @@
         <v>TR</v>
       </c>
       <c r="M68" t="str">
-        <v>08:00:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N68">
         <v>100</v>
@@ -5225,10 +5225,10 @@
         <v/>
       </c>
       <c r="C69" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D69" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E69" t="str">
         <v>DATA</v>
@@ -5237,10 +5237,10 @@
         <v>102</v>
       </c>
       <c r="G69" t="str">
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="H69" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I69" t="str">
         <v>2</v>
@@ -5255,7 +5255,7 @@
         <v>TR</v>
       </c>
       <c r="M69" t="str">
-        <v>12:15:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N69">
         <v>100</v>
@@ -5296,7 +5296,7 @@
         <v/>
       </c>
       <c r="C70" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D70" t="str">
         <v>Second</v>
@@ -5308,10 +5308,10 @@
         <v>102</v>
       </c>
       <c r="G70" t="str">
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="H70" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I70" t="str">
         <v>2</v>
@@ -5326,7 +5326,7 @@
         <v>TR</v>
       </c>
       <c r="M70" t="str">
-        <v>12:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N70">
         <v>100</v>
@@ -5379,7 +5379,7 @@
         <v>102</v>
       </c>
       <c r="G71" t="str">
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="H71" t="str">
         <v>Cancelled-DATA</v>
@@ -5397,7 +5397,7 @@
         <v>TR</v>
       </c>
       <c r="M71" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N71">
         <v>100</v>
@@ -5450,7 +5450,7 @@
         <v>102</v>
       </c>
       <c r="G72" t="str">
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="H72" t="str">
         <v>Cancelled-DATA</v>
@@ -5468,7 +5468,7 @@
         <v>TR</v>
       </c>
       <c r="M72" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N72">
         <v>100</v>
@@ -5521,10 +5521,10 @@
         <v>102</v>
       </c>
       <c r="G73" t="str">
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="H73" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I73" t="str">
         <v>2</v>
@@ -5539,7 +5539,7 @@
         <v>TR</v>
       </c>
       <c r="M73" t="str">
-        <v>19:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N73">
         <v>100</v>
@@ -5592,10 +5592,10 @@
         <v>102</v>
       </c>
       <c r="G74" t="str">
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="H74" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I74" t="str">
         <v>2</v>
@@ -5610,7 +5610,7 @@
         <v>TR</v>
       </c>
       <c r="M74" t="str">
-        <v>19:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N74">
         <v>100</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" xml:space="preserve">
+    <row r="75">
       <c r="A75" t="str">
         <v>Computer Science</v>
       </c>
@@ -5651,10 +5651,10 @@
         <v/>
       </c>
       <c r="C75" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D75" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E75" t="str">
         <v>DATA</v>
@@ -5663,10 +5663,10 @@
         <v>102</v>
       </c>
       <c r="G75" t="str">
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="H75" t="str">
-        <v>Staff</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I75" t="str">
         <v>2</v>
@@ -5678,13 +5678,13 @@
         <v/>
       </c>
       <c r="L75" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M75" t="str">
-        <v>09:15:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N75">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O75" t="str">
         <v>SB 354</v>
@@ -5704,223 +5704,223 @@
       <c r="T75" t="str">
         <v/>
       </c>
-      <c r="U75" t="str" xml:space="preserve">
+      <c r="U75" t="str">
+        <v/>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Computer Science</v>
+      </c>
+      <c r="B76" t="str">
+        <v/>
+      </c>
+      <c r="C76" t="str">
+        <v>SP</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Second</v>
+      </c>
+      <c r="E76" t="str">
+        <v>DATA</v>
+      </c>
+      <c r="F76" t="str">
+        <v>102</v>
+      </c>
+      <c r="G76" t="str">
+        <v>H</v>
+      </c>
+      <c r="H76" t="str">
+        <v>Jim Momeyer</v>
+      </c>
+      <c r="I76" t="str">
+        <v>2</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2</v>
+      </c>
+      <c r="K76" t="str">
+        <v/>
+      </c>
+      <c r="L76" t="str">
+        <v>TR</v>
+      </c>
+      <c r="M76" t="str">
+        <v>19:00:00</v>
+      </c>
+      <c r="N76">
+        <v>100</v>
+      </c>
+      <c r="O76" t="str">
+        <v>SB 354</v>
+      </c>
+      <c r="P76" t="str">
+        <v>Foundations of Data Science and Analytics</v>
+      </c>
+      <c r="Q76" t="str">
+        <v/>
+      </c>
+      <c r="R76" t="str">
+        <v>100</v>
+      </c>
+      <c r="S76" t="str">
+        <v/>
+      </c>
+      <c r="T76" t="str">
+        <v/>
+      </c>
+      <c r="U76" t="str">
+        <v/>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
+        <v>Computer Science</v>
+      </c>
+      <c r="B77" t="str">
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <v>SP</v>
+      </c>
+      <c r="D77" t="str">
+        <v>First</v>
+      </c>
+      <c r="E77" t="str">
+        <v>DATA</v>
+      </c>
+      <c r="F77" t="str">
+        <v>102</v>
+      </c>
+      <c r="G77" t="str">
+        <v>A</v>
+      </c>
+      <c r="H77" t="str">
+        <v>Staff</v>
+      </c>
+      <c r="I77" t="str">
+        <v>2</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2</v>
+      </c>
+      <c r="K77" t="str">
+        <v/>
+      </c>
+      <c r="L77" t="str">
+        <v>MWF</v>
+      </c>
+      <c r="M77" t="str">
+        <v>09:15:00</v>
+      </c>
+      <c r="N77">
+        <v>65</v>
+      </c>
+      <c r="O77" t="str">
+        <v>SB 354</v>
+      </c>
+      <c r="P77" t="str">
+        <v>Foundations of Data Science and Analytics</v>
+      </c>
+      <c r="Q77" t="str">
+        <v/>
+      </c>
+      <c r="R77" t="str">
+        <v>100</v>
+      </c>
+      <c r="S77" t="str">
+        <v/>
+      </c>
+      <c r="T77" t="str">
+        <v/>
+      </c>
+      <c r="U77" t="str" xml:space="preserve">
         <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
 Set as on-hold? we may not have the enrollment.</v>
       </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" xml:space="preserve">
-      <c r="A76" t="str">
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str">
         <v>Computer Science</v>
       </c>
-      <c r="B76" t="str">
-        <v/>
-      </c>
-      <c r="C76" t="str">
+      <c r="B78" t="str">
+        <v/>
+      </c>
+      <c r="C78" t="str">
         <v>SP</v>
       </c>
-      <c r="D76" t="str">
+      <c r="D78" t="str">
         <v>Second</v>
       </c>
-      <c r="E76" t="str">
+      <c r="E78" t="str">
         <v>DATA</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F78" t="str">
         <v>102</v>
       </c>
-      <c r="G76" t="str">
+      <c r="G78" t="str">
         <v>E</v>
       </c>
-      <c r="H76" t="str">
+      <c r="H78" t="str">
         <v>Staff</v>
       </c>
-      <c r="I76" t="str">
+      <c r="I78" t="str">
         <v>2</v>
       </c>
-      <c r="J76" t="str">
+      <c r="J78" t="str">
         <v>2</v>
       </c>
-      <c r="K76" t="str">
-        <v/>
-      </c>
-      <c r="L76" t="str">
+      <c r="K78" t="str">
+        <v/>
+      </c>
+      <c r="L78" t="str">
         <v>MWF</v>
       </c>
-      <c r="M76" t="str">
+      <c r="M78" t="str">
         <v>09:15:00</v>
       </c>
-      <c r="N76">
+      <c r="N78">
         <v>65</v>
       </c>
-      <c r="O76" t="str">
+      <c r="O78" t="str">
         <v>SB 354</v>
       </c>
-      <c r="P76" t="str">
+      <c r="P78" t="str">
         <v>Foundations of Data Science and Analytics</v>
       </c>
-      <c r="Q76" t="str">
-        <v/>
-      </c>
-      <c r="R76" t="str">
+      <c r="Q78" t="str">
+        <v/>
+      </c>
+      <c r="R78" t="str">
         <v>100</v>
       </c>
-      <c r="S76" t="str">
-        <v/>
-      </c>
-      <c r="T76" t="str">
-        <v/>
-      </c>
-      <c r="U76" t="str" xml:space="preserve">
+      <c r="S78" t="str">
+        <v/>
+      </c>
+      <c r="T78" t="str">
+        <v/>
+      </c>
+      <c r="U78" t="str" xml:space="preserve">
         <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
 Set as on-hold? we may not have the enrollment.</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>Computer Science</v>
-      </c>
-      <c r="B77" t="str">
-        <v/>
-      </c>
-      <c r="C77" t="str">
-        <v>FA</v>
-      </c>
-      <c r="D77" t="str">
-        <v>Full</v>
-      </c>
-      <c r="E77" t="str">
-        <v>DATA</v>
-      </c>
-      <c r="F77" t="str">
-        <v>202</v>
-      </c>
-      <c r="G77" t="str">
-        <v>A</v>
-      </c>
-      <c r="H77" t="str">
-        <v>Fernando Pasquini Santos</v>
-      </c>
-      <c r="I77" t="str">
-        <v>4</v>
-      </c>
-      <c r="J77" t="str">
-        <v>4</v>
-      </c>
-      <c r="K77" t="str">
-        <v/>
-      </c>
-      <c r="L77" t="str">
-        <v>MWF</v>
-      </c>
-      <c r="M77" t="str">
-        <v>08:00:00</v>
-      </c>
-      <c r="N77">
-        <v>65</v>
-      </c>
-      <c r="O77" t="str">
-        <v>SB 382</v>
-      </c>
-      <c r="P77" t="str">
-        <v>Predictive Analytics</v>
-      </c>
-      <c r="Q77" t="str">
-        <v/>
-      </c>
-      <c r="R77" t="str">
-        <v>200</v>
-      </c>
-      <c r="S77" t="str">
-        <v/>
-      </c>
-      <c r="T77" t="str">
-        <v/>
-      </c>
-      <c r="U77" t="str">
-        <v/>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>Computer Science</v>
-      </c>
-      <c r="B78" t="str">
-        <v/>
-      </c>
-      <c r="C78" t="str">
-        <v>FA</v>
-      </c>
-      <c r="D78" t="str">
-        <v>Full</v>
-      </c>
-      <c r="E78" t="str">
-        <v>DATA</v>
-      </c>
-      <c r="F78" t="str">
-        <v>202</v>
-      </c>
-      <c r="G78" t="str">
-        <v>B</v>
-      </c>
-      <c r="H78" t="str">
-        <v>Fernando Pasquini Santos</v>
-      </c>
-      <c r="I78" t="str">
-        <v>4</v>
-      </c>
-      <c r="J78" t="str">
-        <v>4</v>
-      </c>
-      <c r="K78" t="str">
-        <v/>
-      </c>
-      <c r="L78" t="str">
-        <v>MWF</v>
-      </c>
-      <c r="M78" t="str">
-        <v>09:15:00</v>
-      </c>
-      <c r="N78">
-        <v>65</v>
-      </c>
-      <c r="O78" t="str">
-        <v>SB 382</v>
-      </c>
-      <c r="P78" t="str">
-        <v>Predictive Analytics</v>
-      </c>
-      <c r="Q78" t="str">
-        <v/>
-      </c>
-      <c r="R78" t="str">
-        <v>200</v>
-      </c>
-      <c r="S78" t="str">
-        <v/>
-      </c>
-      <c r="T78" t="str">
-        <v/>
-      </c>
-      <c r="U78" t="str">
-        <v/>
       </c>
       <c r="V78">
         <v>0</v>
@@ -5943,40 +5943,40 @@
         <v>Full</v>
       </c>
       <c r="E79" t="str">
-        <v>HNRS</v>
+        <v>DATA</v>
       </c>
       <c r="F79" t="str">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="G79" t="str">
         <v>A</v>
       </c>
       <c r="H79" t="str">
-        <v>Eric Araujo</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I79" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J79" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K79" t="str">
         <v/>
       </c>
       <c r="L79" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="M79" t="str">
-        <v>14:10:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N79">
         <v>65</v>
       </c>
       <c r="O79" t="str">
-        <v>HL 406C</v>
+        <v>SB 382</v>
       </c>
       <c r="P79" t="str">
-        <v>Agent Modeling</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q79" t="str">
         <v/>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B80" t="str">
         <v/>
@@ -6011,25 +6011,25 @@
         <v>FA</v>
       </c>
       <c r="D80" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E80" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F80" t="str">
-        <v>300-S</v>
+        <v>202</v>
       </c>
       <c r="G80" t="str">
-        <v>A-S</v>
+        <v>B</v>
       </c>
       <c r="H80" t="str">
-        <v>Shadow-Gold</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I80" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J80" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K80" t="str">
         <v/>
@@ -6038,22 +6038,22 @@
         <v>MWF</v>
       </c>
       <c r="M80" t="str">
-        <v>11:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N80">
         <v>65</v>
       </c>
       <c r="O80" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="P80" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q80" t="str">
         <v/>
       </c>
       <c r="R80" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S80" t="str">
         <v/>
@@ -6073,58 +6073,58 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B81" t="str">
         <v/>
       </c>
       <c r="C81" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D81" t="str">
         <v>Full</v>
       </c>
       <c r="E81" t="str">
-        <v>CS</v>
+        <v>HNRS</v>
       </c>
       <c r="F81" t="str">
-        <v>300-S</v>
+        <v>251</v>
       </c>
       <c r="G81" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="H81" t="str">
-        <v>Shadow-Gold</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I81" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K81" t="str">
         <v/>
       </c>
       <c r="L81" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M81" t="str">
-        <v>12:15:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N81">
         <v>65</v>
       </c>
       <c r="O81" t="str">
-        <v>SB 354</v>
+        <v>HL 406C</v>
       </c>
       <c r="P81" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Agent Modeling</v>
       </c>
       <c r="Q81" t="str">
         <v/>
       </c>
       <c r="R81" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S81" t="str">
         <v/>
@@ -6153,7 +6153,7 @@
         <v>FA</v>
       </c>
       <c r="D82" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E82" t="str">
         <v>CS</v>
@@ -6162,7 +6162,7 @@
         <v>300-S</v>
       </c>
       <c r="G82" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="H82" t="str">
         <v>Shadow-Gold</v>
@@ -6224,13 +6224,13 @@
         <v>SP</v>
       </c>
       <c r="D83" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E83" t="str">
         <v>CS</v>
       </c>
       <c r="F83" t="str">
-        <v>338-S</v>
+        <v>300-S</v>
       </c>
       <c r="G83" t="str">
         <v>A-S</v>
@@ -6251,7 +6251,7 @@
         <v>MWF</v>
       </c>
       <c r="M83" t="str">
-        <v>08:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N83">
         <v>65</v>
@@ -6260,7 +6260,7 @@
         <v>SB 354</v>
       </c>
       <c r="P83" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="Q83" t="str">
         <v/>
@@ -6292,7 +6292,7 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D84" t="str">
         <v>Second</v>
@@ -6301,10 +6301,10 @@
         <v>CS</v>
       </c>
       <c r="F84" t="str">
-        <v>339-S</v>
+        <v>300-S</v>
       </c>
       <c r="G84" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="H84" t="str">
         <v>Shadow-Gold</v>
@@ -6322,7 +6322,7 @@
         <v>MWF</v>
       </c>
       <c r="M84" t="str">
-        <v>08:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N84">
         <v>65</v>
@@ -6331,7 +6331,7 @@
         <v>SB 354</v>
       </c>
       <c r="P84" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="Q84" t="str">
         <v/>
@@ -6363,16 +6363,16 @@
         <v/>
       </c>
       <c r="C85" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D85" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E85" t="str">
         <v>CS</v>
       </c>
       <c r="F85" t="str">
-        <v>374-S</v>
+        <v>338-S</v>
       </c>
       <c r="G85" t="str">
         <v>A-S</v>
@@ -6381,19 +6381,19 @@
         <v>Shadow-Gold</v>
       </c>
       <c r="I85" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K85" t="str">
         <v/>
       </c>
       <c r="L85" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="M85" t="str">
-        <v>14:45:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N85">
         <v>65</v>
@@ -6402,7 +6402,7 @@
         <v>SB 354</v>
       </c>
       <c r="P85" t="str">
-        <v>High-Performance Computing</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="Q85" t="str">
         <v/>
@@ -6437,13 +6437,13 @@
         <v>SP</v>
       </c>
       <c r="D86" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E86" t="str">
         <v>CS</v>
       </c>
       <c r="F86" t="str">
-        <v>375-S</v>
+        <v>339-S</v>
       </c>
       <c r="G86" t="str">
         <v>A-S</v>
@@ -6464,7 +6464,7 @@
         <v>MWF</v>
       </c>
       <c r="M86" t="str">
-        <v>11:00:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N86">
         <v>65</v>
@@ -6473,7 +6473,7 @@
         <v>SB 354</v>
       </c>
       <c r="P86" t="str">
-        <v>Artificial Intelligence</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="Q86" t="str">
         <v/>
@@ -6505,7 +6505,7 @@
         <v/>
       </c>
       <c r="C87" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D87" t="str">
         <v>Second</v>
@@ -6514,28 +6514,28 @@
         <v>CS</v>
       </c>
       <c r="F87" t="str">
-        <v>376-S</v>
+        <v>374-S</v>
       </c>
       <c r="G87" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="H87" t="str">
         <v>Shadow-Gold</v>
       </c>
       <c r="I87" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87" t="str">
         <v/>
       </c>
       <c r="L87" t="str">
-        <v>MWF</v>
+        <v>MW</v>
       </c>
       <c r="M87" t="str">
-        <v>11:00:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N87">
         <v>65</v>
@@ -6544,7 +6544,7 @@
         <v>SB 354</v>
       </c>
       <c r="P87" t="str">
-        <v>Machine Learning</v>
+        <v>High-Performance Computing</v>
       </c>
       <c r="Q87" t="str">
         <v/>
@@ -6576,22 +6576,22 @@
         <v/>
       </c>
       <c r="C88" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D88" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E88" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F88" t="str">
-        <v>202-S</v>
+        <v>375-S</v>
       </c>
       <c r="G88" t="str">
         <v>A-S</v>
       </c>
       <c r="H88" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Shadow-Gold</v>
       </c>
       <c r="I88" t="str">
         <v>0</v>
@@ -6606,7 +6606,7 @@
         <v>MWF</v>
       </c>
       <c r="M88" t="str">
-        <v>08:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N88">
         <v>65</v>
@@ -6615,13 +6615,13 @@
         <v>SB 354</v>
       </c>
       <c r="P88" t="str">
-        <v>Predictive Analytics</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="Q88" t="str">
         <v/>
       </c>
       <c r="R88" t="str">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S88" t="str">
         <v/>
@@ -6647,22 +6647,22 @@
         <v/>
       </c>
       <c r="C89" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D89" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E89" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F89" t="str">
-        <v>202-S</v>
+        <v>376-S</v>
       </c>
       <c r="G89" t="str">
         <v>B-S</v>
       </c>
       <c r="H89" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Shadow-Gold</v>
       </c>
       <c r="I89" t="str">
         <v>0</v>
@@ -6677,7 +6677,7 @@
         <v>MWF</v>
       </c>
       <c r="M89" t="str">
-        <v>09:15:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N89">
         <v>65</v>
@@ -6686,13 +6686,13 @@
         <v>SB 354</v>
       </c>
       <c r="P89" t="str">
-        <v>Predictive Analytics</v>
+        <v>Machine Learning</v>
       </c>
       <c r="Q89" t="str">
         <v/>
       </c>
       <c r="R89" t="str">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S89" t="str">
         <v/>
@@ -6712,7 +6712,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Computer Science</v>
+        <v>Shadow</v>
       </c>
       <c r="B90" t="str">
         <v/>
@@ -6724,22 +6724,22 @@
         <v>Full</v>
       </c>
       <c r="E90" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F90" t="str">
-        <v>106</v>
+        <v>202-S</v>
       </c>
       <c r="G90" t="str">
-        <v>A</v>
+        <v>A-S</v>
       </c>
       <c r="H90" t="str">
-        <v>Staff</v>
+        <v>Shadow-Maroon</v>
       </c>
       <c r="I90" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J90" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K90" t="str">
         <v/>
@@ -6748,22 +6748,22 @@
         <v>MWF</v>
       </c>
       <c r="M90" t="str">
-        <v>14:45:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N90">
         <v>65</v>
       </c>
       <c r="O90" t="str">
-        <v>SB 372</v>
+        <v>SB 354</v>
       </c>
       <c r="P90" t="str">
-        <v>Intro to Computing</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q90" t="str">
         <v/>
       </c>
       <c r="R90" t="str">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S90" t="str">
         <v/>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Computer Science</v>
+        <v>Shadow</v>
       </c>
       <c r="B91" t="str">
         <v/>
@@ -6795,46 +6795,46 @@
         <v>Full</v>
       </c>
       <c r="E91" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F91" t="str">
-        <v>106L</v>
+        <v>202-S</v>
       </c>
       <c r="G91" t="str">
-        <v>A</v>
+        <v>B-S</v>
       </c>
       <c r="H91" t="str">
-        <v>Staff</v>
+        <v>Shadow-Maroon</v>
       </c>
       <c r="I91" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="str">
         <v/>
       </c>
       <c r="L91" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="M91" t="str">
-        <v>10:20:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N91">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O91" t="str">
-        <v>SB 372</v>
+        <v>SB 354</v>
       </c>
       <c r="P91" t="str">
-        <v>Intro to Computing Lab</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q91" t="str">
         <v/>
       </c>
       <c r="R91" t="str">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S91" t="str">
         <v/>
@@ -6860,7 +6860,7 @@
         <v/>
       </c>
       <c r="C92" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D92" t="str">
         <v>Full</v>
@@ -6869,19 +6869,19 @@
         <v>CS</v>
       </c>
       <c r="F92" t="str">
-        <v>326</v>
+        <v>106</v>
       </c>
       <c r="G92" t="str">
         <v>A</v>
       </c>
       <c r="H92" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Staff</v>
       </c>
       <c r="I92" t="str">
         <v>4</v>
       </c>
       <c r="J92" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K92" t="str">
         <v/>
@@ -6890,28 +6890,28 @@
         <v>MWF</v>
       </c>
       <c r="M92" t="str">
-        <v>13:30:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N92">
         <v>65</v>
       </c>
       <c r="O92" t="str">
-        <v>SB 301</v>
+        <v>SB 372</v>
       </c>
       <c r="P92" t="str">
-        <v>Embedded Systems and the Internet of Things</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="Q92" t="str">
         <v/>
       </c>
       <c r="R92" t="str">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S92" t="str">
         <v/>
       </c>
       <c r="T92" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="U92" t="str">
         <v/>
@@ -6940,7 +6940,7 @@
         <v>CS</v>
       </c>
       <c r="F93" t="str">
-        <v>396</v>
+        <v>106L</v>
       </c>
       <c r="G93" t="str">
         <v>A</v>
@@ -6949,34 +6949,34 @@
         <v>Staff</v>
       </c>
       <c r="I93" t="str">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J93" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93" t="str">
         <v/>
       </c>
       <c r="L93" t="str">
-        <v>T</v>
+        <v>R</v>
       </c>
       <c r="M93" t="str">
-        <v>19:00:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N93">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O93" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P93" t="str">
-        <v>Senior Project in Computing I</v>
+        <v>Intro to Computing Lab</v>
       </c>
       <c r="Q93" t="str">
         <v/>
       </c>
       <c r="R93" t="str">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S93" t="str">
         <v/>
@@ -7002,46 +7002,46 @@
         <v/>
       </c>
       <c r="C94" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D94" t="str">
         <v>Full</v>
       </c>
       <c r="E94" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F94" t="str">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="G94" t="str">
         <v>A</v>
       </c>
       <c r="H94" t="str">
-        <v>Staff</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I94" t="str">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="J94" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K94" t="str">
         <v/>
       </c>
       <c r="L94" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="M94" t="str">
-        <v>19:00:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N94">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O94" t="str">
-        <v>SB 382</v>
+        <v>SB 301</v>
       </c>
       <c r="P94" t="str">
-        <v>Senior Project in Data Science</v>
+        <v>Embedded Systems and the Internet of Things</v>
       </c>
       <c r="Q94" t="str">
         <v/>
@@ -7053,7 +7053,7 @@
         <v/>
       </c>
       <c r="T94" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="U94" t="str">
         <v/>
@@ -7073,7 +7073,7 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D95" t="str">
         <v>Full</v>
@@ -7082,7 +7082,7 @@
         <v>CS</v>
       </c>
       <c r="F95" t="str">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G95" t="str">
         <v>A</v>
@@ -7112,7 +7112,7 @@
         <v>SB 382</v>
       </c>
       <c r="P95" t="str">
-        <v>Senior Project in Computing II</v>
+        <v>Senior Project in Computing I</v>
       </c>
       <c r="Q95" t="str">
         <v/>
@@ -7144,7 +7144,7 @@
         <v/>
       </c>
       <c r="C96" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D96" t="str">
         <v>Full</v>
@@ -7153,7 +7153,7 @@
         <v>DATA</v>
       </c>
       <c r="F96" t="str">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G96" t="str">
         <v>A</v>
@@ -7183,7 +7183,7 @@
         <v>SB 382</v>
       </c>
       <c r="P96" t="str">
-        <v>Senior Project in Data Science II</v>
+        <v>Senior Project in Data Science</v>
       </c>
       <c r="Q96" t="str">
         <v/>
@@ -7207,16 +7207,158 @@
         <v>0</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Computer Science</v>
+      </c>
+      <c r="B97" t="str">
+        <v/>
+      </c>
+      <c r="C97" t="str">
+        <v>SP</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Full</v>
+      </c>
+      <c r="E97" t="str">
+        <v>CS</v>
+      </c>
+      <c r="F97" t="str">
+        <v>398</v>
+      </c>
+      <c r="G97" t="str">
+        <v>A</v>
+      </c>
+      <c r="H97" t="str">
+        <v>Staff</v>
+      </c>
+      <c r="I97" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2</v>
+      </c>
+      <c r="K97" t="str">
+        <v/>
+      </c>
+      <c r="L97" t="str">
+        <v>T</v>
+      </c>
+      <c r="M97" t="str">
+        <v>19:00:00</v>
+      </c>
+      <c r="N97">
+        <v>50</v>
+      </c>
+      <c r="O97" t="str">
+        <v>SB 382</v>
+      </c>
+      <c r="P97" t="str">
+        <v>Senior Project in Computing II</v>
+      </c>
+      <c r="Q97" t="str">
+        <v/>
+      </c>
+      <c r="R97" t="str">
+        <v>300</v>
+      </c>
+      <c r="S97" t="str">
+        <v/>
+      </c>
+      <c r="T97" t="str">
+        <v/>
+      </c>
+      <c r="U97" t="str">
+        <v/>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Computer Science</v>
+      </c>
+      <c r="B98" t="str">
+        <v/>
+      </c>
+      <c r="C98" t="str">
+        <v>SP</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Full</v>
+      </c>
+      <c r="E98" t="str">
+        <v>DATA</v>
+      </c>
+      <c r="F98" t="str">
+        <v>398</v>
+      </c>
+      <c r="G98" t="str">
+        <v>A</v>
+      </c>
+      <c r="H98" t="str">
+        <v>Staff</v>
+      </c>
+      <c r="I98" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2</v>
+      </c>
+      <c r="K98" t="str">
+        <v/>
+      </c>
+      <c r="L98" t="str">
+        <v>T</v>
+      </c>
+      <c r="M98" t="str">
+        <v>19:00:00</v>
+      </c>
+      <c r="N98">
+        <v>50</v>
+      </c>
+      <c r="O98" t="str">
+        <v>SB 382</v>
+      </c>
+      <c r="P98" t="str">
+        <v>Senior Project in Data Science II</v>
+      </c>
+      <c r="Q98" t="str">
+        <v/>
+      </c>
+      <c r="R98" t="str">
+        <v>300</v>
+      </c>
+      <c r="S98" t="str">
+        <v/>
+      </c>
+      <c r="T98" t="str">
+        <v/>
+      </c>
+      <c r="U98" t="str">
+        <v/>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W96"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W98"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7765,7 +7907,10 @@
         <v/>
       </c>
       <c r="J11" t="str">
-        <v/>
+        <v>Full</v>
+      </c>
+      <c r="K11" t="str">
+        <v>-Full</v>
       </c>
       <c r="L11" t="str">
         <v/>
@@ -9808,46 +9953,46 @@
         <v>CS</v>
       </c>
       <c r="C50" t="str">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="D50" t="str">
         <v>A</v>
       </c>
       <c r="E50" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F50" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" t="str">
         <v>MWF</v>
       </c>
       <c r="H50" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I50" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="J50" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K50" t="str">
-        <v>FA-Full</v>
+        <v>FA-First</v>
       </c>
       <c r="L50">
         <v>65</v>
       </c>
       <c r="M50" t="str">
-        <v>Web Development</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="N50" t="str">
-        <v>Victor T. Norman</v>
+        <v>Staff</v>
       </c>
       <c r="O50" t="str">
         <v/>
       </c>
       <c r="P50" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="Q50" t="str">
         <v/>
@@ -9855,16 +10000,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B51" t="str">
         <v>CS</v>
       </c>
       <c r="C51" t="str">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="D51" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E51" t="str">
         <v>2</v>
@@ -9876,31 +10021,31 @@
         <v>MWF</v>
       </c>
       <c r="H51" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I51" t="str">
         <v>SB 382</v>
       </c>
       <c r="J51" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K51" t="str">
-        <v>SP-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L51">
         <v>65</v>
       </c>
       <c r="M51" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="N51" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Staff</v>
       </c>
       <c r="O51" t="str">
         <v/>
       </c>
       <c r="P51" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="Q51" t="str">
         <v/>
@@ -9908,46 +10053,46 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B52" t="str">
         <v>CS</v>
       </c>
       <c r="C52" t="str">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D52" t="str">
         <v>A</v>
       </c>
       <c r="E52" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G52" t="str">
         <v>MWF</v>
       </c>
       <c r="H52" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I52" t="str">
-        <v>SB 382</v>
+        <v>HH 336</v>
       </c>
       <c r="J52" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K52" t="str">
-        <v>SP-Second</v>
+        <v>FA-Full</v>
       </c>
       <c r="L52">
         <v>65</v>
       </c>
       <c r="M52" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>Web Development</v>
       </c>
       <c r="N52" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O52" t="str">
         <v/>
@@ -9967,7 +10112,7 @@
         <v>CS</v>
       </c>
       <c r="C53" t="str">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="D53" t="str">
         <v>A</v>
@@ -9982,25 +10127,25 @@
         <v>MWF</v>
       </c>
       <c r="H53" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I53" t="str">
         <v>SB 382</v>
       </c>
       <c r="J53" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K53" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L53">
         <v>65</v>
       </c>
       <c r="M53" t="str">
-        <v>Database Management Systems</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="N53" t="str">
-        <v>Eric Araujo</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="O53" t="str">
         <v/>
@@ -10014,46 +10159,46 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B54" t="str">
         <v>CS</v>
       </c>
       <c r="C54" t="str">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="D54" t="str">
         <v>A</v>
       </c>
       <c r="E54" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G54" t="str">
-        <v>MR</v>
+        <v>MWF</v>
       </c>
       <c r="H54" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I54" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J54" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K54" t="str">
-        <v>FA-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L54">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M54" t="str">
-        <v>Computer Security</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="N54" t="str">
-        <v>Brian D Paige, Adam Vedra</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="O54" t="str">
         <v/>
@@ -10073,7 +10218,7 @@
         <v>CS</v>
       </c>
       <c r="C55" t="str">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="D55" t="str">
         <v>A</v>
@@ -10088,25 +10233,25 @@
         <v>MWF</v>
       </c>
       <c r="H55" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I55" t="str">
         <v>SB 382</v>
       </c>
       <c r="J55" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K55" t="str">
-        <v>SP-First</v>
+        <v>SP-Second</v>
       </c>
       <c r="L55">
         <v>65</v>
       </c>
       <c r="M55" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Database Management Systems</v>
       </c>
       <c r="N55" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O55" t="str">
         <v/>
@@ -10120,46 +10265,46 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B56" t="str">
         <v>CS</v>
       </c>
       <c r="C56" t="str">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D56" t="str">
         <v>A</v>
       </c>
       <c r="E56" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G56" t="str">
-        <v>MWF</v>
+        <v>MR</v>
       </c>
       <c r="H56" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I56" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J56" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K56" t="str">
-        <v>SP-Second</v>
+        <v>FA-Full</v>
       </c>
       <c r="L56">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M56" t="str">
-        <v>Machine Learning</v>
+        <v>Computer Security</v>
       </c>
       <c r="N56" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Brian D Paige, Adam Vedra</v>
       </c>
       <c r="O56" t="str">
         <v/>
@@ -10173,46 +10318,46 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B57" t="str">
         <v>CS</v>
       </c>
       <c r="C57" t="str">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D57" t="str">
         <v>A</v>
       </c>
       <c r="E57" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="H57" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I57" t="str">
         <v>SB 382</v>
       </c>
       <c r="J57" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K57" t="str">
-        <v>FA-Full</v>
+        <v>SP-First</v>
       </c>
       <c r="L57">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M57" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="N57" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O57" t="str">
         <v/>
@@ -10232,40 +10377,40 @@
         <v>CS</v>
       </c>
       <c r="C58" t="str">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D58" t="str">
         <v>A</v>
       </c>
       <c r="E58" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G58" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="H58" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I58" t="str">
         <v>SB 382</v>
       </c>
       <c r="J58" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K58" t="str">
-        <v>SP-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L58">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M58" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>Machine Learning</v>
       </c>
       <c r="N58" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O58" t="str">
         <v/>
@@ -10279,43 +10424,43 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B59" t="str">
         <v>CS</v>
       </c>
       <c r="C59" t="str">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D59" t="str">
         <v>A</v>
       </c>
       <c r="E59" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F59" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G59" t="str">
-        <v>TR</v>
+        <v>R</v>
       </c>
       <c r="H59" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I59" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="J59" t="str">
         <v>Full</v>
       </c>
       <c r="K59" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M59" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="N59" t="str">
         <v>Derek C Schuurman</v>
@@ -10338,25 +10483,25 @@
         <v>CS</v>
       </c>
       <c r="C60" t="str">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D60" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E60" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G60" t="str">
-        <v>TR</v>
+        <v>R</v>
       </c>
       <c r="H60" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I60" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="J60" t="str">
         <v>Full</v>
@@ -10365,13 +10510,13 @@
         <v>SP-Full</v>
       </c>
       <c r="L60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M60" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="N60" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O60" t="str">
         <v/>
@@ -10385,46 +10530,46 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B61" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C61" t="str">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="D61" t="str">
         <v>A</v>
       </c>
       <c r="E61" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G61" t="str">
         <v>TR</v>
       </c>
       <c r="H61" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I61" t="str">
-        <v>SB 354</v>
+        <v>HH 336</v>
       </c>
       <c r="J61" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K61" t="str">
-        <v>FA-First</v>
+        <v>SP-Full</v>
       </c>
       <c r="L61">
         <v>100</v>
       </c>
       <c r="M61" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="N61" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O61" t="str">
         <v/>
@@ -10438,22 +10583,22 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B62" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C62" t="str">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="D62" t="str">
         <v>B</v>
       </c>
       <c r="E62" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G62" t="str">
         <v>TR</v>
@@ -10462,22 +10607,22 @@
         <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I62" t="str">
-        <v>SB 354</v>
+        <v>HH 336</v>
       </c>
       <c r="J62" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K62" t="str">
-        <v>FA-First</v>
+        <v>SP-Full</v>
       </c>
       <c r="L62">
         <v>100</v>
       </c>
       <c r="M62" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="N62" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O62" t="str">
         <v/>
@@ -10491,7 +10636,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B63" t="str">
         <v>DATA</v>
@@ -10500,7 +10645,7 @@
         <v>102</v>
       </c>
       <c r="D63" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E63" t="str">
         <v>2</v>
@@ -10512,7 +10657,7 @@
         <v>TR</v>
       </c>
       <c r="H63" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I63" t="str">
         <v>SB 354</v>
@@ -10521,7 +10666,7 @@
         <v>First</v>
       </c>
       <c r="K63" t="str">
-        <v>SP-First</v>
+        <v>FA-First</v>
       </c>
       <c r="L63">
         <v>100</v>
@@ -10530,7 +10675,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N63" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O63" t="str">
         <v/>
@@ -10553,7 +10698,7 @@
         <v>102</v>
       </c>
       <c r="D64" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="E64" t="str">
         <v>2</v>
@@ -10565,7 +10710,7 @@
         <v>TR</v>
       </c>
       <c r="H64" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I64" t="str">
         <v>SB 354</v>
@@ -10606,7 +10751,7 @@
         <v>102</v>
       </c>
       <c r="D65" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="E65" t="str">
         <v>2</v>
@@ -10618,7 +10763,7 @@
         <v>TR</v>
       </c>
       <c r="H65" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I65" t="str">
         <v>SB 354</v>
@@ -10659,7 +10804,7 @@
         <v>102</v>
       </c>
       <c r="D66" t="str">
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="E66" t="str">
         <v>2</v>
@@ -10671,7 +10816,7 @@
         <v>TR</v>
       </c>
       <c r="H66" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I66" t="str">
         <v>SB 354</v>
@@ -10689,7 +10834,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N66" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O66" t="str">
         <v/>
@@ -10712,7 +10857,7 @@
         <v>102</v>
       </c>
       <c r="D67" t="str">
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="E67" t="str">
         <v>2</v>
@@ -10724,7 +10869,7 @@
         <v>TR</v>
       </c>
       <c r="H67" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I67" t="str">
         <v>SB 354</v>
@@ -10742,7 +10887,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N67" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O67" t="str">
         <v/>
@@ -10765,7 +10910,7 @@
         <v>102</v>
       </c>
       <c r="D68" t="str">
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="E68" t="str">
         <v>2</v>
@@ -10777,16 +10922,16 @@
         <v>TR</v>
       </c>
       <c r="H68" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I68" t="str">
         <v>SB 354</v>
       </c>
       <c r="J68" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K68" t="str">
-        <v>FA-Second</v>
+        <v>FA-First</v>
       </c>
       <c r="L68">
         <v>100</v>
@@ -10795,7 +10940,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N68" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O68" t="str">
         <v/>
@@ -10809,7 +10954,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B69" t="str">
         <v>DATA</v>
@@ -10818,7 +10963,7 @@
         <v>102</v>
       </c>
       <c r="D69" t="str">
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="E69" t="str">
         <v>2</v>
@@ -10830,16 +10975,16 @@
         <v>TR</v>
       </c>
       <c r="H69" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I69" t="str">
         <v>SB 354</v>
       </c>
       <c r="J69" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K69" t="str">
-        <v>FA-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L69">
         <v>100</v>
@@ -10848,7 +10993,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N69" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O69" t="str">
         <v/>
@@ -10862,7 +11007,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B70" t="str">
         <v>DATA</v>
@@ -10871,7 +11016,7 @@
         <v>102</v>
       </c>
       <c r="D70" t="str">
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="E70" t="str">
         <v>2</v>
@@ -10883,7 +11028,7 @@
         <v>TR</v>
       </c>
       <c r="H70" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I70" t="str">
         <v>SB 354</v>
@@ -10892,7 +11037,7 @@
         <v>Second</v>
       </c>
       <c r="K70" t="str">
-        <v>SP-Second</v>
+        <v>FA-Second</v>
       </c>
       <c r="L70">
         <v>100</v>
@@ -10901,7 +11046,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N70" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O70" t="str">
         <v/>
@@ -10924,7 +11069,7 @@
         <v>102</v>
       </c>
       <c r="D71" t="str">
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="E71" t="str">
         <v>2</v>
@@ -10936,7 +11081,7 @@
         <v>TR</v>
       </c>
       <c r="H71" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I71" t="str">
         <v>SB 354</v>
@@ -10977,7 +11122,7 @@
         <v>102</v>
       </c>
       <c r="D72" t="str">
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="E72" t="str">
         <v>2</v>
@@ -10989,7 +11134,7 @@
         <v>TR</v>
       </c>
       <c r="H72" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I72" t="str">
         <v>SB 354</v>
@@ -11030,7 +11175,7 @@
         <v>102</v>
       </c>
       <c r="D73" t="str">
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="E73" t="str">
         <v>2</v>
@@ -11042,7 +11187,7 @@
         <v>TR</v>
       </c>
       <c r="H73" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I73" t="str">
         <v>SB 354</v>
@@ -11060,7 +11205,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N73" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O73" t="str">
         <v/>
@@ -11083,7 +11228,7 @@
         <v>102</v>
       </c>
       <c r="D74" t="str">
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="E74" t="str">
         <v>2</v>
@@ -11095,7 +11240,7 @@
         <v>TR</v>
       </c>
       <c r="H74" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I74" t="str">
         <v>SB 354</v>
@@ -11113,7 +11258,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N74" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O74" t="str">
         <v/>
@@ -11125,9 +11270,9 @@
         <v/>
       </c>
     </row>
-    <row r="75" xml:space="preserve">
+    <row r="75">
       <c r="A75" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B75" t="str">
         <v>DATA</v>
@@ -11136,7 +11281,7 @@
         <v>102</v>
       </c>
       <c r="D75" t="str">
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="E75" t="str">
         <v>2</v>
@@ -11145,198 +11290,198 @@
         <v>2</v>
       </c>
       <c r="G75" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H75" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I75" t="str">
         <v>SB 354</v>
       </c>
       <c r="J75" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K75" t="str">
-        <v>SP-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L75">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M75" t="str">
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N75" t="str">
+        <v>Jim Momeyer</v>
+      </c>
+      <c r="O75" t="str">
+        <v/>
+      </c>
+      <c r="P75" t="str">
+        <v/>
+      </c>
+      <c r="Q75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>SP</v>
+      </c>
+      <c r="B76" t="str">
+        <v>DATA</v>
+      </c>
+      <c r="C76" t="str">
+        <v>102</v>
+      </c>
+      <c r="D76" t="str">
+        <v>H</v>
+      </c>
+      <c r="E76" t="str">
+        <v>2</v>
+      </c>
+      <c r="F76" t="str">
+        <v>2</v>
+      </c>
+      <c r="G76" t="str">
+        <v>TR</v>
+      </c>
+      <c r="H76" t="str">
+        <v>19:00:00 - 20:40:00</v>
+      </c>
+      <c r="I76" t="str">
+        <v>SB 354</v>
+      </c>
+      <c r="J76" t="str">
+        <v>Second</v>
+      </c>
+      <c r="K76" t="str">
+        <v>SP-Second</v>
+      </c>
+      <c r="L76">
+        <v>100</v>
+      </c>
+      <c r="M76" t="str">
+        <v>Foundations of Data Science and Analytics</v>
+      </c>
+      <c r="N76" t="str">
+        <v>Jim Momeyer</v>
+      </c>
+      <c r="O76" t="str">
+        <v/>
+      </c>
+      <c r="P76" t="str">
+        <v/>
+      </c>
+      <c r="Q76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
+        <v>SP</v>
+      </c>
+      <c r="B77" t="str">
+        <v>DATA</v>
+      </c>
+      <c r="C77" t="str">
+        <v>102</v>
+      </c>
+      <c r="D77" t="str">
+        <v>A</v>
+      </c>
+      <c r="E77" t="str">
+        <v>2</v>
+      </c>
+      <c r="F77" t="str">
+        <v>2</v>
+      </c>
+      <c r="G77" t="str">
+        <v>MWF</v>
+      </c>
+      <c r="H77" t="str">
+        <v>09:15:00 - 10:20:00</v>
+      </c>
+      <c r="I77" t="str">
+        <v>SB 354</v>
+      </c>
+      <c r="J77" t="str">
+        <v>First</v>
+      </c>
+      <c r="K77" t="str">
+        <v>SP-First</v>
+      </c>
+      <c r="L77">
+        <v>65</v>
+      </c>
+      <c r="M77" t="str">
+        <v>Foundations of Data Science and Analytics</v>
+      </c>
+      <c r="N77" t="str">
         <v>Staff</v>
       </c>
-      <c r="O75" t="str">
-        <v/>
-      </c>
-      <c r="P75" t="str">
-        <v/>
-      </c>
-      <c r="Q75" t="str" xml:space="preserve">
+      <c r="O77" t="str">
+        <v/>
+      </c>
+      <c r="P77" t="str">
+        <v/>
+      </c>
+      <c r="Q77" t="str" xml:space="preserve">
         <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
 Set as on-hold? we may not have the enrollment.</v>
       </c>
     </row>
-    <row r="76" xml:space="preserve">
-      <c r="A76" t="str">
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str">
         <v>SP</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B78" t="str">
         <v>DATA</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C78" t="str">
         <v>102</v>
       </c>
-      <c r="D76" t="str">
+      <c r="D78" t="str">
         <v>E</v>
       </c>
-      <c r="E76" t="str">
+      <c r="E78" t="str">
         <v>2</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F78" t="str">
         <v>2</v>
       </c>
-      <c r="G76" t="str">
+      <c r="G78" t="str">
         <v>MWF</v>
       </c>
-      <c r="H76" t="str">
+      <c r="H78" t="str">
         <v>09:15:00 - 10:20:00</v>
       </c>
-      <c r="I76" t="str">
+      <c r="I78" t="str">
         <v>SB 354</v>
       </c>
-      <c r="J76" t="str">
+      <c r="J78" t="str">
         <v>Second</v>
       </c>
-      <c r="K76" t="str">
+      <c r="K78" t="str">
         <v>SP-Second</v>
       </c>
-      <c r="L76">
+      <c r="L78">
         <v>65</v>
       </c>
-      <c r="M76" t="str">
+      <c r="M78" t="str">
         <v>Foundations of Data Science and Analytics</v>
       </c>
-      <c r="N76" t="str">
+      <c r="N78" t="str">
         <v>Staff</v>
       </c>
-      <c r="O76" t="str">
-        <v/>
-      </c>
-      <c r="P76" t="str">
-        <v/>
-      </c>
-      <c r="Q76" t="str" xml:space="preserve">
+      <c r="O78" t="str">
+        <v/>
+      </c>
+      <c r="P78" t="str">
+        <v/>
+      </c>
+      <c r="Q78" t="str" xml:space="preserve">
         <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
 Set as on-hold? we may not have the enrollment.</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>FA</v>
-      </c>
-      <c r="B77" t="str">
-        <v>DATA</v>
-      </c>
-      <c r="C77" t="str">
-        <v>202</v>
-      </c>
-      <c r="D77" t="str">
-        <v>A</v>
-      </c>
-      <c r="E77" t="str">
-        <v>4</v>
-      </c>
-      <c r="F77" t="str">
-        <v>4</v>
-      </c>
-      <c r="G77" t="str">
-        <v>MWF</v>
-      </c>
-      <c r="H77" t="str">
-        <v>08:00:00 - 09:05:00</v>
-      </c>
-      <c r="I77" t="str">
-        <v>SB 382</v>
-      </c>
-      <c r="J77" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K77" t="str">
-        <v>FA-Full</v>
-      </c>
-      <c r="L77">
-        <v>65</v>
-      </c>
-      <c r="M77" t="str">
-        <v>Predictive Analytics</v>
-      </c>
-      <c r="N77" t="str">
-        <v>Fernando Pasquini Santos</v>
-      </c>
-      <c r="O77" t="str">
-        <v/>
-      </c>
-      <c r="P77" t="str">
-        <v/>
-      </c>
-      <c r="Q77" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>FA</v>
-      </c>
-      <c r="B78" t="str">
-        <v>DATA</v>
-      </c>
-      <c r="C78" t="str">
-        <v>202</v>
-      </c>
-      <c r="D78" t="str">
-        <v>B</v>
-      </c>
-      <c r="E78" t="str">
-        <v>4</v>
-      </c>
-      <c r="F78" t="str">
-        <v>4</v>
-      </c>
-      <c r="G78" t="str">
-        <v>MWF</v>
-      </c>
-      <c r="H78" t="str">
-        <v>09:15:00 - 10:20:00</v>
-      </c>
-      <c r="I78" t="str">
-        <v>SB 382</v>
-      </c>
-      <c r="J78" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K78" t="str">
-        <v>FA-Full</v>
-      </c>
-      <c r="L78">
-        <v>65</v>
-      </c>
-      <c r="M78" t="str">
-        <v>Predictive Analytics</v>
-      </c>
-      <c r="N78" t="str">
-        <v>Fernando Pasquini Santos</v>
-      </c>
-      <c r="O78" t="str">
-        <v/>
-      </c>
-      <c r="P78" t="str">
-        <v/>
-      </c>
-      <c r="Q78" t="str">
-        <v/>
       </c>
     </row>
     <row r="79">
@@ -11344,28 +11489,28 @@
         <v>FA</v>
       </c>
       <c r="B79" t="str">
-        <v>HNRS</v>
+        <v>DATA</v>
       </c>
       <c r="C79" t="str">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="D79" t="str">
         <v>A</v>
       </c>
       <c r="E79" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G79" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="H79" t="str">
-        <v>14:10:00 - 15:15:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I79" t="str">
-        <v>HL 406C</v>
+        <v>SB 382</v>
       </c>
       <c r="J79" t="str">
         <v>Full</v>
@@ -11377,10 +11522,10 @@
         <v>65</v>
       </c>
       <c r="M79" t="str">
-        <v>Agent Modeling</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N79" t="str">
-        <v>Eric Araujo</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O79" t="str">
         <v/>
@@ -11397,43 +11542,43 @@
         <v>FA</v>
       </c>
       <c r="B80" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C80" t="str">
-        <v>300-S</v>
+        <v>202</v>
       </c>
       <c r="D80" t="str">
-        <v>A-S</v>
+        <v>B</v>
       </c>
       <c r="E80" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F80" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G80" t="str">
         <v>MWF</v>
       </c>
       <c r="H80" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I80" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="J80" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K80" t="str">
-        <v>FA-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L80">
         <v>65</v>
       </c>
       <c r="M80" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N80" t="str">
-        <v>Shadow-Gold</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O80" t="str">
         <v/>
@@ -11447,46 +11592,46 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B81" t="str">
-        <v>CS</v>
+        <v>HNRS</v>
       </c>
       <c r="C81" t="str">
-        <v>300-S</v>
+        <v>251</v>
       </c>
       <c r="D81" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="E81" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F81" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G81" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H81" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>14:10:00 - 15:15:00</v>
       </c>
       <c r="I81" t="str">
-        <v>SB 354</v>
+        <v>HL 406C</v>
       </c>
       <c r="J81" t="str">
         <v>Full</v>
       </c>
       <c r="K81" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L81">
         <v>65</v>
       </c>
       <c r="M81" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Agent Modeling</v>
       </c>
       <c r="N81" t="str">
-        <v>Shadow-Gold</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O81" t="str">
         <v/>
@@ -11509,7 +11654,7 @@
         <v>300-S</v>
       </c>
       <c r="D82" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="E82" t="str">
         <v>0</v>
@@ -11527,10 +11672,10 @@
         <v>SB 354</v>
       </c>
       <c r="J82" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K82" t="str">
-        <v>FA-Second</v>
+        <v>FA-First</v>
       </c>
       <c r="L82">
         <v>65</v>
@@ -11559,7 +11704,7 @@
         <v>CS</v>
       </c>
       <c r="C83" t="str">
-        <v>338-S</v>
+        <v>300-S</v>
       </c>
       <c r="D83" t="str">
         <v>A-S</v>
@@ -11574,22 +11719,22 @@
         <v>MWF</v>
       </c>
       <c r="H83" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I83" t="str">
         <v>SB 354</v>
       </c>
       <c r="J83" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K83" t="str">
-        <v>SP-First</v>
+        <v>SP-Full</v>
       </c>
       <c r="L83">
         <v>65</v>
       </c>
       <c r="M83" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="N83" t="str">
         <v>Shadow-Gold</v>
@@ -11606,16 +11751,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B84" t="str">
         <v>CS</v>
       </c>
       <c r="C84" t="str">
-        <v>339-S</v>
+        <v>300-S</v>
       </c>
       <c r="D84" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="E84" t="str">
         <v>0</v>
@@ -11627,7 +11772,7 @@
         <v>MWF</v>
       </c>
       <c r="H84" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I84" t="str">
         <v>SB 354</v>
@@ -11636,13 +11781,13 @@
         <v>Second</v>
       </c>
       <c r="K84" t="str">
-        <v>SP-Second</v>
+        <v>FA-Second</v>
       </c>
       <c r="L84">
         <v>65</v>
       </c>
       <c r="M84" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="N84" t="str">
         <v>Shadow-Gold</v>
@@ -11659,43 +11804,43 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B85" t="str">
         <v>CS</v>
       </c>
       <c r="C85" t="str">
-        <v>374-S</v>
+        <v>338-S</v>
       </c>
       <c r="D85" t="str">
         <v>A-S</v>
       </c>
       <c r="E85" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F85" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="H85" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I85" t="str">
         <v>SB 354</v>
       </c>
       <c r="J85" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K85" t="str">
-        <v>FA-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L85">
         <v>65</v>
       </c>
       <c r="M85" t="str">
-        <v>High-Performance Computing</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="N85" t="str">
         <v>Shadow-Gold</v>
@@ -11718,7 +11863,7 @@
         <v>CS</v>
       </c>
       <c r="C86" t="str">
-        <v>375-S</v>
+        <v>339-S</v>
       </c>
       <c r="D86" t="str">
         <v>A-S</v>
@@ -11733,22 +11878,22 @@
         <v>MWF</v>
       </c>
       <c r="H86" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I86" t="str">
         <v>SB 354</v>
       </c>
       <c r="J86" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K86" t="str">
-        <v>SP-First</v>
+        <v>SP-Second</v>
       </c>
       <c r="L86">
         <v>65</v>
       </c>
       <c r="M86" t="str">
-        <v>Artificial Intelligence</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="N86" t="str">
         <v>Shadow-Gold</v>
@@ -11765,28 +11910,28 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B87" t="str">
         <v>CS</v>
       </c>
       <c r="C87" t="str">
-        <v>376-S</v>
+        <v>374-S</v>
       </c>
       <c r="D87" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="E87" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G87" t="str">
-        <v>MWF</v>
+        <v>MW</v>
       </c>
       <c r="H87" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I87" t="str">
         <v>SB 354</v>
@@ -11795,13 +11940,13 @@
         <v>Second</v>
       </c>
       <c r="K87" t="str">
-        <v>SP-Second</v>
+        <v>FA-Second</v>
       </c>
       <c r="L87">
         <v>65</v>
       </c>
       <c r="M87" t="str">
-        <v>Machine Learning</v>
+        <v>High-Performance Computing</v>
       </c>
       <c r="N87" t="str">
         <v>Shadow-Gold</v>
@@ -11818,13 +11963,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B88" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C88" t="str">
-        <v>202-S</v>
+        <v>375-S</v>
       </c>
       <c r="D88" t="str">
         <v>A-S</v>
@@ -11839,25 +11984,25 @@
         <v>MWF</v>
       </c>
       <c r="H88" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I88" t="str">
         <v>SB 354</v>
       </c>
       <c r="J88" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K88" t="str">
-        <v>FA-Full</v>
+        <v>SP-First</v>
       </c>
       <c r="L88">
         <v>65</v>
       </c>
       <c r="M88" t="str">
-        <v>Predictive Analytics</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="N88" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Shadow-Gold</v>
       </c>
       <c r="O88" t="str">
         <v/>
@@ -11871,13 +12016,13 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B89" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C89" t="str">
-        <v>202-S</v>
+        <v>376-S</v>
       </c>
       <c r="D89" t="str">
         <v>B-S</v>
@@ -11892,25 +12037,25 @@
         <v>MWF</v>
       </c>
       <c r="H89" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I89" t="str">
         <v>SB 354</v>
       </c>
       <c r="J89" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K89" t="str">
-        <v>FA-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L89">
         <v>65</v>
       </c>
       <c r="M89" t="str">
-        <v>Predictive Analytics</v>
+        <v>Machine Learning</v>
       </c>
       <c r="N89" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Shadow-Gold</v>
       </c>
       <c r="O89" t="str">
         <v/>
@@ -11927,28 +12072,28 @@
         <v>FA</v>
       </c>
       <c r="B90" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C90" t="str">
-        <v>106</v>
+        <v>202-S</v>
       </c>
       <c r="D90" t="str">
-        <v>A</v>
+        <v>A-S</v>
       </c>
       <c r="E90" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F90" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G90" t="str">
         <v>MWF</v>
       </c>
       <c r="H90" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I90" t="str">
-        <v>SB 372</v>
+        <v>SB 354</v>
       </c>
       <c r="J90" t="str">
         <v>Full</v>
@@ -11960,10 +12105,10 @@
         <v>65</v>
       </c>
       <c r="M90" t="str">
-        <v>Intro to Computing</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N90" t="str">
-        <v>Staff</v>
+        <v>Shadow-Maroon</v>
       </c>
       <c r="O90" t="str">
         <v/>
@@ -11980,28 +12125,28 @@
         <v>FA</v>
       </c>
       <c r="B91" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C91" t="str">
-        <v>106L</v>
+        <v>202-S</v>
       </c>
       <c r="D91" t="str">
-        <v>A</v>
+        <v>B-S</v>
       </c>
       <c r="E91" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="H91" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I91" t="str">
-        <v>SB 372</v>
+        <v>SB 354</v>
       </c>
       <c r="J91" t="str">
         <v>Full</v>
@@ -12010,13 +12155,13 @@
         <v>FA-Full</v>
       </c>
       <c r="L91">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M91" t="str">
-        <v>Intro to Computing Lab</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N91" t="str">
-        <v>Staff</v>
+        <v>Shadow-Maroon</v>
       </c>
       <c r="O91" t="str">
         <v/>
@@ -12030,19 +12175,19 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B92" t="str">
         <v>CS</v>
       </c>
       <c r="C92" t="str">
-        <v>326</v>
+        <v>106</v>
       </c>
       <c r="D92" t="str">
         <v>A</v>
       </c>
       <c r="E92" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="str">
         <v>4</v>
@@ -12051,31 +12196,31 @@
         <v>MWF</v>
       </c>
       <c r="H92" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I92" t="str">
-        <v>SB 301</v>
+        <v>SB 372</v>
       </c>
       <c r="J92" t="str">
         <v>Full</v>
       </c>
       <c r="K92" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L92">
         <v>65</v>
       </c>
       <c r="M92" t="str">
-        <v>Embedded Systems and the Internet of Things</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="N92" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Staff</v>
       </c>
       <c r="O92" t="str">
         <v/>
       </c>
       <c r="P92" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="Q92" t="str">
         <v/>
@@ -12089,25 +12234,25 @@
         <v>CS</v>
       </c>
       <c r="C93" t="str">
-        <v>396</v>
+        <v>106L</v>
       </c>
       <c r="D93" t="str">
         <v>A</v>
       </c>
       <c r="E93" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="str">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G93" t="str">
-        <v>T</v>
+        <v>R</v>
       </c>
       <c r="H93" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I93" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J93" t="str">
         <v>Full</v>
@@ -12116,10 +12261,10 @@
         <v>FA-Full</v>
       </c>
       <c r="L93">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M93" t="str">
-        <v>Senior Project in Computing I</v>
+        <v>Intro to Computing Lab</v>
       </c>
       <c r="N93" t="str">
         <v>Staff</v>
@@ -12136,52 +12281,52 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B94" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C94" t="str">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="D94" t="str">
         <v>A</v>
       </c>
       <c r="E94" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F94" t="str">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="G94" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="H94" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I94" t="str">
-        <v>SB 382</v>
+        <v>SB 301</v>
       </c>
       <c r="J94" t="str">
         <v>Full</v>
       </c>
       <c r="K94" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L94">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M94" t="str">
-        <v>Senior Project in Data Science</v>
+        <v>Embedded Systems and the Internet of Things</v>
       </c>
       <c r="N94" t="str">
-        <v>Staff</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O94" t="str">
         <v/>
       </c>
       <c r="P94" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="Q94" t="str">
         <v/>
@@ -12189,13 +12334,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B95" t="str">
         <v>CS</v>
       </c>
       <c r="C95" t="str">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D95" t="str">
         <v>A</v>
@@ -12219,13 +12364,13 @@
         <v>Full</v>
       </c>
       <c r="K95" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L95">
         <v>50</v>
       </c>
       <c r="M95" t="str">
-        <v>Senior Project in Computing II</v>
+        <v>Senior Project in Computing I</v>
       </c>
       <c r="N95" t="str">
         <v>Staff</v>
@@ -12242,13 +12387,13 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B96" t="str">
         <v>DATA</v>
       </c>
       <c r="C96" t="str">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D96" t="str">
         <v>A</v>
@@ -12272,13 +12417,13 @@
         <v>Full</v>
       </c>
       <c r="K96" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L96">
         <v>50</v>
       </c>
       <c r="M96" t="str">
-        <v>Senior Project in Data Science II</v>
+        <v>Senior Project in Data Science</v>
       </c>
       <c r="N96" t="str">
         <v>Staff</v>
@@ -12293,9 +12438,115 @@
         <v/>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>SP</v>
+      </c>
+      <c r="B97" t="str">
+        <v>CS</v>
+      </c>
+      <c r="C97" t="str">
+        <v>398</v>
+      </c>
+      <c r="D97" t="str">
+        <v>A</v>
+      </c>
+      <c r="E97" t="str">
+        <v>2</v>
+      </c>
+      <c r="F97" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="G97" t="str">
+        <v>T</v>
+      </c>
+      <c r="H97" t="str">
+        <v>19:00:00 - 19:50:00</v>
+      </c>
+      <c r="I97" t="str">
+        <v>SB 382</v>
+      </c>
+      <c r="J97" t="str">
+        <v>Full</v>
+      </c>
+      <c r="K97" t="str">
+        <v>SP-Full</v>
+      </c>
+      <c r="L97">
+        <v>50</v>
+      </c>
+      <c r="M97" t="str">
+        <v>Senior Project in Computing II</v>
+      </c>
+      <c r="N97" t="str">
+        <v>Staff</v>
+      </c>
+      <c r="O97" t="str">
+        <v/>
+      </c>
+      <c r="P97" t="str">
+        <v/>
+      </c>
+      <c r="Q97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>SP</v>
+      </c>
+      <c r="B98" t="str">
+        <v>DATA</v>
+      </c>
+      <c r="C98" t="str">
+        <v>398</v>
+      </c>
+      <c r="D98" t="str">
+        <v>A</v>
+      </c>
+      <c r="E98" t="str">
+        <v>2</v>
+      </c>
+      <c r="F98" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="G98" t="str">
+        <v>T</v>
+      </c>
+      <c r="H98" t="str">
+        <v>19:00:00 - 19:50:00</v>
+      </c>
+      <c r="I98" t="str">
+        <v>SB 382</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Full</v>
+      </c>
+      <c r="K98" t="str">
+        <v>SP-Full</v>
+      </c>
+      <c r="L98">
+        <v>50</v>
+      </c>
+      <c r="M98" t="str">
+        <v>Senior Project in Data Science II</v>
+      </c>
+      <c r="N98" t="str">
+        <v>Staff</v>
+      </c>
+      <c r="O98" t="str">
+        <v/>
+      </c>
+      <c r="P98" t="str">
+        <v/>
+      </c>
+      <c r="Q98" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q96"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q98"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12314,7 +12565,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-04-03 16:38:07</v>
+        <v>2025-04-07 14:29:36</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedule_2026.xlsx
+++ b/data/schedule_2026.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:W99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -569,10 +569,10 @@
         <v/>
       </c>
       <c r="H3" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I3" t="str">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J3" t="str">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v/>
       </c>
       <c r="Q3" t="str">
-        <v>Legacy CRF</v>
+        <v>2 CS 396/8 projects</v>
       </c>
       <c r="R3" t="str">
         <v/>
@@ -640,7 +640,7 @@
         <v/>
       </c>
       <c r="H4" t="str">
-        <v>Eric Araujo</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I4" t="str">
         <v>2</v>
@@ -711,7 +711,7 @@
         <v/>
       </c>
       <c r="H5" t="str">
-        <v>Rocky Chang</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I5" t="str">
         <v>2</v>
@@ -766,9 +766,6 @@
       <c r="B6" t="str">
         <v/>
       </c>
-      <c r="C6" t="str">
-        <v>FA</v>
-      </c>
       <c r="D6" t="str">
         <v>Full</v>
       </c>
@@ -782,13 +779,13 @@
         <v/>
       </c>
       <c r="H6" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I6" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J6" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K6" t="str">
         <v/>
@@ -809,7 +806,7 @@
         <v/>
       </c>
       <c r="Q6" t="str">
-        <v>2 CS 396/8 projects</v>
+        <v>Chair</v>
       </c>
       <c r="R6" t="str">
         <v/>
@@ -850,10 +847,10 @@
         <v/>
       </c>
       <c r="H7" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Harry Plantinga</v>
       </c>
       <c r="I7" t="str">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J7" t="str">
         <v>-1</v>
@@ -877,7 +874,7 @@
         <v/>
       </c>
       <c r="Q7" t="str">
-        <v>Chair</v>
+        <v>CCEL</v>
       </c>
       <c r="R7" t="str">
         <v/>
@@ -918,10 +915,10 @@
         <v/>
       </c>
       <c r="H8" t="str">
-        <v>Harry Plantinga</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I8" t="str">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="J8" t="str">
         <v>-1</v>
@@ -945,7 +942,7 @@
         <v/>
       </c>
       <c r="Q8" t="str">
-        <v>CCEL</v>
+        <v>2 CS 396/8 projects</v>
       </c>
       <c r="R8" t="str">
         <v/>
@@ -974,7 +971,7 @@
         <v/>
       </c>
       <c r="D9" t="str">
-        <v>Full</v>
+        <v/>
       </c>
       <c r="E9" t="str">
         <v/>
@@ -986,10 +983,10 @@
         <v/>
       </c>
       <c r="H9" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I9" t="str">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J9" t="str">
         <v>-1</v>
@@ -1013,7 +1010,7 @@
         <v/>
       </c>
       <c r="Q9" t="str">
-        <v>Sabbatical</v>
+        <v>CCCS Fellowship ?</v>
       </c>
       <c r="R9" t="str">
         <v/>
@@ -1042,7 +1039,7 @@
         <v/>
       </c>
       <c r="D10" t="str">
-        <v>Full</v>
+        <v/>
       </c>
       <c r="E10" t="str">
         <v/>
@@ -1054,10 +1051,10 @@
         <v/>
       </c>
       <c r="H10" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I10" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="str">
         <v>-1</v>
@@ -1081,7 +1078,7 @@
         <v/>
       </c>
       <c r="Q10" t="str">
-        <v>2 CS 396/8 projects</v>
+        <v>CRF ?</v>
       </c>
       <c r="R10" t="str">
         <v/>
@@ -1110,7 +1107,7 @@
         <v/>
       </c>
       <c r="D11" t="str">
-        <v>Full</v>
+        <v/>
       </c>
       <c r="E11" t="str">
         <v/>
@@ -1122,10 +1119,10 @@
         <v/>
       </c>
       <c r="H11" t="str">
-        <v>Eric Araujo</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I11" t="str">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J11" t="str">
         <v>-1</v>
@@ -1149,7 +1146,7 @@
         <v/>
       </c>
       <c r="Q11" t="str">
-        <v>CRF</v>
+        <v>Legacy CRF ?</v>
       </c>
       <c r="R11" t="str">
         <v/>
@@ -1172,55 +1169,52 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Computer Science</v>
+        <v/>
       </c>
       <c r="B12" t="str">
         <v/>
       </c>
-      <c r="C12" t="str">
-        <v>FA</v>
-      </c>
       <c r="D12" t="str">
-        <v>Full</v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="F12" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="H12" t="str">
-        <v>*</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I12" t="str">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J12" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K12" t="str">
         <v/>
       </c>
       <c r="L12" t="str">
-        <v>MTWRF</v>
+        <v/>
       </c>
       <c r="M12" t="str">
-        <v>16:00:00</v>
-      </c>
-      <c r="N12">
-        <v>135</v>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v/>
       </c>
       <c r="O12" t="str">
-        <v>, ,</v>
+        <v/>
       </c>
       <c r="P12" t="str">
         <v/>
       </c>
       <c r="Q12" t="str">
-        <v>LEC</v>
+        <v>Sabbatical ?</v>
       </c>
       <c r="R12" t="str">
         <v/>
@@ -1249,7 +1243,7 @@
         <v/>
       </c>
       <c r="C13" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D13" t="str">
         <v>Full</v>
@@ -1320,52 +1314,52 @@
         <v/>
       </c>
       <c r="C14" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D14" t="str">
         <v>Full</v>
       </c>
       <c r="E14" t="str">
-        <v>CS</v>
+        <v>*</v>
       </c>
       <c r="F14" t="str">
-        <v>100</v>
+        <v>*</v>
       </c>
       <c r="G14" t="str">
-        <v>A</v>
+        <v>*</v>
       </c>
       <c r="H14" t="str">
-        <v>David Meyer</v>
+        <v>*</v>
       </c>
       <c r="I14" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K14" t="str">
         <v/>
       </c>
       <c r="L14" t="str">
-        <v>TR</v>
+        <v>MTWRF</v>
       </c>
       <c r="M14" t="str">
-        <v>10:20:00</v>
+        <v>16:00:00</v>
       </c>
       <c r="N14">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="O14" t="str">
-        <v>SB 354</v>
+        <v>, ,</v>
       </c>
       <c r="P14" t="str">
-        <v>Creating Interactive Web Media</v>
+        <v/>
       </c>
       <c r="Q14" t="str">
         <v>LEC</v>
       </c>
       <c r="R14" t="str">
-        <v>100</v>
+        <v/>
       </c>
       <c r="S14" t="str">
         <v/>
@@ -1394,46 +1388,46 @@
         <v>FA</v>
       </c>
       <c r="D15" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E15" t="str">
         <v>CS</v>
       </c>
       <c r="F15" t="str">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G15" t="str">
         <v>A</v>
       </c>
       <c r="H15" t="str">
-        <v>Staff</v>
+        <v>David Meyer</v>
       </c>
       <c r="I15" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K15" t="str">
         <v/>
       </c>
       <c r="L15" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M15" t="str">
-        <v>12:15:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N15">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O15" t="str">
-        <v>SB 372</v>
+        <v>SB 354</v>
       </c>
       <c r="P15" t="str">
-        <v>Applied Computing</v>
+        <v>Creating Interactive Web Media</v>
       </c>
       <c r="Q15" t="str">
-        <v/>
+        <v>LEC</v>
       </c>
       <c r="R15" t="str">
         <v>100</v>
@@ -1465,7 +1459,7 @@
         <v>FA</v>
       </c>
       <c r="D16" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E16" t="str">
         <v>CS</v>
@@ -1474,7 +1468,7 @@
         <v>104</v>
       </c>
       <c r="G16" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H16" t="str">
         <v>Staff</v>
@@ -1536,22 +1530,22 @@
         <v>FA</v>
       </c>
       <c r="D17" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E17" t="str">
         <v>CS</v>
       </c>
       <c r="F17" t="str">
-        <v>104L</v>
+        <v>104</v>
       </c>
       <c r="G17" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H17" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Staff</v>
       </c>
       <c r="I17" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J17" t="str">
         <v>1</v>
@@ -1560,13 +1554,13 @@
         <v/>
       </c>
       <c r="L17" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="M17" t="str">
         <v>12:15:00</v>
       </c>
       <c r="N17">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O17" t="str">
         <v>SB 372</v>
@@ -1616,10 +1610,10 @@
         <v>104L</v>
       </c>
       <c r="G18" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H18" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="I18" t="str">
         <v>0.5</v>
@@ -1634,7 +1628,7 @@
         <v>T</v>
       </c>
       <c r="M18" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N18">
         <v>100</v>
@@ -1678,7 +1672,7 @@
         <v>FA</v>
       </c>
       <c r="D19" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E19" t="str">
         <v>CS</v>
@@ -1687,10 +1681,10 @@
         <v>104L</v>
       </c>
       <c r="G19" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="H19" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I19" t="str">
         <v>0.5</v>
@@ -1705,7 +1699,7 @@
         <v>T</v>
       </c>
       <c r="M19" t="str">
-        <v>12:15:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N19">
         <v>100</v>
@@ -1758,10 +1752,10 @@
         <v>104L</v>
       </c>
       <c r="G20" t="str">
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="H20" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="I20" t="str">
         <v>0.5</v>
@@ -1776,7 +1770,7 @@
         <v>T</v>
       </c>
       <c r="M20" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N20">
         <v>100</v>
@@ -1820,43 +1814,43 @@
         <v>FA</v>
       </c>
       <c r="D21" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E21" t="str">
         <v>CS</v>
       </c>
       <c r="F21" t="str">
-        <v>108</v>
+        <v>104L</v>
       </c>
       <c r="G21" t="str">
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="H21" t="str">
-        <v>Rocky Chang</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I21" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J21" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" t="str">
         <v/>
       </c>
       <c r="L21" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="M21" t="str">
-        <v>11:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N21">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O21" t="str">
         <v>SB 372</v>
       </c>
       <c r="P21" t="str">
-        <v>Intro to Computing</v>
+        <v>Applied Computing</v>
       </c>
       <c r="Q21" t="str">
         <v/>
@@ -1888,7 +1882,7 @@
         <v/>
       </c>
       <c r="C22" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D22" t="str">
         <v>Full</v>
@@ -1903,7 +1897,7 @@
         <v>A</v>
       </c>
       <c r="H22" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I22" t="str">
         <v>4</v>
@@ -1918,13 +1912,13 @@
         <v>MWF</v>
       </c>
       <c r="M22" t="str">
-        <v>13:30:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N22">
         <v>65</v>
       </c>
       <c r="O22" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P22" t="str">
         <v>Intro to Computing</v>
@@ -1959,7 +1953,7 @@
         <v/>
       </c>
       <c r="C23" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D23" t="str">
         <v>Full</v>
@@ -1971,10 +1965,10 @@
         <v>108</v>
       </c>
       <c r="G23" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H23" t="str">
-        <v>Rocky Chang</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I23" t="str">
         <v>4</v>
@@ -1995,7 +1989,7 @@
         <v>65</v>
       </c>
       <c r="O23" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P23" t="str">
         <v>Intro to Computing</v>
@@ -2030,7 +2024,7 @@
         <v/>
       </c>
       <c r="C24" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D24" t="str">
         <v>Full</v>
@@ -2045,7 +2039,7 @@
         <v>B</v>
       </c>
       <c r="H24" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I24" t="str">
         <v>4</v>
@@ -2060,13 +2054,13 @@
         <v>MWF</v>
       </c>
       <c r="M24" t="str">
-        <v>14:45:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N24">
         <v>65</v>
       </c>
       <c r="O24" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P24" t="str">
         <v>Intro to Computing</v>
@@ -2101,7 +2095,7 @@
         <v/>
       </c>
       <c r="C25" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D25" t="str">
         <v>Full</v>
@@ -2110,37 +2104,37 @@
         <v>CS</v>
       </c>
       <c r="F25" t="str">
-        <v>108L</v>
+        <v>108</v>
       </c>
       <c r="G25" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H25" t="str">
-        <v>Rocky Chang</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I25" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25" t="str">
         <v/>
       </c>
       <c r="L25" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="M25" t="str">
-        <v>08:00:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O25" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P25" t="str">
-        <v>Intro to Computing Lab</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="Q25" t="str">
         <v/>
@@ -2172,7 +2166,7 @@
         <v/>
       </c>
       <c r="C26" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D26" t="str">
         <v>Full</v>
@@ -2187,7 +2181,7 @@
         <v>A</v>
       </c>
       <c r="H26" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I26" t="str">
         <v>1</v>
@@ -2385,7 +2379,7 @@
         <v/>
       </c>
       <c r="C29" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D29" t="str">
         <v>Full</v>
@@ -2394,37 +2388,37 @@
         <v>CS</v>
       </c>
       <c r="F29" t="str">
-        <v>112</v>
+        <v>108L</v>
       </c>
       <c r="G29" t="str">
         <v>A</v>
       </c>
       <c r="H29" t="str">
-        <v>Eric Araujo</v>
+        <v>Staff</v>
       </c>
       <c r="I29" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J29" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K29" t="str">
         <v/>
       </c>
       <c r="L29" t="str">
-        <v>MWF</v>
+        <v>R</v>
       </c>
       <c r="M29" t="str">
-        <v>12:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N29">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O29" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P29" t="str">
-        <v>Intro to Data Structures</v>
+        <v>Intro to Computing Lab</v>
       </c>
       <c r="Q29" t="str">
         <v/>
@@ -2456,7 +2450,7 @@
         <v/>
       </c>
       <c r="C30" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D30" t="str">
         <v>Full</v>
@@ -2471,7 +2465,7 @@
         <v>A</v>
       </c>
       <c r="H30" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I30" t="str">
         <v>4</v>
@@ -2486,13 +2480,13 @@
         <v>MWF</v>
       </c>
       <c r="M30" t="str">
-        <v>11:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N30">
         <v>65</v>
       </c>
       <c r="O30" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P30" t="str">
         <v>Intro to Data Structures</v>
@@ -2527,7 +2521,7 @@
         <v/>
       </c>
       <c r="C31" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D31" t="str">
         <v>Full</v>
@@ -2539,10 +2533,10 @@
         <v>112</v>
       </c>
       <c r="G31" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H31" t="str">
-        <v>Eric Araujo</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I31" t="str">
         <v>4</v>
@@ -2557,13 +2551,13 @@
         <v>MWF</v>
       </c>
       <c r="M31" t="str">
-        <v>13:30:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N31">
         <v>65</v>
       </c>
       <c r="O31" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P31" t="str">
         <v>Intro to Data Structures</v>
@@ -2598,7 +2592,7 @@
         <v/>
       </c>
       <c r="C32" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D32" t="str">
         <v>Full</v>
@@ -2613,7 +2607,7 @@
         <v>B</v>
       </c>
       <c r="H32" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I32" t="str">
         <v>4</v>
@@ -2628,13 +2622,13 @@
         <v>MWF</v>
       </c>
       <c r="M32" t="str">
-        <v>12:15:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N32">
         <v>65</v>
       </c>
       <c r="O32" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P32" t="str">
         <v>Intro to Data Structures</v>
@@ -2669,7 +2663,7 @@
         <v/>
       </c>
       <c r="C33" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D33" t="str">
         <v>Full</v>
@@ -2678,37 +2672,37 @@
         <v>CS</v>
       </c>
       <c r="F33" t="str">
-        <v>112L</v>
+        <v>112</v>
       </c>
       <c r="G33" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H33" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I33" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K33" t="str">
         <v/>
       </c>
       <c r="L33" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="M33" t="str">
-        <v>08:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N33">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O33" t="str">
         <v>SB 372</v>
       </c>
       <c r="P33" t="str">
-        <v>Intro to Data Structures Lab</v>
+        <v>Intro to Data Structures</v>
       </c>
       <c r="Q33" t="str">
         <v/>
@@ -2740,7 +2734,7 @@
         <v/>
       </c>
       <c r="C34" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D34" t="str">
         <v>Full</v>
@@ -2755,7 +2749,7 @@
         <v>A</v>
       </c>
       <c r="H34" t="str">
-        <v>Eric Araujo</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="I34" t="str">
         <v>1</v>
@@ -2811,7 +2805,7 @@
         <v/>
       </c>
       <c r="C35" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D35" t="str">
         <v>Full</v>
@@ -2823,10 +2817,10 @@
         <v>112L</v>
       </c>
       <c r="G35" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H35" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I35" t="str">
         <v>1</v>
@@ -2841,7 +2835,7 @@
         <v>T</v>
       </c>
       <c r="M35" t="str">
-        <v>10:20:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N35">
         <v>100</v>
@@ -2882,7 +2876,7 @@
         <v/>
       </c>
       <c r="C36" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D36" t="str">
         <v>Full</v>
@@ -2897,7 +2891,7 @@
         <v>B</v>
       </c>
       <c r="H36" t="str">
-        <v>Eric Araujo</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="I36" t="str">
         <v>1</v>
@@ -2953,7 +2947,7 @@
         <v/>
       </c>
       <c r="C37" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D37" t="str">
         <v>Full</v>
@@ -2962,19 +2956,19 @@
         <v>CS</v>
       </c>
       <c r="F37" t="str">
-        <v>195</v>
+        <v>112L</v>
       </c>
       <c r="G37" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H37" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I37" t="str">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J37" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="str">
         <v/>
@@ -2983,16 +2977,16 @@
         <v>T</v>
       </c>
       <c r="M37" t="str">
-        <v>15:05:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N37">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O37" t="str">
-        <v>SB 10</v>
+        <v>SB 372</v>
       </c>
       <c r="P37" t="str">
-        <v>Intro Computing Seminar</v>
+        <v>Intro to Data Structures Lab</v>
       </c>
       <c r="Q37" t="str">
         <v/>
@@ -3024,7 +3018,7 @@
         <v/>
       </c>
       <c r="C38" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D38" t="str">
         <v>Full</v>
@@ -3095,7 +3089,7 @@
         <v/>
       </c>
       <c r="C39" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D39" t="str">
         <v>Full</v>
@@ -3104,43 +3098,43 @@
         <v>CS</v>
       </c>
       <c r="F39" t="str">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="G39" t="str">
         <v>A</v>
       </c>
       <c r="H39" t="str">
-        <v>Staff</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I39" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J39" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K39" t="str">
         <v/>
       </c>
       <c r="L39" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="M39" t="str">
-        <v>08:00:00</v>
+        <v>15:05:00</v>
       </c>
       <c r="N39">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O39" t="str">
-        <v>SB 372</v>
+        <v>SB 10</v>
       </c>
       <c r="P39" t="str">
-        <v>Data Structures &amp; Algorithms</v>
+        <v>Intro Computing Seminar</v>
       </c>
       <c r="Q39" t="str">
         <v/>
       </c>
       <c r="R39" t="str">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S39" t="str">
         <v/>
@@ -3178,7 +3172,7 @@
         <v>212</v>
       </c>
       <c r="G40" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H40" t="str">
         <v>Staff</v>
@@ -3196,7 +3190,7 @@
         <v>MWF</v>
       </c>
       <c r="M40" t="str">
-        <v>09:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N40">
         <v>65</v>
@@ -3237,7 +3231,7 @@
         <v/>
       </c>
       <c r="C41" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D41" t="str">
         <v>Full</v>
@@ -3246,13 +3240,13 @@
         <v>CS</v>
       </c>
       <c r="F41" t="str">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G41" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H41" t="str">
-        <v>Eric Araujo</v>
+        <v>Staff</v>
       </c>
       <c r="I41" t="str">
         <v>4</v>
@@ -3264,19 +3258,19 @@
         <v/>
       </c>
       <c r="L41" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="M41" t="str">
-        <v>14:45:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N41">
         <v>65</v>
       </c>
       <c r="O41" t="str">
-        <v>SB 372, SB 354</v>
+        <v>SB 372</v>
       </c>
       <c r="P41" t="str">
-        <v>Programming Lang Concepts</v>
+        <v>Data Structures &amp; Algorithms</v>
       </c>
       <c r="Q41" t="str">
         <v/>
@@ -3320,10 +3314,10 @@
         <v>214</v>
       </c>
       <c r="G42" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H42" t="str">
-        <v>David Meyer</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I42" t="str">
         <v>4</v>
@@ -3335,16 +3329,16 @@
         <v/>
       </c>
       <c r="L42" t="str">
-        <v>F</v>
+        <v>MW</v>
       </c>
       <c r="M42" t="str">
         <v>14:45:00</v>
       </c>
       <c r="N42">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="O42" t="str">
-        <v>SB 372, SB 372</v>
+        <v>SB 372, SB 354</v>
       </c>
       <c r="P42" t="str">
         <v>Programming Lang Concepts</v>
@@ -3388,13 +3382,13 @@
         <v>CS</v>
       </c>
       <c r="F43" t="str">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="G43" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H43" t="str">
-        <v>Rocky Chang</v>
+        <v>David Meyer</v>
       </c>
       <c r="I43" t="str">
         <v>4</v>
@@ -3406,19 +3400,19 @@
         <v/>
       </c>
       <c r="L43" t="str">
-        <v>MWF</v>
+        <v>F</v>
       </c>
       <c r="M43" t="str">
-        <v>08:00:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N43">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="O43" t="str">
-        <v>SB 372</v>
+        <v>SB 372, SB 372</v>
       </c>
       <c r="P43" t="str">
-        <v>Operating Systems and Networki</v>
+        <v>Programming Lang Concepts</v>
       </c>
       <c r="Q43" t="str">
         <v/>
@@ -3462,7 +3456,7 @@
         <v>232</v>
       </c>
       <c r="G44" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H44" t="str">
         <v>Rocky Chang</v>
@@ -3480,7 +3474,7 @@
         <v>MWF</v>
       </c>
       <c r="M44" t="str">
-        <v>09:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N44">
         <v>65</v>
@@ -3521,7 +3515,7 @@
         <v/>
       </c>
       <c r="C45" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D45" t="str">
         <v>Full</v>
@@ -3530,13 +3524,13 @@
         <v>CS</v>
       </c>
       <c r="F45" t="str">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G45" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H45" t="str">
-        <v>Victor T. Norman</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I45" t="str">
         <v>4</v>
@@ -3548,19 +3542,19 @@
         <v/>
       </c>
       <c r="L45" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="M45" t="str">
-        <v>13:30:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N45">
         <v>65</v>
       </c>
       <c r="O45" t="str">
-        <v>SC 120, SB 354</v>
+        <v>SB 372</v>
       </c>
       <c r="P45" t="str">
-        <v>Software Engineering</v>
+        <v>Operating Systems and Networki</v>
       </c>
       <c r="Q45" t="str">
         <v/>
@@ -3604,7 +3598,7 @@
         <v>262</v>
       </c>
       <c r="G46" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H46" t="str">
         <v>Victor T. Norman</v>
@@ -3622,13 +3616,13 @@
         <v>MW</v>
       </c>
       <c r="M46" t="str">
-        <v>14:45:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N46">
         <v>65</v>
       </c>
       <c r="O46" t="str">
-        <v>SC 120, SB 337</v>
+        <v>SC 120, SB 354</v>
       </c>
       <c r="P46" t="str">
         <v>Software Engineering</v>
@@ -3672,37 +3666,37 @@
         <v>CS</v>
       </c>
       <c r="F47" t="str">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="G47" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H47" t="str">
         <v>Victor T. Norman</v>
       </c>
       <c r="I47" t="str">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="J47" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K47" t="str">
         <v/>
       </c>
       <c r="L47" t="str">
-        <v>T</v>
+        <v>MW</v>
       </c>
       <c r="M47" t="str">
-        <v>15:05:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N47">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O47" t="str">
-        <v>SB 10</v>
+        <v>SC 120, SB 337</v>
       </c>
       <c r="P47" t="str">
-        <v>Computing Seminar</v>
+        <v>Software Engineering</v>
       </c>
       <c r="Q47" t="str">
         <v/>
@@ -3734,7 +3728,7 @@
         <v/>
       </c>
       <c r="C48" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D48" t="str">
         <v>Full</v>
@@ -3814,43 +3808,43 @@
         <v>CS</v>
       </c>
       <c r="F49" t="str">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G49" t="str">
         <v>A</v>
       </c>
       <c r="H49" t="str">
-        <v>Rocky Chang</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I49" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J49" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K49" t="str">
         <v/>
       </c>
       <c r="L49" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="M49" t="str">
-        <v>12:15:00</v>
+        <v>15:05:00</v>
       </c>
       <c r="N49">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O49" t="str">
-        <v>SB 382</v>
+        <v>SB 10</v>
       </c>
       <c r="P49" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Computing Seminar</v>
       </c>
       <c r="Q49" t="str">
         <v/>
       </c>
       <c r="R49" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S49" t="str">
         <v/>
@@ -3876,10 +3870,10 @@
         <v/>
       </c>
       <c r="C50" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D50" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E50" t="str">
         <v>CS</v>
@@ -3891,13 +3885,13 @@
         <v>A</v>
       </c>
       <c r="H50" t="str">
-        <v>Staff</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I50" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J50" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K50" t="str">
         <v/>
@@ -3906,7 +3900,7 @@
         <v>MWF</v>
       </c>
       <c r="M50" t="str">
-        <v>11:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N50">
         <v>65</v>
@@ -3927,7 +3921,7 @@
         <v/>
       </c>
       <c r="T50" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="U50" t="str">
         <v/>
@@ -3950,7 +3944,7 @@
         <v>FA</v>
       </c>
       <c r="D51" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E51" t="str">
         <v>CS</v>
@@ -3959,7 +3953,7 @@
         <v>300</v>
       </c>
       <c r="G51" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H51" t="str">
         <v>Staff</v>
@@ -4021,25 +4015,25 @@
         <v>FA</v>
       </c>
       <c r="D52" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E52" t="str">
         <v>CS</v>
       </c>
       <c r="F52" t="str">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="G52" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H52" t="str">
-        <v>Victor T. Norman</v>
+        <v>Staff</v>
       </c>
       <c r="I52" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J52" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K52" t="str">
         <v/>
@@ -4048,16 +4042,16 @@
         <v>MWF</v>
       </c>
       <c r="M52" t="str">
-        <v>09:15:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N52">
         <v>65</v>
       </c>
       <c r="O52" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="P52" t="str">
-        <v>Web Development</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="Q52" t="str">
         <v/>
@@ -4069,7 +4063,7 @@
         <v/>
       </c>
       <c r="T52" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="U52" t="str">
         <v/>
@@ -4089,28 +4083,28 @@
         <v/>
       </c>
       <c r="C53" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D53" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E53" t="str">
         <v>CS</v>
       </c>
       <c r="F53" t="str">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G53" t="str">
         <v>A</v>
       </c>
       <c r="H53" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I53" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J53" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K53" t="str">
         <v/>
@@ -4119,16 +4113,16 @@
         <v>MWF</v>
       </c>
       <c r="M53" t="str">
-        <v>08:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N53">
         <v>65</v>
       </c>
       <c r="O53" t="str">
-        <v>SB 382</v>
+        <v>HH 336</v>
       </c>
       <c r="P53" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Web Development</v>
       </c>
       <c r="Q53" t="str">
         <v/>
@@ -4163,13 +4157,13 @@
         <v>SP</v>
       </c>
       <c r="D54" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E54" t="str">
         <v>CS</v>
       </c>
       <c r="F54" t="str">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G54" t="str">
         <v>A</v>
@@ -4199,7 +4193,7 @@
         <v>SB 382</v>
       </c>
       <c r="P54" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="Q54" t="str">
         <v/>
@@ -4240,13 +4234,13 @@
         <v>CS</v>
       </c>
       <c r="F55" t="str">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="G55" t="str">
         <v>A</v>
       </c>
       <c r="H55" t="str">
-        <v>Eric Araujo</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="I55" t="str">
         <v>2</v>
@@ -4261,7 +4255,7 @@
         <v>MWF</v>
       </c>
       <c r="M55" t="str">
-        <v>09:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N55">
         <v>65</v>
@@ -4270,7 +4264,7 @@
         <v>SB 382</v>
       </c>
       <c r="P55" t="str">
-        <v>Database Management Systems</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="Q55" t="str">
         <v/>
@@ -4302,46 +4296,46 @@
         <v/>
       </c>
       <c r="C56" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D56" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E56" t="str">
         <v>CS</v>
       </c>
       <c r="F56" t="str">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G56" t="str">
         <v>A</v>
       </c>
       <c r="H56" t="str">
-        <v>Brian D Paige, Adam Vedra</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I56" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J56" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K56" t="str">
         <v/>
       </c>
       <c r="L56" t="str">
-        <v>MR</v>
+        <v>MWF</v>
       </c>
       <c r="M56" t="str">
-        <v>19:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N56">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O56" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P56" t="str">
-        <v>Computer Security</v>
+        <v>Database Management Systems</v>
       </c>
       <c r="Q56" t="str">
         <v/>
@@ -4373,46 +4367,46 @@
         <v/>
       </c>
       <c r="C57" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D57" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E57" t="str">
         <v>CS</v>
       </c>
       <c r="F57" t="str">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G57" t="str">
         <v>A</v>
       </c>
       <c r="H57" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Brian D Paige, Adam Vedra</v>
       </c>
       <c r="I57" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J57" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K57" t="str">
         <v/>
       </c>
       <c r="L57" t="str">
-        <v>MWF</v>
+        <v>MR</v>
       </c>
       <c r="M57" t="str">
-        <v>11:00:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N57">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O57" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P57" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Computer Security</v>
       </c>
       <c r="Q57" t="str">
         <v/>
@@ -4447,13 +4441,13 @@
         <v>SP</v>
       </c>
       <c r="D58" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E58" t="str">
         <v>CS</v>
       </c>
       <c r="F58" t="str">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G58" t="str">
         <v>A</v>
@@ -4483,7 +4477,7 @@
         <v>SB 382</v>
       </c>
       <c r="P58" t="str">
-        <v>Machine Learning</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="Q58" t="str">
         <v/>
@@ -4515,46 +4509,46 @@
         <v/>
       </c>
       <c r="C59" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D59" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E59" t="str">
         <v>CS</v>
       </c>
       <c r="F59" t="str">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G59" t="str">
         <v>A</v>
       </c>
       <c r="H59" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I59" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" t="str">
         <v/>
       </c>
       <c r="L59" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="M59" t="str">
-        <v>19:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N59">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O59" t="str">
         <v>SB 382</v>
       </c>
       <c r="P59" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>Machine Learning</v>
       </c>
       <c r="Q59" t="str">
         <v/>
@@ -4586,7 +4580,7 @@
         <v/>
       </c>
       <c r="C60" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D60" t="str">
         <v>Full</v>
@@ -4666,7 +4660,7 @@
         <v>CS</v>
       </c>
       <c r="F61" t="str">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G61" t="str">
         <v>A</v>
@@ -4675,28 +4669,28 @@
         <v>Derek C Schuurman</v>
       </c>
       <c r="I61" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J61" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K61" t="str">
         <v/>
       </c>
       <c r="L61" t="str">
-        <v>TR</v>
+        <v>R</v>
       </c>
       <c r="M61" t="str">
-        <v>10:20:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O61" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="P61" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="Q61" t="str">
         <v/>
@@ -4740,10 +4734,10 @@
         <v>384</v>
       </c>
       <c r="G62" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H62" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I62" t="str">
         <v>4</v>
@@ -4758,7 +4752,7 @@
         <v>TR</v>
       </c>
       <c r="M62" t="str">
-        <v>12:15:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N62">
         <v>100</v>
@@ -4799,28 +4793,28 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D63" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E63" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F63" t="str">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="G63" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H63" t="str">
         <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I63" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J63" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K63" t="str">
         <v/>
@@ -4829,22 +4823,22 @@
         <v>TR</v>
       </c>
       <c r="M63" t="str">
-        <v>08:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N63">
         <v>100</v>
       </c>
       <c r="O63" t="str">
-        <v>SB 354</v>
+        <v>HH 336</v>
       </c>
       <c r="P63" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="Q63" t="str">
         <v/>
       </c>
       <c r="R63" t="str">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S63" t="str">
         <v/>
@@ -4882,10 +4876,10 @@
         <v>102</v>
       </c>
       <c r="G64" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H64" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I64" t="str">
         <v>2</v>
@@ -4900,7 +4894,7 @@
         <v>TR</v>
       </c>
       <c r="M64" t="str">
-        <v>12:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N64">
         <v>100</v>
@@ -4941,7 +4935,7 @@
         <v/>
       </c>
       <c r="C65" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D65" t="str">
         <v>First</v>
@@ -5012,7 +5006,7 @@
         <v/>
       </c>
       <c r="C66" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D66" t="str">
         <v>First</v>
@@ -5024,7 +5018,7 @@
         <v>102</v>
       </c>
       <c r="G66" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="H66" t="str">
         <v>Cancelled-DATA</v>
@@ -5042,7 +5036,7 @@
         <v>TR</v>
       </c>
       <c r="M66" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N66">
         <v>100</v>
@@ -5083,7 +5077,7 @@
         <v/>
       </c>
       <c r="C67" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D67" t="str">
         <v>First</v>
@@ -5154,7 +5148,7 @@
         <v/>
       </c>
       <c r="C68" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D68" t="str">
         <v>First</v>
@@ -5166,10 +5160,10 @@
         <v>102</v>
       </c>
       <c r="G68" t="str">
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="H68" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I68" t="str">
         <v>2</v>
@@ -5184,7 +5178,7 @@
         <v>TR</v>
       </c>
       <c r="M68" t="str">
-        <v>19:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N68">
         <v>100</v>
@@ -5225,7 +5219,7 @@
         <v/>
       </c>
       <c r="C69" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D69" t="str">
         <v>First</v>
@@ -5296,10 +5290,10 @@
         <v/>
       </c>
       <c r="C70" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D70" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E70" t="str">
         <v>DATA</v>
@@ -5308,10 +5302,10 @@
         <v>102</v>
       </c>
       <c r="G70" t="str">
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="H70" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I70" t="str">
         <v>2</v>
@@ -5326,7 +5320,7 @@
         <v>TR</v>
       </c>
       <c r="M70" t="str">
-        <v>08:00:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N70">
         <v>100</v>
@@ -5379,10 +5373,10 @@
         <v>102</v>
       </c>
       <c r="G71" t="str">
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="H71" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I71" t="str">
         <v>2</v>
@@ -5397,7 +5391,7 @@
         <v>TR</v>
       </c>
       <c r="M71" t="str">
-        <v>12:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N71">
         <v>100</v>
@@ -5438,7 +5432,7 @@
         <v/>
       </c>
       <c r="C72" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D72" t="str">
         <v>Second</v>
@@ -5509,7 +5503,7 @@
         <v/>
       </c>
       <c r="C73" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D73" t="str">
         <v>Second</v>
@@ -5521,7 +5515,7 @@
         <v>102</v>
       </c>
       <c r="G73" t="str">
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="H73" t="str">
         <v>Cancelled-DATA</v>
@@ -5539,7 +5533,7 @@
         <v>TR</v>
       </c>
       <c r="M73" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N73">
         <v>100</v>
@@ -5580,7 +5574,7 @@
         <v/>
       </c>
       <c r="C74" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D74" t="str">
         <v>Second</v>
@@ -5651,7 +5645,7 @@
         <v/>
       </c>
       <c r="C75" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D75" t="str">
         <v>Second</v>
@@ -5663,10 +5657,10 @@
         <v>102</v>
       </c>
       <c r="G75" t="str">
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="H75" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I75" t="str">
         <v>2</v>
@@ -5681,7 +5675,7 @@
         <v>TR</v>
       </c>
       <c r="M75" t="str">
-        <v>19:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N75">
         <v>100</v>
@@ -5722,7 +5716,7 @@
         <v/>
       </c>
       <c r="C76" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D76" t="str">
         <v>Second</v>
@@ -5785,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" xml:space="preserve">
+    <row r="77">
       <c r="A77" t="str">
         <v>Computer Science</v>
       </c>
@@ -5796,7 +5790,7 @@
         <v>SP</v>
       </c>
       <c r="D77" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E77" t="str">
         <v>DATA</v>
@@ -5805,10 +5799,10 @@
         <v>102</v>
       </c>
       <c r="G77" t="str">
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="H77" t="str">
-        <v>Staff</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I77" t="str">
         <v>2</v>
@@ -5820,13 +5814,13 @@
         <v/>
       </c>
       <c r="L77" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M77" t="str">
-        <v>09:15:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N77">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O77" t="str">
         <v>SB 354</v>
@@ -5846,9 +5840,8 @@
       <c r="T77" t="str">
         <v/>
       </c>
-      <c r="U77" t="str" xml:space="preserve">
-        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
-Set as on-hold? we may not have the enrollment.</v>
+      <c r="U77" t="str">
+        <v/>
       </c>
       <c r="V77">
         <v>0</v>
@@ -5868,7 +5861,7 @@
         <v>SP</v>
       </c>
       <c r="D78" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E78" t="str">
         <v>DATA</v>
@@ -5877,7 +5870,7 @@
         <v>102</v>
       </c>
       <c r="G78" t="str">
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="H78" t="str">
         <v>Staff</v>
@@ -5929,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" xml:space="preserve">
       <c r="A79" t="str">
         <v>Computer Science</v>
       </c>
@@ -5937,28 +5930,28 @@
         <v/>
       </c>
       <c r="C79" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D79" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E79" t="str">
         <v>DATA</v>
       </c>
       <c r="F79" t="str">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="G79" t="str">
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="H79" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Staff</v>
       </c>
       <c r="I79" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J79" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K79" t="str">
         <v/>
@@ -5967,22 +5960,22 @@
         <v>MWF</v>
       </c>
       <c r="M79" t="str">
-        <v>08:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N79">
         <v>65</v>
       </c>
       <c r="O79" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="P79" t="str">
-        <v>Predictive Analytics</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="Q79" t="str">
         <v/>
       </c>
       <c r="R79" t="str">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S79" t="str">
         <v/>
@@ -5990,8 +5983,9 @@
       <c r="T79" t="str">
         <v/>
       </c>
-      <c r="U79" t="str">
-        <v/>
+      <c r="U79" t="str" xml:space="preserve">
+        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
+Set as on-hold? we may not have the enrollment.</v>
       </c>
       <c r="V79">
         <v>0</v>
@@ -6020,7 +6014,7 @@
         <v>202</v>
       </c>
       <c r="G80" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H80" t="str">
         <v>Fernando Pasquini Santos</v>
@@ -6038,7 +6032,7 @@
         <v>MWF</v>
       </c>
       <c r="M80" t="str">
-        <v>09:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N80">
         <v>65</v>
@@ -6085,40 +6079,40 @@
         <v>Full</v>
       </c>
       <c r="E81" t="str">
-        <v>HNRS</v>
+        <v>DATA</v>
       </c>
       <c r="F81" t="str">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="G81" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H81" t="str">
-        <v>Eric Araujo</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I81" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J81" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K81" t="str">
         <v/>
       </c>
       <c r="L81" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="M81" t="str">
-        <v>14:10:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N81">
         <v>65</v>
       </c>
       <c r="O81" t="str">
-        <v>HL 406C</v>
+        <v>SB 382</v>
       </c>
       <c r="P81" t="str">
-        <v>Agent Modeling</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q81" t="str">
         <v/>
@@ -6144,7 +6138,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B82" t="str">
         <v/>
@@ -6153,49 +6147,49 @@
         <v>FA</v>
       </c>
       <c r="D82" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E82" t="str">
-        <v>CS</v>
+        <v>HNRS</v>
       </c>
       <c r="F82" t="str">
-        <v>300-S</v>
+        <v>251</v>
       </c>
       <c r="G82" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="H82" t="str">
-        <v>Shadow-Gold</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I82" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K82" t="str">
         <v/>
       </c>
       <c r="L82" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M82" t="str">
-        <v>11:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N82">
         <v>65</v>
       </c>
       <c r="O82" t="str">
-        <v>SB 354</v>
+        <v>HL 406C</v>
       </c>
       <c r="P82" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Agent Modeling</v>
       </c>
       <c r="Q82" t="str">
         <v/>
       </c>
       <c r="R82" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S82" t="str">
         <v/>
@@ -6221,10 +6215,10 @@
         <v/>
       </c>
       <c r="C83" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D83" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E83" t="str">
         <v>CS</v>
@@ -6251,7 +6245,7 @@
         <v>MWF</v>
       </c>
       <c r="M83" t="str">
-        <v>12:15:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N83">
         <v>65</v>
@@ -6292,10 +6286,10 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D84" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E84" t="str">
         <v>CS</v>
@@ -6304,7 +6298,7 @@
         <v>300-S</v>
       </c>
       <c r="G84" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="H84" t="str">
         <v>Shadow-Gold</v>
@@ -6322,7 +6316,7 @@
         <v>MWF</v>
       </c>
       <c r="M84" t="str">
-        <v>11:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N84">
         <v>65</v>
@@ -6363,19 +6357,19 @@
         <v/>
       </c>
       <c r="C85" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D85" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E85" t="str">
         <v>CS</v>
       </c>
       <c r="F85" t="str">
-        <v>338-S</v>
+        <v>300-S</v>
       </c>
       <c r="G85" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="H85" t="str">
         <v>Shadow-Gold</v>
@@ -6393,7 +6387,7 @@
         <v>MWF</v>
       </c>
       <c r="M85" t="str">
-        <v>08:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N85">
         <v>65</v>
@@ -6402,7 +6396,7 @@
         <v>SB 354</v>
       </c>
       <c r="P85" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="Q85" t="str">
         <v/>
@@ -6437,13 +6431,13 @@
         <v>SP</v>
       </c>
       <c r="D86" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E86" t="str">
         <v>CS</v>
       </c>
       <c r="F86" t="str">
-        <v>339-S</v>
+        <v>338-S</v>
       </c>
       <c r="G86" t="str">
         <v>A-S</v>
@@ -6473,7 +6467,7 @@
         <v>SB 354</v>
       </c>
       <c r="P86" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="Q86" t="str">
         <v/>
@@ -6505,7 +6499,7 @@
         <v/>
       </c>
       <c r="C87" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D87" t="str">
         <v>Second</v>
@@ -6514,7 +6508,7 @@
         <v>CS</v>
       </c>
       <c r="F87" t="str">
-        <v>374-S</v>
+        <v>339-S</v>
       </c>
       <c r="G87" t="str">
         <v>A-S</v>
@@ -6523,19 +6517,19 @@
         <v>Shadow-Gold</v>
       </c>
       <c r="I87" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K87" t="str">
         <v/>
       </c>
       <c r="L87" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="M87" t="str">
-        <v>14:45:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N87">
         <v>65</v>
@@ -6544,7 +6538,7 @@
         <v>SB 354</v>
       </c>
       <c r="P87" t="str">
-        <v>High-Performance Computing</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="Q87" t="str">
         <v/>
@@ -6576,16 +6570,16 @@
         <v/>
       </c>
       <c r="C88" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D88" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E88" t="str">
         <v>CS</v>
       </c>
       <c r="F88" t="str">
-        <v>375-S</v>
+        <v>374-S</v>
       </c>
       <c r="G88" t="str">
         <v>A-S</v>
@@ -6594,19 +6588,19 @@
         <v>Shadow-Gold</v>
       </c>
       <c r="I88" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K88" t="str">
         <v/>
       </c>
       <c r="L88" t="str">
-        <v>MWF</v>
+        <v>MW</v>
       </c>
       <c r="M88" t="str">
-        <v>11:00:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N88">
         <v>65</v>
@@ -6615,7 +6609,7 @@
         <v>SB 354</v>
       </c>
       <c r="P88" t="str">
-        <v>Artificial Intelligence</v>
+        <v>High-Performance Computing</v>
       </c>
       <c r="Q88" t="str">
         <v/>
@@ -6650,16 +6644,16 @@
         <v>SP</v>
       </c>
       <c r="D89" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E89" t="str">
         <v>CS</v>
       </c>
       <c r="F89" t="str">
-        <v>376-S</v>
+        <v>375-S</v>
       </c>
       <c r="G89" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="H89" t="str">
         <v>Shadow-Gold</v>
@@ -6686,7 +6680,7 @@
         <v>SB 354</v>
       </c>
       <c r="P89" t="str">
-        <v>Machine Learning</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="Q89" t="str">
         <v/>
@@ -6718,22 +6712,22 @@
         <v/>
       </c>
       <c r="C90" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D90" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E90" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F90" t="str">
-        <v>202-S</v>
+        <v>376-S</v>
       </c>
       <c r="G90" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="H90" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Shadow-Gold</v>
       </c>
       <c r="I90" t="str">
         <v>0</v>
@@ -6748,7 +6742,7 @@
         <v>MWF</v>
       </c>
       <c r="M90" t="str">
-        <v>08:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N90">
         <v>65</v>
@@ -6757,13 +6751,13 @@
         <v>SB 354</v>
       </c>
       <c r="P90" t="str">
-        <v>Predictive Analytics</v>
+        <v>Machine Learning</v>
       </c>
       <c r="Q90" t="str">
         <v/>
       </c>
       <c r="R90" t="str">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S90" t="str">
         <v/>
@@ -6801,7 +6795,7 @@
         <v>202-S</v>
       </c>
       <c r="G91" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="H91" t="str">
         <v>Shadow-Maroon</v>
@@ -6819,7 +6813,7 @@
         <v>MWF</v>
       </c>
       <c r="M91" t="str">
-        <v>09:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N91">
         <v>65</v>
@@ -6854,7 +6848,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Computer Science</v>
+        <v>Shadow</v>
       </c>
       <c r="B92" t="str">
         <v/>
@@ -6866,22 +6860,22 @@
         <v>Full</v>
       </c>
       <c r="E92" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F92" t="str">
-        <v>106</v>
+        <v>202-S</v>
       </c>
       <c r="G92" t="str">
-        <v>A</v>
+        <v>B-S</v>
       </c>
       <c r="H92" t="str">
-        <v>Staff</v>
+        <v>Shadow-Maroon</v>
       </c>
       <c r="I92" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J92" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K92" t="str">
         <v/>
@@ -6890,22 +6884,22 @@
         <v>MWF</v>
       </c>
       <c r="M92" t="str">
-        <v>14:45:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N92">
         <v>65</v>
       </c>
       <c r="O92" t="str">
-        <v>SB 372</v>
+        <v>SB 354</v>
       </c>
       <c r="P92" t="str">
-        <v>Intro to Computing</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q92" t="str">
         <v/>
       </c>
       <c r="R92" t="str">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S92" t="str">
         <v/>
@@ -6940,7 +6934,7 @@
         <v>CS</v>
       </c>
       <c r="F93" t="str">
-        <v>106L</v>
+        <v>106</v>
       </c>
       <c r="G93" t="str">
         <v>A</v>
@@ -6949,28 +6943,28 @@
         <v>Staff</v>
       </c>
       <c r="I93" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J93" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K93" t="str">
         <v/>
       </c>
       <c r="L93" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="M93" t="str">
-        <v>10:20:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N93">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O93" t="str">
         <v>SB 372</v>
       </c>
       <c r="P93" t="str">
-        <v>Intro to Computing Lab</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="Q93" t="str">
         <v/>
@@ -7002,7 +6996,7 @@
         <v/>
       </c>
       <c r="C94" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D94" t="str">
         <v>Full</v>
@@ -7011,49 +7005,49 @@
         <v>CS</v>
       </c>
       <c r="F94" t="str">
-        <v>326</v>
+        <v>106L</v>
       </c>
       <c r="G94" t="str">
         <v>A</v>
       </c>
       <c r="H94" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Staff</v>
       </c>
       <c r="I94" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J94" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K94" t="str">
         <v/>
       </c>
       <c r="L94" t="str">
-        <v>MWF</v>
+        <v>R</v>
       </c>
       <c r="M94" t="str">
-        <v>13:30:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N94">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O94" t="str">
-        <v>SB 301</v>
+        <v>SB 372</v>
       </c>
       <c r="P94" t="str">
-        <v>Embedded Systems and the Internet of Things</v>
+        <v>Intro to Computing Lab</v>
       </c>
       <c r="Q94" t="str">
         <v/>
       </c>
       <c r="R94" t="str">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S94" t="str">
         <v/>
       </c>
       <c r="T94" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="U94" t="str">
         <v/>
@@ -7073,7 +7067,7 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D95" t="str">
         <v>Full</v>
@@ -7082,37 +7076,37 @@
         <v>CS</v>
       </c>
       <c r="F95" t="str">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="G95" t="str">
         <v>A</v>
       </c>
       <c r="H95" t="str">
-        <v>Staff</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I95" t="str">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="J95" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K95" t="str">
         <v/>
       </c>
       <c r="L95" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="M95" t="str">
-        <v>19:00:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N95">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O95" t="str">
-        <v>SB 382</v>
+        <v>SB 301</v>
       </c>
       <c r="P95" t="str">
-        <v>Senior Project in Computing I</v>
+        <v>Embedded Systems and the Internet of Things</v>
       </c>
       <c r="Q95" t="str">
         <v/>
@@ -7124,7 +7118,7 @@
         <v/>
       </c>
       <c r="T95" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="U95" t="str">
         <v/>
@@ -7150,7 +7144,7 @@
         <v>Full</v>
       </c>
       <c r="E96" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F96" t="str">
         <v>396</v>
@@ -7183,7 +7177,7 @@
         <v>SB 382</v>
       </c>
       <c r="P96" t="str">
-        <v>Senior Project in Data Science</v>
+        <v>Senior Project in Computing I</v>
       </c>
       <c r="Q96" t="str">
         <v/>
@@ -7215,16 +7209,16 @@
         <v/>
       </c>
       <c r="C97" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D97" t="str">
         <v>Full</v>
       </c>
       <c r="E97" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F97" t="str">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G97" t="str">
         <v>A</v>
@@ -7254,7 +7248,7 @@
         <v>SB 382</v>
       </c>
       <c r="P97" t="str">
-        <v>Senior Project in Computing II</v>
+        <v>Senior Project in Data Science</v>
       </c>
       <c r="Q97" t="str">
         <v/>
@@ -7292,7 +7286,7 @@
         <v>Full</v>
       </c>
       <c r="E98" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F98" t="str">
         <v>398</v>
@@ -7325,7 +7319,7 @@
         <v>SB 382</v>
       </c>
       <c r="P98" t="str">
-        <v>Senior Project in Data Science II</v>
+        <v>Senior Project in Computing II</v>
       </c>
       <c r="Q98" t="str">
         <v/>
@@ -7349,16 +7343,87 @@
         <v>0</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Computer Science</v>
+      </c>
+      <c r="B99" t="str">
+        <v/>
+      </c>
+      <c r="C99" t="str">
+        <v>SP</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Full</v>
+      </c>
+      <c r="E99" t="str">
+        <v>DATA</v>
+      </c>
+      <c r="F99" t="str">
+        <v>398</v>
+      </c>
+      <c r="G99" t="str">
+        <v>A</v>
+      </c>
+      <c r="H99" t="str">
+        <v>Staff</v>
+      </c>
+      <c r="I99" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2</v>
+      </c>
+      <c r="K99" t="str">
+        <v/>
+      </c>
+      <c r="L99" t="str">
+        <v>T</v>
+      </c>
+      <c r="M99" t="str">
+        <v>19:00:00</v>
+      </c>
+      <c r="N99">
+        <v>50</v>
+      </c>
+      <c r="O99" t="str">
+        <v>SB 382</v>
+      </c>
+      <c r="P99" t="str">
+        <v>Senior Project in Data Science II</v>
+      </c>
+      <c r="Q99" t="str">
+        <v/>
+      </c>
+      <c r="R99" t="str">
+        <v>300</v>
+      </c>
+      <c r="S99" t="str">
+        <v/>
+      </c>
+      <c r="T99" t="str">
+        <v/>
+      </c>
+      <c r="U99" t="str">
+        <v/>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W98"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W99"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7486,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -7510,10 +7575,10 @@
         <v/>
       </c>
       <c r="N3" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O3" t="str">
-        <v>Legacy CRF</v>
+        <v>2 CS 396/8 projects</v>
       </c>
       <c r="P3" t="str">
         <v/>
@@ -7563,7 +7628,7 @@
         <v/>
       </c>
       <c r="N4" t="str">
-        <v>Eric Araujo</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O4" t="str">
         <v>2 CS 396/8 projects</v>
@@ -7616,7 +7681,7 @@
         <v/>
       </c>
       <c r="N5" t="str">
-        <v>Rocky Chang</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O5" t="str">
         <v>2 CS 396/8 projects</v>
@@ -7629,9 +7694,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>FA</v>
-      </c>
       <c r="B6" t="str">
         <v/>
       </c>
@@ -7642,10 +7704,10 @@
         <v/>
       </c>
       <c r="E6" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -7660,7 +7722,7 @@
         <v>Full</v>
       </c>
       <c r="K6" t="str">
-        <v>FA-Full</v>
+        <v>-Full</v>
       </c>
       <c r="L6" t="str">
         <v/>
@@ -7669,10 +7731,10 @@
         <v/>
       </c>
       <c r="N6" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O6" t="str">
-        <v>2 CS 396/8 projects</v>
+        <v>Chair</v>
       </c>
       <c r="P6" t="str">
         <v/>
@@ -7695,7 +7757,7 @@
         <v>-1</v>
       </c>
       <c r="F7" t="str">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -7719,10 +7781,10 @@
         <v/>
       </c>
       <c r="N7" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Harry Plantinga</v>
       </c>
       <c r="O7" t="str">
-        <v>Chair</v>
+        <v>CCEL</v>
       </c>
       <c r="P7" t="str">
         <v/>
@@ -7745,7 +7807,7 @@
         <v>-1</v>
       </c>
       <c r="F8" t="str">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -7769,10 +7831,10 @@
         <v/>
       </c>
       <c r="N8" t="str">
-        <v>Harry Plantinga</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O8" t="str">
-        <v>CCEL</v>
+        <v>2 CS 396/8 projects</v>
       </c>
       <c r="P8" t="str">
         <v/>
@@ -7795,7 +7857,7 @@
         <v>-1</v>
       </c>
       <c r="F9" t="str">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -7807,10 +7869,7 @@
         <v/>
       </c>
       <c r="J9" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K9" t="str">
-        <v>-Full</v>
+        <v/>
       </c>
       <c r="L9" t="str">
         <v/>
@@ -7819,10 +7878,10 @@
         <v/>
       </c>
       <c r="N9" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O9" t="str">
-        <v>Sabbatical</v>
+        <v>CCCS Fellowship ?</v>
       </c>
       <c r="P9" t="str">
         <v/>
@@ -7845,7 +7904,7 @@
         <v>-1</v>
       </c>
       <c r="F10" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -7857,10 +7916,7 @@
         <v/>
       </c>
       <c r="J10" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K10" t="str">
-        <v>-Full</v>
+        <v/>
       </c>
       <c r="L10" t="str">
         <v/>
@@ -7869,10 +7925,10 @@
         <v/>
       </c>
       <c r="N10" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O10" t="str">
-        <v>2 CS 396/8 projects</v>
+        <v>CRF ?</v>
       </c>
       <c r="P10" t="str">
         <v/>
@@ -7895,7 +7951,7 @@
         <v>-1</v>
       </c>
       <c r="F11" t="str">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -7907,10 +7963,7 @@
         <v/>
       </c>
       <c r="J11" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K11" t="str">
-        <v>-Full</v>
+        <v/>
       </c>
       <c r="L11" t="str">
         <v/>
@@ -7919,10 +7972,10 @@
         <v/>
       </c>
       <c r="N11" t="str">
-        <v>Eric Araujo</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O11" t="str">
-        <v>CRF</v>
+        <v>Legacy CRF ?</v>
       </c>
       <c r="P11" t="str">
         <v/>
@@ -7932,50 +7985,44 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>FA</v>
-      </c>
       <c r="B12" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="C12" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="D12" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F12" t="str">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G12" t="str">
-        <v>MTWRF</v>
+        <v/>
       </c>
       <c r="H12" t="str">
-        <v>16:00:00 - 18:15:00</v>
+        <v/>
       </c>
       <c r="I12" t="str">
-        <v>, ,</v>
+        <v/>
       </c>
       <c r="J12" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K12" t="str">
-        <v>FA-Full</v>
-      </c>
-      <c r="L12">
-        <v>135</v>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v/>
       </c>
       <c r="M12" t="str">
         <v/>
       </c>
       <c r="N12" t="str">
-        <v>*</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O12" t="str">
-        <v>LEC</v>
+        <v>Sabbatical ?</v>
       </c>
       <c r="P12" t="str">
         <v/>
@@ -7986,7 +8033,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B13" t="str">
         <v>*</v>
@@ -8016,7 +8063,7 @@
         <v>Full</v>
       </c>
       <c r="K13" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L13">
         <v>135</v>
@@ -8039,46 +8086,46 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B14" t="str">
-        <v>CS</v>
+        <v>*</v>
       </c>
       <c r="C14" t="str">
-        <v>100</v>
+        <v>*</v>
       </c>
       <c r="D14" t="str">
-        <v>A</v>
+        <v>*</v>
       </c>
       <c r="E14" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="str">
-        <v>TR</v>
+        <v>MTWRF</v>
       </c>
       <c r="H14" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>16:00:00 - 18:15:00</v>
       </c>
       <c r="I14" t="str">
-        <v>SB 354</v>
+        <v>, ,</v>
       </c>
       <c r="J14" t="str">
         <v>Full</v>
       </c>
       <c r="K14" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="M14" t="str">
-        <v>Creating Interactive Web Media</v>
+        <v/>
       </c>
       <c r="N14" t="str">
-        <v>David Meyer</v>
+        <v>*</v>
       </c>
       <c r="O14" t="str">
         <v>LEC</v>
@@ -8098,43 +8145,43 @@
         <v>CS</v>
       </c>
       <c r="C15" t="str">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D15" t="str">
         <v>A</v>
       </c>
       <c r="E15" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H15" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I15" t="str">
-        <v>SB 372</v>
+        <v>SB 354</v>
       </c>
       <c r="J15" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K15" t="str">
-        <v>FA-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L15">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M15" t="str">
-        <v>Applied Computing</v>
+        <v>Creating Interactive Web Media</v>
       </c>
       <c r="N15" t="str">
-        <v>Staff</v>
+        <v>David Meyer</v>
       </c>
       <c r="O15" t="str">
-        <v/>
+        <v>LEC</v>
       </c>
       <c r="P15" t="str">
         <v/>
@@ -8154,7 +8201,7 @@
         <v>104</v>
       </c>
       <c r="D16" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E16" t="str">
         <v>1</v>
@@ -8172,10 +8219,10 @@
         <v>SB 372</v>
       </c>
       <c r="J16" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K16" t="str">
-        <v>FA-Second</v>
+        <v>FA-First</v>
       </c>
       <c r="L16">
         <v>65</v>
@@ -8204,40 +8251,40 @@
         <v>CS</v>
       </c>
       <c r="C17" t="str">
-        <v>104L</v>
+        <v>104</v>
       </c>
       <c r="D17" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E17" t="str">
         <v>1</v>
       </c>
       <c r="F17" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G17" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="H17" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I17" t="str">
         <v>SB 372</v>
       </c>
       <c r="J17" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K17" t="str">
-        <v>FA-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M17" t="str">
         <v>Applied Computing</v>
       </c>
       <c r="N17" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Staff</v>
       </c>
       <c r="O17" t="str">
         <v/>
@@ -8260,7 +8307,7 @@
         <v>104L</v>
       </c>
       <c r="D18" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E18" t="str">
         <v>1</v>
@@ -8272,7 +8319,7 @@
         <v>T</v>
       </c>
       <c r="H18" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I18" t="str">
         <v>SB 372</v>
@@ -8290,7 +8337,7 @@
         <v>Applied Computing</v>
       </c>
       <c r="N18" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="O18" t="str">
         <v/>
@@ -8313,7 +8360,7 @@
         <v>104L</v>
       </c>
       <c r="D19" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="E19" t="str">
         <v>1</v>
@@ -8325,16 +8372,16 @@
         <v>T</v>
       </c>
       <c r="H19" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I19" t="str">
         <v>SB 372</v>
       </c>
       <c r="J19" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K19" t="str">
-        <v>FA-Second</v>
+        <v>FA-First</v>
       </c>
       <c r="L19">
         <v>100</v>
@@ -8343,7 +8390,7 @@
         <v>Applied Computing</v>
       </c>
       <c r="N19" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O19" t="str">
         <v/>
@@ -8366,7 +8413,7 @@
         <v>104L</v>
       </c>
       <c r="D20" t="str">
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="E20" t="str">
         <v>1</v>
@@ -8378,7 +8425,7 @@
         <v>T</v>
       </c>
       <c r="H20" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I20" t="str">
         <v>SB 372</v>
@@ -8396,7 +8443,7 @@
         <v>Applied Computing</v>
       </c>
       <c r="N20" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="O20" t="str">
         <v/>
@@ -8416,40 +8463,40 @@
         <v>CS</v>
       </c>
       <c r="C21" t="str">
-        <v>108</v>
+        <v>104L</v>
       </c>
       <c r="D21" t="str">
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="E21" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G21" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="H21" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I21" t="str">
         <v>SB 372</v>
       </c>
       <c r="J21" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K21" t="str">
-        <v>FA-Full</v>
+        <v>FA-Second</v>
       </c>
       <c r="L21">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M21" t="str">
-        <v>Intro to Computing</v>
+        <v>Applied Computing</v>
       </c>
       <c r="N21" t="str">
-        <v>Rocky Chang</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O21" t="str">
         <v/>
@@ -8463,7 +8510,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B22" t="str">
         <v>CS</v>
@@ -8484,16 +8531,16 @@
         <v>MWF</v>
       </c>
       <c r="H22" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I22" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J22" t="str">
         <v>Full</v>
       </c>
       <c r="K22" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L22">
         <v>65</v>
@@ -8502,7 +8549,7 @@
         <v>Intro to Computing</v>
       </c>
       <c r="N22" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O22" t="str">
         <v/>
@@ -8516,7 +8563,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B23" t="str">
         <v>CS</v>
@@ -8525,7 +8572,7 @@
         <v>108</v>
       </c>
       <c r="D23" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E23" t="str">
         <v>3</v>
@@ -8540,13 +8587,13 @@
         <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I23" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J23" t="str">
         <v>Full</v>
       </c>
       <c r="K23" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L23">
         <v>65</v>
@@ -8555,7 +8602,7 @@
         <v>Intro to Computing</v>
       </c>
       <c r="N23" t="str">
-        <v>Rocky Chang</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O23" t="str">
         <v/>
@@ -8569,7 +8616,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B24" t="str">
         <v>CS</v>
@@ -8590,16 +8637,16 @@
         <v>MWF</v>
       </c>
       <c r="H24" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I24" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J24" t="str">
         <v>Full</v>
       </c>
       <c r="K24" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L24">
         <v>65</v>
@@ -8608,7 +8655,7 @@
         <v>Intro to Computing</v>
       </c>
       <c r="N24" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O24" t="str">
         <v/>
@@ -8622,46 +8669,46 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B25" t="str">
         <v>CS</v>
       </c>
       <c r="C25" t="str">
-        <v>108L</v>
+        <v>108</v>
       </c>
       <c r="D25" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E25" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="H25" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I25" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J25" t="str">
         <v>Full</v>
       </c>
       <c r="K25" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M25" t="str">
-        <v>Intro to Computing Lab</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="N25" t="str">
-        <v>Rocky Chang</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O25" t="str">
         <v/>
@@ -8675,7 +8722,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B26" t="str">
         <v>CS</v>
@@ -8705,7 +8752,7 @@
         <v>Full</v>
       </c>
       <c r="K26" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L26">
         <v>100</v>
@@ -8714,7 +8761,7 @@
         <v>Intro to Computing Lab</v>
       </c>
       <c r="N26" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O26" t="str">
         <v/>
@@ -8834,46 +8881,46 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B29" t="str">
         <v>CS</v>
       </c>
       <c r="C29" t="str">
-        <v>112</v>
+        <v>108L</v>
       </c>
       <c r="D29" t="str">
         <v>A</v>
       </c>
       <c r="E29" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" t="str">
-        <v>MWF</v>
+        <v>R</v>
       </c>
       <c r="H29" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I29" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J29" t="str">
         <v>Full</v>
       </c>
       <c r="K29" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L29">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M29" t="str">
-        <v>Intro to Data Structures</v>
+        <v>Intro to Computing Lab</v>
       </c>
       <c r="N29" t="str">
-        <v>Eric Araujo</v>
+        <v>Staff</v>
       </c>
       <c r="O29" t="str">
         <v/>
@@ -8887,7 +8934,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B30" t="str">
         <v>CS</v>
@@ -8908,16 +8955,16 @@
         <v>MWF</v>
       </c>
       <c r="H30" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I30" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J30" t="str">
         <v>Full</v>
       </c>
       <c r="K30" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L30">
         <v>65</v>
@@ -8926,7 +8973,7 @@
         <v>Intro to Data Structures</v>
       </c>
       <c r="N30" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O30" t="str">
         <v/>
@@ -8940,7 +8987,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B31" t="str">
         <v>CS</v>
@@ -8949,7 +8996,7 @@
         <v>112</v>
       </c>
       <c r="D31" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E31" t="str">
         <v>3</v>
@@ -8961,16 +9008,16 @@
         <v>MWF</v>
       </c>
       <c r="H31" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I31" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J31" t="str">
         <v>Full</v>
       </c>
       <c r="K31" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L31">
         <v>65</v>
@@ -8979,7 +9026,7 @@
         <v>Intro to Data Structures</v>
       </c>
       <c r="N31" t="str">
-        <v>Eric Araujo</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O31" t="str">
         <v/>
@@ -8993,7 +9040,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B32" t="str">
         <v>CS</v>
@@ -9014,16 +9061,16 @@
         <v>MWF</v>
       </c>
       <c r="H32" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I32" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J32" t="str">
         <v>Full</v>
       </c>
       <c r="K32" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L32">
         <v>65</v>
@@ -9032,7 +9079,7 @@
         <v>Intro to Data Structures</v>
       </c>
       <c r="N32" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O32" t="str">
         <v/>
@@ -9046,28 +9093,28 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B33" t="str">
         <v>CS</v>
       </c>
       <c r="C33" t="str">
-        <v>112L</v>
+        <v>112</v>
       </c>
       <c r="D33" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E33" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="H33" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I33" t="str">
         <v>SB 372</v>
@@ -9076,16 +9123,16 @@
         <v>Full</v>
       </c>
       <c r="K33" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L33">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M33" t="str">
-        <v>Intro to Data Structures Lab</v>
+        <v>Intro to Data Structures</v>
       </c>
       <c r="N33" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O33" t="str">
         <v/>
@@ -9099,7 +9146,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B34" t="str">
         <v>CS</v>
@@ -9129,7 +9176,7 @@
         <v>Full</v>
       </c>
       <c r="K34" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L34">
         <v>100</v>
@@ -9138,7 +9185,7 @@
         <v>Intro to Data Structures Lab</v>
       </c>
       <c r="N34" t="str">
-        <v>Eric Araujo</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="O34" t="str">
         <v/>
@@ -9152,7 +9199,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B35" t="str">
         <v>CS</v>
@@ -9161,7 +9208,7 @@
         <v>112L</v>
       </c>
       <c r="D35" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E35" t="str">
         <v>1</v>
@@ -9173,7 +9220,7 @@
         <v>T</v>
       </c>
       <c r="H35" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I35" t="str">
         <v>SB 372</v>
@@ -9182,7 +9229,7 @@
         <v>Full</v>
       </c>
       <c r="K35" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L35">
         <v>100</v>
@@ -9191,7 +9238,7 @@
         <v>Intro to Data Structures Lab</v>
       </c>
       <c r="N35" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O35" t="str">
         <v/>
@@ -9205,7 +9252,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B36" t="str">
         <v>CS</v>
@@ -9235,7 +9282,7 @@
         <v>Full</v>
       </c>
       <c r="K36" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L36">
         <v>100</v>
@@ -9244,7 +9291,7 @@
         <v>Intro to Data Structures Lab</v>
       </c>
       <c r="N36" t="str">
-        <v>Eric Araujo</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="O36" t="str">
         <v/>
@@ -9258,46 +9305,46 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B37" t="str">
         <v>CS</v>
       </c>
       <c r="C37" t="str">
-        <v>195</v>
+        <v>112L</v>
       </c>
       <c r="D37" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E37" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="str">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G37" t="str">
         <v>T</v>
       </c>
       <c r="H37" t="str">
-        <v>15:05:00 - 15:55:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I37" t="str">
-        <v>SB 10</v>
+        <v>SB 372</v>
       </c>
       <c r="J37" t="str">
         <v>Full</v>
       </c>
       <c r="K37" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L37">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M37" t="str">
-        <v>Intro Computing Seminar</v>
+        <v>Intro to Data Structures Lab</v>
       </c>
       <c r="N37" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O37" t="str">
         <v/>
@@ -9311,7 +9358,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B38" t="str">
         <v>CS</v>
@@ -9341,7 +9388,7 @@
         <v>Full</v>
       </c>
       <c r="K38" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L38">
         <v>50</v>
@@ -9364,46 +9411,46 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B39" t="str">
         <v>CS</v>
       </c>
       <c r="C39" t="str">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D39" t="str">
         <v>A</v>
       </c>
       <c r="E39" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F39" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G39" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="H39" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>15:05:00 - 15:55:00</v>
       </c>
       <c r="I39" t="str">
-        <v>SB 372</v>
+        <v>SB 10</v>
       </c>
       <c r="J39" t="str">
         <v>Full</v>
       </c>
       <c r="K39" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L39">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M39" t="str">
-        <v>Data Structures &amp; Algorithms</v>
+        <v>Intro Computing Seminar</v>
       </c>
       <c r="N39" t="str">
-        <v>Staff</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O39" t="str">
         <v/>
@@ -9426,7 +9473,7 @@
         <v>212</v>
       </c>
       <c r="D40" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E40" t="str">
         <v>4</v>
@@ -9438,7 +9485,7 @@
         <v>MWF</v>
       </c>
       <c r="H40" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I40" t="str">
         <v>SB 372</v>
@@ -9470,16 +9517,16 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B41" t="str">
         <v>CS</v>
       </c>
       <c r="C41" t="str">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D41" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E41" t="str">
         <v>4</v>
@@ -9488,28 +9535,28 @@
         <v>4</v>
       </c>
       <c r="G41" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="H41" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I41" t="str">
-        <v>SB 372, SB 354</v>
+        <v>SB 372</v>
       </c>
       <c r="J41" t="str">
         <v>Full</v>
       </c>
       <c r="K41" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L41">
         <v>65</v>
       </c>
       <c r="M41" t="str">
-        <v>Programming Lang Concepts</v>
+        <v>Data Structures &amp; Algorithms</v>
       </c>
       <c r="N41" t="str">
-        <v>Eric Araujo</v>
+        <v>Staff</v>
       </c>
       <c r="O41" t="str">
         <v/>
@@ -9532,7 +9579,7 @@
         <v>214</v>
       </c>
       <c r="D42" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E42" t="str">
         <v>4</v>
@@ -9541,13 +9588,13 @@
         <v>4</v>
       </c>
       <c r="G42" t="str">
-        <v>F</v>
+        <v>MW</v>
       </c>
       <c r="H42" t="str">
-        <v>14:45:00 - 17:05:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I42" t="str">
-        <v>SB 372, SB 372</v>
+        <v>SB 372, SB 354</v>
       </c>
       <c r="J42" t="str">
         <v>Full</v>
@@ -9556,13 +9603,13 @@
         <v>SP-Full</v>
       </c>
       <c r="L42">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="M42" t="str">
         <v>Programming Lang Concepts</v>
       </c>
       <c r="N42" t="str">
-        <v>David Meyer</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O42" t="str">
         <v/>
@@ -9582,10 +9629,10 @@
         <v>CS</v>
       </c>
       <c r="C43" t="str">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="D43" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E43" t="str">
         <v>4</v>
@@ -9594,13 +9641,13 @@
         <v>4</v>
       </c>
       <c r="G43" t="str">
-        <v>MWF</v>
+        <v>F</v>
       </c>
       <c r="H43" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>14:45:00 - 17:05:00</v>
       </c>
       <c r="I43" t="str">
-        <v>SB 372</v>
+        <v>SB 372, SB 372</v>
       </c>
       <c r="J43" t="str">
         <v>Full</v>
@@ -9609,13 +9656,13 @@
         <v>SP-Full</v>
       </c>
       <c r="L43">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="M43" t="str">
-        <v>Operating Systems and Networki</v>
+        <v>Programming Lang Concepts</v>
       </c>
       <c r="N43" t="str">
-        <v>Rocky Chang</v>
+        <v>David Meyer</v>
       </c>
       <c r="O43" t="str">
         <v/>
@@ -9638,7 +9685,7 @@
         <v>232</v>
       </c>
       <c r="D44" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E44" t="str">
         <v>4</v>
@@ -9650,7 +9697,7 @@
         <v>MWF</v>
       </c>
       <c r="H44" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I44" t="str">
         <v>SB 372</v>
@@ -9682,16 +9729,16 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B45" t="str">
         <v>CS</v>
       </c>
       <c r="C45" t="str">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="D45" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E45" t="str">
         <v>4</v>
@@ -9700,28 +9747,28 @@
         <v>4</v>
       </c>
       <c r="G45" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="H45" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I45" t="str">
-        <v>SC 120, SB 354</v>
+        <v>SB 372</v>
       </c>
       <c r="J45" t="str">
         <v>Full</v>
       </c>
       <c r="K45" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L45">
         <v>65</v>
       </c>
       <c r="M45" t="str">
-        <v>Software Engineering</v>
+        <v>Operating Systems and Networki</v>
       </c>
       <c r="N45" t="str">
-        <v>Victor T. Norman</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O45" t="str">
         <v/>
@@ -9744,7 +9791,7 @@
         <v>262</v>
       </c>
       <c r="D46" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E46" t="str">
         <v>4</v>
@@ -9756,10 +9803,10 @@
         <v>MW</v>
       </c>
       <c r="H46" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I46" t="str">
-        <v>SC 120, SB 337</v>
+        <v>SC 120, SB 354</v>
       </c>
       <c r="J46" t="str">
         <v>Full</v>
@@ -9794,25 +9841,25 @@
         <v>CS</v>
       </c>
       <c r="C47" t="str">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D47" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E47" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F47" t="str">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G47" t="str">
-        <v>T</v>
+        <v>MW</v>
       </c>
       <c r="H47" t="str">
-        <v>15:05:00 - 15:55:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I47" t="str">
-        <v>SB 10</v>
+        <v>SC 120, SB 337</v>
       </c>
       <c r="J47" t="str">
         <v>Full</v>
@@ -9821,10 +9868,10 @@
         <v>FA-Full</v>
       </c>
       <c r="L47">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M47" t="str">
-        <v>Computing Seminar</v>
+        <v>Software Engineering</v>
       </c>
       <c r="N47" t="str">
         <v>Victor T. Norman</v>
@@ -9841,7 +9888,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B48" t="str">
         <v>CS</v>
@@ -9871,7 +9918,7 @@
         <v>Full</v>
       </c>
       <c r="K48" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L48">
         <v>50</v>
@@ -9900,25 +9947,25 @@
         <v>CS</v>
       </c>
       <c r="C49" t="str">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D49" t="str">
         <v>A</v>
       </c>
       <c r="E49" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F49" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G49" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="H49" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>15:05:00 - 15:55:00</v>
       </c>
       <c r="I49" t="str">
-        <v>SB 382</v>
+        <v>SB 10</v>
       </c>
       <c r="J49" t="str">
         <v>Full</v>
@@ -9927,13 +9974,13 @@
         <v>SP-Full</v>
       </c>
       <c r="L49">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M49" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Computing Seminar</v>
       </c>
       <c r="N49" t="str">
-        <v>Rocky Chang</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O49" t="str">
         <v/>
@@ -9947,7 +9994,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B50" t="str">
         <v>CS</v>
@@ -9959,25 +10006,25 @@
         <v>A</v>
       </c>
       <c r="E50" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50" t="str">
         <v>MWF</v>
       </c>
       <c r="H50" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I50" t="str">
         <v>SB 382</v>
       </c>
       <c r="J50" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K50" t="str">
-        <v>FA-First</v>
+        <v>SP-Full</v>
       </c>
       <c r="L50">
         <v>65</v>
@@ -9986,13 +10033,13 @@
         <v>Applied Machine Learning</v>
       </c>
       <c r="N50" t="str">
-        <v>Staff</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O50" t="str">
         <v/>
       </c>
       <c r="P50" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="Q50" t="str">
         <v/>
@@ -10009,7 +10056,7 @@
         <v>300</v>
       </c>
       <c r="D51" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E51" t="str">
         <v>2</v>
@@ -10027,10 +10074,10 @@
         <v>SB 382</v>
       </c>
       <c r="J51" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K51" t="str">
-        <v>FA-Second</v>
+        <v>FA-First</v>
       </c>
       <c r="L51">
         <v>65</v>
@@ -10059,46 +10106,46 @@
         <v>CS</v>
       </c>
       <c r="C52" t="str">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="D52" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E52" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G52" t="str">
         <v>MWF</v>
       </c>
       <c r="H52" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I52" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="J52" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K52" t="str">
-        <v>FA-Full</v>
+        <v>FA-Second</v>
       </c>
       <c r="L52">
         <v>65</v>
       </c>
       <c r="M52" t="str">
-        <v>Web Development</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="N52" t="str">
-        <v>Victor T. Norman</v>
+        <v>Staff</v>
       </c>
       <c r="O52" t="str">
         <v/>
       </c>
       <c r="P52" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="Q52" t="str">
         <v/>
@@ -10106,46 +10153,46 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B53" t="str">
         <v>CS</v>
       </c>
       <c r="C53" t="str">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D53" t="str">
         <v>A</v>
       </c>
       <c r="E53" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53" t="str">
         <v>MWF</v>
       </c>
       <c r="H53" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I53" t="str">
-        <v>SB 382</v>
+        <v>HH 336</v>
       </c>
       <c r="J53" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K53" t="str">
-        <v>SP-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L53">
         <v>65</v>
       </c>
       <c r="M53" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Web Development</v>
       </c>
       <c r="N53" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O53" t="str">
         <v/>
@@ -10165,7 +10212,7 @@
         <v>CS</v>
       </c>
       <c r="C54" t="str">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D54" t="str">
         <v>A</v>
@@ -10186,16 +10233,16 @@
         <v>SB 382</v>
       </c>
       <c r="J54" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K54" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L54">
         <v>65</v>
       </c>
       <c r="M54" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="N54" t="str">
         <v>Christopher Wieringa</v>
@@ -10218,7 +10265,7 @@
         <v>CS</v>
       </c>
       <c r="C55" t="str">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D55" t="str">
         <v>A</v>
@@ -10233,7 +10280,7 @@
         <v>MWF</v>
       </c>
       <c r="H55" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I55" t="str">
         <v>SB 382</v>
@@ -10248,10 +10295,10 @@
         <v>65</v>
       </c>
       <c r="M55" t="str">
-        <v>Database Management Systems</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="N55" t="str">
-        <v>Eric Araujo</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="O55" t="str">
         <v/>
@@ -10265,46 +10312,46 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B56" t="str">
         <v>CS</v>
       </c>
       <c r="C56" t="str">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D56" t="str">
         <v>A</v>
       </c>
       <c r="E56" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F56" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56" t="str">
-        <v>MR</v>
+        <v>MWF</v>
       </c>
       <c r="H56" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I56" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J56" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K56" t="str">
-        <v>FA-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L56">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M56" t="str">
-        <v>Computer Security</v>
+        <v>Database Management Systems</v>
       </c>
       <c r="N56" t="str">
-        <v>Brian D Paige, Adam Vedra</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O56" t="str">
         <v/>
@@ -10318,46 +10365,46 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B57" t="str">
         <v>CS</v>
       </c>
       <c r="C57" t="str">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D57" t="str">
         <v>A</v>
       </c>
       <c r="E57" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F57" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G57" t="str">
-        <v>MWF</v>
+        <v>MR</v>
       </c>
       <c r="H57" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I57" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J57" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K57" t="str">
-        <v>SP-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L57">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M57" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Computer Security</v>
       </c>
       <c r="N57" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Brian D Paige, Adam Vedra</v>
       </c>
       <c r="O57" t="str">
         <v/>
@@ -10377,7 +10424,7 @@
         <v>CS</v>
       </c>
       <c r="C58" t="str">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D58" t="str">
         <v>A</v>
@@ -10398,16 +10445,16 @@
         <v>SB 382</v>
       </c>
       <c r="J58" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K58" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L58">
         <v>65</v>
       </c>
       <c r="M58" t="str">
-        <v>Machine Learning</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="N58" t="str">
         <v>Kenneth C Arnold</v>
@@ -10424,46 +10471,46 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B59" t="str">
         <v>CS</v>
       </c>
       <c r="C59" t="str">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D59" t="str">
         <v>A</v>
       </c>
       <c r="E59" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="H59" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I59" t="str">
         <v>SB 382</v>
       </c>
       <c r="J59" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K59" t="str">
-        <v>FA-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L59">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M59" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>Machine Learning</v>
       </c>
       <c r="N59" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O59" t="str">
         <v/>
@@ -10477,7 +10524,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B60" t="str">
         <v>CS</v>
@@ -10507,7 +10554,7 @@
         <v>Full</v>
       </c>
       <c r="K60" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L60">
         <v>50</v>
@@ -10536,25 +10583,25 @@
         <v>CS</v>
       </c>
       <c r="C61" t="str">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D61" t="str">
         <v>A</v>
       </c>
       <c r="E61" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G61" t="str">
-        <v>TR</v>
+        <v>R</v>
       </c>
       <c r="H61" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I61" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="J61" t="str">
         <v>Full</v>
@@ -10563,10 +10610,10 @@
         <v>SP-Full</v>
       </c>
       <c r="L61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M61" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="N61" t="str">
         <v>Derek C Schuurman</v>
@@ -10592,7 +10639,7 @@
         <v>384</v>
       </c>
       <c r="D62" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E62" t="str">
         <v>4</v>
@@ -10604,7 +10651,7 @@
         <v>TR</v>
       </c>
       <c r="H62" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I62" t="str">
         <v>HH 336</v>
@@ -10622,7 +10669,7 @@
         <v>Perspectives on Computing</v>
       </c>
       <c r="N62" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O62" t="str">
         <v/>
@@ -10636,43 +10683,43 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B63" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C63" t="str">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="D63" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E63" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G63" t="str">
         <v>TR</v>
       </c>
       <c r="H63" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I63" t="str">
-        <v>SB 354</v>
+        <v>HH 336</v>
       </c>
       <c r="J63" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K63" t="str">
-        <v>FA-First</v>
+        <v>SP-Full</v>
       </c>
       <c r="L63">
         <v>100</v>
       </c>
       <c r="M63" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="N63" t="str">
         <v>Fernando Pasquini Santos</v>
@@ -10698,7 +10745,7 @@
         <v>102</v>
       </c>
       <c r="D64" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E64" t="str">
         <v>2</v>
@@ -10710,7 +10757,7 @@
         <v>TR</v>
       </c>
       <c r="H64" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I64" t="str">
         <v>SB 354</v>
@@ -10728,7 +10775,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N64" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O64" t="str">
         <v/>
@@ -10742,7 +10789,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B65" t="str">
         <v>DATA</v>
@@ -10772,7 +10819,7 @@
         <v>First</v>
       </c>
       <c r="K65" t="str">
-        <v>SP-First</v>
+        <v>FA-First</v>
       </c>
       <c r="L65">
         <v>100</v>
@@ -10795,7 +10842,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B66" t="str">
         <v>DATA</v>
@@ -10804,7 +10851,7 @@
         <v>102</v>
       </c>
       <c r="D66" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="E66" t="str">
         <v>2</v>
@@ -10816,7 +10863,7 @@
         <v>TR</v>
       </c>
       <c r="H66" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I66" t="str">
         <v>SB 354</v>
@@ -10825,7 +10872,7 @@
         <v>First</v>
       </c>
       <c r="K66" t="str">
-        <v>FA-First</v>
+        <v>SP-First</v>
       </c>
       <c r="L66">
         <v>100</v>
@@ -10848,7 +10895,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B67" t="str">
         <v>DATA</v>
@@ -10878,7 +10925,7 @@
         <v>First</v>
       </c>
       <c r="K67" t="str">
-        <v>SP-First</v>
+        <v>FA-First</v>
       </c>
       <c r="L67">
         <v>100</v>
@@ -10901,7 +10948,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B68" t="str">
         <v>DATA</v>
@@ -10910,7 +10957,7 @@
         <v>102</v>
       </c>
       <c r="D68" t="str">
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="E68" t="str">
         <v>2</v>
@@ -10922,7 +10969,7 @@
         <v>TR</v>
       </c>
       <c r="H68" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I68" t="str">
         <v>SB 354</v>
@@ -10931,7 +10978,7 @@
         <v>First</v>
       </c>
       <c r="K68" t="str">
-        <v>FA-First</v>
+        <v>SP-First</v>
       </c>
       <c r="L68">
         <v>100</v>
@@ -10940,7 +10987,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N68" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O68" t="str">
         <v/>
@@ -10954,7 +11001,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B69" t="str">
         <v>DATA</v>
@@ -10984,7 +11031,7 @@
         <v>First</v>
       </c>
       <c r="K69" t="str">
-        <v>SP-First</v>
+        <v>FA-First</v>
       </c>
       <c r="L69">
         <v>100</v>
@@ -11007,7 +11054,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B70" t="str">
         <v>DATA</v>
@@ -11016,7 +11063,7 @@
         <v>102</v>
       </c>
       <c r="D70" t="str">
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="E70" t="str">
         <v>2</v>
@@ -11028,16 +11075,16 @@
         <v>TR</v>
       </c>
       <c r="H70" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I70" t="str">
         <v>SB 354</v>
       </c>
       <c r="J70" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K70" t="str">
-        <v>FA-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L70">
         <v>100</v>
@@ -11046,7 +11093,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N70" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O70" t="str">
         <v/>
@@ -11069,7 +11116,7 @@
         <v>102</v>
       </c>
       <c r="D71" t="str">
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="E71" t="str">
         <v>2</v>
@@ -11081,7 +11128,7 @@
         <v>TR</v>
       </c>
       <c r="H71" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I71" t="str">
         <v>SB 354</v>
@@ -11099,7 +11146,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N71" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O71" t="str">
         <v/>
@@ -11113,7 +11160,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B72" t="str">
         <v>DATA</v>
@@ -11143,7 +11190,7 @@
         <v>Second</v>
       </c>
       <c r="K72" t="str">
-        <v>SP-Second</v>
+        <v>FA-Second</v>
       </c>
       <c r="L72">
         <v>100</v>
@@ -11166,7 +11213,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B73" t="str">
         <v>DATA</v>
@@ -11175,7 +11222,7 @@
         <v>102</v>
       </c>
       <c r="D73" t="str">
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="E73" t="str">
         <v>2</v>
@@ -11187,7 +11234,7 @@
         <v>TR</v>
       </c>
       <c r="H73" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I73" t="str">
         <v>SB 354</v>
@@ -11196,7 +11243,7 @@
         <v>Second</v>
       </c>
       <c r="K73" t="str">
-        <v>FA-Second</v>
+        <v>SP-Second</v>
       </c>
       <c r="L73">
         <v>100</v>
@@ -11219,7 +11266,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B74" t="str">
         <v>DATA</v>
@@ -11249,7 +11296,7 @@
         <v>Second</v>
       </c>
       <c r="K74" t="str">
-        <v>SP-Second</v>
+        <v>FA-Second</v>
       </c>
       <c r="L74">
         <v>100</v>
@@ -11272,7 +11319,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B75" t="str">
         <v>DATA</v>
@@ -11281,7 +11328,7 @@
         <v>102</v>
       </c>
       <c r="D75" t="str">
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="E75" t="str">
         <v>2</v>
@@ -11293,7 +11340,7 @@
         <v>TR</v>
       </c>
       <c r="H75" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I75" t="str">
         <v>SB 354</v>
@@ -11302,7 +11349,7 @@
         <v>Second</v>
       </c>
       <c r="K75" t="str">
-        <v>FA-Second</v>
+        <v>SP-Second</v>
       </c>
       <c r="L75">
         <v>100</v>
@@ -11311,7 +11358,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N75" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O75" t="str">
         <v/>
@@ -11325,7 +11372,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B76" t="str">
         <v>DATA</v>
@@ -11355,7 +11402,7 @@
         <v>Second</v>
       </c>
       <c r="K76" t="str">
-        <v>SP-Second</v>
+        <v>FA-Second</v>
       </c>
       <c r="L76">
         <v>100</v>
@@ -11376,7 +11423,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" xml:space="preserve">
+    <row r="77">
       <c r="A77" t="str">
         <v>SP</v>
       </c>
@@ -11387,7 +11434,7 @@
         <v>102</v>
       </c>
       <c r="D77" t="str">
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="E77" t="str">
         <v>2</v>
@@ -11396,28 +11443,28 @@
         <v>2</v>
       </c>
       <c r="G77" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H77" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I77" t="str">
         <v>SB 354</v>
       </c>
       <c r="J77" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K77" t="str">
-        <v>SP-First</v>
+        <v>SP-Second</v>
       </c>
       <c r="L77">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M77" t="str">
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N77" t="str">
-        <v>Staff</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O77" t="str">
         <v/>
@@ -11425,9 +11472,8 @@
       <c r="P77" t="str">
         <v/>
       </c>
-      <c r="Q77" t="str" xml:space="preserve">
-        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
-Set as on-hold? we may not have the enrollment.</v>
+      <c r="Q77" t="str">
+        <v/>
       </c>
     </row>
     <row r="78" xml:space="preserve">
@@ -11441,7 +11487,7 @@
         <v>102</v>
       </c>
       <c r="D78" t="str">
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="E78" t="str">
         <v>2</v>
@@ -11459,10 +11505,10 @@
         <v>SB 354</v>
       </c>
       <c r="J78" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K78" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L78">
         <v>65</v>
@@ -11484,48 +11530,48 @@
 Set as on-hold? we may not have the enrollment.</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" xml:space="preserve">
       <c r="A79" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B79" t="str">
         <v>DATA</v>
       </c>
       <c r="C79" t="str">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="D79" t="str">
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="E79" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F79" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79" t="str">
         <v>MWF</v>
       </c>
       <c r="H79" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I79" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="J79" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K79" t="str">
-        <v>FA-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L79">
         <v>65</v>
       </c>
       <c r="M79" t="str">
-        <v>Predictive Analytics</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N79" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Staff</v>
       </c>
       <c r="O79" t="str">
         <v/>
@@ -11533,8 +11579,9 @@
       <c r="P79" t="str">
         <v/>
       </c>
-      <c r="Q79" t="str">
-        <v/>
+      <c r="Q79" t="str" xml:space="preserve">
+        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
+Set as on-hold? we may not have the enrollment.</v>
       </c>
     </row>
     <row r="80">
@@ -11548,7 +11595,7 @@
         <v>202</v>
       </c>
       <c r="D80" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E80" t="str">
         <v>4</v>
@@ -11560,7 +11607,7 @@
         <v>MWF</v>
       </c>
       <c r="H80" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I80" t="str">
         <v>SB 382</v>
@@ -11595,28 +11642,28 @@
         <v>FA</v>
       </c>
       <c r="B81" t="str">
-        <v>HNRS</v>
+        <v>DATA</v>
       </c>
       <c r="C81" t="str">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="D81" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E81" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F81" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G81" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="H81" t="str">
-        <v>14:10:00 - 15:15:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I81" t="str">
-        <v>HL 406C</v>
+        <v>SB 382</v>
       </c>
       <c r="J81" t="str">
         <v>Full</v>
@@ -11628,10 +11675,10 @@
         <v>65</v>
       </c>
       <c r="M81" t="str">
-        <v>Agent Modeling</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N81" t="str">
-        <v>Eric Araujo</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O81" t="str">
         <v/>
@@ -11648,43 +11695,43 @@
         <v>FA</v>
       </c>
       <c r="B82" t="str">
-        <v>CS</v>
+        <v>HNRS</v>
       </c>
       <c r="C82" t="str">
-        <v>300-S</v>
+        <v>251</v>
       </c>
       <c r="D82" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="E82" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G82" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H82" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>14:10:00 - 15:15:00</v>
       </c>
       <c r="I82" t="str">
-        <v>SB 354</v>
+        <v>HL 406C</v>
       </c>
       <c r="J82" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K82" t="str">
-        <v>FA-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L82">
         <v>65</v>
       </c>
       <c r="M82" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Agent Modeling</v>
       </c>
       <c r="N82" t="str">
-        <v>Shadow-Gold</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O82" t="str">
         <v/>
@@ -11698,7 +11745,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B83" t="str">
         <v>CS</v>
@@ -11719,16 +11766,16 @@
         <v>MWF</v>
       </c>
       <c r="H83" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I83" t="str">
         <v>SB 354</v>
       </c>
       <c r="J83" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K83" t="str">
-        <v>SP-Full</v>
+        <v>FA-First</v>
       </c>
       <c r="L83">
         <v>65</v>
@@ -11751,7 +11798,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B84" t="str">
         <v>CS</v>
@@ -11760,7 +11807,7 @@
         <v>300-S</v>
       </c>
       <c r="D84" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="E84" t="str">
         <v>0</v>
@@ -11772,16 +11819,16 @@
         <v>MWF</v>
       </c>
       <c r="H84" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I84" t="str">
         <v>SB 354</v>
       </c>
       <c r="J84" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K84" t="str">
-        <v>FA-Second</v>
+        <v>SP-Full</v>
       </c>
       <c r="L84">
         <v>65</v>
@@ -11804,16 +11851,16 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B85" t="str">
         <v>CS</v>
       </c>
       <c r="C85" t="str">
-        <v>338-S</v>
+        <v>300-S</v>
       </c>
       <c r="D85" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="E85" t="str">
         <v>0</v>
@@ -11825,22 +11872,22 @@
         <v>MWF</v>
       </c>
       <c r="H85" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I85" t="str">
         <v>SB 354</v>
       </c>
       <c r="J85" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K85" t="str">
-        <v>SP-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L85">
         <v>65</v>
       </c>
       <c r="M85" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="N85" t="str">
         <v>Shadow-Gold</v>
@@ -11863,7 +11910,7 @@
         <v>CS</v>
       </c>
       <c r="C86" t="str">
-        <v>339-S</v>
+        <v>338-S</v>
       </c>
       <c r="D86" t="str">
         <v>A-S</v>
@@ -11884,16 +11931,16 @@
         <v>SB 354</v>
       </c>
       <c r="J86" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K86" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L86">
         <v>65</v>
       </c>
       <c r="M86" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="N86" t="str">
         <v>Shadow-Gold</v>
@@ -11910,28 +11957,28 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B87" t="str">
         <v>CS</v>
       </c>
       <c r="C87" t="str">
-        <v>374-S</v>
+        <v>339-S</v>
       </c>
       <c r="D87" t="str">
         <v>A-S</v>
       </c>
       <c r="E87" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F87" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G87" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="H87" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I87" t="str">
         <v>SB 354</v>
@@ -11940,13 +11987,13 @@
         <v>Second</v>
       </c>
       <c r="K87" t="str">
-        <v>FA-Second</v>
+        <v>SP-Second</v>
       </c>
       <c r="L87">
         <v>65</v>
       </c>
       <c r="M87" t="str">
-        <v>High-Performance Computing</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="N87" t="str">
         <v>Shadow-Gold</v>
@@ -11963,43 +12010,43 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B88" t="str">
         <v>CS</v>
       </c>
       <c r="C88" t="str">
-        <v>375-S</v>
+        <v>374-S</v>
       </c>
       <c r="D88" t="str">
         <v>A-S</v>
       </c>
       <c r="E88" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F88" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G88" t="str">
-        <v>MWF</v>
+        <v>MW</v>
       </c>
       <c r="H88" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I88" t="str">
         <v>SB 354</v>
       </c>
       <c r="J88" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K88" t="str">
-        <v>SP-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L88">
         <v>65</v>
       </c>
       <c r="M88" t="str">
-        <v>Artificial Intelligence</v>
+        <v>High-Performance Computing</v>
       </c>
       <c r="N88" t="str">
         <v>Shadow-Gold</v>
@@ -12022,10 +12069,10 @@
         <v>CS</v>
       </c>
       <c r="C89" t="str">
-        <v>376-S</v>
+        <v>375-S</v>
       </c>
       <c r="D89" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="E89" t="str">
         <v>0</v>
@@ -12043,16 +12090,16 @@
         <v>SB 354</v>
       </c>
       <c r="J89" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K89" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L89">
         <v>65</v>
       </c>
       <c r="M89" t="str">
-        <v>Machine Learning</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="N89" t="str">
         <v>Shadow-Gold</v>
@@ -12069,16 +12116,16 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B90" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C90" t="str">
-        <v>202-S</v>
+        <v>376-S</v>
       </c>
       <c r="D90" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="E90" t="str">
         <v>0</v>
@@ -12090,25 +12137,25 @@
         <v>MWF</v>
       </c>
       <c r="H90" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I90" t="str">
         <v>SB 354</v>
       </c>
       <c r="J90" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K90" t="str">
-        <v>FA-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L90">
         <v>65</v>
       </c>
       <c r="M90" t="str">
-        <v>Predictive Analytics</v>
+        <v>Machine Learning</v>
       </c>
       <c r="N90" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Shadow-Gold</v>
       </c>
       <c r="O90" t="str">
         <v/>
@@ -12131,7 +12178,7 @@
         <v>202-S</v>
       </c>
       <c r="D91" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="E91" t="str">
         <v>0</v>
@@ -12143,7 +12190,7 @@
         <v>MWF</v>
       </c>
       <c r="H91" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I91" t="str">
         <v>SB 354</v>
@@ -12178,28 +12225,28 @@
         <v>FA</v>
       </c>
       <c r="B92" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C92" t="str">
-        <v>106</v>
+        <v>202-S</v>
       </c>
       <c r="D92" t="str">
-        <v>A</v>
+        <v>B-S</v>
       </c>
       <c r="E92" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F92" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G92" t="str">
         <v>MWF</v>
       </c>
       <c r="H92" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I92" t="str">
-        <v>SB 372</v>
+        <v>SB 354</v>
       </c>
       <c r="J92" t="str">
         <v>Full</v>
@@ -12211,10 +12258,10 @@
         <v>65</v>
       </c>
       <c r="M92" t="str">
-        <v>Intro to Computing</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N92" t="str">
-        <v>Staff</v>
+        <v>Shadow-Maroon</v>
       </c>
       <c r="O92" t="str">
         <v/>
@@ -12234,22 +12281,22 @@
         <v>CS</v>
       </c>
       <c r="C93" t="str">
-        <v>106L</v>
+        <v>106</v>
       </c>
       <c r="D93" t="str">
         <v>A</v>
       </c>
       <c r="E93" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G93" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="H93" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I93" t="str">
         <v>SB 372</v>
@@ -12261,10 +12308,10 @@
         <v>FA-Full</v>
       </c>
       <c r="L93">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M93" t="str">
-        <v>Intro to Computing Lab</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="N93" t="str">
         <v>Staff</v>
@@ -12281,52 +12328,52 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B94" t="str">
         <v>CS</v>
       </c>
       <c r="C94" t="str">
-        <v>326</v>
+        <v>106L</v>
       </c>
       <c r="D94" t="str">
         <v>A</v>
       </c>
       <c r="E94" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F94" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G94" t="str">
-        <v>MWF</v>
+        <v>R</v>
       </c>
       <c r="H94" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I94" t="str">
-        <v>SB 301</v>
+        <v>SB 372</v>
       </c>
       <c r="J94" t="str">
         <v>Full</v>
       </c>
       <c r="K94" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L94">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M94" t="str">
-        <v>Embedded Systems and the Internet of Things</v>
+        <v>Intro to Computing Lab</v>
       </c>
       <c r="N94" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Staff</v>
       </c>
       <c r="O94" t="str">
         <v/>
       </c>
       <c r="P94" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="Q94" t="str">
         <v/>
@@ -12334,52 +12381,52 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B95" t="str">
         <v>CS</v>
       </c>
       <c r="C95" t="str">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="D95" t="str">
         <v>A</v>
       </c>
       <c r="E95" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" t="str">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="G95" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="H95" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I95" t="str">
-        <v>SB 382</v>
+        <v>SB 301</v>
       </c>
       <c r="J95" t="str">
         <v>Full</v>
       </c>
       <c r="K95" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L95">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M95" t="str">
-        <v>Senior Project in Computing I</v>
+        <v>Embedded Systems and the Internet of Things</v>
       </c>
       <c r="N95" t="str">
-        <v>Staff</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O95" t="str">
         <v/>
       </c>
       <c r="P95" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="Q95" t="str">
         <v/>
@@ -12390,7 +12437,7 @@
         <v>FA</v>
       </c>
       <c r="B96" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C96" t="str">
         <v>396</v>
@@ -12423,7 +12470,7 @@
         <v>50</v>
       </c>
       <c r="M96" t="str">
-        <v>Senior Project in Data Science</v>
+        <v>Senior Project in Computing I</v>
       </c>
       <c r="N96" t="str">
         <v>Staff</v>
@@ -12440,13 +12487,13 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B97" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C97" t="str">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D97" t="str">
         <v>A</v>
@@ -12470,13 +12517,13 @@
         <v>Full</v>
       </c>
       <c r="K97" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L97">
         <v>50</v>
       </c>
       <c r="M97" t="str">
-        <v>Senior Project in Computing II</v>
+        <v>Senior Project in Data Science</v>
       </c>
       <c r="N97" t="str">
         <v>Staff</v>
@@ -12496,7 +12543,7 @@
         <v>SP</v>
       </c>
       <c r="B98" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C98" t="str">
         <v>398</v>
@@ -12529,7 +12576,7 @@
         <v>50</v>
       </c>
       <c r="M98" t="str">
-        <v>Senior Project in Data Science II</v>
+        <v>Senior Project in Computing II</v>
       </c>
       <c r="N98" t="str">
         <v>Staff</v>
@@ -12544,9 +12591,62 @@
         <v/>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>SP</v>
+      </c>
+      <c r="B99" t="str">
+        <v>DATA</v>
+      </c>
+      <c r="C99" t="str">
+        <v>398</v>
+      </c>
+      <c r="D99" t="str">
+        <v>A</v>
+      </c>
+      <c r="E99" t="str">
+        <v>2</v>
+      </c>
+      <c r="F99" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="G99" t="str">
+        <v>T</v>
+      </c>
+      <c r="H99" t="str">
+        <v>19:00:00 - 19:50:00</v>
+      </c>
+      <c r="I99" t="str">
+        <v>SB 382</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Full</v>
+      </c>
+      <c r="K99" t="str">
+        <v>SP-Full</v>
+      </c>
+      <c r="L99">
+        <v>50</v>
+      </c>
+      <c r="M99" t="str">
+        <v>Senior Project in Data Science II</v>
+      </c>
+      <c r="N99" t="str">
+        <v>Staff</v>
+      </c>
+      <c r="O99" t="str">
+        <v/>
+      </c>
+      <c r="P99" t="str">
+        <v/>
+      </c>
+      <c r="Q99" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q98"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q99"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12565,7 +12665,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-04-07 14:29:36</v>
+        <v>2025-04-09 13:20:51</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedule_2026.xlsx
+++ b/data/schedule_2026.xlsx
@@ -971,7 +971,7 @@
         <v/>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>Full</v>
       </c>
       <c r="E9" t="str">
         <v/>
@@ -1039,7 +1039,7 @@
         <v/>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>Full</v>
       </c>
       <c r="E10" t="str">
         <v/>
@@ -1107,7 +1107,7 @@
         <v/>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>Full</v>
       </c>
       <c r="E11" t="str">
         <v/>
@@ -1175,7 +1175,7 @@
         <v/>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>Full</v>
       </c>
       <c r="E12" t="str">
         <v/>
@@ -3944,7 +3944,7 @@
         <v>FA</v>
       </c>
       <c r="D51" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E51" t="str">
         <v>CS</v>
@@ -3953,7 +3953,7 @@
         <v>300</v>
       </c>
       <c r="G51" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H51" t="str">
         <v>Staff</v>
@@ -4015,7 +4015,7 @@
         <v>FA</v>
       </c>
       <c r="D52" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E52" t="str">
         <v>CS</v>
@@ -4024,10 +4024,10 @@
         <v>300</v>
       </c>
       <c r="G52" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H52" t="str">
-        <v>Staff</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I52" t="str">
         <v>2</v>
@@ -6138,7 +6138,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Computer Science</v>
+        <v>Shadow</v>
       </c>
       <c r="B82" t="str">
         <v/>
@@ -6147,49 +6147,49 @@
         <v>FA</v>
       </c>
       <c r="D82" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E82" t="str">
-        <v>HNRS</v>
+        <v>CS</v>
       </c>
       <c r="F82" t="str">
-        <v>251</v>
+        <v>300-S</v>
       </c>
       <c r="G82" t="str">
-        <v>A</v>
+        <v>A-S</v>
       </c>
       <c r="H82" t="str">
-        <v>Eric Araujo</v>
+        <v>Shadow-Gold</v>
       </c>
       <c r="I82" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K82" t="str">
         <v/>
       </c>
       <c r="L82" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="M82" t="str">
-        <v>14:10:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N82">
         <v>65</v>
       </c>
       <c r="O82" t="str">
-        <v>HL 406C</v>
+        <v>SB 354</v>
       </c>
       <c r="P82" t="str">
-        <v>Agent Modeling</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="Q82" t="str">
         <v/>
       </c>
       <c r="R82" t="str">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S82" t="str">
         <v/>
@@ -6215,10 +6215,10 @@
         <v/>
       </c>
       <c r="C83" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D83" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E83" t="str">
         <v>CS</v>
@@ -6245,7 +6245,7 @@
         <v>MWF</v>
       </c>
       <c r="M83" t="str">
-        <v>11:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N83">
         <v>65</v>
@@ -6286,10 +6286,10 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D84" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E84" t="str">
         <v>CS</v>
@@ -6298,7 +6298,7 @@
         <v>300-S</v>
       </c>
       <c r="G84" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="H84" t="str">
         <v>Shadow-Gold</v>
@@ -6316,7 +6316,7 @@
         <v>MWF</v>
       </c>
       <c r="M84" t="str">
-        <v>12:15:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N84">
         <v>65</v>
@@ -6357,19 +6357,19 @@
         <v/>
       </c>
       <c r="C85" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D85" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E85" t="str">
         <v>CS</v>
       </c>
       <c r="F85" t="str">
-        <v>300-S</v>
+        <v>338-S</v>
       </c>
       <c r="G85" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="H85" t="str">
         <v>Shadow-Gold</v>
@@ -6387,7 +6387,7 @@
         <v>MWF</v>
       </c>
       <c r="M85" t="str">
-        <v>11:00:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N85">
         <v>65</v>
@@ -6396,7 +6396,7 @@
         <v>SB 354</v>
       </c>
       <c r="P85" t="str">
-        <v>Applied Machine Learning</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="Q85" t="str">
         <v/>
@@ -6431,13 +6431,13 @@
         <v>SP</v>
       </c>
       <c r="D86" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E86" t="str">
         <v>CS</v>
       </c>
       <c r="F86" t="str">
-        <v>338-S</v>
+        <v>339-S</v>
       </c>
       <c r="G86" t="str">
         <v>A-S</v>
@@ -6467,7 +6467,7 @@
         <v>SB 354</v>
       </c>
       <c r="P86" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="Q86" t="str">
         <v/>
@@ -6499,7 +6499,7 @@
         <v/>
       </c>
       <c r="C87" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D87" t="str">
         <v>Second</v>
@@ -6508,7 +6508,7 @@
         <v>CS</v>
       </c>
       <c r="F87" t="str">
-        <v>339-S</v>
+        <v>374-S</v>
       </c>
       <c r="G87" t="str">
         <v>A-S</v>
@@ -6517,19 +6517,19 @@
         <v>Shadow-Gold</v>
       </c>
       <c r="I87" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87" t="str">
         <v/>
       </c>
       <c r="L87" t="str">
-        <v>MWF</v>
+        <v>MW</v>
       </c>
       <c r="M87" t="str">
-        <v>08:00:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N87">
         <v>65</v>
@@ -6538,7 +6538,7 @@
         <v>SB 354</v>
       </c>
       <c r="P87" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>High-Performance Computing</v>
       </c>
       <c r="Q87" t="str">
         <v/>
@@ -6570,16 +6570,16 @@
         <v/>
       </c>
       <c r="C88" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D88" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E88" t="str">
         <v>CS</v>
       </c>
       <c r="F88" t="str">
-        <v>374-S</v>
+        <v>375-S</v>
       </c>
       <c r="G88" t="str">
         <v>A-S</v>
@@ -6588,19 +6588,19 @@
         <v>Shadow-Gold</v>
       </c>
       <c r="I88" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K88" t="str">
         <v/>
       </c>
       <c r="L88" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="M88" t="str">
-        <v>14:45:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N88">
         <v>65</v>
@@ -6609,7 +6609,7 @@
         <v>SB 354</v>
       </c>
       <c r="P88" t="str">
-        <v>High-Performance Computing</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="Q88" t="str">
         <v/>
@@ -6644,16 +6644,16 @@
         <v>SP</v>
       </c>
       <c r="D89" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E89" t="str">
         <v>CS</v>
       </c>
       <c r="F89" t="str">
-        <v>375-S</v>
+        <v>376-S</v>
       </c>
       <c r="G89" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="H89" t="str">
         <v>Shadow-Gold</v>
@@ -6680,7 +6680,7 @@
         <v>SB 354</v>
       </c>
       <c r="P89" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Machine Learning</v>
       </c>
       <c r="Q89" t="str">
         <v/>
@@ -6712,22 +6712,22 @@
         <v/>
       </c>
       <c r="C90" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D90" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E90" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F90" t="str">
-        <v>376-S</v>
+        <v>202-S</v>
       </c>
       <c r="G90" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="H90" t="str">
-        <v>Shadow-Gold</v>
+        <v>Shadow-Maroon</v>
       </c>
       <c r="I90" t="str">
         <v>0</v>
@@ -6742,7 +6742,7 @@
         <v>MWF</v>
       </c>
       <c r="M90" t="str">
-        <v>11:00:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N90">
         <v>65</v>
@@ -6751,13 +6751,13 @@
         <v>SB 354</v>
       </c>
       <c r="P90" t="str">
-        <v>Machine Learning</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q90" t="str">
         <v/>
       </c>
       <c r="R90" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S90" t="str">
         <v/>
@@ -6795,7 +6795,7 @@
         <v>202-S</v>
       </c>
       <c r="G91" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="H91" t="str">
         <v>Shadow-Maroon</v>
@@ -6813,7 +6813,7 @@
         <v>MWF</v>
       </c>
       <c r="M91" t="str">
-        <v>08:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N91">
         <v>65</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B92" t="str">
         <v/>
@@ -6860,22 +6860,22 @@
         <v>Full</v>
       </c>
       <c r="E92" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F92" t="str">
-        <v>202-S</v>
+        <v>106</v>
       </c>
       <c r="G92" t="str">
-        <v>B-S</v>
+        <v>A</v>
       </c>
       <c r="H92" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Staff</v>
       </c>
       <c r="I92" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J92" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K92" t="str">
         <v/>
@@ -6884,22 +6884,22 @@
         <v>MWF</v>
       </c>
       <c r="M92" t="str">
-        <v>09:15:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N92">
         <v>65</v>
       </c>
       <c r="O92" t="str">
-        <v>SB 354</v>
+        <v>SB 372</v>
       </c>
       <c r="P92" t="str">
-        <v>Predictive Analytics</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="Q92" t="str">
         <v/>
       </c>
       <c r="R92" t="str">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S92" t="str">
         <v/>
@@ -6934,7 +6934,7 @@
         <v>CS</v>
       </c>
       <c r="F93" t="str">
-        <v>106</v>
+        <v>106L</v>
       </c>
       <c r="G93" t="str">
         <v>A</v>
@@ -6943,28 +6943,28 @@
         <v>Staff</v>
       </c>
       <c r="I93" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J93" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K93" t="str">
         <v/>
       </c>
       <c r="L93" t="str">
-        <v>MWF</v>
+        <v>R</v>
       </c>
       <c r="M93" t="str">
-        <v>14:45:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N93">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O93" t="str">
         <v>SB 372</v>
       </c>
       <c r="P93" t="str">
-        <v>Intro to Computing</v>
+        <v>Intro to Computing Lab</v>
       </c>
       <c r="Q93" t="str">
         <v/>
@@ -6996,7 +6996,7 @@
         <v/>
       </c>
       <c r="C94" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D94" t="str">
         <v>Full</v>
@@ -7005,49 +7005,49 @@
         <v>CS</v>
       </c>
       <c r="F94" t="str">
-        <v>106L</v>
+        <v>326</v>
       </c>
       <c r="G94" t="str">
         <v>A</v>
       </c>
       <c r="H94" t="str">
-        <v>Staff</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I94" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J94" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K94" t="str">
         <v/>
       </c>
       <c r="L94" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="M94" t="str">
-        <v>10:20:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N94">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O94" t="str">
-        <v>SB 372</v>
+        <v>SB 301</v>
       </c>
       <c r="P94" t="str">
-        <v>Intro to Computing Lab</v>
+        <v>Embedded Systems and the Internet of Things</v>
       </c>
       <c r="Q94" t="str">
         <v/>
       </c>
       <c r="R94" t="str">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S94" t="str">
         <v/>
       </c>
       <c r="T94" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="U94" t="str">
         <v/>
@@ -7067,7 +7067,7 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D95" t="str">
         <v>Full</v>
@@ -7076,37 +7076,37 @@
         <v>CS</v>
       </c>
       <c r="F95" t="str">
-        <v>326</v>
+        <v>396</v>
       </c>
       <c r="G95" t="str">
         <v>A</v>
       </c>
       <c r="H95" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Staff</v>
       </c>
       <c r="I95" t="str">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="J95" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K95" t="str">
         <v/>
       </c>
       <c r="L95" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="M95" t="str">
-        <v>13:30:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N95">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O95" t="str">
-        <v>SB 301</v>
+        <v>SB 382</v>
       </c>
       <c r="P95" t="str">
-        <v>Embedded Systems and the Internet of Things</v>
+        <v>Senior Project in Computing I</v>
       </c>
       <c r="Q95" t="str">
         <v/>
@@ -7118,7 +7118,7 @@
         <v/>
       </c>
       <c r="T95" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="U95" t="str">
         <v/>
@@ -7144,7 +7144,7 @@
         <v>Full</v>
       </c>
       <c r="E96" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F96" t="str">
         <v>396</v>
@@ -7177,7 +7177,7 @@
         <v>SB 382</v>
       </c>
       <c r="P96" t="str">
-        <v>Senior Project in Computing I</v>
+        <v>Senior Project in Data Science</v>
       </c>
       <c r="Q96" t="str">
         <v/>
@@ -7209,16 +7209,16 @@
         <v/>
       </c>
       <c r="C97" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D97" t="str">
         <v>Full</v>
       </c>
       <c r="E97" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F97" t="str">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G97" t="str">
         <v>A</v>
@@ -7248,7 +7248,7 @@
         <v>SB 382</v>
       </c>
       <c r="P97" t="str">
-        <v>Senior Project in Data Science</v>
+        <v>Senior Project in Computing II</v>
       </c>
       <c r="Q97" t="str">
         <v/>
@@ -7286,7 +7286,7 @@
         <v>Full</v>
       </c>
       <c r="E98" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F98" t="str">
         <v>398</v>
@@ -7319,7 +7319,7 @@
         <v>SB 382</v>
       </c>
       <c r="P98" t="str">
-        <v>Senior Project in Computing II</v>
+        <v>Senior Project in Data Science II</v>
       </c>
       <c r="Q98" t="str">
         <v/>
@@ -7351,25 +7351,25 @@
         <v/>
       </c>
       <c r="C99" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D99" t="str">
         <v>Full</v>
       </c>
       <c r="E99" t="str">
-        <v>DATA</v>
+        <v>HNRS</v>
       </c>
       <c r="F99" t="str">
-        <v>398</v>
+        <v>251</v>
       </c>
       <c r="G99" t="str">
         <v>A</v>
       </c>
       <c r="H99" t="str">
-        <v>Staff</v>
+        <v>Staff-2027</v>
       </c>
       <c r="I99" t="str">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="J99" t="str">
         <v>2</v>
@@ -7378,25 +7378,25 @@
         <v/>
       </c>
       <c r="L99" t="str">
-        <v>T</v>
+        <v>TR</v>
       </c>
       <c r="M99" t="str">
-        <v>19:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N99">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O99" t="str">
-        <v>SB 382</v>
+        <v>HL 406C</v>
       </c>
       <c r="P99" t="str">
-        <v>Senior Project in Data Science II</v>
+        <v>Agent Modeling</v>
       </c>
       <c r="Q99" t="str">
         <v/>
       </c>
       <c r="R99" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S99" t="str">
         <v/>
@@ -7869,7 +7869,10 @@
         <v/>
       </c>
       <c r="J9" t="str">
-        <v/>
+        <v>Full</v>
+      </c>
+      <c r="K9" t="str">
+        <v>-Full</v>
       </c>
       <c r="L9" t="str">
         <v/>
@@ -7916,7 +7919,10 @@
         <v/>
       </c>
       <c r="J10" t="str">
-        <v/>
+        <v>Full</v>
+      </c>
+      <c r="K10" t="str">
+        <v>-Full</v>
       </c>
       <c r="L10" t="str">
         <v/>
@@ -7963,7 +7969,10 @@
         <v/>
       </c>
       <c r="J11" t="str">
-        <v/>
+        <v>Full</v>
+      </c>
+      <c r="K11" t="str">
+        <v>-Full</v>
       </c>
       <c r="L11" t="str">
         <v/>
@@ -8010,7 +8019,10 @@
         <v/>
       </c>
       <c r="J12" t="str">
-        <v/>
+        <v>Full</v>
+      </c>
+      <c r="K12" t="str">
+        <v>-Full</v>
       </c>
       <c r="L12" t="str">
         <v/>
@@ -10056,7 +10068,7 @@
         <v>300</v>
       </c>
       <c r="D51" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E51" t="str">
         <v>2</v>
@@ -10074,10 +10086,10 @@
         <v>SB 382</v>
       </c>
       <c r="J51" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K51" t="str">
-        <v>FA-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L51">
         <v>65</v>
@@ -10109,7 +10121,7 @@
         <v>300</v>
       </c>
       <c r="D52" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E52" t="str">
         <v>2</v>
@@ -10127,10 +10139,10 @@
         <v>SB 382</v>
       </c>
       <c r="J52" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K52" t="str">
-        <v>FA-Second</v>
+        <v>FA-First</v>
       </c>
       <c r="L52">
         <v>65</v>
@@ -10139,7 +10151,7 @@
         <v>Applied Machine Learning</v>
       </c>
       <c r="N52" t="str">
-        <v>Staff</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O52" t="str">
         <v/>
@@ -11695,43 +11707,43 @@
         <v>FA</v>
       </c>
       <c r="B82" t="str">
-        <v>HNRS</v>
+        <v>CS</v>
       </c>
       <c r="C82" t="str">
-        <v>251</v>
+        <v>300-S</v>
       </c>
       <c r="D82" t="str">
-        <v>A</v>
+        <v>A-S</v>
       </c>
       <c r="E82" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F82" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G82" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="H82" t="str">
-        <v>14:10:00 - 15:15:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I82" t="str">
-        <v>HL 406C</v>
+        <v>SB 354</v>
       </c>
       <c r="J82" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K82" t="str">
-        <v>FA-Full</v>
+        <v>FA-First</v>
       </c>
       <c r="L82">
         <v>65</v>
       </c>
       <c r="M82" t="str">
-        <v>Agent Modeling</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="N82" t="str">
-        <v>Eric Araujo</v>
+        <v>Shadow-Gold</v>
       </c>
       <c r="O82" t="str">
         <v/>
@@ -11745,7 +11757,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B83" t="str">
         <v>CS</v>
@@ -11766,16 +11778,16 @@
         <v>MWF</v>
       </c>
       <c r="H83" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I83" t="str">
         <v>SB 354</v>
       </c>
       <c r="J83" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K83" t="str">
-        <v>FA-First</v>
+        <v>SP-Full</v>
       </c>
       <c r="L83">
         <v>65</v>
@@ -11798,7 +11810,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B84" t="str">
         <v>CS</v>
@@ -11807,7 +11819,7 @@
         <v>300-S</v>
       </c>
       <c r="D84" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="E84" t="str">
         <v>0</v>
@@ -11819,16 +11831,16 @@
         <v>MWF</v>
       </c>
       <c r="H84" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I84" t="str">
         <v>SB 354</v>
       </c>
       <c r="J84" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K84" t="str">
-        <v>SP-Full</v>
+        <v>FA-Second</v>
       </c>
       <c r="L84">
         <v>65</v>
@@ -11851,16 +11863,16 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B85" t="str">
         <v>CS</v>
       </c>
       <c r="C85" t="str">
-        <v>300-S</v>
+        <v>338-S</v>
       </c>
       <c r="D85" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="E85" t="str">
         <v>0</v>
@@ -11872,22 +11884,22 @@
         <v>MWF</v>
       </c>
       <c r="H85" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I85" t="str">
         <v>SB 354</v>
       </c>
       <c r="J85" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K85" t="str">
-        <v>FA-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L85">
         <v>65</v>
       </c>
       <c r="M85" t="str">
-        <v>Applied Machine Learning</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="N85" t="str">
         <v>Shadow-Gold</v>
@@ -11910,7 +11922,7 @@
         <v>CS</v>
       </c>
       <c r="C86" t="str">
-        <v>338-S</v>
+        <v>339-S</v>
       </c>
       <c r="D86" t="str">
         <v>A-S</v>
@@ -11931,16 +11943,16 @@
         <v>SB 354</v>
       </c>
       <c r="J86" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K86" t="str">
-        <v>SP-First</v>
+        <v>SP-Second</v>
       </c>
       <c r="L86">
         <v>65</v>
       </c>
       <c r="M86" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="N86" t="str">
         <v>Shadow-Gold</v>
@@ -11957,28 +11969,28 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B87" t="str">
         <v>CS</v>
       </c>
       <c r="C87" t="str">
-        <v>339-S</v>
+        <v>374-S</v>
       </c>
       <c r="D87" t="str">
         <v>A-S</v>
       </c>
       <c r="E87" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G87" t="str">
-        <v>MWF</v>
+        <v>MW</v>
       </c>
       <c r="H87" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I87" t="str">
         <v>SB 354</v>
@@ -11987,13 +11999,13 @@
         <v>Second</v>
       </c>
       <c r="K87" t="str">
-        <v>SP-Second</v>
+        <v>FA-Second</v>
       </c>
       <c r="L87">
         <v>65</v>
       </c>
       <c r="M87" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>High-Performance Computing</v>
       </c>
       <c r="N87" t="str">
         <v>Shadow-Gold</v>
@@ -12010,43 +12022,43 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B88" t="str">
         <v>CS</v>
       </c>
       <c r="C88" t="str">
-        <v>374-S</v>
+        <v>375-S</v>
       </c>
       <c r="D88" t="str">
         <v>A-S</v>
       </c>
       <c r="E88" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F88" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G88" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="H88" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I88" t="str">
         <v>SB 354</v>
       </c>
       <c r="J88" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K88" t="str">
-        <v>FA-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L88">
         <v>65</v>
       </c>
       <c r="M88" t="str">
-        <v>High-Performance Computing</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="N88" t="str">
         <v>Shadow-Gold</v>
@@ -12069,10 +12081,10 @@
         <v>CS</v>
       </c>
       <c r="C89" t="str">
-        <v>375-S</v>
+        <v>376-S</v>
       </c>
       <c r="D89" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="E89" t="str">
         <v>0</v>
@@ -12090,16 +12102,16 @@
         <v>SB 354</v>
       </c>
       <c r="J89" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K89" t="str">
-        <v>SP-First</v>
+        <v>SP-Second</v>
       </c>
       <c r="L89">
         <v>65</v>
       </c>
       <c r="M89" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Machine Learning</v>
       </c>
       <c r="N89" t="str">
         <v>Shadow-Gold</v>
@@ -12116,16 +12128,16 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B90" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C90" t="str">
-        <v>376-S</v>
+        <v>202-S</v>
       </c>
       <c r="D90" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="E90" t="str">
         <v>0</v>
@@ -12137,25 +12149,25 @@
         <v>MWF</v>
       </c>
       <c r="H90" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I90" t="str">
         <v>SB 354</v>
       </c>
       <c r="J90" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K90" t="str">
-        <v>SP-Second</v>
+        <v>FA-Full</v>
       </c>
       <c r="L90">
         <v>65</v>
       </c>
       <c r="M90" t="str">
-        <v>Machine Learning</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N90" t="str">
-        <v>Shadow-Gold</v>
+        <v>Shadow-Maroon</v>
       </c>
       <c r="O90" t="str">
         <v/>
@@ -12178,7 +12190,7 @@
         <v>202-S</v>
       </c>
       <c r="D91" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="E91" t="str">
         <v>0</v>
@@ -12190,7 +12202,7 @@
         <v>MWF</v>
       </c>
       <c r="H91" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I91" t="str">
         <v>SB 354</v>
@@ -12225,28 +12237,28 @@
         <v>FA</v>
       </c>
       <c r="B92" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C92" t="str">
-        <v>202-S</v>
+        <v>106</v>
       </c>
       <c r="D92" t="str">
-        <v>B-S</v>
+        <v>A</v>
       </c>
       <c r="E92" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F92" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G92" t="str">
         <v>MWF</v>
       </c>
       <c r="H92" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I92" t="str">
-        <v>SB 354</v>
+        <v>SB 372</v>
       </c>
       <c r="J92" t="str">
         <v>Full</v>
@@ -12258,10 +12270,10 @@
         <v>65</v>
       </c>
       <c r="M92" t="str">
-        <v>Predictive Analytics</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="N92" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Staff</v>
       </c>
       <c r="O92" t="str">
         <v/>
@@ -12281,22 +12293,22 @@
         <v>CS</v>
       </c>
       <c r="C93" t="str">
-        <v>106</v>
+        <v>106L</v>
       </c>
       <c r="D93" t="str">
         <v>A</v>
       </c>
       <c r="E93" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F93" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G93" t="str">
-        <v>MWF</v>
+        <v>R</v>
       </c>
       <c r="H93" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I93" t="str">
         <v>SB 372</v>
@@ -12308,10 +12320,10 @@
         <v>FA-Full</v>
       </c>
       <c r="L93">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M93" t="str">
-        <v>Intro to Computing</v>
+        <v>Intro to Computing Lab</v>
       </c>
       <c r="N93" t="str">
         <v>Staff</v>
@@ -12328,52 +12340,52 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B94" t="str">
         <v>CS</v>
       </c>
       <c r="C94" t="str">
-        <v>106L</v>
+        <v>326</v>
       </c>
       <c r="D94" t="str">
         <v>A</v>
       </c>
       <c r="E94" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F94" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G94" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="H94" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I94" t="str">
-        <v>SB 372</v>
+        <v>SB 301</v>
       </c>
       <c r="J94" t="str">
         <v>Full</v>
       </c>
       <c r="K94" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L94">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M94" t="str">
-        <v>Intro to Computing Lab</v>
+        <v>Embedded Systems and the Internet of Things</v>
       </c>
       <c r="N94" t="str">
-        <v>Staff</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O94" t="str">
         <v/>
       </c>
       <c r="P94" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="Q94" t="str">
         <v/>
@@ -12381,52 +12393,52 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B95" t="str">
         <v>CS</v>
       </c>
       <c r="C95" t="str">
-        <v>326</v>
+        <v>396</v>
       </c>
       <c r="D95" t="str">
         <v>A</v>
       </c>
       <c r="E95" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F95" t="str">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="G95" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="H95" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I95" t="str">
-        <v>SB 301</v>
+        <v>SB 382</v>
       </c>
       <c r="J95" t="str">
         <v>Full</v>
       </c>
       <c r="K95" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L95">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M95" t="str">
-        <v>Embedded Systems and the Internet of Things</v>
+        <v>Senior Project in Computing I</v>
       </c>
       <c r="N95" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Staff</v>
       </c>
       <c r="O95" t="str">
         <v/>
       </c>
       <c r="P95" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="Q95" t="str">
         <v/>
@@ -12437,7 +12449,7 @@
         <v>FA</v>
       </c>
       <c r="B96" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C96" t="str">
         <v>396</v>
@@ -12470,7 +12482,7 @@
         <v>50</v>
       </c>
       <c r="M96" t="str">
-        <v>Senior Project in Computing I</v>
+        <v>Senior Project in Data Science</v>
       </c>
       <c r="N96" t="str">
         <v>Staff</v>
@@ -12487,13 +12499,13 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B97" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C97" t="str">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D97" t="str">
         <v>A</v>
@@ -12517,13 +12529,13 @@
         <v>Full</v>
       </c>
       <c r="K97" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L97">
         <v>50</v>
       </c>
       <c r="M97" t="str">
-        <v>Senior Project in Data Science</v>
+        <v>Senior Project in Computing II</v>
       </c>
       <c r="N97" t="str">
         <v>Staff</v>
@@ -12543,7 +12555,7 @@
         <v>SP</v>
       </c>
       <c r="B98" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C98" t="str">
         <v>398</v>
@@ -12576,7 +12588,7 @@
         <v>50</v>
       </c>
       <c r="M98" t="str">
-        <v>Senior Project in Computing II</v>
+        <v>Senior Project in Data Science II</v>
       </c>
       <c r="N98" t="str">
         <v>Staff</v>
@@ -12593,13 +12605,13 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B99" t="str">
-        <v>DATA</v>
+        <v>HNRS</v>
       </c>
       <c r="C99" t="str">
-        <v>398</v>
+        <v>251</v>
       </c>
       <c r="D99" t="str">
         <v>A</v>
@@ -12608,31 +12620,31 @@
         <v>2</v>
       </c>
       <c r="F99" t="str">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G99" t="str">
-        <v>T</v>
+        <v>TR</v>
       </c>
       <c r="H99" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>14:10:00 - 15:15:00</v>
       </c>
       <c r="I99" t="str">
-        <v>SB 382</v>
+        <v>HL 406C</v>
       </c>
       <c r="J99" t="str">
         <v>Full</v>
       </c>
       <c r="K99" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L99">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M99" t="str">
-        <v>Senior Project in Data Science II</v>
+        <v>Agent Modeling</v>
       </c>
       <c r="N99" t="str">
-        <v>Staff</v>
+        <v>Staff-2027</v>
       </c>
       <c r="O99" t="str">
         <v/>
@@ -12665,7 +12677,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-04-09 13:20:51</v>
+        <v>2025-04-16 12:39:32</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedule_2026.xlsx
+++ b/data/schedule_2026.xlsx
@@ -7073,19 +7073,19 @@
         <v>Full</v>
       </c>
       <c r="E95" t="str">
-        <v>CS</v>
+        <v>HNRS</v>
       </c>
       <c r="F95" t="str">
-        <v>396</v>
+        <v>251</v>
       </c>
       <c r="G95" t="str">
         <v>A</v>
       </c>
       <c r="H95" t="str">
-        <v>Staff</v>
+        <v>Staff-2027</v>
       </c>
       <c r="I95" t="str">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="str">
         <v>2</v>
@@ -7094,25 +7094,25 @@
         <v/>
       </c>
       <c r="L95" t="str">
-        <v>T</v>
+        <v>TR</v>
       </c>
       <c r="M95" t="str">
-        <v>19:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N95">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O95" t="str">
-        <v>SB 382</v>
+        <v>HL 406C</v>
       </c>
       <c r="P95" t="str">
-        <v>Senior Project in Computing I</v>
+        <v>Agent Modeling</v>
       </c>
       <c r="Q95" t="str">
         <v/>
       </c>
       <c r="R95" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S95" t="str">
         <v/>
@@ -7209,7 +7209,7 @@
         <v/>
       </c>
       <c r="C97" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D97" t="str">
         <v>Full</v>
@@ -7218,7 +7218,7 @@
         <v>CS</v>
       </c>
       <c r="F97" t="str">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G97" t="str">
         <v>A</v>
@@ -7248,7 +7248,7 @@
         <v>SB 382</v>
       </c>
       <c r="P97" t="str">
-        <v>Senior Project in Computing II</v>
+        <v>Senior Project in Computing I</v>
       </c>
       <c r="Q97" t="str">
         <v/>
@@ -7351,25 +7351,25 @@
         <v/>
       </c>
       <c r="C99" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D99" t="str">
         <v>Full</v>
       </c>
       <c r="E99" t="str">
-        <v>HNRS</v>
+        <v>CS</v>
       </c>
       <c r="F99" t="str">
-        <v>251</v>
+        <v>398</v>
       </c>
       <c r="G99" t="str">
         <v>A</v>
       </c>
       <c r="H99" t="str">
-        <v>Staff-2027</v>
+        <v>Staff</v>
       </c>
       <c r="I99" t="str">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="J99" t="str">
         <v>2</v>
@@ -7378,25 +7378,25 @@
         <v/>
       </c>
       <c r="L99" t="str">
-        <v>TR</v>
+        <v>T</v>
       </c>
       <c r="M99" t="str">
-        <v>14:10:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N99">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O99" t="str">
-        <v>HL 406C</v>
+        <v>SB 382</v>
       </c>
       <c r="P99" t="str">
-        <v>Agent Modeling</v>
+        <v>Senior Project in Computing II</v>
       </c>
       <c r="Q99" t="str">
         <v/>
       </c>
       <c r="R99" t="str">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S99" t="str">
         <v/>
@@ -12396,10 +12396,10 @@
         <v>FA</v>
       </c>
       <c r="B95" t="str">
-        <v>CS</v>
+        <v>HNRS</v>
       </c>
       <c r="C95" t="str">
-        <v>396</v>
+        <v>251</v>
       </c>
       <c r="D95" t="str">
         <v>A</v>
@@ -12408,16 +12408,16 @@
         <v>2</v>
       </c>
       <c r="F95" t="str">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G95" t="str">
-        <v>T</v>
+        <v>TR</v>
       </c>
       <c r="H95" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>14:10:00 - 15:15:00</v>
       </c>
       <c r="I95" t="str">
-        <v>SB 382</v>
+        <v>HL 406C</v>
       </c>
       <c r="J95" t="str">
         <v>Full</v>
@@ -12426,13 +12426,13 @@
         <v>FA-Full</v>
       </c>
       <c r="L95">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M95" t="str">
-        <v>Senior Project in Computing I</v>
+        <v>Agent Modeling</v>
       </c>
       <c r="N95" t="str">
-        <v>Staff</v>
+        <v>Staff-2027</v>
       </c>
       <c r="O95" t="str">
         <v/>
@@ -12499,13 +12499,13 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B97" t="str">
         <v>CS</v>
       </c>
       <c r="C97" t="str">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D97" t="str">
         <v>A</v>
@@ -12529,13 +12529,13 @@
         <v>Full</v>
       </c>
       <c r="K97" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L97">
         <v>50</v>
       </c>
       <c r="M97" t="str">
-        <v>Senior Project in Computing II</v>
+        <v>Senior Project in Computing I</v>
       </c>
       <c r="N97" t="str">
         <v>Staff</v>
@@ -12605,13 +12605,13 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B99" t="str">
-        <v>HNRS</v>
+        <v>CS</v>
       </c>
       <c r="C99" t="str">
-        <v>251</v>
+        <v>398</v>
       </c>
       <c r="D99" t="str">
         <v>A</v>
@@ -12620,31 +12620,31 @@
         <v>2</v>
       </c>
       <c r="F99" t="str">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="G99" t="str">
-        <v>TR</v>
+        <v>T</v>
       </c>
       <c r="H99" t="str">
-        <v>14:10:00 - 15:15:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I99" t="str">
-        <v>HL 406C</v>
+        <v>SB 382</v>
       </c>
       <c r="J99" t="str">
         <v>Full</v>
       </c>
       <c r="K99" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L99">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M99" t="str">
-        <v>Agent Modeling</v>
+        <v>Senior Project in Computing II</v>
       </c>
       <c r="N99" t="str">
-        <v>Staff-2027</v>
+        <v>Staff</v>
       </c>
       <c r="O99" t="str">
         <v/>
@@ -12677,7 +12677,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-04-16 12:39:32</v>
+        <v>2025-04-17 11:54:18</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedule_2026.xlsx
+++ b/data/schedule_2026.xlsx
@@ -1166,55 +1166,52 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Computer Science</v>
+        <v/>
       </c>
       <c r="B12" t="str">
         <v/>
-      </c>
-      <c r="C12" t="str">
-        <v>FA</v>
       </c>
       <c r="D12" t="str">
         <v>Full</v>
       </c>
       <c r="E12" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="F12" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="H12" t="str">
-        <v>*</v>
+        <v>Harry Plantinga</v>
       </c>
       <c r="I12" t="str">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J12" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K12" t="str">
         <v/>
       </c>
       <c r="L12" t="str">
-        <v>MTWRF</v>
+        <v/>
       </c>
       <c r="M12" t="str">
-        <v>16:00:00</v>
-      </c>
-      <c r="N12">
-        <v>135</v>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v/>
       </c>
       <c r="O12" t="str">
-        <v>, ,</v>
+        <v/>
       </c>
       <c r="P12" t="str">
         <v/>
       </c>
       <c r="Q12" t="str">
-        <v>LEC</v>
+        <v>CCEL</v>
       </c>
       <c r="R12" t="str">
         <v/>
@@ -1243,7 +1240,7 @@
         <v/>
       </c>
       <c r="C13" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D13" t="str">
         <v>Full</v>
@@ -1314,52 +1311,52 @@
         <v/>
       </c>
       <c r="C14" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D14" t="str">
         <v>Full</v>
       </c>
       <c r="E14" t="str">
-        <v>CS</v>
+        <v>*</v>
       </c>
       <c r="F14" t="str">
-        <v>100</v>
+        <v>*</v>
       </c>
       <c r="G14" t="str">
-        <v>A</v>
+        <v>*</v>
       </c>
       <c r="H14" t="str">
-        <v>David Meyer</v>
+        <v>*</v>
       </c>
       <c r="I14" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K14" t="str">
         <v/>
       </c>
       <c r="L14" t="str">
-        <v>TR</v>
+        <v>MTWRF</v>
       </c>
       <c r="M14" t="str">
-        <v>10:20:00</v>
+        <v>16:00:00</v>
       </c>
       <c r="N14">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="O14" t="str">
-        <v>SB 354</v>
+        <v>, ,</v>
       </c>
       <c r="P14" t="str">
-        <v>Creating Interactive Web Media</v>
+        <v/>
       </c>
       <c r="Q14" t="str">
         <v>LEC</v>
       </c>
       <c r="R14" t="str">
-        <v>100</v>
+        <v/>
       </c>
       <c r="S14" t="str">
         <v/>
@@ -1388,46 +1385,46 @@
         <v>FA</v>
       </c>
       <c r="D15" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E15" t="str">
         <v>CS</v>
       </c>
       <c r="F15" t="str">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G15" t="str">
         <v>A</v>
       </c>
       <c r="H15" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>David Meyer</v>
       </c>
       <c r="I15" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K15" t="str">
         <v/>
       </c>
       <c r="L15" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M15" t="str">
-        <v>12:15:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N15">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O15" t="str">
-        <v>SB 372</v>
+        <v>SB 354</v>
       </c>
       <c r="P15" t="str">
-        <v>Applied Computing</v>
+        <v>Creating Interactive Web Media</v>
       </c>
       <c r="Q15" t="str">
-        <v/>
+        <v>LEC</v>
       </c>
       <c r="R15" t="str">
         <v>100</v>
@@ -1459,7 +1456,7 @@
         <v>FA</v>
       </c>
       <c r="D16" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E16" t="str">
         <v>CS</v>
@@ -1468,7 +1465,7 @@
         <v>104</v>
       </c>
       <c r="G16" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H16" t="str">
         <v>Fernando Pasquini Santos</v>
@@ -1530,22 +1527,22 @@
         <v>FA</v>
       </c>
       <c r="D17" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E17" t="str">
         <v>CS</v>
       </c>
       <c r="F17" t="str">
-        <v>104L</v>
+        <v>104</v>
       </c>
       <c r="G17" t="str">
         <v>B</v>
       </c>
       <c r="H17" t="str">
-        <v>Staff</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I17" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J17" t="str">
         <v>1</v>
@@ -1554,13 +1551,13 @@
         <v/>
       </c>
       <c r="L17" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="M17" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N17">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O17" t="str">
         <v>SB 372</v>
@@ -1601,7 +1598,7 @@
         <v>FA</v>
       </c>
       <c r="D18" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E18" t="str">
         <v>CS</v>
@@ -1610,7 +1607,7 @@
         <v>104L</v>
       </c>
       <c r="G18" t="str">
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="H18" t="str">
         <v>Staff</v>
@@ -1672,7 +1669,7 @@
         <v>FA</v>
       </c>
       <c r="D19" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E19" t="str">
         <v>CS</v>
@@ -1681,10 +1678,10 @@
         <v>104L</v>
       </c>
       <c r="G19" t="str">
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="H19" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Staff</v>
       </c>
       <c r="I19" t="str">
         <v>0.5</v>
@@ -1699,7 +1696,7 @@
         <v>T</v>
       </c>
       <c r="M19" t="str">
-        <v>12:15:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N19">
         <v>100</v>
@@ -1743,7 +1740,7 @@
         <v>FA</v>
       </c>
       <c r="D20" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E20" t="str">
         <v>CS</v>
@@ -1752,7 +1749,7 @@
         <v>104L</v>
       </c>
       <c r="G20" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="H20" t="str">
         <v>Fernando Pasquini Santos</v>
@@ -1814,43 +1811,43 @@
         <v>FA</v>
       </c>
       <c r="D21" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E21" t="str">
         <v>CS</v>
       </c>
       <c r="F21" t="str">
-        <v>108</v>
+        <v>104L</v>
       </c>
       <c r="G21" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="H21" t="str">
-        <v>Rocky Chang</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I21" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J21" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" t="str">
         <v/>
       </c>
       <c r="L21" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="M21" t="str">
-        <v>11:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N21">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O21" t="str">
         <v>SB 372</v>
       </c>
       <c r="P21" t="str">
-        <v>Intro to Computing</v>
+        <v>Applied Computing</v>
       </c>
       <c r="Q21" t="str">
         <v/>
@@ -1882,7 +1879,7 @@
         <v/>
       </c>
       <c r="C22" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D22" t="str">
         <v>Full</v>
@@ -1897,7 +1894,7 @@
         <v>A</v>
       </c>
       <c r="H22" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I22" t="str">
         <v>4</v>
@@ -1912,13 +1909,13 @@
         <v>MWF</v>
       </c>
       <c r="M22" t="str">
-        <v>13:30:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N22">
         <v>65</v>
       </c>
       <c r="O22" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P22" t="str">
         <v>Intro to Computing</v>
@@ -1953,7 +1950,7 @@
         <v/>
       </c>
       <c r="C23" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D23" t="str">
         <v>Full</v>
@@ -1965,10 +1962,10 @@
         <v>108</v>
       </c>
       <c r="G23" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H23" t="str">
-        <v>Rocky Chang</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I23" t="str">
         <v>4</v>
@@ -1989,7 +1986,7 @@
         <v>65</v>
       </c>
       <c r="O23" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P23" t="str">
         <v>Intro to Computing</v>
@@ -2024,7 +2021,7 @@
         <v/>
       </c>
       <c r="C24" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D24" t="str">
         <v>Full</v>
@@ -2039,7 +2036,7 @@
         <v>B</v>
       </c>
       <c r="H24" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I24" t="str">
         <v>4</v>
@@ -2054,13 +2051,13 @@
         <v>MWF</v>
       </c>
       <c r="M24" t="str">
-        <v>14:45:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N24">
         <v>65</v>
       </c>
       <c r="O24" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P24" t="str">
         <v>Intro to Computing</v>
@@ -2095,7 +2092,7 @@
         <v/>
       </c>
       <c r="C25" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D25" t="str">
         <v>Full</v>
@@ -2104,37 +2101,37 @@
         <v>CS</v>
       </c>
       <c r="F25" t="str">
-        <v>108L</v>
+        <v>108</v>
       </c>
       <c r="G25" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H25" t="str">
-        <v>Rocky Chang</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I25" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25" t="str">
         <v/>
       </c>
       <c r="L25" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="M25" t="str">
-        <v>08:00:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O25" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P25" t="str">
-        <v>Intro to Computing Lab</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="Q25" t="str">
         <v/>
@@ -2178,7 +2175,7 @@
         <v>108L</v>
       </c>
       <c r="G26" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H26" t="str">
         <v>Rocky Chang</v>
@@ -2196,7 +2193,7 @@
         <v>R</v>
       </c>
       <c r="M26" t="str">
-        <v>12:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N26">
         <v>100</v>
@@ -2237,7 +2234,7 @@
         <v/>
       </c>
       <c r="C27" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D27" t="str">
         <v>Full</v>
@@ -2252,7 +2249,7 @@
         <v>B</v>
       </c>
       <c r="H27" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I27" t="str">
         <v>1</v>
@@ -2267,7 +2264,7 @@
         <v>R</v>
       </c>
       <c r="M27" t="str">
-        <v>10:20:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N27">
         <v>100</v>
@@ -2320,10 +2317,10 @@
         <v>108L</v>
       </c>
       <c r="G28" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H28" t="str">
-        <v>Staff</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I28" t="str">
         <v>1</v>
@@ -2338,7 +2335,7 @@
         <v>R</v>
       </c>
       <c r="M28" t="str">
-        <v>08:00:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N28">
         <v>100</v>
@@ -2379,7 +2376,7 @@
         <v/>
       </c>
       <c r="C29" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D29" t="str">
         <v>Full</v>
@@ -2388,37 +2385,37 @@
         <v>CS</v>
       </c>
       <c r="F29" t="str">
-        <v>112</v>
+        <v>108L</v>
       </c>
       <c r="G29" t="str">
         <v>A</v>
       </c>
       <c r="H29" t="str">
-        <v>Eric Araujo</v>
+        <v>Staff</v>
       </c>
       <c r="I29" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J29" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K29" t="str">
         <v/>
       </c>
       <c r="L29" t="str">
-        <v>MWF</v>
+        <v>R</v>
       </c>
       <c r="M29" t="str">
-        <v>12:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N29">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O29" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P29" t="str">
-        <v>Intro to Data Structures</v>
+        <v>Intro to Computing Lab</v>
       </c>
       <c r="Q29" t="str">
         <v/>
@@ -2450,7 +2447,7 @@
         <v/>
       </c>
       <c r="C30" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D30" t="str">
         <v>Full</v>
@@ -2465,7 +2462,7 @@
         <v>A</v>
       </c>
       <c r="H30" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I30" t="str">
         <v>4</v>
@@ -2480,13 +2477,13 @@
         <v>MWF</v>
       </c>
       <c r="M30" t="str">
-        <v>11:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N30">
         <v>65</v>
       </c>
       <c r="O30" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P30" t="str">
         <v>Intro to Data Structures</v>
@@ -2521,7 +2518,7 @@
         <v/>
       </c>
       <c r="C31" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D31" t="str">
         <v>Full</v>
@@ -2533,10 +2530,10 @@
         <v>112</v>
       </c>
       <c r="G31" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H31" t="str">
-        <v>Eric Araujo</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I31" t="str">
         <v>4</v>
@@ -2551,13 +2548,13 @@
         <v>MWF</v>
       </c>
       <c r="M31" t="str">
-        <v>13:30:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N31">
         <v>65</v>
       </c>
       <c r="O31" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P31" t="str">
         <v>Intro to Data Structures</v>
@@ -2592,7 +2589,7 @@
         <v/>
       </c>
       <c r="C32" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D32" t="str">
         <v>Full</v>
@@ -2607,7 +2604,7 @@
         <v>B</v>
       </c>
       <c r="H32" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I32" t="str">
         <v>4</v>
@@ -2622,13 +2619,13 @@
         <v>MWF</v>
       </c>
       <c r="M32" t="str">
-        <v>12:15:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N32">
         <v>65</v>
       </c>
       <c r="O32" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P32" t="str">
         <v>Intro to Data Structures</v>
@@ -2663,7 +2660,7 @@
         <v/>
       </c>
       <c r="C33" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D33" t="str">
         <v>Full</v>
@@ -2672,37 +2669,37 @@
         <v>CS</v>
       </c>
       <c r="F33" t="str">
-        <v>112L</v>
+        <v>112</v>
       </c>
       <c r="G33" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H33" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I33" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K33" t="str">
         <v/>
       </c>
       <c r="L33" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="M33" t="str">
-        <v>08:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N33">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O33" t="str">
         <v>SB 372</v>
       </c>
       <c r="P33" t="str">
-        <v>Intro to Data Structures Lab</v>
+        <v>Intro to Data Structures</v>
       </c>
       <c r="Q33" t="str">
         <v/>
@@ -2734,7 +2731,7 @@
         <v/>
       </c>
       <c r="C34" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D34" t="str">
         <v>Full</v>
@@ -2749,7 +2746,7 @@
         <v>A</v>
       </c>
       <c r="H34" t="str">
-        <v>Eric Araujo</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="I34" t="str">
         <v>1</v>
@@ -2805,7 +2802,7 @@
         <v/>
       </c>
       <c r="C35" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D35" t="str">
         <v>Full</v>
@@ -2817,10 +2814,10 @@
         <v>112L</v>
       </c>
       <c r="G35" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H35" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I35" t="str">
         <v>1</v>
@@ -2835,7 +2832,7 @@
         <v>T</v>
       </c>
       <c r="M35" t="str">
-        <v>10:20:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N35">
         <v>100</v>
@@ -2876,7 +2873,7 @@
         <v/>
       </c>
       <c r="C36" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D36" t="str">
         <v>Full</v>
@@ -2891,7 +2888,7 @@
         <v>B</v>
       </c>
       <c r="H36" t="str">
-        <v>Eric Araujo</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="I36" t="str">
         <v>1</v>
@@ -2947,7 +2944,7 @@
         <v/>
       </c>
       <c r="C37" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D37" t="str">
         <v>Full</v>
@@ -2956,19 +2953,19 @@
         <v>CS</v>
       </c>
       <c r="F37" t="str">
-        <v>195</v>
+        <v>112L</v>
       </c>
       <c r="G37" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H37" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I37" t="str">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J37" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="str">
         <v/>
@@ -2977,16 +2974,16 @@
         <v>T</v>
       </c>
       <c r="M37" t="str">
-        <v>15:05:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N37">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O37" t="str">
-        <v>SB 10</v>
+        <v>SB 372</v>
       </c>
       <c r="P37" t="str">
-        <v>Intro Computing Seminar</v>
+        <v>Intro to Data Structures Lab</v>
       </c>
       <c r="Q37" t="str">
         <v/>
@@ -3018,7 +3015,7 @@
         <v/>
       </c>
       <c r="C38" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D38" t="str">
         <v>Full</v>
@@ -3089,7 +3086,7 @@
         <v/>
       </c>
       <c r="C39" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D39" t="str">
         <v>Full</v>
@@ -3098,43 +3095,43 @@
         <v>CS</v>
       </c>
       <c r="F39" t="str">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="G39" t="str">
         <v>A</v>
       </c>
       <c r="H39" t="str">
-        <v>Staff</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I39" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J39" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K39" t="str">
         <v/>
       </c>
       <c r="L39" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="M39" t="str">
-        <v>08:00:00</v>
+        <v>15:05:00</v>
       </c>
       <c r="N39">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O39" t="str">
-        <v>SB 372</v>
+        <v>SB 10</v>
       </c>
       <c r="P39" t="str">
-        <v>Data Structures &amp; Algorithms</v>
+        <v>Intro Computing Seminar</v>
       </c>
       <c r="Q39" t="str">
         <v/>
       </c>
       <c r="R39" t="str">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S39" t="str">
         <v/>
@@ -3172,7 +3169,7 @@
         <v>212</v>
       </c>
       <c r="G40" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H40" t="str">
         <v>Staff</v>
@@ -3190,7 +3187,7 @@
         <v>MWF</v>
       </c>
       <c r="M40" t="str">
-        <v>09:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N40">
         <v>65</v>
@@ -3231,7 +3228,7 @@
         <v/>
       </c>
       <c r="C41" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D41" t="str">
         <v>Full</v>
@@ -3240,13 +3237,13 @@
         <v>CS</v>
       </c>
       <c r="F41" t="str">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G41" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H41" t="str">
-        <v>Eric Araujo</v>
+        <v>Staff</v>
       </c>
       <c r="I41" t="str">
         <v>4</v>
@@ -3258,19 +3255,19 @@
         <v/>
       </c>
       <c r="L41" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="M41" t="str">
-        <v>14:45:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N41">
         <v>65</v>
       </c>
       <c r="O41" t="str">
-        <v>SB 372, SB 354</v>
+        <v>SB 372</v>
       </c>
       <c r="P41" t="str">
-        <v>Programming Lang Concepts</v>
+        <v>Data Structures &amp; Algorithms</v>
       </c>
       <c r="Q41" t="str">
         <v/>
@@ -3314,10 +3311,10 @@
         <v>214</v>
       </c>
       <c r="G42" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H42" t="str">
-        <v>David Meyer</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I42" t="str">
         <v>4</v>
@@ -3329,16 +3326,16 @@
         <v/>
       </c>
       <c r="L42" t="str">
-        <v>F</v>
+        <v>MW</v>
       </c>
       <c r="M42" t="str">
         <v>14:45:00</v>
       </c>
       <c r="N42">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="O42" t="str">
-        <v>SB 372, SB 372</v>
+        <v>SB 372, SB 354</v>
       </c>
       <c r="P42" t="str">
         <v>Programming Lang Concepts</v>
@@ -3382,13 +3379,13 @@
         <v>CS</v>
       </c>
       <c r="F43" t="str">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="G43" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H43" t="str">
-        <v>Rocky Chang</v>
+        <v>David Meyer</v>
       </c>
       <c r="I43" t="str">
         <v>4</v>
@@ -3400,19 +3397,19 @@
         <v/>
       </c>
       <c r="L43" t="str">
-        <v>MWF</v>
+        <v>F</v>
       </c>
       <c r="M43" t="str">
-        <v>08:00:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N43">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="O43" t="str">
-        <v>SB 372</v>
+        <v>SB 372, SB 372</v>
       </c>
       <c r="P43" t="str">
-        <v>Operating Systems and Networki</v>
+        <v>Programming Lang Concepts</v>
       </c>
       <c r="Q43" t="str">
         <v/>
@@ -3456,7 +3453,7 @@
         <v>232</v>
       </c>
       <c r="G44" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H44" t="str">
         <v>Rocky Chang</v>
@@ -3474,7 +3471,7 @@
         <v>MWF</v>
       </c>
       <c r="M44" t="str">
-        <v>09:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N44">
         <v>65</v>
@@ -3515,7 +3512,7 @@
         <v/>
       </c>
       <c r="C45" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D45" t="str">
         <v>Full</v>
@@ -3524,13 +3521,13 @@
         <v>CS</v>
       </c>
       <c r="F45" t="str">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G45" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H45" t="str">
-        <v>Victor T. Norman</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I45" t="str">
         <v>4</v>
@@ -3542,19 +3539,19 @@
         <v/>
       </c>
       <c r="L45" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="M45" t="str">
-        <v>13:30:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N45">
         <v>65</v>
       </c>
       <c r="O45" t="str">
-        <v>SC 120, SB 354</v>
+        <v>SB 372</v>
       </c>
       <c r="P45" t="str">
-        <v>Software Engineering</v>
+        <v>Operating Systems and Networki</v>
       </c>
       <c r="Q45" t="str">
         <v/>
@@ -3598,7 +3595,7 @@
         <v>262</v>
       </c>
       <c r="G46" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H46" t="str">
         <v>Victor T. Norman</v>
@@ -3616,13 +3613,13 @@
         <v>MW</v>
       </c>
       <c r="M46" t="str">
-        <v>14:45:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N46">
         <v>65</v>
       </c>
       <c r="O46" t="str">
-        <v>SC 120, SB 337</v>
+        <v>SC 120, SB 354</v>
       </c>
       <c r="P46" t="str">
         <v>Software Engineering</v>
@@ -3666,37 +3663,37 @@
         <v>CS</v>
       </c>
       <c r="F47" t="str">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="G47" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H47" t="str">
         <v>Victor T. Norman</v>
       </c>
       <c r="I47" t="str">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="J47" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K47" t="str">
         <v/>
       </c>
       <c r="L47" t="str">
-        <v>T</v>
+        <v>MW</v>
       </c>
       <c r="M47" t="str">
-        <v>15:05:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N47">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O47" t="str">
-        <v>SB 10</v>
+        <v>SC 120, SB 337</v>
       </c>
       <c r="P47" t="str">
-        <v>Computing Seminar</v>
+        <v>Software Engineering</v>
       </c>
       <c r="Q47" t="str">
         <v/>
@@ -3728,7 +3725,7 @@
         <v/>
       </c>
       <c r="C48" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D48" t="str">
         <v>Full</v>
@@ -3808,43 +3805,43 @@
         <v>CS</v>
       </c>
       <c r="F49" t="str">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G49" t="str">
         <v>A</v>
       </c>
       <c r="H49" t="str">
-        <v>Rocky Chang</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I49" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J49" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K49" t="str">
         <v/>
       </c>
       <c r="L49" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="M49" t="str">
-        <v>12:15:00</v>
+        <v>15:05:00</v>
       </c>
       <c r="N49">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O49" t="str">
-        <v>SB 382</v>
+        <v>SB 10</v>
       </c>
       <c r="P49" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Computing Seminar</v>
       </c>
       <c r="Q49" t="str">
         <v/>
       </c>
       <c r="R49" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S49" t="str">
         <v/>
@@ -3870,10 +3867,10 @@
         <v/>
       </c>
       <c r="C50" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D50" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E50" t="str">
         <v>CS</v>
@@ -3882,16 +3879,16 @@
         <v>300</v>
       </c>
       <c r="G50" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H50" t="str">
-        <v>Staff</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I50" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J50" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K50" t="str">
         <v/>
@@ -3900,7 +3897,7 @@
         <v>MWF</v>
       </c>
       <c r="M50" t="str">
-        <v>11:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N50">
         <v>65</v>
@@ -3921,7 +3918,7 @@
         <v/>
       </c>
       <c r="T50" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="U50" t="str">
         <v/>
@@ -3944,7 +3941,7 @@
         <v>FA</v>
       </c>
       <c r="D51" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E51" t="str">
         <v>CS</v>
@@ -3953,10 +3950,10 @@
         <v>300</v>
       </c>
       <c r="G51" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H51" t="str">
-        <v>Eric Araujo</v>
+        <v>Staff</v>
       </c>
       <c r="I51" t="str">
         <v>2</v>
@@ -4015,25 +4012,25 @@
         <v>FA</v>
       </c>
       <c r="D52" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E52" t="str">
         <v>CS</v>
       </c>
       <c r="F52" t="str">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="G52" t="str">
         <v>A</v>
       </c>
       <c r="H52" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I52" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J52" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K52" t="str">
         <v/>
@@ -4042,16 +4039,16 @@
         <v>MWF</v>
       </c>
       <c r="M52" t="str">
-        <v>09:15:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N52">
         <v>65</v>
       </c>
       <c r="O52" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="P52" t="str">
-        <v>Web Development</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="Q52" t="str">
         <v/>
@@ -4063,7 +4060,7 @@
         <v/>
       </c>
       <c r="T52" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="U52" t="str">
         <v/>
@@ -4083,28 +4080,28 @@
         <v/>
       </c>
       <c r="C53" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D53" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E53" t="str">
         <v>CS</v>
       </c>
       <c r="F53" t="str">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G53" t="str">
         <v>A</v>
       </c>
       <c r="H53" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I53" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J53" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K53" t="str">
         <v/>
@@ -4113,16 +4110,16 @@
         <v>MWF</v>
       </c>
       <c r="M53" t="str">
-        <v>08:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N53">
         <v>65</v>
       </c>
       <c r="O53" t="str">
-        <v>SB 382</v>
+        <v>HH 336</v>
       </c>
       <c r="P53" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Web Development</v>
       </c>
       <c r="Q53" t="str">
         <v/>
@@ -4157,13 +4154,13 @@
         <v>SP</v>
       </c>
       <c r="D54" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E54" t="str">
         <v>CS</v>
       </c>
       <c r="F54" t="str">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G54" t="str">
         <v>A</v>
@@ -4193,7 +4190,7 @@
         <v>SB 382</v>
       </c>
       <c r="P54" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="Q54" t="str">
         <v/>
@@ -4234,13 +4231,13 @@
         <v>CS</v>
       </c>
       <c r="F55" t="str">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="G55" t="str">
         <v>A</v>
       </c>
       <c r="H55" t="str">
-        <v>Eric Araujo</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="I55" t="str">
         <v>2</v>
@@ -4255,7 +4252,7 @@
         <v>MWF</v>
       </c>
       <c r="M55" t="str">
-        <v>09:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N55">
         <v>65</v>
@@ -4264,7 +4261,7 @@
         <v>SB 382</v>
       </c>
       <c r="P55" t="str">
-        <v>Database Management Systems</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="Q55" t="str">
         <v/>
@@ -4296,46 +4293,46 @@
         <v/>
       </c>
       <c r="C56" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D56" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E56" t="str">
         <v>CS</v>
       </c>
       <c r="F56" t="str">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G56" t="str">
         <v>A</v>
       </c>
       <c r="H56" t="str">
-        <v>Brian D Paige, Adam Vedra</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I56" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J56" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K56" t="str">
         <v/>
       </c>
       <c r="L56" t="str">
-        <v>MR</v>
+        <v>MWF</v>
       </c>
       <c r="M56" t="str">
-        <v>19:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N56">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O56" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P56" t="str">
-        <v>Computer Security</v>
+        <v>Database Management Systems</v>
       </c>
       <c r="Q56" t="str">
         <v/>
@@ -4367,46 +4364,46 @@
         <v/>
       </c>
       <c r="C57" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D57" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E57" t="str">
         <v>CS</v>
       </c>
       <c r="F57" t="str">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G57" t="str">
         <v>A</v>
       </c>
       <c r="H57" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Brian D Paige, Adam Vedra</v>
       </c>
       <c r="I57" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J57" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K57" t="str">
         <v/>
       </c>
       <c r="L57" t="str">
-        <v>MWF</v>
+        <v>MR</v>
       </c>
       <c r="M57" t="str">
-        <v>11:00:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N57">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O57" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P57" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Computer Security</v>
       </c>
       <c r="Q57" t="str">
         <v/>
@@ -4441,13 +4438,13 @@
         <v>SP</v>
       </c>
       <c r="D58" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E58" t="str">
         <v>CS</v>
       </c>
       <c r="F58" t="str">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G58" t="str">
         <v>A</v>
@@ -4477,7 +4474,7 @@
         <v>SB 382</v>
       </c>
       <c r="P58" t="str">
-        <v>Machine Learning</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="Q58" t="str">
         <v/>
@@ -4509,46 +4506,46 @@
         <v/>
       </c>
       <c r="C59" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D59" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E59" t="str">
         <v>CS</v>
       </c>
       <c r="F59" t="str">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G59" t="str">
         <v>A</v>
       </c>
       <c r="H59" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I59" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" t="str">
         <v/>
       </c>
       <c r="L59" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="M59" t="str">
-        <v>19:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N59">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O59" t="str">
         <v>SB 382</v>
       </c>
       <c r="P59" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>Machine Learning</v>
       </c>
       <c r="Q59" t="str">
         <v/>
@@ -4580,7 +4577,7 @@
         <v/>
       </c>
       <c r="C60" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D60" t="str">
         <v>Full</v>
@@ -4660,7 +4657,7 @@
         <v>CS</v>
       </c>
       <c r="F61" t="str">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G61" t="str">
         <v>A</v>
@@ -4669,28 +4666,28 @@
         <v>Derek C Schuurman</v>
       </c>
       <c r="I61" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J61" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K61" t="str">
         <v/>
       </c>
       <c r="L61" t="str">
-        <v>TR</v>
+        <v>R</v>
       </c>
       <c r="M61" t="str">
-        <v>10:20:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O61" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="P61" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="Q61" t="str">
         <v/>
@@ -4734,7 +4731,7 @@
         <v>384</v>
       </c>
       <c r="G62" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H62" t="str">
         <v>Derek C Schuurman</v>
@@ -4752,13 +4749,13 @@
         <v>TR</v>
       </c>
       <c r="M62" t="str">
-        <v>12:15:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N62">
         <v>100</v>
       </c>
       <c r="O62" t="str">
-        <v>HH 336</v>
+        <v>SC 203</v>
       </c>
       <c r="P62" t="str">
         <v>Perspectives on Computing</v>
@@ -4793,28 +4790,28 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D63" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E63" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F63" t="str">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="G63" t="str">
         <v>B</v>
       </c>
       <c r="H63" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I63" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J63" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K63" t="str">
         <v/>
@@ -4829,16 +4826,16 @@
         <v>100</v>
       </c>
       <c r="O63" t="str">
-        <v>SB 354</v>
+        <v>SC 203</v>
       </c>
       <c r="P63" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="Q63" t="str">
         <v/>
       </c>
       <c r="R63" t="str">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S63" t="str">
         <v/>
@@ -4864,7 +4861,7 @@
         <v/>
       </c>
       <c r="C64" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D64" t="str">
         <v>First</v>
@@ -4935,7 +4932,7 @@
         <v/>
       </c>
       <c r="C65" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D65" t="str">
         <v>First</v>
@@ -4947,7 +4944,7 @@
         <v>102</v>
       </c>
       <c r="G65" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="H65" t="str">
         <v>Cancelled-DATA</v>
@@ -4965,7 +4962,7 @@
         <v>TR</v>
       </c>
       <c r="M65" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N65">
         <v>100</v>
@@ -5006,7 +5003,7 @@
         <v/>
       </c>
       <c r="C66" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D66" t="str">
         <v>First</v>
@@ -5077,7 +5074,7 @@
         <v/>
       </c>
       <c r="C67" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D67" t="str">
         <v>First</v>
@@ -5089,10 +5086,10 @@
         <v>102</v>
       </c>
       <c r="G67" t="str">
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="H67" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I67" t="str">
         <v>2</v>
@@ -5107,7 +5104,7 @@
         <v>TR</v>
       </c>
       <c r="M67" t="str">
-        <v>19:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N67">
         <v>100</v>
@@ -5148,7 +5145,7 @@
         <v/>
       </c>
       <c r="C68" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D68" t="str">
         <v>First</v>
@@ -5219,10 +5216,10 @@
         <v/>
       </c>
       <c r="C69" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D69" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E69" t="str">
         <v>DATA</v>
@@ -5231,10 +5228,10 @@
         <v>102</v>
       </c>
       <c r="G69" t="str">
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="H69" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I69" t="str">
         <v>2</v>
@@ -5249,7 +5246,7 @@
         <v>TR</v>
       </c>
       <c r="M69" t="str">
-        <v>12:15:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N69">
         <v>100</v>
@@ -5290,7 +5287,7 @@
         <v/>
       </c>
       <c r="C70" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D70" t="str">
         <v>Second</v>
@@ -5361,7 +5358,7 @@
         <v/>
       </c>
       <c r="C71" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D71" t="str">
         <v>Second</v>
@@ -5373,7 +5370,7 @@
         <v>102</v>
       </c>
       <c r="G71" t="str">
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="H71" t="str">
         <v>Cancelled-DATA</v>
@@ -5391,7 +5388,7 @@
         <v>TR</v>
       </c>
       <c r="M71" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N71">
         <v>100</v>
@@ -5432,7 +5429,7 @@
         <v/>
       </c>
       <c r="C72" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D72" t="str">
         <v>Second</v>
@@ -5503,7 +5500,7 @@
         <v/>
       </c>
       <c r="C73" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D73" t="str">
         <v>Second</v>
@@ -5515,10 +5512,10 @@
         <v>102</v>
       </c>
       <c r="G73" t="str">
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="H73" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I73" t="str">
         <v>2</v>
@@ -5533,7 +5530,7 @@
         <v>TR</v>
       </c>
       <c r="M73" t="str">
-        <v>19:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N73">
         <v>100</v>
@@ -5574,7 +5571,7 @@
         <v/>
       </c>
       <c r="C74" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D74" t="str">
         <v>Second</v>
@@ -5637,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" xml:space="preserve">
+    <row r="75">
       <c r="A75" t="str">
         <v>Computer Science</v>
       </c>
@@ -5648,7 +5645,7 @@
         <v>SP</v>
       </c>
       <c r="D75" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E75" t="str">
         <v>DATA</v>
@@ -5657,10 +5654,10 @@
         <v>102</v>
       </c>
       <c r="G75" t="str">
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="H75" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I75" t="str">
         <v>2</v>
@@ -5672,13 +5669,13 @@
         <v/>
       </c>
       <c r="L75" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M75" t="str">
-        <v>09:15:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N75">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O75" t="str">
         <v>SB 354</v>
@@ -5698,9 +5695,8 @@
       <c r="T75" t="str">
         <v/>
       </c>
-      <c r="U75" t="str" xml:space="preserve">
-        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
-Set as on-hold? we may not have the enrollment.</v>
+      <c r="U75" t="str">
+        <v/>
       </c>
       <c r="V75">
         <v>0</v>
@@ -5720,7 +5716,7 @@
         <v>SP</v>
       </c>
       <c r="D76" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E76" t="str">
         <v>DATA</v>
@@ -5729,7 +5725,7 @@
         <v>102</v>
       </c>
       <c r="G76" t="str">
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="H76" t="str">
         <v>Fernando Pasquini Santos</v>
@@ -5781,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" xml:space="preserve">
       <c r="A77" t="str">
         <v>Computer Science</v>
       </c>
@@ -5789,7 +5785,7 @@
         <v/>
       </c>
       <c r="C77" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D77" t="str">
         <v>Second</v>
@@ -5804,7 +5800,7 @@
         <v>E</v>
       </c>
       <c r="H77" t="str">
-        <v>Staff</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I77" t="str">
         <v>2</v>
@@ -5816,13 +5812,13 @@
         <v/>
       </c>
       <c r="L77" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="M77" t="str">
-        <v>08:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N77">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O77" t="str">
         <v>SB 354</v>
@@ -5842,8 +5838,9 @@
       <c r="T77" t="str">
         <v/>
       </c>
-      <c r="U77" t="str">
-        <v/>
+      <c r="U77" t="str" xml:space="preserve">
+        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
+Set as on-hold? we may not have the enrollment.</v>
       </c>
       <c r="V77">
         <v>0</v>
@@ -5863,7 +5860,7 @@
         <v>FA</v>
       </c>
       <c r="D78" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E78" t="str">
         <v>DATA</v>
@@ -5872,7 +5869,7 @@
         <v>102</v>
       </c>
       <c r="G78" t="str">
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="H78" t="str">
         <v>Staff</v>
@@ -5934,49 +5931,49 @@
         <v>FA</v>
       </c>
       <c r="D79" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E79" t="str">
         <v>DATA</v>
       </c>
       <c r="F79" t="str">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="G79" t="str">
         <v>A</v>
       </c>
       <c r="H79" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Staff</v>
       </c>
       <c r="I79" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J79" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K79" t="str">
         <v/>
       </c>
       <c r="L79" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M79" t="str">
         <v>08:00:00</v>
       </c>
       <c r="N79">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O79" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="P79" t="str">
-        <v>Predictive Analytics</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="Q79" t="str">
         <v/>
       </c>
       <c r="R79" t="str">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S79" t="str">
         <v/>
@@ -6014,7 +6011,7 @@
         <v>202</v>
       </c>
       <c r="G80" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H80" t="str">
         <v>Fernando Pasquini Santos</v>
@@ -6032,7 +6029,7 @@
         <v>MWF</v>
       </c>
       <c r="M80" t="str">
-        <v>09:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N80">
         <v>65</v>
@@ -6067,7 +6064,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B81" t="str">
         <v/>
@@ -6076,25 +6073,25 @@
         <v>FA</v>
       </c>
       <c r="D81" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E81" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F81" t="str">
-        <v>300-S</v>
+        <v>202</v>
       </c>
       <c r="G81" t="str">
-        <v>A-S</v>
+        <v>B</v>
       </c>
       <c r="H81" t="str">
-        <v>Shadow-Gold</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I81" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J81" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K81" t="str">
         <v/>
@@ -6103,22 +6100,22 @@
         <v>MWF</v>
       </c>
       <c r="M81" t="str">
-        <v>11:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N81">
         <v>65</v>
       </c>
       <c r="O81" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="P81" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q81" t="str">
         <v/>
       </c>
       <c r="R81" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S81" t="str">
         <v/>
@@ -6144,10 +6141,10 @@
         <v/>
       </c>
       <c r="C82" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D82" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E82" t="str">
         <v>CS</v>
@@ -6174,7 +6171,7 @@
         <v>MWF</v>
       </c>
       <c r="M82" t="str">
-        <v>12:15:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N82">
         <v>65</v>
@@ -6215,10 +6212,10 @@
         <v/>
       </c>
       <c r="C83" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D83" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E83" t="str">
         <v>CS</v>
@@ -6227,7 +6224,7 @@
         <v>300-S</v>
       </c>
       <c r="G83" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="H83" t="str">
         <v>Shadow-Gold</v>
@@ -6245,7 +6242,7 @@
         <v>MWF</v>
       </c>
       <c r="M83" t="str">
-        <v>11:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N83">
         <v>65</v>
@@ -6286,19 +6283,19 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D84" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E84" t="str">
         <v>CS</v>
       </c>
       <c r="F84" t="str">
-        <v>338-S</v>
+        <v>300-S</v>
       </c>
       <c r="G84" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="H84" t="str">
         <v>Shadow-Gold</v>
@@ -6316,7 +6313,7 @@
         <v>MWF</v>
       </c>
       <c r="M84" t="str">
-        <v>08:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N84">
         <v>65</v>
@@ -6325,7 +6322,7 @@
         <v>SB 354</v>
       </c>
       <c r="P84" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="Q84" t="str">
         <v/>
@@ -6360,13 +6357,13 @@
         <v>SP</v>
       </c>
       <c r="D85" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E85" t="str">
         <v>CS</v>
       </c>
       <c r="F85" t="str">
-        <v>339-S</v>
+        <v>338-S</v>
       </c>
       <c r="G85" t="str">
         <v>A-S</v>
@@ -6396,7 +6393,7 @@
         <v>SB 354</v>
       </c>
       <c r="P85" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="Q85" t="str">
         <v/>
@@ -6428,7 +6425,7 @@
         <v/>
       </c>
       <c r="C86" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D86" t="str">
         <v>Second</v>
@@ -6437,7 +6434,7 @@
         <v>CS</v>
       </c>
       <c r="F86" t="str">
-        <v>374-S</v>
+        <v>339-S</v>
       </c>
       <c r="G86" t="str">
         <v>A-S</v>
@@ -6446,19 +6443,19 @@
         <v>Shadow-Gold</v>
       </c>
       <c r="I86" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K86" t="str">
         <v/>
       </c>
       <c r="L86" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="M86" t="str">
-        <v>14:45:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N86">
         <v>65</v>
@@ -6467,7 +6464,7 @@
         <v>SB 354</v>
       </c>
       <c r="P86" t="str">
-        <v>High-Performance Computing</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="Q86" t="str">
         <v/>
@@ -6499,16 +6496,16 @@
         <v/>
       </c>
       <c r="C87" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D87" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E87" t="str">
         <v>CS</v>
       </c>
       <c r="F87" t="str">
-        <v>375-S</v>
+        <v>374-S</v>
       </c>
       <c r="G87" t="str">
         <v>A-S</v>
@@ -6517,19 +6514,19 @@
         <v>Shadow-Gold</v>
       </c>
       <c r="I87" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87" t="str">
         <v/>
       </c>
       <c r="L87" t="str">
-        <v>MWF</v>
+        <v>MW</v>
       </c>
       <c r="M87" t="str">
-        <v>11:00:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N87">
         <v>65</v>
@@ -6538,7 +6535,7 @@
         <v>SB 354</v>
       </c>
       <c r="P87" t="str">
-        <v>Artificial Intelligence</v>
+        <v>High-Performance Computing</v>
       </c>
       <c r="Q87" t="str">
         <v/>
@@ -6573,16 +6570,16 @@
         <v>SP</v>
       </c>
       <c r="D88" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E88" t="str">
         <v>CS</v>
       </c>
       <c r="F88" t="str">
-        <v>376-S</v>
+        <v>375-S</v>
       </c>
       <c r="G88" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="H88" t="str">
         <v>Shadow-Gold</v>
@@ -6609,7 +6606,7 @@
         <v>SB 354</v>
       </c>
       <c r="P88" t="str">
-        <v>Machine Learning</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="Q88" t="str">
         <v/>
@@ -6641,22 +6638,22 @@
         <v/>
       </c>
       <c r="C89" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D89" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E89" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F89" t="str">
-        <v>202-S</v>
+        <v>376-S</v>
       </c>
       <c r="G89" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="H89" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Shadow-Gold</v>
       </c>
       <c r="I89" t="str">
         <v>0</v>
@@ -6671,7 +6668,7 @@
         <v>MWF</v>
       </c>
       <c r="M89" t="str">
-        <v>08:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N89">
         <v>65</v>
@@ -6680,13 +6677,13 @@
         <v>SB 354</v>
       </c>
       <c r="P89" t="str">
-        <v>Predictive Analytics</v>
+        <v>Machine Learning</v>
       </c>
       <c r="Q89" t="str">
         <v/>
       </c>
       <c r="R89" t="str">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S89" t="str">
         <v/>
@@ -6724,7 +6721,7 @@
         <v>202-S</v>
       </c>
       <c r="G90" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="H90" t="str">
         <v>Shadow-Maroon</v>
@@ -6742,7 +6739,7 @@
         <v>MWF</v>
       </c>
       <c r="M90" t="str">
-        <v>09:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N90">
         <v>65</v>
@@ -6777,7 +6774,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Computer Science</v>
+        <v>Shadow</v>
       </c>
       <c r="B91" t="str">
         <v/>
@@ -6789,22 +6786,22 @@
         <v>Full</v>
       </c>
       <c r="E91" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F91" t="str">
-        <v>106</v>
+        <v>202-S</v>
       </c>
       <c r="G91" t="str">
-        <v>A</v>
+        <v>B-S</v>
       </c>
       <c r="H91" t="str">
-        <v>Staff</v>
+        <v>Shadow-Maroon</v>
       </c>
       <c r="I91" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J91" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K91" t="str">
         <v/>
@@ -6813,22 +6810,22 @@
         <v>MWF</v>
       </c>
       <c r="M91" t="str">
-        <v>14:45:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N91">
         <v>65</v>
       </c>
       <c r="O91" t="str">
-        <v>SB 372</v>
+        <v>SB 354</v>
       </c>
       <c r="P91" t="str">
-        <v>Intro to Computing</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q91" t="str">
         <v/>
       </c>
       <c r="R91" t="str">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S91" t="str">
         <v/>
@@ -6863,7 +6860,7 @@
         <v>CS</v>
       </c>
       <c r="F92" t="str">
-        <v>106L</v>
+        <v>106</v>
       </c>
       <c r="G92" t="str">
         <v>A</v>
@@ -6872,28 +6869,28 @@
         <v>Staff</v>
       </c>
       <c r="I92" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J92" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K92" t="str">
         <v/>
       </c>
       <c r="L92" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="M92" t="str">
-        <v>10:20:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N92">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O92" t="str">
         <v>SB 372</v>
       </c>
       <c r="P92" t="str">
-        <v>Intro to Computing Lab</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="Q92" t="str">
         <v/>
@@ -6934,43 +6931,43 @@
         <v>CS</v>
       </c>
       <c r="F93" t="str">
-        <v>396</v>
+        <v>106L</v>
       </c>
       <c r="G93" t="str">
         <v>A</v>
       </c>
       <c r="H93" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Staff</v>
       </c>
       <c r="I93" t="str">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J93" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93" t="str">
         <v/>
       </c>
       <c r="L93" t="str">
-        <v>T</v>
+        <v>R</v>
       </c>
       <c r="M93" t="str">
-        <v>19:00:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N93">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O93" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P93" t="str">
-        <v>Senior Project in Computing I</v>
+        <v>Intro to Computing Lab</v>
       </c>
       <c r="Q93" t="str">
         <v/>
       </c>
       <c r="R93" t="str">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S93" t="str">
         <v/>
@@ -7002,7 +6999,7 @@
         <v>Full</v>
       </c>
       <c r="E94" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F94" t="str">
         <v>396</v>
@@ -7014,7 +7011,7 @@
         <v>Derek C Schuurman</v>
       </c>
       <c r="I94" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J94" t="str">
         <v>2</v>
@@ -7035,7 +7032,7 @@
         <v>SB 382</v>
       </c>
       <c r="P94" t="str">
-        <v>Senior Project in Data Science</v>
+        <v>Senior Project in Computing I</v>
       </c>
       <c r="Q94" t="str">
         <v/>
@@ -7067,16 +7064,16 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D95" t="str">
         <v>Full</v>
       </c>
       <c r="E95" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F95" t="str">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G95" t="str">
         <v>A</v>
@@ -7085,7 +7082,7 @@
         <v>Derek C Schuurman</v>
       </c>
       <c r="I95" t="str">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J95" t="str">
         <v>2</v>
@@ -7106,7 +7103,7 @@
         <v>SB 382</v>
       </c>
       <c r="P95" t="str">
-        <v>Senior Project in Computing II</v>
+        <v>Senior Project in Data Science</v>
       </c>
       <c r="Q95" t="str">
         <v/>
@@ -7144,7 +7141,7 @@
         <v>Full</v>
       </c>
       <c r="E96" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F96" t="str">
         <v>398</v>
@@ -7156,7 +7153,7 @@
         <v>Derek C Schuurman</v>
       </c>
       <c r="I96" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J96" t="str">
         <v>2</v>
@@ -7177,7 +7174,7 @@
         <v>SB 382</v>
       </c>
       <c r="P96" t="str">
-        <v>Senior Project in Data Science II</v>
+        <v>Senior Project in Computing II</v>
       </c>
       <c r="Q96" t="str">
         <v/>
@@ -7203,55 +7200,58 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v/>
+        <v>Computer Science</v>
       </c>
       <c r="B97" t="str">
         <v/>
       </c>
+      <c r="C97" t="str">
+        <v>SP</v>
+      </c>
       <c r="D97" t="str">
-        <v/>
+        <v>Full</v>
       </c>
       <c r="E97" t="str">
-        <v/>
+        <v>DATA</v>
       </c>
       <c r="F97" t="str">
-        <v/>
+        <v>398</v>
       </c>
       <c r="G97" t="str">
-        <v/>
+        <v>A</v>
       </c>
       <c r="H97" t="str">
-        <v>Harry Plantinga</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I97" t="str">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J97" t="str">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K97" t="str">
         <v/>
       </c>
       <c r="L97" t="str">
-        <v/>
+        <v>T</v>
       </c>
       <c r="M97" t="str">
-        <v/>
-      </c>
-      <c r="N97" t="str">
-        <v/>
+        <v>19:00:00</v>
+      </c>
+      <c r="N97">
+        <v>50</v>
       </c>
       <c r="O97" t="str">
-        <v/>
+        <v>SB 382</v>
       </c>
       <c r="P97" t="str">
-        <v/>
+        <v>Senior Project in Data Science II</v>
       </c>
       <c r="Q97" t="str">
-        <v>CCEL</v>
+        <v/>
       </c>
       <c r="R97" t="str">
-        <v/>
+        <v>300</v>
       </c>
       <c r="S97" t="str">
         <v/>
@@ -7988,50 +7988,47 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>FA</v>
-      </c>
       <c r="B12" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="C12" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="D12" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F12" t="str">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G12" t="str">
-        <v>MTWRF</v>
+        <v/>
       </c>
       <c r="H12" t="str">
-        <v>16:00:00 - 18:15:00</v>
+        <v/>
       </c>
       <c r="I12" t="str">
-        <v>, ,</v>
+        <v/>
       </c>
       <c r="J12" t="str">
         <v>Full</v>
       </c>
       <c r="K12" t="str">
-        <v>FA-Full</v>
-      </c>
-      <c r="L12">
-        <v>135</v>
+        <v>-Full</v>
+      </c>
+      <c r="L12" t="str">
+        <v/>
       </c>
       <c r="M12" t="str">
         <v/>
       </c>
       <c r="N12" t="str">
-        <v>*</v>
+        <v>Harry Plantinga</v>
       </c>
       <c r="O12" t="str">
-        <v>LEC</v>
+        <v>CCEL</v>
       </c>
       <c r="P12" t="str">
         <v/>
@@ -8042,7 +8039,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B13" t="str">
         <v>*</v>
@@ -8072,7 +8069,7 @@
         <v>Full</v>
       </c>
       <c r="K13" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L13">
         <v>135</v>
@@ -8095,46 +8092,46 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B14" t="str">
-        <v>CS</v>
+        <v>*</v>
       </c>
       <c r="C14" t="str">
-        <v>100</v>
+        <v>*</v>
       </c>
       <c r="D14" t="str">
-        <v>A</v>
+        <v>*</v>
       </c>
       <c r="E14" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="str">
-        <v>TR</v>
+        <v>MTWRF</v>
       </c>
       <c r="H14" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>16:00:00 - 18:15:00</v>
       </c>
       <c r="I14" t="str">
-        <v>SB 354</v>
+        <v>, ,</v>
       </c>
       <c r="J14" t="str">
         <v>Full</v>
       </c>
       <c r="K14" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="M14" t="str">
-        <v>Creating Interactive Web Media</v>
+        <v/>
       </c>
       <c r="N14" t="str">
-        <v>David Meyer</v>
+        <v>*</v>
       </c>
       <c r="O14" t="str">
         <v>LEC</v>
@@ -8154,43 +8151,43 @@
         <v>CS</v>
       </c>
       <c r="C15" t="str">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D15" t="str">
         <v>A</v>
       </c>
       <c r="E15" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H15" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I15" t="str">
-        <v>SB 372</v>
+        <v>SB 354</v>
       </c>
       <c r="J15" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K15" t="str">
-        <v>FA-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L15">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M15" t="str">
-        <v>Applied Computing</v>
+        <v>Creating Interactive Web Media</v>
       </c>
       <c r="N15" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>David Meyer</v>
       </c>
       <c r="O15" t="str">
-        <v/>
+        <v>LEC</v>
       </c>
       <c r="P15" t="str">
         <v/>
@@ -8210,7 +8207,7 @@
         <v>104</v>
       </c>
       <c r="D16" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E16" t="str">
         <v>1</v>
@@ -8228,10 +8225,10 @@
         <v>SB 372</v>
       </c>
       <c r="J16" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K16" t="str">
-        <v>FA-Second</v>
+        <v>FA-First</v>
       </c>
       <c r="L16">
         <v>65</v>
@@ -8260,7 +8257,7 @@
         <v>CS</v>
       </c>
       <c r="C17" t="str">
-        <v>104L</v>
+        <v>104</v>
       </c>
       <c r="D17" t="str">
         <v>B</v>
@@ -8269,31 +8266,31 @@
         <v>1</v>
       </c>
       <c r="F17" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G17" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="H17" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I17" t="str">
         <v>SB 372</v>
       </c>
       <c r="J17" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K17" t="str">
-        <v>FA-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M17" t="str">
         <v>Applied Computing</v>
       </c>
       <c r="N17" t="str">
-        <v>Staff</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O17" t="str">
         <v/>
@@ -8316,7 +8313,7 @@
         <v>104L</v>
       </c>
       <c r="D18" t="str">
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="E18" t="str">
         <v>1</v>
@@ -8334,10 +8331,10 @@
         <v>SB 372</v>
       </c>
       <c r="J18" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K18" t="str">
-        <v>FA-Second</v>
+        <v>FA-First</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -8369,7 +8366,7 @@
         <v>104L</v>
       </c>
       <c r="D19" t="str">
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="E19" t="str">
         <v>1</v>
@@ -8381,16 +8378,16 @@
         <v>T</v>
       </c>
       <c r="H19" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I19" t="str">
         <v>SB 372</v>
       </c>
       <c r="J19" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K19" t="str">
-        <v>FA-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L19">
         <v>100</v>
@@ -8399,7 +8396,7 @@
         <v>Applied Computing</v>
       </c>
       <c r="N19" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Staff</v>
       </c>
       <c r="O19" t="str">
         <v/>
@@ -8422,7 +8419,7 @@
         <v>104L</v>
       </c>
       <c r="D20" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="E20" t="str">
         <v>1</v>
@@ -8440,10 +8437,10 @@
         <v>SB 372</v>
       </c>
       <c r="J20" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K20" t="str">
-        <v>FA-Second</v>
+        <v>FA-First</v>
       </c>
       <c r="L20">
         <v>100</v>
@@ -8472,40 +8469,40 @@
         <v>CS</v>
       </c>
       <c r="C21" t="str">
-        <v>108</v>
+        <v>104L</v>
       </c>
       <c r="D21" t="str">
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="E21" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G21" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="H21" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I21" t="str">
         <v>SB 372</v>
       </c>
       <c r="J21" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K21" t="str">
-        <v>FA-Full</v>
+        <v>FA-Second</v>
       </c>
       <c r="L21">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M21" t="str">
-        <v>Intro to Computing</v>
+        <v>Applied Computing</v>
       </c>
       <c r="N21" t="str">
-        <v>Rocky Chang</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O21" t="str">
         <v/>
@@ -8519,7 +8516,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B22" t="str">
         <v>CS</v>
@@ -8540,16 +8537,16 @@
         <v>MWF</v>
       </c>
       <c r="H22" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I22" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J22" t="str">
         <v>Full</v>
       </c>
       <c r="K22" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L22">
         <v>65</v>
@@ -8558,7 +8555,7 @@
         <v>Intro to Computing</v>
       </c>
       <c r="N22" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O22" t="str">
         <v/>
@@ -8572,7 +8569,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B23" t="str">
         <v>CS</v>
@@ -8581,7 +8578,7 @@
         <v>108</v>
       </c>
       <c r="D23" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E23" t="str">
         <v>3</v>
@@ -8596,13 +8593,13 @@
         <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I23" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J23" t="str">
         <v>Full</v>
       </c>
       <c r="K23" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L23">
         <v>65</v>
@@ -8611,7 +8608,7 @@
         <v>Intro to Computing</v>
       </c>
       <c r="N23" t="str">
-        <v>Rocky Chang</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O23" t="str">
         <v/>
@@ -8625,7 +8622,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B24" t="str">
         <v>CS</v>
@@ -8646,16 +8643,16 @@
         <v>MWF</v>
       </c>
       <c r="H24" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I24" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J24" t="str">
         <v>Full</v>
       </c>
       <c r="K24" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L24">
         <v>65</v>
@@ -8664,7 +8661,7 @@
         <v>Intro to Computing</v>
       </c>
       <c r="N24" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O24" t="str">
         <v/>
@@ -8678,46 +8675,46 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B25" t="str">
         <v>CS</v>
       </c>
       <c r="C25" t="str">
-        <v>108L</v>
+        <v>108</v>
       </c>
       <c r="D25" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E25" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="H25" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I25" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J25" t="str">
         <v>Full</v>
       </c>
       <c r="K25" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M25" t="str">
-        <v>Intro to Computing Lab</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="N25" t="str">
-        <v>Rocky Chang</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O25" t="str">
         <v/>
@@ -8740,7 +8737,7 @@
         <v>108L</v>
       </c>
       <c r="D26" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E26" t="str">
         <v>1</v>
@@ -8752,7 +8749,7 @@
         <v>R</v>
       </c>
       <c r="H26" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I26" t="str">
         <v>SB 372</v>
@@ -8784,7 +8781,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B27" t="str">
         <v>CS</v>
@@ -8805,7 +8802,7 @@
         <v>R</v>
       </c>
       <c r="H27" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I27" t="str">
         <v>SB 372</v>
@@ -8814,7 +8811,7 @@
         <v>Full</v>
       </c>
       <c r="K27" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L27">
         <v>100</v>
@@ -8823,7 +8820,7 @@
         <v>Intro to Computing Lab</v>
       </c>
       <c r="N27" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O27" t="str">
         <v/>
@@ -8846,7 +8843,7 @@
         <v>108L</v>
       </c>
       <c r="D28" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E28" t="str">
         <v>1</v>
@@ -8858,7 +8855,7 @@
         <v>R</v>
       </c>
       <c r="H28" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I28" t="str">
         <v>SB 372</v>
@@ -8876,7 +8873,7 @@
         <v>Intro to Computing Lab</v>
       </c>
       <c r="N28" t="str">
-        <v>Staff</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O28" t="str">
         <v/>
@@ -8890,46 +8887,46 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B29" t="str">
         <v>CS</v>
       </c>
       <c r="C29" t="str">
-        <v>112</v>
+        <v>108L</v>
       </c>
       <c r="D29" t="str">
         <v>A</v>
       </c>
       <c r="E29" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" t="str">
-        <v>MWF</v>
+        <v>R</v>
       </c>
       <c r="H29" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I29" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J29" t="str">
         <v>Full</v>
       </c>
       <c r="K29" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L29">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M29" t="str">
-        <v>Intro to Data Structures</v>
+        <v>Intro to Computing Lab</v>
       </c>
       <c r="N29" t="str">
-        <v>Eric Araujo</v>
+        <v>Staff</v>
       </c>
       <c r="O29" t="str">
         <v/>
@@ -8943,7 +8940,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B30" t="str">
         <v>CS</v>
@@ -8964,16 +8961,16 @@
         <v>MWF</v>
       </c>
       <c r="H30" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I30" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J30" t="str">
         <v>Full</v>
       </c>
       <c r="K30" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L30">
         <v>65</v>
@@ -8982,7 +8979,7 @@
         <v>Intro to Data Structures</v>
       </c>
       <c r="N30" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O30" t="str">
         <v/>
@@ -8996,7 +8993,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B31" t="str">
         <v>CS</v>
@@ -9005,7 +9002,7 @@
         <v>112</v>
       </c>
       <c r="D31" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E31" t="str">
         <v>3</v>
@@ -9017,16 +9014,16 @@
         <v>MWF</v>
       </c>
       <c r="H31" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I31" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J31" t="str">
         <v>Full</v>
       </c>
       <c r="K31" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L31">
         <v>65</v>
@@ -9035,7 +9032,7 @@
         <v>Intro to Data Structures</v>
       </c>
       <c r="N31" t="str">
-        <v>Eric Araujo</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O31" t="str">
         <v/>
@@ -9049,7 +9046,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B32" t="str">
         <v>CS</v>
@@ -9070,16 +9067,16 @@
         <v>MWF</v>
       </c>
       <c r="H32" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I32" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J32" t="str">
         <v>Full</v>
       </c>
       <c r="K32" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L32">
         <v>65</v>
@@ -9088,7 +9085,7 @@
         <v>Intro to Data Structures</v>
       </c>
       <c r="N32" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O32" t="str">
         <v/>
@@ -9102,28 +9099,28 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B33" t="str">
         <v>CS</v>
       </c>
       <c r="C33" t="str">
-        <v>112L</v>
+        <v>112</v>
       </c>
       <c r="D33" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E33" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="H33" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I33" t="str">
         <v>SB 372</v>
@@ -9132,16 +9129,16 @@
         <v>Full</v>
       </c>
       <c r="K33" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L33">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M33" t="str">
-        <v>Intro to Data Structures Lab</v>
+        <v>Intro to Data Structures</v>
       </c>
       <c r="N33" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O33" t="str">
         <v/>
@@ -9155,7 +9152,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B34" t="str">
         <v>CS</v>
@@ -9185,7 +9182,7 @@
         <v>Full</v>
       </c>
       <c r="K34" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L34">
         <v>100</v>
@@ -9194,7 +9191,7 @@
         <v>Intro to Data Structures Lab</v>
       </c>
       <c r="N34" t="str">
-        <v>Eric Araujo</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="O34" t="str">
         <v/>
@@ -9208,7 +9205,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B35" t="str">
         <v>CS</v>
@@ -9217,7 +9214,7 @@
         <v>112L</v>
       </c>
       <c r="D35" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E35" t="str">
         <v>1</v>
@@ -9229,7 +9226,7 @@
         <v>T</v>
       </c>
       <c r="H35" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I35" t="str">
         <v>SB 372</v>
@@ -9238,7 +9235,7 @@
         <v>Full</v>
       </c>
       <c r="K35" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L35">
         <v>100</v>
@@ -9247,7 +9244,7 @@
         <v>Intro to Data Structures Lab</v>
       </c>
       <c r="N35" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O35" t="str">
         <v/>
@@ -9261,7 +9258,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B36" t="str">
         <v>CS</v>
@@ -9291,7 +9288,7 @@
         <v>Full</v>
       </c>
       <c r="K36" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L36">
         <v>100</v>
@@ -9300,7 +9297,7 @@
         <v>Intro to Data Structures Lab</v>
       </c>
       <c r="N36" t="str">
-        <v>Eric Araujo</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="O36" t="str">
         <v/>
@@ -9314,46 +9311,46 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B37" t="str">
         <v>CS</v>
       </c>
       <c r="C37" t="str">
-        <v>195</v>
+        <v>112L</v>
       </c>
       <c r="D37" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E37" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="str">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G37" t="str">
         <v>T</v>
       </c>
       <c r="H37" t="str">
-        <v>15:05:00 - 15:55:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I37" t="str">
-        <v>SB 10</v>
+        <v>SB 372</v>
       </c>
       <c r="J37" t="str">
         <v>Full</v>
       </c>
       <c r="K37" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L37">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M37" t="str">
-        <v>Intro Computing Seminar</v>
+        <v>Intro to Data Structures Lab</v>
       </c>
       <c r="N37" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O37" t="str">
         <v/>
@@ -9367,7 +9364,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B38" t="str">
         <v>CS</v>
@@ -9397,7 +9394,7 @@
         <v>Full</v>
       </c>
       <c r="K38" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L38">
         <v>50</v>
@@ -9420,46 +9417,46 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B39" t="str">
         <v>CS</v>
       </c>
       <c r="C39" t="str">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D39" t="str">
         <v>A</v>
       </c>
       <c r="E39" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F39" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G39" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="H39" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>15:05:00 - 15:55:00</v>
       </c>
       <c r="I39" t="str">
-        <v>SB 372</v>
+        <v>SB 10</v>
       </c>
       <c r="J39" t="str">
         <v>Full</v>
       </c>
       <c r="K39" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L39">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M39" t="str">
-        <v>Data Structures &amp; Algorithms</v>
+        <v>Intro Computing Seminar</v>
       </c>
       <c r="N39" t="str">
-        <v>Staff</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O39" t="str">
         <v/>
@@ -9482,7 +9479,7 @@
         <v>212</v>
       </c>
       <c r="D40" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E40" t="str">
         <v>4</v>
@@ -9494,7 +9491,7 @@
         <v>MWF</v>
       </c>
       <c r="H40" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I40" t="str">
         <v>SB 372</v>
@@ -9526,16 +9523,16 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B41" t="str">
         <v>CS</v>
       </c>
       <c r="C41" t="str">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D41" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E41" t="str">
         <v>4</v>
@@ -9544,28 +9541,28 @@
         <v>4</v>
       </c>
       <c r="G41" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="H41" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I41" t="str">
-        <v>SB 372, SB 354</v>
+        <v>SB 372</v>
       </c>
       <c r="J41" t="str">
         <v>Full</v>
       </c>
       <c r="K41" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L41">
         <v>65</v>
       </c>
       <c r="M41" t="str">
-        <v>Programming Lang Concepts</v>
+        <v>Data Structures &amp; Algorithms</v>
       </c>
       <c r="N41" t="str">
-        <v>Eric Araujo</v>
+        <v>Staff</v>
       </c>
       <c r="O41" t="str">
         <v/>
@@ -9588,7 +9585,7 @@
         <v>214</v>
       </c>
       <c r="D42" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E42" t="str">
         <v>4</v>
@@ -9597,13 +9594,13 @@
         <v>4</v>
       </c>
       <c r="G42" t="str">
-        <v>F</v>
+        <v>MW</v>
       </c>
       <c r="H42" t="str">
-        <v>14:45:00 - 17:05:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I42" t="str">
-        <v>SB 372, SB 372</v>
+        <v>SB 372, SB 354</v>
       </c>
       <c r="J42" t="str">
         <v>Full</v>
@@ -9612,13 +9609,13 @@
         <v>SP-Full</v>
       </c>
       <c r="L42">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="M42" t="str">
         <v>Programming Lang Concepts</v>
       </c>
       <c r="N42" t="str">
-        <v>David Meyer</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O42" t="str">
         <v/>
@@ -9638,10 +9635,10 @@
         <v>CS</v>
       </c>
       <c r="C43" t="str">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="D43" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E43" t="str">
         <v>4</v>
@@ -9650,13 +9647,13 @@
         <v>4</v>
       </c>
       <c r="G43" t="str">
-        <v>MWF</v>
+        <v>F</v>
       </c>
       <c r="H43" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>14:45:00 - 17:05:00</v>
       </c>
       <c r="I43" t="str">
-        <v>SB 372</v>
+        <v>SB 372, SB 372</v>
       </c>
       <c r="J43" t="str">
         <v>Full</v>
@@ -9665,13 +9662,13 @@
         <v>SP-Full</v>
       </c>
       <c r="L43">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="M43" t="str">
-        <v>Operating Systems and Networki</v>
+        <v>Programming Lang Concepts</v>
       </c>
       <c r="N43" t="str">
-        <v>Rocky Chang</v>
+        <v>David Meyer</v>
       </c>
       <c r="O43" t="str">
         <v/>
@@ -9694,7 +9691,7 @@
         <v>232</v>
       </c>
       <c r="D44" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E44" t="str">
         <v>4</v>
@@ -9706,7 +9703,7 @@
         <v>MWF</v>
       </c>
       <c r="H44" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I44" t="str">
         <v>SB 372</v>
@@ -9738,16 +9735,16 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B45" t="str">
         <v>CS</v>
       </c>
       <c r="C45" t="str">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="D45" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E45" t="str">
         <v>4</v>
@@ -9756,28 +9753,28 @@
         <v>4</v>
       </c>
       <c r="G45" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="H45" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I45" t="str">
-        <v>SC 120, SB 354</v>
+        <v>SB 372</v>
       </c>
       <c r="J45" t="str">
         <v>Full</v>
       </c>
       <c r="K45" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L45">
         <v>65</v>
       </c>
       <c r="M45" t="str">
-        <v>Software Engineering</v>
+        <v>Operating Systems and Networki</v>
       </c>
       <c r="N45" t="str">
-        <v>Victor T. Norman</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O45" t="str">
         <v/>
@@ -9800,7 +9797,7 @@
         <v>262</v>
       </c>
       <c r="D46" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E46" t="str">
         <v>4</v>
@@ -9812,10 +9809,10 @@
         <v>MW</v>
       </c>
       <c r="H46" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I46" t="str">
-        <v>SC 120, SB 337</v>
+        <v>SC 120, SB 354</v>
       </c>
       <c r="J46" t="str">
         <v>Full</v>
@@ -9850,25 +9847,25 @@
         <v>CS</v>
       </c>
       <c r="C47" t="str">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D47" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E47" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F47" t="str">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G47" t="str">
-        <v>T</v>
+        <v>MW</v>
       </c>
       <c r="H47" t="str">
-        <v>15:05:00 - 15:55:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I47" t="str">
-        <v>SB 10</v>
+        <v>SC 120, SB 337</v>
       </c>
       <c r="J47" t="str">
         <v>Full</v>
@@ -9877,10 +9874,10 @@
         <v>FA-Full</v>
       </c>
       <c r="L47">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M47" t="str">
-        <v>Computing Seminar</v>
+        <v>Software Engineering</v>
       </c>
       <c r="N47" t="str">
         <v>Victor T. Norman</v>
@@ -9897,7 +9894,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B48" t="str">
         <v>CS</v>
@@ -9927,7 +9924,7 @@
         <v>Full</v>
       </c>
       <c r="K48" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L48">
         <v>50</v>
@@ -9956,25 +9953,25 @@
         <v>CS</v>
       </c>
       <c r="C49" t="str">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D49" t="str">
         <v>A</v>
       </c>
       <c r="E49" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F49" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G49" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="H49" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>15:05:00 - 15:55:00</v>
       </c>
       <c r="I49" t="str">
-        <v>SB 382</v>
+        <v>SB 10</v>
       </c>
       <c r="J49" t="str">
         <v>Full</v>
@@ -9983,13 +9980,13 @@
         <v>SP-Full</v>
       </c>
       <c r="L49">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M49" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Computing Seminar</v>
       </c>
       <c r="N49" t="str">
-        <v>Rocky Chang</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O49" t="str">
         <v/>
@@ -10003,7 +10000,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B50" t="str">
         <v>CS</v>
@@ -10012,28 +10009,28 @@
         <v>300</v>
       </c>
       <c r="D50" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E50" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50" t="str">
         <v>MWF</v>
       </c>
       <c r="H50" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I50" t="str">
         <v>SB 382</v>
       </c>
       <c r="J50" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K50" t="str">
-        <v>FA-Second</v>
+        <v>SP-Full</v>
       </c>
       <c r="L50">
         <v>65</v>
@@ -10042,13 +10039,13 @@
         <v>Applied Machine Learning</v>
       </c>
       <c r="N50" t="str">
-        <v>Staff</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O50" t="str">
         <v/>
       </c>
       <c r="P50" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="Q50" t="str">
         <v/>
@@ -10065,7 +10062,7 @@
         <v>300</v>
       </c>
       <c r="D51" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E51" t="str">
         <v>2</v>
@@ -10083,10 +10080,10 @@
         <v>SB 382</v>
       </c>
       <c r="J51" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K51" t="str">
-        <v>FA-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L51">
         <v>65</v>
@@ -10095,7 +10092,7 @@
         <v>Applied Machine Learning</v>
       </c>
       <c r="N51" t="str">
-        <v>Eric Araujo</v>
+        <v>Staff</v>
       </c>
       <c r="O51" t="str">
         <v/>
@@ -10115,46 +10112,46 @@
         <v>CS</v>
       </c>
       <c r="C52" t="str">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="D52" t="str">
         <v>A</v>
       </c>
       <c r="E52" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G52" t="str">
         <v>MWF</v>
       </c>
       <c r="H52" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I52" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="J52" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K52" t="str">
-        <v>FA-Full</v>
+        <v>FA-First</v>
       </c>
       <c r="L52">
         <v>65</v>
       </c>
       <c r="M52" t="str">
-        <v>Web Development</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="N52" t="str">
-        <v>Victor T. Norman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O52" t="str">
         <v/>
       </c>
       <c r="P52" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="Q52" t="str">
         <v/>
@@ -10162,46 +10159,46 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B53" t="str">
         <v>CS</v>
       </c>
       <c r="C53" t="str">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D53" t="str">
         <v>A</v>
       </c>
       <c r="E53" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53" t="str">
         <v>MWF</v>
       </c>
       <c r="H53" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I53" t="str">
-        <v>SB 382</v>
+        <v>HH 336</v>
       </c>
       <c r="J53" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K53" t="str">
-        <v>SP-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L53">
         <v>65</v>
       </c>
       <c r="M53" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Web Development</v>
       </c>
       <c r="N53" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O53" t="str">
         <v/>
@@ -10221,7 +10218,7 @@
         <v>CS</v>
       </c>
       <c r="C54" t="str">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D54" t="str">
         <v>A</v>
@@ -10242,16 +10239,16 @@
         <v>SB 382</v>
       </c>
       <c r="J54" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K54" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L54">
         <v>65</v>
       </c>
       <c r="M54" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="N54" t="str">
         <v>Christopher Wieringa</v>
@@ -10274,7 +10271,7 @@
         <v>CS</v>
       </c>
       <c r="C55" t="str">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D55" t="str">
         <v>A</v>
@@ -10289,7 +10286,7 @@
         <v>MWF</v>
       </c>
       <c r="H55" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I55" t="str">
         <v>SB 382</v>
@@ -10304,10 +10301,10 @@
         <v>65</v>
       </c>
       <c r="M55" t="str">
-        <v>Database Management Systems</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="N55" t="str">
-        <v>Eric Araujo</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="O55" t="str">
         <v/>
@@ -10321,46 +10318,46 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B56" t="str">
         <v>CS</v>
       </c>
       <c r="C56" t="str">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D56" t="str">
         <v>A</v>
       </c>
       <c r="E56" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F56" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56" t="str">
-        <v>MR</v>
+        <v>MWF</v>
       </c>
       <c r="H56" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I56" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J56" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K56" t="str">
-        <v>FA-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L56">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M56" t="str">
-        <v>Computer Security</v>
+        <v>Database Management Systems</v>
       </c>
       <c r="N56" t="str">
-        <v>Brian D Paige, Adam Vedra</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O56" t="str">
         <v/>
@@ -10374,46 +10371,46 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B57" t="str">
         <v>CS</v>
       </c>
       <c r="C57" t="str">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D57" t="str">
         <v>A</v>
       </c>
       <c r="E57" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F57" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G57" t="str">
-        <v>MWF</v>
+        <v>MR</v>
       </c>
       <c r="H57" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I57" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J57" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K57" t="str">
-        <v>SP-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L57">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M57" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Computer Security</v>
       </c>
       <c r="N57" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Brian D Paige, Adam Vedra</v>
       </c>
       <c r="O57" t="str">
         <v/>
@@ -10433,7 +10430,7 @@
         <v>CS</v>
       </c>
       <c r="C58" t="str">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D58" t="str">
         <v>A</v>
@@ -10454,16 +10451,16 @@
         <v>SB 382</v>
       </c>
       <c r="J58" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K58" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L58">
         <v>65</v>
       </c>
       <c r="M58" t="str">
-        <v>Machine Learning</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="N58" t="str">
         <v>Kenneth C Arnold</v>
@@ -10480,46 +10477,46 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B59" t="str">
         <v>CS</v>
       </c>
       <c r="C59" t="str">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D59" t="str">
         <v>A</v>
       </c>
       <c r="E59" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="H59" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I59" t="str">
         <v>SB 382</v>
       </c>
       <c r="J59" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K59" t="str">
-        <v>FA-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L59">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M59" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>Machine Learning</v>
       </c>
       <c r="N59" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O59" t="str">
         <v/>
@@ -10533,7 +10530,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B60" t="str">
         <v>CS</v>
@@ -10563,7 +10560,7 @@
         <v>Full</v>
       </c>
       <c r="K60" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L60">
         <v>50</v>
@@ -10592,25 +10589,25 @@
         <v>CS</v>
       </c>
       <c r="C61" t="str">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D61" t="str">
         <v>A</v>
       </c>
       <c r="E61" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G61" t="str">
-        <v>TR</v>
+        <v>R</v>
       </c>
       <c r="H61" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I61" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="J61" t="str">
         <v>Full</v>
@@ -10619,10 +10616,10 @@
         <v>SP-Full</v>
       </c>
       <c r="L61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M61" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="N61" t="str">
         <v>Derek C Schuurman</v>
@@ -10648,7 +10645,7 @@
         <v>384</v>
       </c>
       <c r="D62" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E62" t="str">
         <v>4</v>
@@ -10660,10 +10657,10 @@
         <v>TR</v>
       </c>
       <c r="H62" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I62" t="str">
-        <v>HH 336</v>
+        <v>SC 203</v>
       </c>
       <c r="J62" t="str">
         <v>Full</v>
@@ -10692,22 +10689,22 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B63" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C63" t="str">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="D63" t="str">
         <v>B</v>
       </c>
       <c r="E63" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G63" t="str">
         <v>TR</v>
@@ -10716,22 +10713,22 @@
         <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I63" t="str">
-        <v>SB 354</v>
+        <v>SC 203</v>
       </c>
       <c r="J63" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K63" t="str">
-        <v>FA-First</v>
+        <v>SP-Full</v>
       </c>
       <c r="L63">
         <v>100</v>
       </c>
       <c r="M63" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="N63" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O63" t="str">
         <v/>
@@ -10745,7 +10742,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B64" t="str">
         <v>DATA</v>
@@ -10775,7 +10772,7 @@
         <v>First</v>
       </c>
       <c r="K64" t="str">
-        <v>SP-First</v>
+        <v>FA-First</v>
       </c>
       <c r="L64">
         <v>100</v>
@@ -10798,7 +10795,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B65" t="str">
         <v>DATA</v>
@@ -10807,7 +10804,7 @@
         <v>102</v>
       </c>
       <c r="D65" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="E65" t="str">
         <v>2</v>
@@ -10819,7 +10816,7 @@
         <v>TR</v>
       </c>
       <c r="H65" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I65" t="str">
         <v>SB 354</v>
@@ -10828,7 +10825,7 @@
         <v>First</v>
       </c>
       <c r="K65" t="str">
-        <v>FA-First</v>
+        <v>SP-First</v>
       </c>
       <c r="L65">
         <v>100</v>
@@ -10851,7 +10848,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B66" t="str">
         <v>DATA</v>
@@ -10881,7 +10878,7 @@
         <v>First</v>
       </c>
       <c r="K66" t="str">
-        <v>SP-First</v>
+        <v>FA-First</v>
       </c>
       <c r="L66">
         <v>100</v>
@@ -10904,7 +10901,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B67" t="str">
         <v>DATA</v>
@@ -10913,7 +10910,7 @@
         <v>102</v>
       </c>
       <c r="D67" t="str">
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="E67" t="str">
         <v>2</v>
@@ -10925,7 +10922,7 @@
         <v>TR</v>
       </c>
       <c r="H67" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I67" t="str">
         <v>SB 354</v>
@@ -10934,7 +10931,7 @@
         <v>First</v>
       </c>
       <c r="K67" t="str">
-        <v>FA-First</v>
+        <v>SP-First</v>
       </c>
       <c r="L67">
         <v>100</v>
@@ -10943,7 +10940,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N67" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O67" t="str">
         <v/>
@@ -10957,7 +10954,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B68" t="str">
         <v>DATA</v>
@@ -10987,7 +10984,7 @@
         <v>First</v>
       </c>
       <c r="K68" t="str">
-        <v>SP-First</v>
+        <v>FA-First</v>
       </c>
       <c r="L68">
         <v>100</v>
@@ -11010,7 +11007,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B69" t="str">
         <v>DATA</v>
@@ -11019,7 +11016,7 @@
         <v>102</v>
       </c>
       <c r="D69" t="str">
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="E69" t="str">
         <v>2</v>
@@ -11031,16 +11028,16 @@
         <v>TR</v>
       </c>
       <c r="H69" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I69" t="str">
         <v>SB 354</v>
       </c>
       <c r="J69" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K69" t="str">
-        <v>FA-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L69">
         <v>100</v>
@@ -11049,7 +11046,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N69" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O69" t="str">
         <v/>
@@ -11063,7 +11060,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B70" t="str">
         <v>DATA</v>
@@ -11093,7 +11090,7 @@
         <v>Second</v>
       </c>
       <c r="K70" t="str">
-        <v>SP-Second</v>
+        <v>FA-Second</v>
       </c>
       <c r="L70">
         <v>100</v>
@@ -11116,7 +11113,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B71" t="str">
         <v>DATA</v>
@@ -11125,7 +11122,7 @@
         <v>102</v>
       </c>
       <c r="D71" t="str">
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="E71" t="str">
         <v>2</v>
@@ -11137,7 +11134,7 @@
         <v>TR</v>
       </c>
       <c r="H71" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I71" t="str">
         <v>SB 354</v>
@@ -11146,7 +11143,7 @@
         <v>Second</v>
       </c>
       <c r="K71" t="str">
-        <v>FA-Second</v>
+        <v>SP-Second</v>
       </c>
       <c r="L71">
         <v>100</v>
@@ -11169,7 +11166,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B72" t="str">
         <v>DATA</v>
@@ -11199,7 +11196,7 @@
         <v>Second</v>
       </c>
       <c r="K72" t="str">
-        <v>SP-Second</v>
+        <v>FA-Second</v>
       </c>
       <c r="L72">
         <v>100</v>
@@ -11222,7 +11219,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B73" t="str">
         <v>DATA</v>
@@ -11231,7 +11228,7 @@
         <v>102</v>
       </c>
       <c r="D73" t="str">
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="E73" t="str">
         <v>2</v>
@@ -11243,7 +11240,7 @@
         <v>TR</v>
       </c>
       <c r="H73" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I73" t="str">
         <v>SB 354</v>
@@ -11252,7 +11249,7 @@
         <v>Second</v>
       </c>
       <c r="K73" t="str">
-        <v>FA-Second</v>
+        <v>SP-Second</v>
       </c>
       <c r="L73">
         <v>100</v>
@@ -11261,7 +11258,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N73" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O73" t="str">
         <v/>
@@ -11275,7 +11272,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B74" t="str">
         <v>DATA</v>
@@ -11305,7 +11302,7 @@
         <v>Second</v>
       </c>
       <c r="K74" t="str">
-        <v>SP-Second</v>
+        <v>FA-Second</v>
       </c>
       <c r="L74">
         <v>100</v>
@@ -11326,7 +11323,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" xml:space="preserve">
+    <row r="75">
       <c r="A75" t="str">
         <v>SP</v>
       </c>
@@ -11337,7 +11334,7 @@
         <v>102</v>
       </c>
       <c r="D75" t="str">
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="E75" t="str">
         <v>2</v>
@@ -11346,28 +11343,28 @@
         <v>2</v>
       </c>
       <c r="G75" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H75" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I75" t="str">
         <v>SB 354</v>
       </c>
       <c r="J75" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K75" t="str">
-        <v>SP-First</v>
+        <v>SP-Second</v>
       </c>
       <c r="L75">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M75" t="str">
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N75" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O75" t="str">
         <v/>
@@ -11375,9 +11372,8 @@
       <c r="P75" t="str">
         <v/>
       </c>
-      <c r="Q75" t="str" xml:space="preserve">
-        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
-Set as on-hold? we may not have the enrollment.</v>
+      <c r="Q75" t="str">
+        <v/>
       </c>
     </row>
     <row r="76" xml:space="preserve">
@@ -11391,7 +11387,7 @@
         <v>102</v>
       </c>
       <c r="D76" t="str">
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="E76" t="str">
         <v>2</v>
@@ -11409,10 +11405,10 @@
         <v>SB 354</v>
       </c>
       <c r="J76" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K76" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L76">
         <v>65</v>
@@ -11434,9 +11430,9 @@
 Set as on-hold? we may not have the enrollment.</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" xml:space="preserve">
       <c r="A77" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B77" t="str">
         <v>DATA</v>
@@ -11454,10 +11450,10 @@
         <v>2</v>
       </c>
       <c r="G77" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="H77" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I77" t="str">
         <v>SB 354</v>
@@ -11466,16 +11462,16 @@
         <v>Second</v>
       </c>
       <c r="K77" t="str">
-        <v>FA-Second</v>
+        <v>SP-Second</v>
       </c>
       <c r="L77">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M77" t="str">
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N77" t="str">
-        <v>Staff</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O77" t="str">
         <v/>
@@ -11483,8 +11479,9 @@
       <c r="P77" t="str">
         <v/>
       </c>
-      <c r="Q77" t="str">
-        <v/>
+      <c r="Q77" t="str" xml:space="preserve">
+        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
+Set as on-hold? we may not have the enrollment.</v>
       </c>
     </row>
     <row r="78">
@@ -11498,7 +11495,7 @@
         <v>102</v>
       </c>
       <c r="D78" t="str">
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="E78" t="str">
         <v>2</v>
@@ -11516,10 +11513,10 @@
         <v>SB 354</v>
       </c>
       <c r="J78" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K78" t="str">
-        <v>FA-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L78">
         <v>100</v>
@@ -11548,40 +11545,40 @@
         <v>DATA</v>
       </c>
       <c r="C79" t="str">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="D79" t="str">
         <v>A</v>
       </c>
       <c r="E79" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F79" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H79" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I79" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="J79" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K79" t="str">
-        <v>FA-Full</v>
+        <v>FA-First</v>
       </c>
       <c r="L79">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M79" t="str">
-        <v>Predictive Analytics</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N79" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Staff</v>
       </c>
       <c r="O79" t="str">
         <v/>
@@ -11604,7 +11601,7 @@
         <v>202</v>
       </c>
       <c r="D80" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E80" t="str">
         <v>4</v>
@@ -11616,7 +11613,7 @@
         <v>MWF</v>
       </c>
       <c r="H80" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I80" t="str">
         <v>SB 382</v>
@@ -11651,43 +11648,43 @@
         <v>FA</v>
       </c>
       <c r="B81" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C81" t="str">
-        <v>300-S</v>
+        <v>202</v>
       </c>
       <c r="D81" t="str">
-        <v>A-S</v>
+        <v>B</v>
       </c>
       <c r="E81" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F81" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G81" t="str">
         <v>MWF</v>
       </c>
       <c r="H81" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I81" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="J81" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K81" t="str">
-        <v>FA-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L81">
         <v>65</v>
       </c>
       <c r="M81" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N81" t="str">
-        <v>Shadow-Gold</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O81" t="str">
         <v/>
@@ -11701,7 +11698,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B82" t="str">
         <v>CS</v>
@@ -11722,16 +11719,16 @@
         <v>MWF</v>
       </c>
       <c r="H82" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I82" t="str">
         <v>SB 354</v>
       </c>
       <c r="J82" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K82" t="str">
-        <v>SP-Full</v>
+        <v>FA-First</v>
       </c>
       <c r="L82">
         <v>65</v>
@@ -11754,7 +11751,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B83" t="str">
         <v>CS</v>
@@ -11763,7 +11760,7 @@
         <v>300-S</v>
       </c>
       <c r="D83" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="E83" t="str">
         <v>0</v>
@@ -11775,16 +11772,16 @@
         <v>MWF</v>
       </c>
       <c r="H83" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I83" t="str">
         <v>SB 354</v>
       </c>
       <c r="J83" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K83" t="str">
-        <v>FA-Second</v>
+        <v>SP-Full</v>
       </c>
       <c r="L83">
         <v>65</v>
@@ -11807,16 +11804,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B84" t="str">
         <v>CS</v>
       </c>
       <c r="C84" t="str">
-        <v>338-S</v>
+        <v>300-S</v>
       </c>
       <c r="D84" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="E84" t="str">
         <v>0</v>
@@ -11828,22 +11825,22 @@
         <v>MWF</v>
       </c>
       <c r="H84" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I84" t="str">
         <v>SB 354</v>
       </c>
       <c r="J84" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K84" t="str">
-        <v>SP-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L84">
         <v>65</v>
       </c>
       <c r="M84" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="N84" t="str">
         <v>Shadow-Gold</v>
@@ -11866,7 +11863,7 @@
         <v>CS</v>
       </c>
       <c r="C85" t="str">
-        <v>339-S</v>
+        <v>338-S</v>
       </c>
       <c r="D85" t="str">
         <v>A-S</v>
@@ -11887,16 +11884,16 @@
         <v>SB 354</v>
       </c>
       <c r="J85" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K85" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L85">
         <v>65</v>
       </c>
       <c r="M85" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="N85" t="str">
         <v>Shadow-Gold</v>
@@ -11913,28 +11910,28 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B86" t="str">
         <v>CS</v>
       </c>
       <c r="C86" t="str">
-        <v>374-S</v>
+        <v>339-S</v>
       </c>
       <c r="D86" t="str">
         <v>A-S</v>
       </c>
       <c r="E86" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F86" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G86" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="H86" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I86" t="str">
         <v>SB 354</v>
@@ -11943,13 +11940,13 @@
         <v>Second</v>
       </c>
       <c r="K86" t="str">
-        <v>FA-Second</v>
+        <v>SP-Second</v>
       </c>
       <c r="L86">
         <v>65</v>
       </c>
       <c r="M86" t="str">
-        <v>High-Performance Computing</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="N86" t="str">
         <v>Shadow-Gold</v>
@@ -11966,43 +11963,43 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B87" t="str">
         <v>CS</v>
       </c>
       <c r="C87" t="str">
-        <v>375-S</v>
+        <v>374-S</v>
       </c>
       <c r="D87" t="str">
         <v>A-S</v>
       </c>
       <c r="E87" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G87" t="str">
-        <v>MWF</v>
+        <v>MW</v>
       </c>
       <c r="H87" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I87" t="str">
         <v>SB 354</v>
       </c>
       <c r="J87" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K87" t="str">
-        <v>SP-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L87">
         <v>65</v>
       </c>
       <c r="M87" t="str">
-        <v>Artificial Intelligence</v>
+        <v>High-Performance Computing</v>
       </c>
       <c r="N87" t="str">
         <v>Shadow-Gold</v>
@@ -12025,10 +12022,10 @@
         <v>CS</v>
       </c>
       <c r="C88" t="str">
-        <v>376-S</v>
+        <v>375-S</v>
       </c>
       <c r="D88" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="E88" t="str">
         <v>0</v>
@@ -12046,16 +12043,16 @@
         <v>SB 354</v>
       </c>
       <c r="J88" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K88" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L88">
         <v>65</v>
       </c>
       <c r="M88" t="str">
-        <v>Machine Learning</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="N88" t="str">
         <v>Shadow-Gold</v>
@@ -12072,16 +12069,16 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B89" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C89" t="str">
-        <v>202-S</v>
+        <v>376-S</v>
       </c>
       <c r="D89" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="E89" t="str">
         <v>0</v>
@@ -12093,25 +12090,25 @@
         <v>MWF</v>
       </c>
       <c r="H89" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I89" t="str">
         <v>SB 354</v>
       </c>
       <c r="J89" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K89" t="str">
-        <v>FA-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L89">
         <v>65</v>
       </c>
       <c r="M89" t="str">
-        <v>Predictive Analytics</v>
+        <v>Machine Learning</v>
       </c>
       <c r="N89" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Shadow-Gold</v>
       </c>
       <c r="O89" t="str">
         <v/>
@@ -12134,7 +12131,7 @@
         <v>202-S</v>
       </c>
       <c r="D90" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="E90" t="str">
         <v>0</v>
@@ -12146,7 +12143,7 @@
         <v>MWF</v>
       </c>
       <c r="H90" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I90" t="str">
         <v>SB 354</v>
@@ -12181,28 +12178,28 @@
         <v>FA</v>
       </c>
       <c r="B91" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C91" t="str">
-        <v>106</v>
+        <v>202-S</v>
       </c>
       <c r="D91" t="str">
-        <v>A</v>
+        <v>B-S</v>
       </c>
       <c r="E91" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F91" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G91" t="str">
         <v>MWF</v>
       </c>
       <c r="H91" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I91" t="str">
-        <v>SB 372</v>
+        <v>SB 354</v>
       </c>
       <c r="J91" t="str">
         <v>Full</v>
@@ -12214,10 +12211,10 @@
         <v>65</v>
       </c>
       <c r="M91" t="str">
-        <v>Intro to Computing</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N91" t="str">
-        <v>Staff</v>
+        <v>Shadow-Maroon</v>
       </c>
       <c r="O91" t="str">
         <v/>
@@ -12237,22 +12234,22 @@
         <v>CS</v>
       </c>
       <c r="C92" t="str">
-        <v>106L</v>
+        <v>106</v>
       </c>
       <c r="D92" t="str">
         <v>A</v>
       </c>
       <c r="E92" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F92" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G92" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="H92" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I92" t="str">
         <v>SB 372</v>
@@ -12264,10 +12261,10 @@
         <v>FA-Full</v>
       </c>
       <c r="L92">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M92" t="str">
-        <v>Intro to Computing Lab</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="N92" t="str">
         <v>Staff</v>
@@ -12290,25 +12287,25 @@
         <v>CS</v>
       </c>
       <c r="C93" t="str">
-        <v>396</v>
+        <v>106L</v>
       </c>
       <c r="D93" t="str">
         <v>A</v>
       </c>
       <c r="E93" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="str">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G93" t="str">
-        <v>T</v>
+        <v>R</v>
       </c>
       <c r="H93" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I93" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J93" t="str">
         <v>Full</v>
@@ -12317,13 +12314,13 @@
         <v>FA-Full</v>
       </c>
       <c r="L93">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M93" t="str">
-        <v>Senior Project in Computing I</v>
+        <v>Intro to Computing Lab</v>
       </c>
       <c r="N93" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Staff</v>
       </c>
       <c r="O93" t="str">
         <v/>
@@ -12340,7 +12337,7 @@
         <v>FA</v>
       </c>
       <c r="B94" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C94" t="str">
         <v>396</v>
@@ -12352,7 +12349,7 @@
         <v>2</v>
       </c>
       <c r="F94" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G94" t="str">
         <v>T</v>
@@ -12373,7 +12370,7 @@
         <v>50</v>
       </c>
       <c r="M94" t="str">
-        <v>Senior Project in Data Science</v>
+        <v>Senior Project in Computing I</v>
       </c>
       <c r="N94" t="str">
         <v>Derek C Schuurman</v>
@@ -12390,13 +12387,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B95" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C95" t="str">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D95" t="str">
         <v>A</v>
@@ -12405,7 +12402,7 @@
         <v>2</v>
       </c>
       <c r="F95" t="str">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G95" t="str">
         <v>T</v>
@@ -12420,13 +12417,13 @@
         <v>Full</v>
       </c>
       <c r="K95" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L95">
         <v>50</v>
       </c>
       <c r="M95" t="str">
-        <v>Senior Project in Computing II</v>
+        <v>Senior Project in Data Science</v>
       </c>
       <c r="N95" t="str">
         <v>Derek C Schuurman</v>
@@ -12446,7 +12443,7 @@
         <v>SP</v>
       </c>
       <c r="B96" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C96" t="str">
         <v>398</v>
@@ -12458,7 +12455,7 @@
         <v>2</v>
       </c>
       <c r="F96" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G96" t="str">
         <v>T</v>
@@ -12479,7 +12476,7 @@
         <v>50</v>
       </c>
       <c r="M96" t="str">
-        <v>Senior Project in Data Science II</v>
+        <v>Senior Project in Computing II</v>
       </c>
       <c r="N96" t="str">
         <v>Derek C Schuurman</v>
@@ -12495,44 +12492,50 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="str">
+        <v>SP</v>
+      </c>
       <c r="B97" t="str">
-        <v/>
+        <v>DATA</v>
       </c>
       <c r="C97" t="str">
-        <v/>
+        <v>398</v>
       </c>
       <c r="D97" t="str">
-        <v/>
+        <v>A</v>
       </c>
       <c r="E97" t="str">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F97" t="str">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G97" t="str">
-        <v/>
+        <v>T</v>
       </c>
       <c r="H97" t="str">
-        <v/>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I97" t="str">
-        <v/>
+        <v>SB 382</v>
       </c>
       <c r="J97" t="str">
-        <v/>
-      </c>
-      <c r="L97" t="str">
-        <v/>
+        <v>Full</v>
+      </c>
+      <c r="K97" t="str">
+        <v>SP-Full</v>
+      </c>
+      <c r="L97">
+        <v>50</v>
       </c>
       <c r="M97" t="str">
-        <v/>
+        <v>Senior Project in Data Science II</v>
       </c>
       <c r="N97" t="str">
-        <v>Harry Plantinga</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O97" t="str">
-        <v>CCEL</v>
+        <v/>
       </c>
       <c r="P97" t="str">
         <v/>
@@ -12668,7 +12671,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-04-23 15:54:21</v>
+        <v>2025-09-27 10:57:41</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedule_2026.xlsx
+++ b/data/schedule_2026.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W99"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -624,9 +624,6 @@
       <c r="B4" t="str">
         <v/>
       </c>
-      <c r="C4" t="str">
-        <v>FA</v>
-      </c>
       <c r="D4" t="str">
         <v>Full</v>
       </c>
@@ -640,13 +637,13 @@
         <v/>
       </c>
       <c r="H4" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I4" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K4" t="str">
         <v/>
@@ -667,7 +664,7 @@
         <v/>
       </c>
       <c r="Q4" t="str">
-        <v>CS 396/8 projects</v>
+        <v>Chair</v>
       </c>
       <c r="R4" t="str">
         <v/>
@@ -708,10 +705,10 @@
         <v/>
       </c>
       <c r="H5" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I5" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" t="str">
         <v>-1</v>
@@ -735,7 +732,7 @@
         <v/>
       </c>
       <c r="Q5" t="str">
-        <v>Chair</v>
+        <v>CS 396/8 projects</v>
       </c>
       <c r="R5" t="str">
         <v/>
@@ -776,10 +773,10 @@
         <v/>
       </c>
       <c r="H6" t="str">
-        <v>Victor T. Norman</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I6" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="str">
         <v>-1</v>
@@ -803,7 +800,7 @@
         <v/>
       </c>
       <c r="Q6" t="str">
-        <v>CS 396/8 projects</v>
+        <v>CCCS Fellowship ?</v>
       </c>
       <c r="R6" t="str">
         <v/>
@@ -844,7 +841,7 @@
         <v/>
       </c>
       <c r="H7" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I7" t="str">
         <v>4</v>
@@ -871,7 +868,7 @@
         <v/>
       </c>
       <c r="Q7" t="str">
-        <v>CCCS Fellowship ?</v>
+        <v>CRF ?</v>
       </c>
       <c r="R7" t="str">
         <v/>
@@ -912,10 +909,10 @@
         <v/>
       </c>
       <c r="H8" t="str">
-        <v>Eric Araujo</v>
+        <v>Harry Plantinga</v>
       </c>
       <c r="I8" t="str">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J8" t="str">
         <v>-1</v>
@@ -939,7 +936,7 @@
         <v/>
       </c>
       <c r="Q8" t="str">
-        <v>CRF ?</v>
+        <v>CCEL</v>
       </c>
       <c r="R8" t="str">
         <v/>
@@ -968,7 +965,7 @@
         <v/>
       </c>
       <c r="D9" t="str">
-        <v>Full</v>
+        <v/>
       </c>
       <c r="E9" t="str">
         <v/>
@@ -980,10 +977,10 @@
         <v/>
       </c>
       <c r="H9" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I9" t="str">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J9" t="str">
         <v>-1</v>
@@ -1007,7 +1004,7 @@
         <v/>
       </c>
       <c r="Q9" t="str">
-        <v>Sabbatical ?</v>
+        <v>F&amp;L Fellowship</v>
       </c>
       <c r="R9" t="str">
         <v/>
@@ -1036,7 +1033,7 @@
         <v/>
       </c>
       <c r="D10" t="str">
-        <v>Full</v>
+        <v/>
       </c>
       <c r="E10" t="str">
         <v/>
@@ -1048,10 +1045,10 @@
         <v/>
       </c>
       <c r="H10" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I10" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="str">
         <v>-1</v>
@@ -1075,7 +1072,7 @@
         <v/>
       </c>
       <c r="Q10" t="str">
-        <v>CS 396/8 projects</v>
+        <v>F&amp;L Fellowship</v>
       </c>
       <c r="R10" t="str">
         <v/>
@@ -1104,7 +1101,7 @@
         <v/>
       </c>
       <c r="D11" t="str">
-        <v>Full</v>
+        <v/>
       </c>
       <c r="E11" t="str">
         <v/>
@@ -1116,10 +1113,10 @@
         <v/>
       </c>
       <c r="H11" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I11" t="str">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J11" t="str">
         <v>-1</v>
@@ -1143,7 +1140,7 @@
         <v/>
       </c>
       <c r="Q11" t="str">
-        <v>Legacy CRF</v>
+        <v>CS 396/8 projects</v>
       </c>
       <c r="R11" t="str">
         <v/>
@@ -1172,7 +1169,7 @@
         <v/>
       </c>
       <c r="D12" t="str">
-        <v>Full</v>
+        <v/>
       </c>
       <c r="E12" t="str">
         <v/>
@@ -1184,10 +1181,10 @@
         <v/>
       </c>
       <c r="H12" t="str">
-        <v>Harry Plantinga</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I12" t="str">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J12" t="str">
         <v>-1</v>
@@ -1211,7 +1208,7 @@
         <v/>
       </c>
       <c r="Q12" t="str">
-        <v>CCEL</v>
+        <v>CS 396/8 projects</v>
       </c>
       <c r="R12" t="str">
         <v/>
@@ -1234,55 +1231,52 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Computer Science</v>
+        <v/>
       </c>
       <c r="B13" t="str">
         <v/>
       </c>
-      <c r="C13" t="str">
-        <v>FA</v>
-      </c>
       <c r="D13" t="str">
-        <v>Full</v>
+        <v/>
       </c>
       <c r="E13" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="F13" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="G13" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="H13" t="str">
-        <v>*</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I13" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K13" t="str">
         <v/>
       </c>
       <c r="L13" t="str">
-        <v>MTWRF</v>
+        <v/>
       </c>
       <c r="M13" t="str">
-        <v>16:00:00</v>
-      </c>
-      <c r="N13">
-        <v>135</v>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v/>
       </c>
       <c r="O13" t="str">
-        <v>, ,</v>
+        <v/>
       </c>
       <c r="P13" t="str">
         <v/>
       </c>
       <c r="Q13" t="str">
-        <v>LEC</v>
+        <v>Legacy CRF</v>
       </c>
       <c r="R13" t="str">
         <v/>
@@ -1311,7 +1305,7 @@
         <v/>
       </c>
       <c r="C14" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D14" t="str">
         <v>Full</v>
@@ -1382,52 +1376,52 @@
         <v/>
       </c>
       <c r="C15" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D15" t="str">
         <v>Full</v>
       </c>
       <c r="E15" t="str">
-        <v>CS</v>
+        <v>*</v>
       </c>
       <c r="F15" t="str">
-        <v>100</v>
+        <v>*</v>
       </c>
       <c r="G15" t="str">
-        <v>A</v>
+        <v>*</v>
       </c>
       <c r="H15" t="str">
-        <v>David Meyer</v>
+        <v>*</v>
       </c>
       <c r="I15" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15" t="str">
         <v/>
       </c>
       <c r="L15" t="str">
-        <v>TR</v>
+        <v>MTWRF</v>
       </c>
       <c r="M15" t="str">
-        <v>10:20:00</v>
+        <v>16:00:00</v>
       </c>
       <c r="N15">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="O15" t="str">
-        <v>SB 354</v>
+        <v>, ,</v>
       </c>
       <c r="P15" t="str">
-        <v>Creating Interactive Web Media</v>
+        <v/>
       </c>
       <c r="Q15" t="str">
         <v>LEC</v>
       </c>
       <c r="R15" t="str">
-        <v>100</v>
+        <v/>
       </c>
       <c r="S15" t="str">
         <v/>
@@ -1607,10 +1601,10 @@
         <v>104L</v>
       </c>
       <c r="G18" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H18" t="str">
-        <v>Staff</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I18" t="str">
         <v>0.5</v>
@@ -1625,7 +1619,7 @@
         <v>T</v>
       </c>
       <c r="M18" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N18">
         <v>100</v>
@@ -1678,10 +1672,10 @@
         <v>104L</v>
       </c>
       <c r="G19" t="str">
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="H19" t="str">
-        <v>Staff</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I19" t="str">
         <v>0.5</v>
@@ -1696,7 +1690,7 @@
         <v>T</v>
       </c>
       <c r="M19" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N19">
         <v>100</v>
@@ -1749,10 +1743,10 @@
         <v>104L</v>
       </c>
       <c r="G20" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H20" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Staff</v>
       </c>
       <c r="I20" t="str">
         <v>0.5</v>
@@ -1767,7 +1761,7 @@
         <v>T</v>
       </c>
       <c r="M20" t="str">
-        <v>12:15:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N20">
         <v>100</v>
@@ -1820,10 +1814,10 @@
         <v>104L</v>
       </c>
       <c r="G21" t="str">
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="H21" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Staff</v>
       </c>
       <c r="I21" t="str">
         <v>0.5</v>
@@ -1838,7 +1832,7 @@
         <v>T</v>
       </c>
       <c r="M21" t="str">
-        <v>12:15:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N21">
         <v>100</v>
@@ -2107,7 +2101,7 @@
         <v>B</v>
       </c>
       <c r="H25" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Staff</v>
       </c>
       <c r="I25" t="str">
         <v>4</v>
@@ -2317,10 +2311,10 @@
         <v>108L</v>
       </c>
       <c r="G28" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H28" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I28" t="str">
         <v>1</v>
@@ -2335,7 +2329,7 @@
         <v>R</v>
       </c>
       <c r="M28" t="str">
-        <v>10:20:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N28">
         <v>100</v>
@@ -2388,10 +2382,10 @@
         <v>108L</v>
       </c>
       <c r="G29" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H29" t="str">
-        <v>Staff</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I29" t="str">
         <v>1</v>
@@ -2406,7 +2400,7 @@
         <v>R</v>
       </c>
       <c r="M29" t="str">
-        <v>08:00:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N29">
         <v>100</v>
@@ -2589,7 +2583,7 @@
         <v/>
       </c>
       <c r="C32" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D32" t="str">
         <v>Full</v>
@@ -2604,7 +2598,7 @@
         <v>B</v>
       </c>
       <c r="H32" t="str">
-        <v>Eric Araujo</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I32" t="str">
         <v>4</v>
@@ -2619,13 +2613,13 @@
         <v>MWF</v>
       </c>
       <c r="M32" t="str">
-        <v>13:30:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N32">
         <v>65</v>
       </c>
       <c r="O32" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P32" t="str">
         <v>Intro to Data Structures</v>
@@ -2660,7 +2654,7 @@
         <v/>
       </c>
       <c r="C33" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D33" t="str">
         <v>Full</v>
@@ -2675,7 +2669,7 @@
         <v>B</v>
       </c>
       <c r="H33" t="str">
-        <v>Victor T. Norman</v>
+        <v>Staff</v>
       </c>
       <c r="I33" t="str">
         <v>4</v>
@@ -2690,13 +2684,13 @@
         <v>MWF</v>
       </c>
       <c r="M33" t="str">
-        <v>12:15:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N33">
         <v>65</v>
       </c>
       <c r="O33" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P33" t="str">
         <v>Intro to Data Structures</v>
@@ -2731,7 +2725,7 @@
         <v/>
       </c>
       <c r="C34" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D34" t="str">
         <v>Full</v>
@@ -2746,7 +2740,7 @@
         <v>A</v>
       </c>
       <c r="H34" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I34" t="str">
         <v>1</v>
@@ -2814,7 +2808,7 @@
         <v>112L</v>
       </c>
       <c r="G35" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H35" t="str">
         <v>Eric Araujo</v>
@@ -2832,7 +2826,7 @@
         <v>T</v>
       </c>
       <c r="M35" t="str">
-        <v>08:00:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N35">
         <v>100</v>
@@ -2885,10 +2879,10 @@
         <v>112L</v>
       </c>
       <c r="G36" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H36" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I36" t="str">
         <v>1</v>
@@ -2903,7 +2897,7 @@
         <v>T</v>
       </c>
       <c r="M36" t="str">
-        <v>10:20:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N36">
         <v>100</v>
@@ -2944,7 +2938,7 @@
         <v/>
       </c>
       <c r="C37" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D37" t="str">
         <v>Full</v>
@@ -3172,7 +3166,7 @@
         <v>A</v>
       </c>
       <c r="H40" t="str">
-        <v>Staff</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I40" t="str">
         <v>4</v>
@@ -3243,7 +3237,7 @@
         <v>B</v>
       </c>
       <c r="H41" t="str">
-        <v>Staff</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I41" t="str">
         <v>4</v>
@@ -3385,7 +3379,7 @@
         <v>B</v>
       </c>
       <c r="H43" t="str">
-        <v>David Meyer</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I43" t="str">
         <v>4</v>
@@ -3867,10 +3861,10 @@
         <v/>
       </c>
       <c r="C50" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D50" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E50" t="str">
         <v>CS</v>
@@ -3879,16 +3873,16 @@
         <v>300</v>
       </c>
       <c r="G50" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H50" t="str">
-        <v>Rocky Chang</v>
+        <v>Staff</v>
       </c>
       <c r="I50" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J50" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K50" t="str">
         <v/>
@@ -3897,7 +3891,7 @@
         <v>MWF</v>
       </c>
       <c r="M50" t="str">
-        <v>12:15:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N50">
         <v>65</v>
@@ -3918,7 +3912,7 @@
         <v/>
       </c>
       <c r="T50" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="U50" t="str">
         <v/>
@@ -3938,10 +3932,10 @@
         <v/>
       </c>
       <c r="C51" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D51" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E51" t="str">
         <v>CS</v>
@@ -3950,16 +3944,16 @@
         <v>300</v>
       </c>
       <c r="G51" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H51" t="str">
         <v>Staff</v>
       </c>
       <c r="I51" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J51" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K51" t="str">
         <v/>
@@ -3968,7 +3962,7 @@
         <v>MWF</v>
       </c>
       <c r="M51" t="str">
-        <v>11:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N51">
         <v>65</v>
@@ -3989,7 +3983,7 @@
         <v/>
       </c>
       <c r="T51" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="U51" t="str">
         <v/>
@@ -4012,25 +4006,25 @@
         <v>FA</v>
       </c>
       <c r="D52" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E52" t="str">
         <v>CS</v>
       </c>
       <c r="F52" t="str">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="G52" t="str">
         <v>A</v>
       </c>
       <c r="H52" t="str">
-        <v>Eric Araujo</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I52" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J52" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K52" t="str">
         <v/>
@@ -4039,16 +4033,16 @@
         <v>MWF</v>
       </c>
       <c r="M52" t="str">
-        <v>11:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N52">
         <v>65</v>
       </c>
       <c r="O52" t="str">
-        <v>SB 382</v>
+        <v>HH 336</v>
       </c>
       <c r="P52" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Web Development</v>
       </c>
       <c r="Q52" t="str">
         <v/>
@@ -4060,7 +4054,7 @@
         <v/>
       </c>
       <c r="T52" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="U52" t="str">
         <v/>
@@ -4080,28 +4074,28 @@
         <v/>
       </c>
       <c r="C53" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D53" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E53" t="str">
         <v>CS</v>
       </c>
       <c r="F53" t="str">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G53" t="str">
         <v>A</v>
       </c>
       <c r="H53" t="str">
-        <v>Victor T. Norman</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="I53" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K53" t="str">
         <v/>
@@ -4110,16 +4104,16 @@
         <v>MWF</v>
       </c>
       <c r="M53" t="str">
-        <v>09:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N53">
         <v>65</v>
       </c>
       <c r="O53" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="P53" t="str">
-        <v>Web Development</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="Q53" t="str">
         <v/>
@@ -4154,13 +4148,13 @@
         <v>SP</v>
       </c>
       <c r="D54" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E54" t="str">
         <v>CS</v>
       </c>
       <c r="F54" t="str">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G54" t="str">
         <v>A</v>
@@ -4190,7 +4184,7 @@
         <v>SB 382</v>
       </c>
       <c r="P54" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="Q54" t="str">
         <v/>
@@ -4231,13 +4225,13 @@
         <v>CS</v>
       </c>
       <c r="F55" t="str">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="G55" t="str">
         <v>A</v>
       </c>
       <c r="H55" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I55" t="str">
         <v>2</v>
@@ -4252,7 +4246,7 @@
         <v>MWF</v>
       </c>
       <c r="M55" t="str">
-        <v>08:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N55">
         <v>65</v>
@@ -4261,7 +4255,7 @@
         <v>SB 382</v>
       </c>
       <c r="P55" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>Database Management Systems</v>
       </c>
       <c r="Q55" t="str">
         <v/>
@@ -4296,19 +4290,19 @@
         <v>SP</v>
       </c>
       <c r="D56" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E56" t="str">
         <v>CS</v>
       </c>
       <c r="F56" t="str">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="G56" t="str">
         <v>A</v>
       </c>
       <c r="H56" t="str">
-        <v>Eric Araujo</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I56" t="str">
         <v>2</v>
@@ -4323,7 +4317,7 @@
         <v>MWF</v>
       </c>
       <c r="M56" t="str">
-        <v>09:15:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N56">
         <v>65</v>
@@ -4332,7 +4326,7 @@
         <v>SB 382</v>
       </c>
       <c r="P56" t="str">
-        <v>Database Management Systems</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="Q56" t="str">
         <v/>
@@ -4364,46 +4358,46 @@
         <v/>
       </c>
       <c r="C57" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D57" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E57" t="str">
         <v>CS</v>
       </c>
       <c r="F57" t="str">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="G57" t="str">
         <v>A</v>
       </c>
       <c r="H57" t="str">
-        <v>Brian D Paige, Adam Vedra</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I57" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J57" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K57" t="str">
         <v/>
       </c>
       <c r="L57" t="str">
-        <v>MR</v>
+        <v>MWF</v>
       </c>
       <c r="M57" t="str">
-        <v>19:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N57">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O57" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P57" t="str">
-        <v>Computer Security</v>
+        <v>Machine Learning</v>
       </c>
       <c r="Q57" t="str">
         <v/>
@@ -4435,46 +4429,46 @@
         <v/>
       </c>
       <c r="C58" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D58" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E58" t="str">
         <v>CS</v>
       </c>
       <c r="F58" t="str">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="G58" t="str">
         <v>A</v>
       </c>
       <c r="H58" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I58" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" t="str">
         <v/>
       </c>
       <c r="L58" t="str">
-        <v>MWF</v>
+        <v>R</v>
       </c>
       <c r="M58" t="str">
-        <v>11:00:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N58">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O58" t="str">
         <v>SB 382</v>
       </c>
       <c r="P58" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="Q58" t="str">
         <v/>
@@ -4509,43 +4503,43 @@
         <v>SP</v>
       </c>
       <c r="D59" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E59" t="str">
         <v>CS</v>
       </c>
       <c r="F59" t="str">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="G59" t="str">
         <v>A</v>
       </c>
       <c r="H59" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I59" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" t="str">
         <v/>
       </c>
       <c r="L59" t="str">
-        <v>MWF</v>
+        <v>R</v>
       </c>
       <c r="M59" t="str">
-        <v>11:00:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N59">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O59" t="str">
         <v>SB 382</v>
       </c>
       <c r="P59" t="str">
-        <v>Machine Learning</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="Q59" t="str">
         <v/>
@@ -4577,7 +4571,7 @@
         <v/>
       </c>
       <c r="C60" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D60" t="str">
         <v>Full</v>
@@ -4586,7 +4580,7 @@
         <v>CS</v>
       </c>
       <c r="F60" t="str">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G60" t="str">
         <v>A</v>
@@ -4595,28 +4589,28 @@
         <v>Derek C Schuurman</v>
       </c>
       <c r="I60" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J60" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K60" t="str">
         <v/>
       </c>
       <c r="L60" t="str">
-        <v>R</v>
+        <v>TR</v>
       </c>
       <c r="M60" t="str">
-        <v>19:00:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N60">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O60" t="str">
-        <v>SB 382</v>
+        <v>SC 203</v>
       </c>
       <c r="P60" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="Q60" t="str">
         <v/>
@@ -4657,37 +4651,37 @@
         <v>CS</v>
       </c>
       <c r="F61" t="str">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G61" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H61" t="str">
         <v>Derek C Schuurman</v>
       </c>
       <c r="I61" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J61" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K61" t="str">
         <v/>
       </c>
       <c r="L61" t="str">
-        <v>R</v>
+        <v>TR</v>
       </c>
       <c r="M61" t="str">
-        <v>19:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N61">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O61" t="str">
-        <v>SB 382</v>
+        <v>SC 203</v>
       </c>
       <c r="P61" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="Q61" t="str">
         <v/>
@@ -4719,28 +4713,28 @@
         <v/>
       </c>
       <c r="C62" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D62" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E62" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F62" t="str">
-        <v>384</v>
+        <v>102</v>
       </c>
       <c r="G62" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H62" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I62" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J62" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K62" t="str">
         <v/>
@@ -4749,22 +4743,22 @@
         <v>TR</v>
       </c>
       <c r="M62" t="str">
-        <v>10:20:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N62">
         <v>100</v>
       </c>
       <c r="O62" t="str">
-        <v>SC 203</v>
+        <v>SB 354</v>
       </c>
       <c r="P62" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="Q62" t="str">
         <v/>
       </c>
       <c r="R62" t="str">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S62" t="str">
         <v/>
@@ -4790,28 +4784,28 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D63" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E63" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F63" t="str">
-        <v>384</v>
+        <v>102</v>
       </c>
       <c r="G63" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="H63" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I63" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J63" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K63" t="str">
         <v/>
@@ -4820,22 +4814,22 @@
         <v>TR</v>
       </c>
       <c r="M63" t="str">
-        <v>12:15:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N63">
         <v>100</v>
       </c>
       <c r="O63" t="str">
-        <v>SC 203</v>
+        <v>SB 354</v>
       </c>
       <c r="P63" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="Q63" t="str">
         <v/>
       </c>
       <c r="R63" t="str">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S63" t="str">
         <v/>
@@ -4873,10 +4867,10 @@
         <v>102</v>
       </c>
       <c r="G64" t="str">
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="H64" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I64" t="str">
         <v>2</v>
@@ -4891,7 +4885,7 @@
         <v>TR</v>
       </c>
       <c r="M64" t="str">
-        <v>12:15:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N64">
         <v>100</v>
@@ -4944,10 +4938,10 @@
         <v>102</v>
       </c>
       <c r="G65" t="str">
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="H65" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I65" t="str">
         <v>2</v>
@@ -4962,7 +4956,7 @@
         <v>TR</v>
       </c>
       <c r="M65" t="str">
-        <v>12:15:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N65">
         <v>100</v>
@@ -5006,7 +5000,7 @@
         <v>FA</v>
       </c>
       <c r="D66" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E66" t="str">
         <v>DATA</v>
@@ -5015,7 +5009,7 @@
         <v>102</v>
       </c>
       <c r="G66" t="str">
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="H66" t="str">
         <v>Cancelled-DATA</v>
@@ -5033,7 +5027,7 @@
         <v>TR</v>
       </c>
       <c r="M66" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N66">
         <v>100</v>
@@ -5077,7 +5071,7 @@
         <v>SP</v>
       </c>
       <c r="D67" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E67" t="str">
         <v>DATA</v>
@@ -5086,7 +5080,7 @@
         <v>102</v>
       </c>
       <c r="G67" t="str">
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="H67" t="str">
         <v>Cancelled-DATA</v>
@@ -5104,7 +5098,7 @@
         <v>TR</v>
       </c>
       <c r="M67" t="str">
-        <v>14:10:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N67">
         <v>100</v>
@@ -5148,7 +5142,7 @@
         <v>FA</v>
       </c>
       <c r="D68" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E68" t="str">
         <v>DATA</v>
@@ -5157,10 +5151,10 @@
         <v>102</v>
       </c>
       <c r="G68" t="str">
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="H68" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I68" t="str">
         <v>2</v>
@@ -5175,7 +5169,7 @@
         <v>TR</v>
       </c>
       <c r="M68" t="str">
-        <v>19:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N68">
         <v>100</v>
@@ -5219,7 +5213,7 @@
         <v>SP</v>
       </c>
       <c r="D69" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E69" t="str">
         <v>DATA</v>
@@ -5228,10 +5222,10 @@
         <v>102</v>
       </c>
       <c r="G69" t="str">
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="H69" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I69" t="str">
         <v>2</v>
@@ -5246,7 +5240,7 @@
         <v>TR</v>
       </c>
       <c r="M69" t="str">
-        <v>19:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N69">
         <v>100</v>
@@ -5299,10 +5293,10 @@
         <v>102</v>
       </c>
       <c r="G70" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="H70" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I70" t="str">
         <v>2</v>
@@ -5317,7 +5311,7 @@
         <v>TR</v>
       </c>
       <c r="M70" t="str">
-        <v>12:15:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N70">
         <v>100</v>
@@ -5370,10 +5364,10 @@
         <v>102</v>
       </c>
       <c r="G71" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="H71" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I71" t="str">
         <v>2</v>
@@ -5388,7 +5382,7 @@
         <v>TR</v>
       </c>
       <c r="M71" t="str">
-        <v>12:15:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N71">
         <v>100</v>
@@ -5441,10 +5435,10 @@
         <v>102</v>
       </c>
       <c r="G72" t="str">
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="H72" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I72" t="str">
         <v>2</v>
@@ -5459,7 +5453,7 @@
         <v>TR</v>
       </c>
       <c r="M72" t="str">
-        <v>14:10:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N72">
         <v>100</v>
@@ -5500,10 +5494,10 @@
         <v/>
       </c>
       <c r="C73" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D73" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E73" t="str">
         <v>DATA</v>
@@ -5512,10 +5506,10 @@
         <v>102</v>
       </c>
       <c r="G73" t="str">
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="H73" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I73" t="str">
         <v>2</v>
@@ -5530,7 +5524,7 @@
         <v>TR</v>
       </c>
       <c r="M73" t="str">
-        <v>14:10:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N73">
         <v>100</v>
@@ -5563,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" xml:space="preserve">
       <c r="A74" t="str">
         <v>Computer Science</v>
       </c>
@@ -5571,10 +5565,10 @@
         <v/>
       </c>
       <c r="C74" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D74" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E74" t="str">
         <v>DATA</v>
@@ -5583,7 +5577,7 @@
         <v>102</v>
       </c>
       <c r="G74" t="str">
-        <v>H</v>
+        <v>A</v>
       </c>
       <c r="H74" t="str">
         <v>Jim Momeyer</v>
@@ -5601,7 +5595,7 @@
         <v>TR</v>
       </c>
       <c r="M74" t="str">
-        <v>19:00:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N74">
         <v>100</v>
@@ -5624,8 +5618,9 @@
       <c r="T74" t="str">
         <v/>
       </c>
-      <c r="U74" t="str">
-        <v/>
+      <c r="U74" t="str" xml:space="preserve">
+        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
+Set as on-hold? we may not have the enrollment.</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -5634,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" xml:space="preserve">
       <c r="A75" t="str">
         <v>Computer Science</v>
       </c>
@@ -5654,7 +5649,7 @@
         <v>102</v>
       </c>
       <c r="G75" t="str">
-        <v>H</v>
+        <v>E</v>
       </c>
       <c r="H75" t="str">
         <v>Jim Momeyer</v>
@@ -5672,7 +5667,7 @@
         <v>TR</v>
       </c>
       <c r="M75" t="str">
-        <v>19:00:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N75">
         <v>100</v>
@@ -5695,8 +5690,9 @@
       <c r="T75" t="str">
         <v/>
       </c>
-      <c r="U75" t="str">
-        <v/>
+      <c r="U75" t="str" xml:space="preserve">
+        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
+Set as on-hold? we may not have the enrollment.</v>
       </c>
       <c r="V75">
         <v>0</v>
@@ -5705,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" xml:space="preserve">
+    <row r="76">
       <c r="A76" t="str">
         <v>Computer Science</v>
       </c>
@@ -5725,7 +5721,7 @@
         <v>102</v>
       </c>
       <c r="G76" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H76" t="str">
         <v>Fernando Pasquini Santos</v>
@@ -5740,13 +5736,13 @@
         <v/>
       </c>
       <c r="L76" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M76" t="str">
-        <v>09:15:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N76">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O76" t="str">
         <v>SB 354</v>
@@ -5766,9 +5762,8 @@
       <c r="T76" t="str">
         <v/>
       </c>
-      <c r="U76" t="str" xml:space="preserve">
-        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
-Set as on-hold? we may not have the enrollment.</v>
+      <c r="U76" t="str">
+        <v/>
       </c>
       <c r="V76">
         <v>0</v>
@@ -5777,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" xml:space="preserve">
+    <row r="77">
       <c r="A77" t="str">
         <v>Computer Science</v>
       </c>
@@ -5788,7 +5783,7 @@
         <v>SP</v>
       </c>
       <c r="D77" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E77" t="str">
         <v>DATA</v>
@@ -5797,10 +5792,10 @@
         <v>102</v>
       </c>
       <c r="G77" t="str">
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="H77" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Staff</v>
       </c>
       <c r="I77" t="str">
         <v>2</v>
@@ -5812,13 +5807,13 @@
         <v/>
       </c>
       <c r="L77" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M77" t="str">
-        <v>09:15:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N77">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O77" t="str">
         <v>SB 354</v>
@@ -5838,9 +5833,8 @@
       <c r="T77" t="str">
         <v/>
       </c>
-      <c r="U77" t="str" xml:space="preserve">
-        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
-Set as on-hold? we may not have the enrollment.</v>
+      <c r="U77" t="str">
+        <v/>
       </c>
       <c r="V77">
         <v>0</v>
@@ -5860,49 +5854,49 @@
         <v>FA</v>
       </c>
       <c r="D78" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E78" t="str">
         <v>DATA</v>
       </c>
       <c r="F78" t="str">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="G78" t="str">
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="H78" t="str">
-        <v>Staff</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I78" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J78" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K78" t="str">
         <v/>
       </c>
       <c r="L78" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="M78" t="str">
         <v>08:00:00</v>
       </c>
       <c r="N78">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O78" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="P78" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q78" t="str">
         <v/>
       </c>
       <c r="R78" t="str">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S78" t="str">
         <v/>
@@ -5931,49 +5925,49 @@
         <v>FA</v>
       </c>
       <c r="D79" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E79" t="str">
         <v>DATA</v>
       </c>
       <c r="F79" t="str">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="G79" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H79" t="str">
-        <v>Staff</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I79" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J79" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K79" t="str">
         <v/>
       </c>
       <c r="L79" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="M79" t="str">
-        <v>08:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N79">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O79" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="P79" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q79" t="str">
         <v/>
       </c>
       <c r="R79" t="str">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S79" t="str">
         <v/>
@@ -5993,7 +5987,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Computer Science</v>
+        <v>Shadow</v>
       </c>
       <c r="B80" t="str">
         <v/>
@@ -6002,25 +5996,25 @@
         <v>FA</v>
       </c>
       <c r="D80" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E80" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F80" t="str">
-        <v>202</v>
+        <v>300-S</v>
       </c>
       <c r="G80" t="str">
-        <v>A</v>
+        <v>A-S</v>
       </c>
       <c r="H80" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Shadow-Gold</v>
       </c>
       <c r="I80" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J80" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K80" t="str">
         <v/>
@@ -6029,22 +6023,22 @@
         <v>MWF</v>
       </c>
       <c r="M80" t="str">
-        <v>08:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N80">
         <v>65</v>
       </c>
       <c r="O80" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="P80" t="str">
-        <v>Predictive Analytics</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="Q80" t="str">
         <v/>
       </c>
       <c r="R80" t="str">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S80" t="str">
         <v/>
@@ -6064,34 +6058,34 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Computer Science</v>
+        <v>Shadow</v>
       </c>
       <c r="B81" t="str">
         <v/>
       </c>
       <c r="C81" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D81" t="str">
         <v>Full</v>
       </c>
       <c r="E81" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F81" t="str">
-        <v>202</v>
+        <v>300-S</v>
       </c>
       <c r="G81" t="str">
-        <v>B</v>
+        <v>A-S</v>
       </c>
       <c r="H81" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Shadow-Gold</v>
       </c>
       <c r="I81" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J81" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K81" t="str">
         <v/>
@@ -6100,22 +6094,22 @@
         <v>MWF</v>
       </c>
       <c r="M81" t="str">
-        <v>09:15:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N81">
         <v>65</v>
       </c>
       <c r="O81" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="P81" t="str">
-        <v>Predictive Analytics</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="Q81" t="str">
         <v/>
       </c>
       <c r="R81" t="str">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S81" t="str">
         <v/>
@@ -6144,7 +6138,7 @@
         <v>FA</v>
       </c>
       <c r="D82" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E82" t="str">
         <v>CS</v>
@@ -6153,7 +6147,7 @@
         <v>300-S</v>
       </c>
       <c r="G82" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="H82" t="str">
         <v>Shadow-Gold</v>
@@ -6215,13 +6209,13 @@
         <v>SP</v>
       </c>
       <c r="D83" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E83" t="str">
         <v>CS</v>
       </c>
       <c r="F83" t="str">
-        <v>300-S</v>
+        <v>338-S</v>
       </c>
       <c r="G83" t="str">
         <v>A-S</v>
@@ -6242,7 +6236,7 @@
         <v>MWF</v>
       </c>
       <c r="M83" t="str">
-        <v>12:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N83">
         <v>65</v>
@@ -6251,7 +6245,7 @@
         <v>SB 354</v>
       </c>
       <c r="P83" t="str">
-        <v>Applied Machine Learning</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="Q83" t="str">
         <v/>
@@ -6283,7 +6277,7 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D84" t="str">
         <v>Second</v>
@@ -6292,10 +6286,10 @@
         <v>CS</v>
       </c>
       <c r="F84" t="str">
-        <v>300-S</v>
+        <v>339-S</v>
       </c>
       <c r="G84" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="H84" t="str">
         <v>Shadow-Gold</v>
@@ -6313,7 +6307,7 @@
         <v>MWF</v>
       </c>
       <c r="M84" t="str">
-        <v>11:00:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N84">
         <v>65</v>
@@ -6322,7 +6316,7 @@
         <v>SB 354</v>
       </c>
       <c r="P84" t="str">
-        <v>Applied Machine Learning</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="Q84" t="str">
         <v/>
@@ -6354,16 +6348,16 @@
         <v/>
       </c>
       <c r="C85" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D85" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E85" t="str">
         <v>CS</v>
       </c>
       <c r="F85" t="str">
-        <v>338-S</v>
+        <v>374-S</v>
       </c>
       <c r="G85" t="str">
         <v>A-S</v>
@@ -6372,19 +6366,19 @@
         <v>Shadow-Gold</v>
       </c>
       <c r="I85" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K85" t="str">
         <v/>
       </c>
       <c r="L85" t="str">
-        <v>MWF</v>
+        <v>MW</v>
       </c>
       <c r="M85" t="str">
-        <v>08:00:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N85">
         <v>65</v>
@@ -6393,7 +6387,7 @@
         <v>SB 354</v>
       </c>
       <c r="P85" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>High-Performance Computing</v>
       </c>
       <c r="Q85" t="str">
         <v/>
@@ -6428,13 +6422,13 @@
         <v>SP</v>
       </c>
       <c r="D86" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E86" t="str">
         <v>CS</v>
       </c>
       <c r="F86" t="str">
-        <v>339-S</v>
+        <v>375-S</v>
       </c>
       <c r="G86" t="str">
         <v>A-S</v>
@@ -6455,7 +6449,7 @@
         <v>MWF</v>
       </c>
       <c r="M86" t="str">
-        <v>08:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N86">
         <v>65</v>
@@ -6464,7 +6458,7 @@
         <v>SB 354</v>
       </c>
       <c r="P86" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="Q86" t="str">
         <v/>
@@ -6496,7 +6490,7 @@
         <v/>
       </c>
       <c r="C87" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D87" t="str">
         <v>Second</v>
@@ -6505,28 +6499,28 @@
         <v>CS</v>
       </c>
       <c r="F87" t="str">
-        <v>374-S</v>
+        <v>376-S</v>
       </c>
       <c r="G87" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="H87" t="str">
         <v>Shadow-Gold</v>
       </c>
       <c r="I87" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K87" t="str">
         <v/>
       </c>
       <c r="L87" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="M87" t="str">
-        <v>14:45:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N87">
         <v>65</v>
@@ -6535,7 +6529,7 @@
         <v>SB 354</v>
       </c>
       <c r="P87" t="str">
-        <v>High-Performance Computing</v>
+        <v>Machine Learning</v>
       </c>
       <c r="Q87" t="str">
         <v/>
@@ -6567,22 +6561,22 @@
         <v/>
       </c>
       <c r="C88" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D88" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E88" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F88" t="str">
-        <v>375-S</v>
+        <v>202-S</v>
       </c>
       <c r="G88" t="str">
         <v>A-S</v>
       </c>
       <c r="H88" t="str">
-        <v>Shadow-Gold</v>
+        <v>Shadow-Maroon</v>
       </c>
       <c r="I88" t="str">
         <v>0</v>
@@ -6597,7 +6591,7 @@
         <v>MWF</v>
       </c>
       <c r="M88" t="str">
-        <v>11:00:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N88">
         <v>65</v>
@@ -6606,13 +6600,13 @@
         <v>SB 354</v>
       </c>
       <c r="P88" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q88" t="str">
         <v/>
       </c>
       <c r="R88" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S88" t="str">
         <v/>
@@ -6638,22 +6632,22 @@
         <v/>
       </c>
       <c r="C89" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D89" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E89" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F89" t="str">
-        <v>376-S</v>
+        <v>202-S</v>
       </c>
       <c r="G89" t="str">
         <v>B-S</v>
       </c>
       <c r="H89" t="str">
-        <v>Shadow-Gold</v>
+        <v>Shadow-Maroon</v>
       </c>
       <c r="I89" t="str">
         <v>0</v>
@@ -6668,7 +6662,7 @@
         <v>MWF</v>
       </c>
       <c r="M89" t="str">
-        <v>11:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N89">
         <v>65</v>
@@ -6677,13 +6671,13 @@
         <v>SB 354</v>
       </c>
       <c r="P89" t="str">
-        <v>Machine Learning</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q89" t="str">
         <v/>
       </c>
       <c r="R89" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S89" t="str">
         <v/>
@@ -6703,7 +6697,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B90" t="str">
         <v/>
@@ -6715,40 +6709,40 @@
         <v>Full</v>
       </c>
       <c r="E90" t="str">
-        <v>DATA</v>
+        <v>HNRS</v>
       </c>
       <c r="F90" t="str">
-        <v>202-S</v>
+        <v>251</v>
       </c>
       <c r="G90" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="H90" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Staff</v>
       </c>
       <c r="I90" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K90" t="str">
         <v/>
       </c>
       <c r="L90" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M90" t="str">
-        <v>08:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N90">
         <v>65</v>
       </c>
       <c r="O90" t="str">
-        <v>SB 354</v>
+        <v>HL 406C</v>
       </c>
       <c r="P90" t="str">
-        <v>Predictive Analytics</v>
+        <v>Agent Modeling</v>
       </c>
       <c r="Q90" t="str">
         <v/>
@@ -6774,7 +6768,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B91" t="str">
         <v/>
@@ -6786,46 +6780,46 @@
         <v>Full</v>
       </c>
       <c r="E91" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F91" t="str">
-        <v>202-S</v>
+        <v>396</v>
       </c>
       <c r="G91" t="str">
-        <v>B-S</v>
+        <v>A</v>
       </c>
       <c r="H91" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I91" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J91" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K91" t="str">
         <v/>
       </c>
       <c r="L91" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="M91" t="str">
-        <v>09:15:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N91">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O91" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="P91" t="str">
-        <v>Predictive Analytics</v>
+        <v>Senior Project in Computing I</v>
       </c>
       <c r="Q91" t="str">
         <v/>
       </c>
       <c r="R91" t="str">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S91" t="str">
         <v/>
@@ -6851,7 +6845,7 @@
         <v/>
       </c>
       <c r="C92" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D92" t="str">
         <v>Full</v>
@@ -6860,43 +6854,43 @@
         <v>CS</v>
       </c>
       <c r="F92" t="str">
-        <v>106</v>
+        <v>398</v>
       </c>
       <c r="G92" t="str">
         <v>A</v>
       </c>
       <c r="H92" t="str">
-        <v>Staff</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I92" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J92" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K92" t="str">
         <v/>
       </c>
       <c r="L92" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="M92" t="str">
-        <v>14:45:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N92">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O92" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P92" t="str">
-        <v>Intro to Computing</v>
+        <v>Senior Project in Computing II</v>
       </c>
       <c r="Q92" t="str">
         <v/>
       </c>
       <c r="R92" t="str">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S92" t="str">
         <v/>
@@ -6928,46 +6922,46 @@
         <v>Full</v>
       </c>
       <c r="E93" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F93" t="str">
-        <v>106L</v>
+        <v>396</v>
       </c>
       <c r="G93" t="str">
         <v>A</v>
       </c>
       <c r="H93" t="str">
-        <v>Staff</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I93" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K93" t="str">
         <v/>
       </c>
       <c r="L93" t="str">
-        <v>R</v>
+        <v>T</v>
       </c>
       <c r="M93" t="str">
-        <v>10:20:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N93">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O93" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P93" t="str">
-        <v>Intro to Computing Lab</v>
+        <v>Senior Project in Data Science</v>
       </c>
       <c r="Q93" t="str">
         <v/>
       </c>
       <c r="R93" t="str">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S93" t="str">
         <v/>
@@ -6993,25 +6987,25 @@
         <v/>
       </c>
       <c r="C94" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D94" t="str">
         <v>Full</v>
       </c>
       <c r="E94" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F94" t="str">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G94" t="str">
         <v>A</v>
       </c>
       <c r="H94" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I94" t="str">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J94" t="str">
         <v>2</v>
@@ -7032,7 +7026,7 @@
         <v>SB 382</v>
       </c>
       <c r="P94" t="str">
-        <v>Senior Project in Computing I</v>
+        <v>Senior Project in Data Science II</v>
       </c>
       <c r="Q94" t="str">
         <v/>
@@ -7064,16 +7058,16 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D95" t="str">
         <v>Full</v>
       </c>
       <c r="E95" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F95" t="str">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="G95" t="str">
         <v>A</v>
@@ -7082,28 +7076,28 @@
         <v>Derek C Schuurman</v>
       </c>
       <c r="I95" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J95" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K95" t="str">
         <v/>
       </c>
       <c r="L95" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="M95" t="str">
-        <v>19:00:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N95">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O95" t="str">
-        <v>SB 382</v>
+        <v>SB 301</v>
       </c>
       <c r="P95" t="str">
-        <v>Senior Project in Data Science</v>
+        <v>Embedded Systems and the Internet of Things</v>
       </c>
       <c r="Q95" t="str">
         <v/>
@@ -7115,7 +7109,7 @@
         <v/>
       </c>
       <c r="T95" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="U95" t="str">
         <v/>
@@ -7135,25 +7129,25 @@
         <v/>
       </c>
       <c r="C96" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D96" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E96" t="str">
         <v>CS</v>
       </c>
       <c r="F96" t="str">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="G96" t="str">
         <v>A</v>
       </c>
       <c r="H96" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Brian D Paige</v>
       </c>
       <c r="I96" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J96" t="str">
         <v>2</v>
@@ -7162,19 +7156,19 @@
         <v/>
       </c>
       <c r="L96" t="str">
-        <v>T</v>
+        <v>MR</v>
       </c>
       <c r="M96" t="str">
         <v>19:00:00</v>
       </c>
       <c r="N96">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O96" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P96" t="str">
-        <v>Senior Project in Computing II</v>
+        <v>Fundamentals of Cybersecurity</v>
       </c>
       <c r="Q96" t="str">
         <v/>
@@ -7206,25 +7200,25 @@
         <v/>
       </c>
       <c r="C97" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D97" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E97" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F97" t="str">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="G97" t="str">
         <v>A</v>
       </c>
       <c r="H97" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Adam Vedra</v>
       </c>
       <c r="I97" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="str">
         <v>2</v>
@@ -7233,19 +7227,19 @@
         <v/>
       </c>
       <c r="L97" t="str">
-        <v>T</v>
+        <v>MR</v>
       </c>
       <c r="M97" t="str">
         <v>19:00:00</v>
       </c>
       <c r="N97">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O97" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="P97" t="str">
-        <v>Senior Project in Data Science II</v>
+        <v>Fundamentals of Cyber Defense</v>
       </c>
       <c r="Q97" t="str">
         <v/>
@@ -7277,7 +7271,7 @@
         <v/>
       </c>
       <c r="C98" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D98" t="str">
         <v>Full</v>
@@ -7286,7 +7280,7 @@
         <v>CS</v>
       </c>
       <c r="F98" t="str">
-        <v>326</v>
+        <v>100</v>
       </c>
       <c r="G98" t="str">
         <v>A</v>
@@ -7304,31 +7298,31 @@
         <v/>
       </c>
       <c r="L98" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M98" t="str">
-        <v>13:30:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N98">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O98" t="str">
-        <v>SB 301</v>
+        <v>SB 354</v>
       </c>
       <c r="P98" t="str">
-        <v>Embedded Systems and the Internet of Things</v>
+        <v>Creating Interactive Web Media</v>
       </c>
       <c r="Q98" t="str">
-        <v/>
+        <v>LEC</v>
       </c>
       <c r="R98" t="str">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S98" t="str">
         <v/>
       </c>
       <c r="T98" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="U98" t="str">
         <v/>
@@ -7354,46 +7348,46 @@
         <v>Full</v>
       </c>
       <c r="E99" t="str">
-        <v>HNRS</v>
+        <v>CS</v>
       </c>
       <c r="F99" t="str">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="G99" t="str">
         <v>A</v>
       </c>
       <c r="H99" t="str">
-        <v>Staff</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I99" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J99" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K99" t="str">
         <v/>
       </c>
       <c r="L99" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="M99" t="str">
-        <v>14:10:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N99">
         <v>65</v>
       </c>
       <c r="O99" t="str">
-        <v>HL 406C</v>
+        <v>SB 372</v>
       </c>
       <c r="P99" t="str">
-        <v>Agent Modeling</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="Q99" t="str">
         <v/>
       </c>
       <c r="R99" t="str">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S99" t="str">
         <v/>
@@ -7408,19 +7402,90 @@
         <v>0</v>
       </c>
       <c r="W99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Computer Science</v>
+      </c>
+      <c r="B100" t="str">
+        <v/>
+      </c>
+      <c r="C100" t="str">
+        <v>FA</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Full</v>
+      </c>
+      <c r="E100" t="str">
+        <v>CS</v>
+      </c>
+      <c r="F100" t="str">
+        <v>106L</v>
+      </c>
+      <c r="G100" t="str">
+        <v>A</v>
+      </c>
+      <c r="H100" t="str">
+        <v>Christopher Wieringa</v>
+      </c>
+      <c r="I100" t="str">
+        <v>1</v>
+      </c>
+      <c r="J100" t="str">
+        <v>1</v>
+      </c>
+      <c r="K100" t="str">
+        <v/>
+      </c>
+      <c r="L100" t="str">
+        <v>R</v>
+      </c>
+      <c r="M100" t="str">
+        <v>10:20:00</v>
+      </c>
+      <c r="N100">
+        <v>100</v>
+      </c>
+      <c r="O100" t="str">
+        <v>SB 372</v>
+      </c>
+      <c r="P100" t="str">
+        <v>Intro to Computing Lab</v>
+      </c>
+      <c r="Q100" t="str">
+        <v/>
+      </c>
+      <c r="R100" t="str">
+        <v>100</v>
+      </c>
+      <c r="S100" t="str">
+        <v/>
+      </c>
+      <c r="T100" t="str">
+        <v/>
+      </c>
+      <c r="U100" t="str">
+        <v/>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W99"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W100"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7585,9 +7650,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>FA</v>
-      </c>
       <c r="B4" t="str">
         <v/>
       </c>
@@ -7598,10 +7660,10 @@
         <v/>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -7616,7 +7678,7 @@
         <v>Full</v>
       </c>
       <c r="K4" t="str">
-        <v>FA-Full</v>
+        <v>-Full</v>
       </c>
       <c r="L4" t="str">
         <v/>
@@ -7625,10 +7687,10 @@
         <v/>
       </c>
       <c r="N4" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O4" t="str">
-        <v>CS 396/8 projects</v>
+        <v>Chair</v>
       </c>
       <c r="P4" t="str">
         <v/>
@@ -7651,7 +7713,7 @@
         <v>-1</v>
       </c>
       <c r="F5" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -7675,10 +7737,10 @@
         <v/>
       </c>
       <c r="N5" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O5" t="str">
-        <v>Chair</v>
+        <v>CS 396/8 projects</v>
       </c>
       <c r="P5" t="str">
         <v/>
@@ -7701,7 +7763,7 @@
         <v>-1</v>
       </c>
       <c r="F6" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -7725,10 +7787,10 @@
         <v/>
       </c>
       <c r="N6" t="str">
-        <v>Victor T. Norman</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O6" t="str">
-        <v>CS 396/8 projects</v>
+        <v>CCCS Fellowship ?</v>
       </c>
       <c r="P6" t="str">
         <v/>
@@ -7775,10 +7837,10 @@
         <v/>
       </c>
       <c r="N7" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O7" t="str">
-        <v>CCCS Fellowship ?</v>
+        <v>CRF ?</v>
       </c>
       <c r="P7" t="str">
         <v/>
@@ -7801,7 +7863,7 @@
         <v>-1</v>
       </c>
       <c r="F8" t="str">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -7825,10 +7887,10 @@
         <v/>
       </c>
       <c r="N8" t="str">
-        <v>Eric Araujo</v>
+        <v>Harry Plantinga</v>
       </c>
       <c r="O8" t="str">
-        <v>CRF ?</v>
+        <v>CCEL</v>
       </c>
       <c r="P8" t="str">
         <v/>
@@ -7851,7 +7913,7 @@
         <v>-1</v>
       </c>
       <c r="F9" t="str">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -7863,10 +7925,7 @@
         <v/>
       </c>
       <c r="J9" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K9" t="str">
-        <v>-Full</v>
+        <v/>
       </c>
       <c r="L9" t="str">
         <v/>
@@ -7875,10 +7934,10 @@
         <v/>
       </c>
       <c r="N9" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O9" t="str">
-        <v>Sabbatical ?</v>
+        <v>F&amp;L Fellowship</v>
       </c>
       <c r="P9" t="str">
         <v/>
@@ -7901,7 +7960,7 @@
         <v>-1</v>
       </c>
       <c r="F10" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -7913,10 +7972,7 @@
         <v/>
       </c>
       <c r="J10" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K10" t="str">
-        <v>-Full</v>
+        <v/>
       </c>
       <c r="L10" t="str">
         <v/>
@@ -7925,10 +7981,10 @@
         <v/>
       </c>
       <c r="N10" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O10" t="str">
-        <v>CS 396/8 projects</v>
+        <v>F&amp;L Fellowship</v>
       </c>
       <c r="P10" t="str">
         <v/>
@@ -7951,7 +8007,7 @@
         <v>-1</v>
       </c>
       <c r="F11" t="str">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -7963,10 +8019,7 @@
         <v/>
       </c>
       <c r="J11" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K11" t="str">
-        <v>-Full</v>
+        <v/>
       </c>
       <c r="L11" t="str">
         <v/>
@@ -7975,10 +8028,10 @@
         <v/>
       </c>
       <c r="N11" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O11" t="str">
-        <v>Legacy CRF</v>
+        <v>CS 396/8 projects</v>
       </c>
       <c r="P11" t="str">
         <v/>
@@ -8001,7 +8054,7 @@
         <v>-1</v>
       </c>
       <c r="F12" t="str">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -8013,10 +8066,7 @@
         <v/>
       </c>
       <c r="J12" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K12" t="str">
-        <v>-Full</v>
+        <v/>
       </c>
       <c r="L12" t="str">
         <v/>
@@ -8025,10 +8075,10 @@
         <v/>
       </c>
       <c r="N12" t="str">
-        <v>Harry Plantinga</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O12" t="str">
-        <v>CCEL</v>
+        <v>CS 396/8 projects</v>
       </c>
       <c r="P12" t="str">
         <v/>
@@ -8038,50 +8088,44 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>FA</v>
-      </c>
       <c r="B13" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="C13" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="D13" t="str">
-        <v>*</v>
+        <v/>
       </c>
       <c r="E13" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F13" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13" t="str">
-        <v>MTWRF</v>
+        <v/>
       </c>
       <c r="H13" t="str">
-        <v>16:00:00 - 18:15:00</v>
+        <v/>
       </c>
       <c r="I13" t="str">
-        <v>, ,</v>
+        <v/>
       </c>
       <c r="J13" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K13" t="str">
-        <v>FA-Full</v>
-      </c>
-      <c r="L13">
-        <v>135</v>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v/>
       </c>
       <c r="M13" t="str">
         <v/>
       </c>
       <c r="N13" t="str">
-        <v>*</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O13" t="str">
-        <v>LEC</v>
+        <v>Legacy CRF</v>
       </c>
       <c r="P13" t="str">
         <v/>
@@ -8092,7 +8136,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B14" t="str">
         <v>*</v>
@@ -8122,7 +8166,7 @@
         <v>Full</v>
       </c>
       <c r="K14" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L14">
         <v>135</v>
@@ -8145,46 +8189,46 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B15" t="str">
-        <v>CS</v>
+        <v>*</v>
       </c>
       <c r="C15" t="str">
-        <v>100</v>
+        <v>*</v>
       </c>
       <c r="D15" t="str">
-        <v>A</v>
+        <v>*</v>
       </c>
       <c r="E15" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15" t="str">
-        <v>TR</v>
+        <v>MTWRF</v>
       </c>
       <c r="H15" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>16:00:00 - 18:15:00</v>
       </c>
       <c r="I15" t="str">
-        <v>SB 354</v>
+        <v>, ,</v>
       </c>
       <c r="J15" t="str">
         <v>Full</v>
       </c>
       <c r="K15" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="M15" t="str">
-        <v>Creating Interactive Web Media</v>
+        <v/>
       </c>
       <c r="N15" t="str">
-        <v>David Meyer</v>
+        <v>*</v>
       </c>
       <c r="O15" t="str">
         <v>LEC</v>
@@ -8313,7 +8357,7 @@
         <v>104L</v>
       </c>
       <c r="D18" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E18" t="str">
         <v>1</v>
@@ -8325,7 +8369,7 @@
         <v>T</v>
       </c>
       <c r="H18" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I18" t="str">
         <v>SB 372</v>
@@ -8343,7 +8387,7 @@
         <v>Applied Computing</v>
       </c>
       <c r="N18" t="str">
-        <v>Staff</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O18" t="str">
         <v/>
@@ -8366,7 +8410,7 @@
         <v>104L</v>
       </c>
       <c r="D19" t="str">
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="E19" t="str">
         <v>1</v>
@@ -8378,7 +8422,7 @@
         <v>T</v>
       </c>
       <c r="H19" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I19" t="str">
         <v>SB 372</v>
@@ -8396,7 +8440,7 @@
         <v>Applied Computing</v>
       </c>
       <c r="N19" t="str">
-        <v>Staff</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O19" t="str">
         <v/>
@@ -8419,7 +8463,7 @@
         <v>104L</v>
       </c>
       <c r="D20" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E20" t="str">
         <v>1</v>
@@ -8431,7 +8475,7 @@
         <v>T</v>
       </c>
       <c r="H20" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I20" t="str">
         <v>SB 372</v>
@@ -8449,7 +8493,7 @@
         <v>Applied Computing</v>
       </c>
       <c r="N20" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Staff</v>
       </c>
       <c r="O20" t="str">
         <v/>
@@ -8472,7 +8516,7 @@
         <v>104L</v>
       </c>
       <c r="D21" t="str">
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="E21" t="str">
         <v>1</v>
@@ -8484,7 +8528,7 @@
         <v>T</v>
       </c>
       <c r="H21" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I21" t="str">
         <v>SB 372</v>
@@ -8502,7 +8546,7 @@
         <v>Applied Computing</v>
       </c>
       <c r="N21" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Staff</v>
       </c>
       <c r="O21" t="str">
         <v/>
@@ -8714,7 +8758,7 @@
         <v>Intro to Computing</v>
       </c>
       <c r="N25" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Staff</v>
       </c>
       <c r="O25" t="str">
         <v/>
@@ -8843,7 +8887,7 @@
         <v>108L</v>
       </c>
       <c r="D28" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E28" t="str">
         <v>1</v>
@@ -8855,7 +8899,7 @@
         <v>R</v>
       </c>
       <c r="H28" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I28" t="str">
         <v>SB 372</v>
@@ -8873,7 +8917,7 @@
         <v>Intro to Computing Lab</v>
       </c>
       <c r="N28" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O28" t="str">
         <v/>
@@ -8896,7 +8940,7 @@
         <v>108L</v>
       </c>
       <c r="D29" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E29" t="str">
         <v>1</v>
@@ -8908,7 +8952,7 @@
         <v>R</v>
       </c>
       <c r="H29" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I29" t="str">
         <v>SB 372</v>
@@ -8926,7 +8970,7 @@
         <v>Intro to Computing Lab</v>
       </c>
       <c r="N29" t="str">
-        <v>Staff</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O29" t="str">
         <v/>
@@ -9046,7 +9090,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B32" t="str">
         <v>CS</v>
@@ -9067,16 +9111,16 @@
         <v>MWF</v>
       </c>
       <c r="H32" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I32" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J32" t="str">
         <v>Full</v>
       </c>
       <c r="K32" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L32">
         <v>65</v>
@@ -9085,7 +9129,7 @@
         <v>Intro to Data Structures</v>
       </c>
       <c r="N32" t="str">
-        <v>Eric Araujo</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O32" t="str">
         <v/>
@@ -9099,7 +9143,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B33" t="str">
         <v>CS</v>
@@ -9120,16 +9164,16 @@
         <v>MWF</v>
       </c>
       <c r="H33" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I33" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J33" t="str">
         <v>Full</v>
       </c>
       <c r="K33" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L33">
         <v>65</v>
@@ -9138,7 +9182,7 @@
         <v>Intro to Data Structures</v>
       </c>
       <c r="N33" t="str">
-        <v>Victor T. Norman</v>
+        <v>Staff</v>
       </c>
       <c r="O33" t="str">
         <v/>
@@ -9152,7 +9196,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B34" t="str">
         <v>CS</v>
@@ -9182,7 +9226,7 @@
         <v>Full</v>
       </c>
       <c r="K34" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L34">
         <v>100</v>
@@ -9191,7 +9235,7 @@
         <v>Intro to Data Structures Lab</v>
       </c>
       <c r="N34" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O34" t="str">
         <v/>
@@ -9214,7 +9258,7 @@
         <v>112L</v>
       </c>
       <c r="D35" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E35" t="str">
         <v>1</v>
@@ -9226,7 +9270,7 @@
         <v>T</v>
       </c>
       <c r="H35" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I35" t="str">
         <v>SB 372</v>
@@ -9267,7 +9311,7 @@
         <v>112L</v>
       </c>
       <c r="D36" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E36" t="str">
         <v>1</v>
@@ -9279,7 +9323,7 @@
         <v>T</v>
       </c>
       <c r="H36" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I36" t="str">
         <v>SB 372</v>
@@ -9297,7 +9341,7 @@
         <v>Intro to Data Structures Lab</v>
       </c>
       <c r="N36" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O36" t="str">
         <v/>
@@ -9311,7 +9355,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B37" t="str">
         <v>CS</v>
@@ -9341,7 +9385,7 @@
         <v>Full</v>
       </c>
       <c r="K37" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L37">
         <v>100</v>
@@ -9509,7 +9553,7 @@
         <v>Data Structures &amp; Algorithms</v>
       </c>
       <c r="N40" t="str">
-        <v>Staff</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O40" t="str">
         <v/>
@@ -9562,7 +9606,7 @@
         <v>Data Structures &amp; Algorithms</v>
       </c>
       <c r="N41" t="str">
-        <v>Staff</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O41" t="str">
         <v/>
@@ -9668,7 +9712,7 @@
         <v>Programming Lang Concepts</v>
       </c>
       <c r="N43" t="str">
-        <v>David Meyer</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O43" t="str">
         <v/>
@@ -10000,7 +10044,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B50" t="str">
         <v>CS</v>
@@ -10009,28 +10053,28 @@
         <v>300</v>
       </c>
       <c r="D50" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E50" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F50" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" t="str">
         <v>MWF</v>
       </c>
       <c r="H50" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I50" t="str">
         <v>SB 382</v>
       </c>
       <c r="J50" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K50" t="str">
-        <v>SP-Full</v>
+        <v>FA-Second</v>
       </c>
       <c r="L50">
         <v>65</v>
@@ -10039,13 +10083,13 @@
         <v>Applied Machine Learning</v>
       </c>
       <c r="N50" t="str">
-        <v>Rocky Chang</v>
+        <v>Staff</v>
       </c>
       <c r="O50" t="str">
         <v/>
       </c>
       <c r="P50" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="Q50" t="str">
         <v/>
@@ -10053,7 +10097,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B51" t="str">
         <v>CS</v>
@@ -10062,28 +10106,28 @@
         <v>300</v>
       </c>
       <c r="D51" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E51" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G51" t="str">
         <v>MWF</v>
       </c>
       <c r="H51" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I51" t="str">
         <v>SB 382</v>
       </c>
       <c r="J51" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K51" t="str">
-        <v>FA-Second</v>
+        <v>SP-Full</v>
       </c>
       <c r="L51">
         <v>65</v>
@@ -10098,7 +10142,7 @@
         <v/>
       </c>
       <c r="P51" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="Q51" t="str">
         <v/>
@@ -10112,46 +10156,46 @@
         <v>CS</v>
       </c>
       <c r="C52" t="str">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="D52" t="str">
         <v>A</v>
       </c>
       <c r="E52" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G52" t="str">
         <v>MWF</v>
       </c>
       <c r="H52" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I52" t="str">
-        <v>SB 382</v>
+        <v>HH 336</v>
       </c>
       <c r="J52" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K52" t="str">
-        <v>FA-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L52">
         <v>65</v>
       </c>
       <c r="M52" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Web Development</v>
       </c>
       <c r="N52" t="str">
-        <v>Eric Araujo</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O52" t="str">
         <v/>
       </c>
       <c r="P52" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="Q52" t="str">
         <v/>
@@ -10159,46 +10203,46 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B53" t="str">
         <v>CS</v>
       </c>
       <c r="C53" t="str">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D53" t="str">
         <v>A</v>
       </c>
       <c r="E53" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" t="str">
         <v>MWF</v>
       </c>
       <c r="H53" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I53" t="str">
-        <v>HH 336</v>
+        <v>SB 382</v>
       </c>
       <c r="J53" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K53" t="str">
-        <v>FA-Full</v>
+        <v>SP-First</v>
       </c>
       <c r="L53">
         <v>65</v>
       </c>
       <c r="M53" t="str">
-        <v>Web Development</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="N53" t="str">
-        <v>Victor T. Norman</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="O53" t="str">
         <v/>
@@ -10218,7 +10262,7 @@
         <v>CS</v>
       </c>
       <c r="C54" t="str">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D54" t="str">
         <v>A</v>
@@ -10239,16 +10283,16 @@
         <v>SB 382</v>
       </c>
       <c r="J54" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K54" t="str">
-        <v>SP-First</v>
+        <v>SP-Second</v>
       </c>
       <c r="L54">
         <v>65</v>
       </c>
       <c r="M54" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="N54" t="str">
         <v>Christopher Wieringa</v>
@@ -10271,7 +10315,7 @@
         <v>CS</v>
       </c>
       <c r="C55" t="str">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="D55" t="str">
         <v>A</v>
@@ -10286,7 +10330,7 @@
         <v>MWF</v>
       </c>
       <c r="H55" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I55" t="str">
         <v>SB 382</v>
@@ -10301,10 +10345,10 @@
         <v>65</v>
       </c>
       <c r="M55" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>Database Management Systems</v>
       </c>
       <c r="N55" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O55" t="str">
         <v/>
@@ -10324,7 +10368,7 @@
         <v>CS</v>
       </c>
       <c r="C56" t="str">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="D56" t="str">
         <v>A</v>
@@ -10339,25 +10383,25 @@
         <v>MWF</v>
       </c>
       <c r="H56" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I56" t="str">
         <v>SB 382</v>
       </c>
       <c r="J56" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K56" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L56">
         <v>65</v>
       </c>
       <c r="M56" t="str">
-        <v>Database Management Systems</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="N56" t="str">
-        <v>Eric Araujo</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O56" t="str">
         <v/>
@@ -10371,46 +10415,46 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B57" t="str">
         <v>CS</v>
       </c>
       <c r="C57" t="str">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D57" t="str">
         <v>A</v>
       </c>
       <c r="E57" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F57" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G57" t="str">
-        <v>MR</v>
+        <v>MWF</v>
       </c>
       <c r="H57" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I57" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J57" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K57" t="str">
-        <v>FA-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L57">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M57" t="str">
-        <v>Computer Security</v>
+        <v>Machine Learning</v>
       </c>
       <c r="N57" t="str">
-        <v>Brian D Paige, Adam Vedra</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O57" t="str">
         <v/>
@@ -10424,46 +10468,46 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B58" t="str">
         <v>CS</v>
       </c>
       <c r="C58" t="str">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D58" t="str">
         <v>A</v>
       </c>
       <c r="E58" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G58" t="str">
-        <v>MWF</v>
+        <v>R</v>
       </c>
       <c r="H58" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I58" t="str">
         <v>SB 382</v>
       </c>
       <c r="J58" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K58" t="str">
-        <v>SP-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L58">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M58" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="N58" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O58" t="str">
         <v/>
@@ -10483,40 +10527,40 @@
         <v>CS</v>
       </c>
       <c r="C59" t="str">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D59" t="str">
         <v>A</v>
       </c>
       <c r="E59" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" t="str">
-        <v>MWF</v>
+        <v>R</v>
       </c>
       <c r="H59" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I59" t="str">
         <v>SB 382</v>
       </c>
       <c r="J59" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K59" t="str">
-        <v>SP-Second</v>
+        <v>SP-Full</v>
       </c>
       <c r="L59">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M59" t="str">
-        <v>Machine Learning</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="N59" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O59" t="str">
         <v/>
@@ -10530,43 +10574,43 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B60" t="str">
         <v>CS</v>
       </c>
       <c r="C60" t="str">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D60" t="str">
         <v>A</v>
       </c>
       <c r="E60" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G60" t="str">
-        <v>R</v>
+        <v>TR</v>
       </c>
       <c r="H60" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I60" t="str">
-        <v>SB 382</v>
+        <v>SC 203</v>
       </c>
       <c r="J60" t="str">
         <v>Full</v>
       </c>
       <c r="K60" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L60">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M60" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="N60" t="str">
         <v>Derek C Schuurman</v>
@@ -10589,25 +10633,25 @@
         <v>CS</v>
       </c>
       <c r="C61" t="str">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D61" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E61" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F61" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G61" t="str">
-        <v>R</v>
+        <v>TR</v>
       </c>
       <c r="H61" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I61" t="str">
-        <v>SB 382</v>
+        <v>SC 203</v>
       </c>
       <c r="J61" t="str">
         <v>Full</v>
@@ -10616,10 +10660,10 @@
         <v>SP-Full</v>
       </c>
       <c r="L61">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M61" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="N61" t="str">
         <v>Derek C Schuurman</v>
@@ -10636,46 +10680,46 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B62" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C62" t="str">
-        <v>384</v>
+        <v>102</v>
       </c>
       <c r="D62" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E62" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F62" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G62" t="str">
         <v>TR</v>
       </c>
       <c r="H62" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I62" t="str">
-        <v>SC 203</v>
+        <v>SB 354</v>
       </c>
       <c r="J62" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K62" t="str">
-        <v>SP-Full</v>
+        <v>FA-First</v>
       </c>
       <c r="L62">
         <v>100</v>
       </c>
       <c r="M62" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N62" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O62" t="str">
         <v/>
@@ -10689,46 +10733,46 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B63" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C63" t="str">
-        <v>384</v>
+        <v>102</v>
       </c>
       <c r="D63" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="E63" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G63" t="str">
         <v>TR</v>
       </c>
       <c r="H63" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I63" t="str">
-        <v>SC 203</v>
+        <v>SB 354</v>
       </c>
       <c r="J63" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K63" t="str">
-        <v>SP-Full</v>
+        <v>FA-First</v>
       </c>
       <c r="L63">
         <v>100</v>
       </c>
       <c r="M63" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N63" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O63" t="str">
         <v/>
@@ -10751,7 +10795,7 @@
         <v>102</v>
       </c>
       <c r="D64" t="str">
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="E64" t="str">
         <v>2</v>
@@ -10763,7 +10807,7 @@
         <v>TR</v>
       </c>
       <c r="H64" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I64" t="str">
         <v>SB 354</v>
@@ -10781,7 +10825,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N64" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O64" t="str">
         <v/>
@@ -10804,7 +10848,7 @@
         <v>102</v>
       </c>
       <c r="D65" t="str">
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="E65" t="str">
         <v>2</v>
@@ -10816,7 +10860,7 @@
         <v>TR</v>
       </c>
       <c r="H65" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I65" t="str">
         <v>SB 354</v>
@@ -10834,7 +10878,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N65" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O65" t="str">
         <v/>
@@ -10857,7 +10901,7 @@
         <v>102</v>
       </c>
       <c r="D66" t="str">
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="E66" t="str">
         <v>2</v>
@@ -10869,16 +10913,16 @@
         <v>TR</v>
       </c>
       <c r="H66" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I66" t="str">
         <v>SB 354</v>
       </c>
       <c r="J66" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K66" t="str">
-        <v>FA-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L66">
         <v>100</v>
@@ -10910,7 +10954,7 @@
         <v>102</v>
       </c>
       <c r="D67" t="str">
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="E67" t="str">
         <v>2</v>
@@ -10922,16 +10966,16 @@
         <v>TR</v>
       </c>
       <c r="H67" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I67" t="str">
         <v>SB 354</v>
       </c>
       <c r="J67" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K67" t="str">
-        <v>SP-First</v>
+        <v>SP-Second</v>
       </c>
       <c r="L67">
         <v>100</v>
@@ -10963,7 +11007,7 @@
         <v>102</v>
       </c>
       <c r="D68" t="str">
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="E68" t="str">
         <v>2</v>
@@ -10975,16 +11019,16 @@
         <v>TR</v>
       </c>
       <c r="H68" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I68" t="str">
         <v>SB 354</v>
       </c>
       <c r="J68" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K68" t="str">
-        <v>FA-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L68">
         <v>100</v>
@@ -10993,7 +11037,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N68" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O68" t="str">
         <v/>
@@ -11016,7 +11060,7 @@
         <v>102</v>
       </c>
       <c r="D69" t="str">
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="E69" t="str">
         <v>2</v>
@@ -11028,16 +11072,16 @@
         <v>TR</v>
       </c>
       <c r="H69" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I69" t="str">
         <v>SB 354</v>
       </c>
       <c r="J69" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K69" t="str">
-        <v>SP-First</v>
+        <v>SP-Second</v>
       </c>
       <c r="L69">
         <v>100</v>
@@ -11046,7 +11090,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N69" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O69" t="str">
         <v/>
@@ -11069,7 +11113,7 @@
         <v>102</v>
       </c>
       <c r="D70" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="E70" t="str">
         <v>2</v>
@@ -11081,7 +11125,7 @@
         <v>TR</v>
       </c>
       <c r="H70" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I70" t="str">
         <v>SB 354</v>
@@ -11099,7 +11143,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N70" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O70" t="str">
         <v/>
@@ -11122,7 +11166,7 @@
         <v>102</v>
       </c>
       <c r="D71" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="E71" t="str">
         <v>2</v>
@@ -11134,7 +11178,7 @@
         <v>TR</v>
       </c>
       <c r="H71" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I71" t="str">
         <v>SB 354</v>
@@ -11152,7 +11196,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N71" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O71" t="str">
         <v/>
@@ -11175,7 +11219,7 @@
         <v>102</v>
       </c>
       <c r="D72" t="str">
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="E72" t="str">
         <v>2</v>
@@ -11187,7 +11231,7 @@
         <v>TR</v>
       </c>
       <c r="H72" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I72" t="str">
         <v>SB 354</v>
@@ -11205,7 +11249,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N72" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O72" t="str">
         <v/>
@@ -11219,7 +11263,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B73" t="str">
         <v>DATA</v>
@@ -11228,7 +11272,7 @@
         <v>102</v>
       </c>
       <c r="D73" t="str">
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="E73" t="str">
         <v>2</v>
@@ -11240,16 +11284,16 @@
         <v>TR</v>
       </c>
       <c r="H73" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I73" t="str">
         <v>SB 354</v>
       </c>
       <c r="J73" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K73" t="str">
-        <v>SP-Second</v>
+        <v>FA-First</v>
       </c>
       <c r="L73">
         <v>100</v>
@@ -11258,7 +11302,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N73" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O73" t="str">
         <v/>
@@ -11270,9 +11314,9 @@
         <v/>
       </c>
     </row>
-    <row r="74">
+    <row r="74" xml:space="preserve">
       <c r="A74" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B74" t="str">
         <v>DATA</v>
@@ -11281,7 +11325,7 @@
         <v>102</v>
       </c>
       <c r="D74" t="str">
-        <v>H</v>
+        <v>A</v>
       </c>
       <c r="E74" t="str">
         <v>2</v>
@@ -11293,16 +11337,16 @@
         <v>TR</v>
       </c>
       <c r="H74" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I74" t="str">
         <v>SB 354</v>
       </c>
       <c r="J74" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K74" t="str">
-        <v>FA-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L74">
         <v>100</v>
@@ -11319,11 +11363,12 @@
       <c r="P74" t="str">
         <v/>
       </c>
-      <c r="Q74" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="75">
+      <c r="Q74" t="str" xml:space="preserve">
+        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
+Set as on-hold? we may not have the enrollment.</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
       <c r="A75" t="str">
         <v>SP</v>
       </c>
@@ -11334,7 +11379,7 @@
         <v>102</v>
       </c>
       <c r="D75" t="str">
-        <v>H</v>
+        <v>E</v>
       </c>
       <c r="E75" t="str">
         <v>2</v>
@@ -11346,7 +11391,7 @@
         <v>TR</v>
       </c>
       <c r="H75" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I75" t="str">
         <v>SB 354</v>
@@ -11372,11 +11417,12 @@
       <c r="P75" t="str">
         <v/>
       </c>
-      <c r="Q75" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="76" xml:space="preserve">
+      <c r="Q75" t="str" xml:space="preserve">
+        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
+Set as on-hold? we may not have the enrollment.</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="str">
         <v>SP</v>
       </c>
@@ -11387,7 +11433,7 @@
         <v>102</v>
       </c>
       <c r="D76" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E76" t="str">
         <v>2</v>
@@ -11396,10 +11442,10 @@
         <v>2</v>
       </c>
       <c r="G76" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H76" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I76" t="str">
         <v>SB 354</v>
@@ -11411,7 +11457,7 @@
         <v>SP-First</v>
       </c>
       <c r="L76">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M76" t="str">
         <v>Foundations of Data Science and Analytics</v>
@@ -11425,12 +11471,11 @@
       <c r="P76" t="str">
         <v/>
       </c>
-      <c r="Q76" t="str" xml:space="preserve">
-        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
-Set as on-hold? we may not have the enrollment.</v>
-      </c>
-    </row>
-    <row r="77" xml:space="preserve">
+      <c r="Q76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" t="str">
         <v>SP</v>
       </c>
@@ -11441,7 +11486,7 @@
         <v>102</v>
       </c>
       <c r="D77" t="str">
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="E77" t="str">
         <v>2</v>
@@ -11450,28 +11495,28 @@
         <v>2</v>
       </c>
       <c r="G77" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H77" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I77" t="str">
         <v>SB 354</v>
       </c>
       <c r="J77" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K77" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L77">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M77" t="str">
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N77" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Staff</v>
       </c>
       <c r="O77" t="str">
         <v/>
@@ -11479,9 +11524,8 @@
       <c r="P77" t="str">
         <v/>
       </c>
-      <c r="Q77" t="str" xml:space="preserve">
-        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
-Set as on-hold? we may not have the enrollment.</v>
+      <c r="Q77" t="str">
+        <v/>
       </c>
     </row>
     <row r="78">
@@ -11492,40 +11536,40 @@
         <v>DATA</v>
       </c>
       <c r="C78" t="str">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="D78" t="str">
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="E78" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F78" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G78" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="H78" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I78" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="J78" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K78" t="str">
-        <v>FA-Second</v>
+        <v>FA-Full</v>
       </c>
       <c r="L78">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M78" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N78" t="str">
-        <v>Staff</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O78" t="str">
         <v/>
@@ -11545,40 +11589,40 @@
         <v>DATA</v>
       </c>
       <c r="C79" t="str">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="D79" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E79" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G79" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="H79" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I79" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="J79" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K79" t="str">
-        <v>FA-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L79">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M79" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N79" t="str">
-        <v>Staff</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O79" t="str">
         <v/>
@@ -11595,43 +11639,43 @@
         <v>FA</v>
       </c>
       <c r="B80" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C80" t="str">
-        <v>202</v>
+        <v>300-S</v>
       </c>
       <c r="D80" t="str">
-        <v>A</v>
+        <v>A-S</v>
       </c>
       <c r="E80" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F80" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G80" t="str">
         <v>MWF</v>
       </c>
       <c r="H80" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I80" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="J80" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K80" t="str">
-        <v>FA-Full</v>
+        <v>FA-First</v>
       </c>
       <c r="L80">
         <v>65</v>
       </c>
       <c r="M80" t="str">
-        <v>Predictive Analytics</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="N80" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Shadow-Gold</v>
       </c>
       <c r="O80" t="str">
         <v/>
@@ -11645,46 +11689,46 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B81" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C81" t="str">
-        <v>202</v>
+        <v>300-S</v>
       </c>
       <c r="D81" t="str">
-        <v>B</v>
+        <v>A-S</v>
       </c>
       <c r="E81" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F81" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G81" t="str">
         <v>MWF</v>
       </c>
       <c r="H81" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I81" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="J81" t="str">
         <v>Full</v>
       </c>
       <c r="K81" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L81">
         <v>65</v>
       </c>
       <c r="M81" t="str">
-        <v>Predictive Analytics</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="N81" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Shadow-Gold</v>
       </c>
       <c r="O81" t="str">
         <v/>
@@ -11707,7 +11751,7 @@
         <v>300-S</v>
       </c>
       <c r="D82" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="E82" t="str">
         <v>0</v>
@@ -11725,10 +11769,10 @@
         <v>SB 354</v>
       </c>
       <c r="J82" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K82" t="str">
-        <v>FA-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L82">
         <v>65</v>
@@ -11757,7 +11801,7 @@
         <v>CS</v>
       </c>
       <c r="C83" t="str">
-        <v>300-S</v>
+        <v>338-S</v>
       </c>
       <c r="D83" t="str">
         <v>A-S</v>
@@ -11772,22 +11816,22 @@
         <v>MWF</v>
       </c>
       <c r="H83" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I83" t="str">
         <v>SB 354</v>
       </c>
       <c r="J83" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K83" t="str">
-        <v>SP-Full</v>
+        <v>SP-First</v>
       </c>
       <c r="L83">
         <v>65</v>
       </c>
       <c r="M83" t="str">
-        <v>Applied Machine Learning</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="N83" t="str">
         <v>Shadow-Gold</v>
@@ -11804,16 +11848,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B84" t="str">
         <v>CS</v>
       </c>
       <c r="C84" t="str">
-        <v>300-S</v>
+        <v>339-S</v>
       </c>
       <c r="D84" t="str">
-        <v>B-S</v>
+        <v>A-S</v>
       </c>
       <c r="E84" t="str">
         <v>0</v>
@@ -11825,7 +11869,7 @@
         <v>MWF</v>
       </c>
       <c r="H84" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I84" t="str">
         <v>SB 354</v>
@@ -11834,13 +11878,13 @@
         <v>Second</v>
       </c>
       <c r="K84" t="str">
-        <v>FA-Second</v>
+        <v>SP-Second</v>
       </c>
       <c r="L84">
         <v>65</v>
       </c>
       <c r="M84" t="str">
-        <v>Applied Machine Learning</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="N84" t="str">
         <v>Shadow-Gold</v>
@@ -11857,43 +11901,43 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B85" t="str">
         <v>CS</v>
       </c>
       <c r="C85" t="str">
-        <v>338-S</v>
+        <v>374-S</v>
       </c>
       <c r="D85" t="str">
         <v>A-S</v>
       </c>
       <c r="E85" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85" t="str">
-        <v>MWF</v>
+        <v>MW</v>
       </c>
       <c r="H85" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I85" t="str">
         <v>SB 354</v>
       </c>
       <c r="J85" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K85" t="str">
-        <v>SP-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L85">
         <v>65</v>
       </c>
       <c r="M85" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>High-Performance Computing</v>
       </c>
       <c r="N85" t="str">
         <v>Shadow-Gold</v>
@@ -11916,7 +11960,7 @@
         <v>CS</v>
       </c>
       <c r="C86" t="str">
-        <v>339-S</v>
+        <v>375-S</v>
       </c>
       <c r="D86" t="str">
         <v>A-S</v>
@@ -11931,22 +11975,22 @@
         <v>MWF</v>
       </c>
       <c r="H86" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I86" t="str">
         <v>SB 354</v>
       </c>
       <c r="J86" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K86" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L86">
         <v>65</v>
       </c>
       <c r="M86" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="N86" t="str">
         <v>Shadow-Gold</v>
@@ -11963,28 +12007,28 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B87" t="str">
         <v>CS</v>
       </c>
       <c r="C87" t="str">
-        <v>374-S</v>
+        <v>376-S</v>
       </c>
       <c r="D87" t="str">
-        <v>A-S</v>
+        <v>B-S</v>
       </c>
       <c r="E87" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F87" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G87" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="H87" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I87" t="str">
         <v>SB 354</v>
@@ -11993,13 +12037,13 @@
         <v>Second</v>
       </c>
       <c r="K87" t="str">
-        <v>FA-Second</v>
+        <v>SP-Second</v>
       </c>
       <c r="L87">
         <v>65</v>
       </c>
       <c r="M87" t="str">
-        <v>High-Performance Computing</v>
+        <v>Machine Learning</v>
       </c>
       <c r="N87" t="str">
         <v>Shadow-Gold</v>
@@ -12016,13 +12060,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B88" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C88" t="str">
-        <v>375-S</v>
+        <v>202-S</v>
       </c>
       <c r="D88" t="str">
         <v>A-S</v>
@@ -12037,25 +12081,25 @@
         <v>MWF</v>
       </c>
       <c r="H88" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I88" t="str">
         <v>SB 354</v>
       </c>
       <c r="J88" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K88" t="str">
-        <v>SP-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L88">
         <v>65</v>
       </c>
       <c r="M88" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N88" t="str">
-        <v>Shadow-Gold</v>
+        <v>Shadow-Maroon</v>
       </c>
       <c r="O88" t="str">
         <v/>
@@ -12069,13 +12113,13 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B89" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C89" t="str">
-        <v>376-S</v>
+        <v>202-S</v>
       </c>
       <c r="D89" t="str">
         <v>B-S</v>
@@ -12090,25 +12134,25 @@
         <v>MWF</v>
       </c>
       <c r="H89" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I89" t="str">
         <v>SB 354</v>
       </c>
       <c r="J89" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K89" t="str">
-        <v>SP-Second</v>
+        <v>FA-Full</v>
       </c>
       <c r="L89">
         <v>65</v>
       </c>
       <c r="M89" t="str">
-        <v>Machine Learning</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N89" t="str">
-        <v>Shadow-Gold</v>
+        <v>Shadow-Maroon</v>
       </c>
       <c r="O89" t="str">
         <v/>
@@ -12125,28 +12169,28 @@
         <v>FA</v>
       </c>
       <c r="B90" t="str">
-        <v>DATA</v>
+        <v>HNRS</v>
       </c>
       <c r="C90" t="str">
-        <v>202-S</v>
+        <v>251</v>
       </c>
       <c r="D90" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="E90" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G90" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H90" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>14:10:00 - 15:15:00</v>
       </c>
       <c r="I90" t="str">
-        <v>SB 354</v>
+        <v>HL 406C</v>
       </c>
       <c r="J90" t="str">
         <v>Full</v>
@@ -12158,10 +12202,10 @@
         <v>65</v>
       </c>
       <c r="M90" t="str">
-        <v>Predictive Analytics</v>
+        <v>Agent Modeling</v>
       </c>
       <c r="N90" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Staff</v>
       </c>
       <c r="O90" t="str">
         <v/>
@@ -12178,28 +12222,28 @@
         <v>FA</v>
       </c>
       <c r="B91" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C91" t="str">
-        <v>202-S</v>
+        <v>396</v>
       </c>
       <c r="D91" t="str">
-        <v>B-S</v>
+        <v>A</v>
       </c>
       <c r="E91" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F91" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G91" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="H91" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I91" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="J91" t="str">
         <v>Full</v>
@@ -12208,13 +12252,13 @@
         <v>FA-Full</v>
       </c>
       <c r="L91">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M91" t="str">
-        <v>Predictive Analytics</v>
+        <v>Senior Project in Computing I</v>
       </c>
       <c r="N91" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O91" t="str">
         <v/>
@@ -12228,46 +12272,46 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B92" t="str">
         <v>CS</v>
       </c>
       <c r="C92" t="str">
-        <v>106</v>
+        <v>398</v>
       </c>
       <c r="D92" t="str">
         <v>A</v>
       </c>
       <c r="E92" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G92" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="H92" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I92" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J92" t="str">
         <v>Full</v>
       </c>
       <c r="K92" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L92">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M92" t="str">
-        <v>Intro to Computing</v>
+        <v>Senior Project in Computing II</v>
       </c>
       <c r="N92" t="str">
-        <v>Staff</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O92" t="str">
         <v/>
@@ -12284,28 +12328,28 @@
         <v>FA</v>
       </c>
       <c r="B93" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C93" t="str">
-        <v>106L</v>
+        <v>396</v>
       </c>
       <c r="D93" t="str">
         <v>A</v>
       </c>
       <c r="E93" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="str">
-        <v>R</v>
+        <v>T</v>
       </c>
       <c r="H93" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I93" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J93" t="str">
         <v>Full</v>
@@ -12314,13 +12358,13 @@
         <v>FA-Full</v>
       </c>
       <c r="L93">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M93" t="str">
-        <v>Intro to Computing Lab</v>
+        <v>Senior Project in Data Science</v>
       </c>
       <c r="N93" t="str">
-        <v>Staff</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O93" t="str">
         <v/>
@@ -12334,13 +12378,13 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B94" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C94" t="str">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D94" t="str">
         <v>A</v>
@@ -12349,7 +12393,7 @@
         <v>2</v>
       </c>
       <c r="F94" t="str">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G94" t="str">
         <v>T</v>
@@ -12364,16 +12408,16 @@
         <v>Full</v>
       </c>
       <c r="K94" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L94">
         <v>50</v>
       </c>
       <c r="M94" t="str">
-        <v>Senior Project in Computing I</v>
+        <v>Senior Project in Data Science II</v>
       </c>
       <c r="N94" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O94" t="str">
         <v/>
@@ -12387,43 +12431,43 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B95" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C95" t="str">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="D95" t="str">
         <v>A</v>
       </c>
       <c r="E95" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G95" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="H95" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I95" t="str">
-        <v>SB 382</v>
+        <v>SB 301</v>
       </c>
       <c r="J95" t="str">
         <v>Full</v>
       </c>
       <c r="K95" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L95">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M95" t="str">
-        <v>Senior Project in Data Science</v>
+        <v>Embedded Systems and the Internet of Things</v>
       </c>
       <c r="N95" t="str">
         <v>Derek C Schuurman</v>
@@ -12432,7 +12476,7 @@
         <v/>
       </c>
       <c r="P95" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="Q95" t="str">
         <v/>
@@ -12440,13 +12484,13 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B96" t="str">
         <v>CS</v>
       </c>
       <c r="C96" t="str">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="D96" t="str">
         <v>A</v>
@@ -12455,31 +12499,31 @@
         <v>2</v>
       </c>
       <c r="F96" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G96" t="str">
-        <v>T</v>
+        <v>MR</v>
       </c>
       <c r="H96" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I96" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J96" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K96" t="str">
-        <v>SP-Full</v>
+        <v>FA-First</v>
       </c>
       <c r="L96">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M96" t="str">
-        <v>Senior Project in Computing II</v>
+        <v>Fundamentals of Cybersecurity</v>
       </c>
       <c r="N96" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Brian D Paige</v>
       </c>
       <c r="O96" t="str">
         <v/>
@@ -12493,13 +12537,13 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B97" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C97" t="str">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="D97" t="str">
         <v>A</v>
@@ -12508,31 +12552,31 @@
         <v>2</v>
       </c>
       <c r="F97" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G97" t="str">
-        <v>T</v>
+        <v>MR</v>
       </c>
       <c r="H97" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I97" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="J97" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K97" t="str">
-        <v>SP-Full</v>
+        <v>FA-Second</v>
       </c>
       <c r="L97">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M97" t="str">
-        <v>Senior Project in Data Science II</v>
+        <v>Fundamentals of Cyber Defense</v>
       </c>
       <c r="N97" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Adam Vedra</v>
       </c>
       <c r="O97" t="str">
         <v/>
@@ -12546,13 +12590,13 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B98" t="str">
         <v>CS</v>
       </c>
       <c r="C98" t="str">
-        <v>326</v>
+        <v>100</v>
       </c>
       <c r="D98" t="str">
         <v>A</v>
@@ -12564,34 +12608,34 @@
         <v>4</v>
       </c>
       <c r="G98" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H98" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I98" t="str">
-        <v>SB 301</v>
+        <v>SB 354</v>
       </c>
       <c r="J98" t="str">
         <v>Full</v>
       </c>
       <c r="K98" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L98">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M98" t="str">
-        <v>Embedded Systems and the Internet of Things</v>
+        <v>Creating Interactive Web Media</v>
       </c>
       <c r="N98" t="str">
         <v>Staff</v>
       </c>
       <c r="O98" t="str">
-        <v/>
+        <v>LEC</v>
       </c>
       <c r="P98" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="Q98" t="str">
         <v/>
@@ -12602,28 +12646,28 @@
         <v>FA</v>
       </c>
       <c r="B99" t="str">
-        <v>HNRS</v>
+        <v>CS</v>
       </c>
       <c r="C99" t="str">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="D99" t="str">
         <v>A</v>
       </c>
       <c r="E99" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F99" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G99" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="H99" t="str">
-        <v>14:10:00 - 15:15:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I99" t="str">
-        <v>HL 406C</v>
+        <v>SB 372</v>
       </c>
       <c r="J99" t="str">
         <v>Full</v>
@@ -12635,10 +12679,10 @@
         <v>65</v>
       </c>
       <c r="M99" t="str">
-        <v>Agent Modeling</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="N99" t="str">
-        <v>Staff</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O99" t="str">
         <v/>
@@ -12647,12 +12691,65 @@
         <v/>
       </c>
       <c r="Q99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>FA</v>
+      </c>
+      <c r="B100" t="str">
+        <v>CS</v>
+      </c>
+      <c r="C100" t="str">
+        <v>106L</v>
+      </c>
+      <c r="D100" t="str">
+        <v>A</v>
+      </c>
+      <c r="E100" t="str">
+        <v>1</v>
+      </c>
+      <c r="F100" t="str">
+        <v>1</v>
+      </c>
+      <c r="G100" t="str">
+        <v>R</v>
+      </c>
+      <c r="H100" t="str">
+        <v>10:20:00 - 12:00:00</v>
+      </c>
+      <c r="I100" t="str">
+        <v>SB 372</v>
+      </c>
+      <c r="J100" t="str">
+        <v>Full</v>
+      </c>
+      <c r="K100" t="str">
+        <v>FA-Full</v>
+      </c>
+      <c r="L100">
+        <v>100</v>
+      </c>
+      <c r="M100" t="str">
+        <v>Intro to Computing Lab</v>
+      </c>
+      <c r="N100" t="str">
+        <v>Christopher Wieringa</v>
+      </c>
+      <c r="O100" t="str">
+        <v/>
+      </c>
+      <c r="P100" t="str">
+        <v/>
+      </c>
+      <c r="Q100" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q99"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q100"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12671,7 +12768,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-09-27 10:57:41</v>
+        <v>2025-11-20 11:11:29</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedule_2026.xlsx
+++ b/data/schedule_2026.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W100"/>
+  <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -482,9 +482,6 @@
       <c r="B2" t="str">
         <v/>
       </c>
-      <c r="C2" t="str">
-        <v>FA</v>
-      </c>
       <c r="D2" t="str">
         <v>Full</v>
       </c>
@@ -498,13 +495,13 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>Eric Araujo</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I2" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J2" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K2" t="str">
         <v/>
@@ -525,7 +522,7 @@
         <v/>
       </c>
       <c r="Q2" t="str">
-        <v>CS 396/8 projects</v>
+        <v>Chair</v>
       </c>
       <c r="R2" t="str">
         <v/>
@@ -553,9 +550,6 @@
       <c r="B3" t="str">
         <v/>
       </c>
-      <c r="C3" t="str">
-        <v>FA</v>
-      </c>
       <c r="D3" t="str">
         <v>Full</v>
       </c>
@@ -569,13 +563,13 @@
         <v/>
       </c>
       <c r="H3" t="str">
-        <v>Rocky Chang</v>
+        <v>Harry Plantinga</v>
       </c>
       <c r="I3" t="str">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J3" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K3" t="str">
         <v/>
@@ -596,7 +590,7 @@
         <v/>
       </c>
       <c r="Q3" t="str">
-        <v>CS 396/8 projects</v>
+        <v>CCEL</v>
       </c>
       <c r="R3" t="str">
         <v/>
@@ -637,10 +631,10 @@
         <v/>
       </c>
       <c r="H4" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I4" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J4" t="str">
         <v>-1</v>
@@ -664,7 +658,7 @@
         <v/>
       </c>
       <c r="Q4" t="str">
-        <v>Chair</v>
+        <v>F&amp;L Fellowship</v>
       </c>
       <c r="R4" t="str">
         <v/>
@@ -705,10 +699,10 @@
         <v/>
       </c>
       <c r="H5" t="str">
-        <v>Victor T. Norman</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I5" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J5" t="str">
         <v>-1</v>
@@ -732,7 +726,7 @@
         <v/>
       </c>
       <c r="Q5" t="str">
-        <v>CS 396/8 projects</v>
+        <v>Legacy CRF</v>
       </c>
       <c r="R5" t="str">
         <v/>
@@ -773,7 +767,7 @@
         <v/>
       </c>
       <c r="H6" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I6" t="str">
         <v>4</v>
@@ -800,7 +794,7 @@
         <v/>
       </c>
       <c r="Q6" t="str">
-        <v>CCCS Fellowship ?</v>
+        <v>NSF Buyout</v>
       </c>
       <c r="R6" t="str">
         <v/>
@@ -829,7 +823,7 @@
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>Full</v>
+        <v/>
       </c>
       <c r="E7" t="str">
         <v/>
@@ -841,10 +835,10 @@
         <v/>
       </c>
       <c r="H7" t="str">
-        <v>Eric Araujo</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I7" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" t="str">
         <v>-1</v>
@@ -868,7 +862,7 @@
         <v/>
       </c>
       <c r="Q7" t="str">
-        <v>CRF ?</v>
+        <v>CS 396/8 projects</v>
       </c>
       <c r="R7" t="str">
         <v/>
@@ -897,7 +891,7 @@
         <v/>
       </c>
       <c r="D8" t="str">
-        <v>Full</v>
+        <v/>
       </c>
       <c r="E8" t="str">
         <v/>
@@ -909,10 +903,10 @@
         <v/>
       </c>
       <c r="H8" t="str">
-        <v>Harry Plantinga</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I8" t="str">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J8" t="str">
         <v>-1</v>
@@ -936,7 +930,7 @@
         <v/>
       </c>
       <c r="Q8" t="str">
-        <v>CCEL</v>
+        <v>CS 396/8 projects</v>
       </c>
       <c r="R8" t="str">
         <v/>
@@ -980,7 +974,7 @@
         <v>Rocky Chang</v>
       </c>
       <c r="I9" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="str">
         <v>-1</v>
@@ -1004,7 +998,7 @@
         <v/>
       </c>
       <c r="Q9" t="str">
-        <v>F&amp;L Fellowship</v>
+        <v>CS 396/8 projects</v>
       </c>
       <c r="R9" t="str">
         <v/>
@@ -1045,10 +1039,10 @@
         <v/>
       </c>
       <c r="H10" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I10" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" t="str">
         <v>-1</v>
@@ -1072,7 +1066,7 @@
         <v/>
       </c>
       <c r="Q10" t="str">
-        <v>F&amp;L Fellowship</v>
+        <v>CS 396/8 projects</v>
       </c>
       <c r="R10" t="str">
         <v/>
@@ -1113,10 +1107,10 @@
         <v/>
       </c>
       <c r="H11" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I11" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="str">
         <v>-1</v>
@@ -1184,7 +1178,7 @@
         <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I12" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="str">
         <v>-1</v>
@@ -1208,7 +1202,7 @@
         <v/>
       </c>
       <c r="Q12" t="str">
-        <v>CS 396/8 projects</v>
+        <v>DeVries Fellowship</v>
       </c>
       <c r="R12" t="str">
         <v/>
@@ -1249,10 +1243,10 @@
         <v/>
       </c>
       <c r="H13" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I13" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J13" t="str">
         <v>-1</v>
@@ -1276,7 +1270,7 @@
         <v/>
       </c>
       <c r="Q13" t="str">
-        <v>Legacy CRF</v>
+        <v>F&amp;L Fellowship</v>
       </c>
       <c r="R13" t="str">
         <v/>
@@ -1873,7 +1867,7 @@
         <v/>
       </c>
       <c r="C22" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D22" t="str">
         <v>Full</v>
@@ -1888,7 +1882,7 @@
         <v>A</v>
       </c>
       <c r="H22" t="str">
-        <v>Rocky Chang</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I22" t="str">
         <v>4</v>
@@ -1903,13 +1897,13 @@
         <v>MWF</v>
       </c>
       <c r="M22" t="str">
-        <v>11:00:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N22">
         <v>65</v>
       </c>
       <c r="O22" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="P22" t="str">
         <v>Intro to Computing</v>
@@ -1956,10 +1950,10 @@
         <v>108</v>
       </c>
       <c r="G23" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H23" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Staff</v>
       </c>
       <c r="I23" t="str">
         <v>4</v>
@@ -1974,7 +1968,7 @@
         <v>MWF</v>
       </c>
       <c r="M23" t="str">
-        <v>13:30:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N23">
         <v>65</v>
@@ -2027,7 +2021,7 @@
         <v>108</v>
       </c>
       <c r="G24" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H24" t="str">
         <v>Rocky Chang</v>
@@ -2045,13 +2039,13 @@
         <v>MWF</v>
       </c>
       <c r="M24" t="str">
-        <v>13:30:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N24">
         <v>65</v>
       </c>
       <c r="O24" t="str">
-        <v>SB 372</v>
+        <v>NH 64</v>
       </c>
       <c r="P24" t="str">
         <v>Intro to Computing</v>
@@ -2086,7 +2080,7 @@
         <v/>
       </c>
       <c r="C25" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D25" t="str">
         <v>Full</v>
@@ -2101,7 +2095,7 @@
         <v>B</v>
       </c>
       <c r="H25" t="str">
-        <v>Staff</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I25" t="str">
         <v>4</v>
@@ -2116,13 +2110,13 @@
         <v>MWF</v>
       </c>
       <c r="M25" t="str">
-        <v>14:45:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N25">
         <v>65</v>
       </c>
       <c r="O25" t="str">
-        <v>SB 382</v>
+        <v>NH 64</v>
       </c>
       <c r="P25" t="str">
         <v>Intro to Computing</v>
@@ -3311,10 +3305,10 @@
         <v>Eric Araujo</v>
       </c>
       <c r="I42" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K42" t="str">
         <v/>
@@ -3382,25 +3376,25 @@
         <v>Eric Araujo</v>
       </c>
       <c r="I43" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J43" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K43" t="str">
         <v/>
       </c>
       <c r="L43" t="str">
-        <v>F</v>
+        <v>MW</v>
       </c>
       <c r="M43" t="str">
-        <v>14:45:00</v>
+        <v>16:00:00</v>
       </c>
       <c r="N43">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="O43" t="str">
-        <v>SB 372, SB 372</v>
+        <v>SB 372</v>
       </c>
       <c r="P43" t="str">
         <v>Programming Lang Concepts</v>
@@ -3444,37 +3438,37 @@
         <v>CS</v>
       </c>
       <c r="F44" t="str">
-        <v>232</v>
+        <v>214L</v>
       </c>
       <c r="G44" t="str">
         <v>A</v>
       </c>
       <c r="H44" t="str">
-        <v>Rocky Chang</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I44" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K44" t="str">
         <v/>
       </c>
       <c r="L44" t="str">
-        <v>MWF</v>
+        <v>F</v>
       </c>
       <c r="M44" t="str">
-        <v>08:00:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N44">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="O44" t="str">
-        <v>SB 372</v>
+        <v>SB 354</v>
       </c>
       <c r="P44" t="str">
-        <v>Operating Systems and Networki</v>
+        <v>Programming Lang Concepts Lab</v>
       </c>
       <c r="Q44" t="str">
         <v/>
@@ -3515,37 +3509,37 @@
         <v>CS</v>
       </c>
       <c r="F45" t="str">
-        <v>232</v>
+        <v>214L</v>
       </c>
       <c r="G45" t="str">
         <v>B</v>
       </c>
       <c r="H45" t="str">
-        <v>Rocky Chang</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I45" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J45" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K45" t="str">
         <v/>
       </c>
       <c r="L45" t="str">
-        <v>MWF</v>
+        <v>F</v>
       </c>
       <c r="M45" t="str">
-        <v>09:15:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N45">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="O45" t="str">
-        <v>SB 372</v>
+        <v>SB 337</v>
       </c>
       <c r="P45" t="str">
-        <v>Operating Systems and Networki</v>
+        <v>Programming Lang Concepts Lab</v>
       </c>
       <c r="Q45" t="str">
         <v/>
@@ -3577,7 +3571,7 @@
         <v/>
       </c>
       <c r="C46" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D46" t="str">
         <v>Full</v>
@@ -3586,13 +3580,13 @@
         <v>CS</v>
       </c>
       <c r="F46" t="str">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G46" t="str">
         <v>A</v>
       </c>
       <c r="H46" t="str">
-        <v>Victor T. Norman</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I46" t="str">
         <v>4</v>
@@ -3604,19 +3598,19 @@
         <v/>
       </c>
       <c r="L46" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="M46" t="str">
-        <v>13:30:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N46">
         <v>65</v>
       </c>
       <c r="O46" t="str">
-        <v>SC 120, SB 354</v>
+        <v>SB 372</v>
       </c>
       <c r="P46" t="str">
-        <v>Software Engineering</v>
+        <v>Operating Systems and Networki</v>
       </c>
       <c r="Q46" t="str">
         <v/>
@@ -3648,7 +3642,7 @@
         <v/>
       </c>
       <c r="C47" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D47" t="str">
         <v>Full</v>
@@ -3657,13 +3651,13 @@
         <v>CS</v>
       </c>
       <c r="F47" t="str">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G47" t="str">
         <v>B</v>
       </c>
       <c r="H47" t="str">
-        <v>Victor T. Norman</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="I47" t="str">
         <v>4</v>
@@ -3675,19 +3669,19 @@
         <v/>
       </c>
       <c r="L47" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="M47" t="str">
-        <v>14:45:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N47">
         <v>65</v>
       </c>
       <c r="O47" t="str">
-        <v>SC 120, SB 337</v>
+        <v>SB 372</v>
       </c>
       <c r="P47" t="str">
-        <v>Software Engineering</v>
+        <v>Operating Systems and Networki</v>
       </c>
       <c r="Q47" t="str">
         <v/>
@@ -3728,7 +3722,7 @@
         <v>CS</v>
       </c>
       <c r="F48" t="str">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="G48" t="str">
         <v>A</v>
@@ -3737,28 +3731,28 @@
         <v>Victor T. Norman</v>
       </c>
       <c r="I48" t="str">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="J48" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K48" t="str">
         <v/>
       </c>
       <c r="L48" t="str">
-        <v>T</v>
+        <v>MW</v>
       </c>
       <c r="M48" t="str">
-        <v>15:05:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N48">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O48" t="str">
-        <v>SB 10</v>
+        <v>SC 120, SB 354</v>
       </c>
       <c r="P48" t="str">
-        <v>Computing Seminar</v>
+        <v>Software Engineering</v>
       </c>
       <c r="Q48" t="str">
         <v/>
@@ -3790,7 +3784,7 @@
         <v/>
       </c>
       <c r="C49" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D49" t="str">
         <v>Full</v>
@@ -3799,37 +3793,37 @@
         <v>CS</v>
       </c>
       <c r="F49" t="str">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="G49" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H49" t="str">
         <v>Victor T. Norman</v>
       </c>
       <c r="I49" t="str">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="J49" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K49" t="str">
         <v/>
       </c>
       <c r="L49" t="str">
-        <v>T</v>
+        <v>MW</v>
       </c>
       <c r="M49" t="str">
-        <v>15:05:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N49">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O49" t="str">
-        <v>SB 10</v>
+        <v>SC 120, SB 337</v>
       </c>
       <c r="P49" t="str">
-        <v>Computing Seminar</v>
+        <v>Software Engineering</v>
       </c>
       <c r="Q49" t="str">
         <v/>
@@ -3864,55 +3858,55 @@
         <v>FA</v>
       </c>
       <c r="D50" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E50" t="str">
         <v>CS</v>
       </c>
       <c r="F50" t="str">
-        <v>300</v>
+        <v>262L</v>
       </c>
       <c r="G50" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H50" t="str">
-        <v>Staff</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I50" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50" t="str">
         <v/>
       </c>
       <c r="L50" t="str">
-        <v>MWF</v>
+        <v>F</v>
       </c>
       <c r="M50" t="str">
-        <v>11:00:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N50">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="O50" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="P50" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Software Engineering Lab</v>
       </c>
       <c r="Q50" t="str">
         <v/>
       </c>
       <c r="R50" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S50" t="str">
         <v/>
       </c>
       <c r="T50" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="U50" t="str">
         <v/>
@@ -3932,7 +3926,7 @@
         <v/>
       </c>
       <c r="C51" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D51" t="str">
         <v>Full</v>
@@ -3941,43 +3935,43 @@
         <v>CS</v>
       </c>
       <c r="F51" t="str">
-        <v>300</v>
+        <v>262L</v>
       </c>
       <c r="G51" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H51" t="str">
-        <v>Staff</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I51" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J51" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K51" t="str">
         <v/>
       </c>
       <c r="L51" t="str">
-        <v>MWF</v>
+        <v>F</v>
       </c>
       <c r="M51" t="str">
-        <v>12:15:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N51">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="O51" t="str">
-        <v>SB 382</v>
+        <v>SC 120, SB 337</v>
       </c>
       <c r="P51" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Software Engineering Lab</v>
       </c>
       <c r="Q51" t="str">
         <v/>
       </c>
       <c r="R51" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S51" t="str">
         <v/>
@@ -4012,7 +4006,7 @@
         <v>CS</v>
       </c>
       <c r="F52" t="str">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="G52" t="str">
         <v>A</v>
@@ -4021,34 +4015,34 @@
         <v>Victor T. Norman</v>
       </c>
       <c r="I52" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J52" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K52" t="str">
         <v/>
       </c>
       <c r="L52" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="M52" t="str">
-        <v>09:15:00</v>
+        <v>15:05:00</v>
       </c>
       <c r="N52">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O52" t="str">
-        <v>HH 336</v>
+        <v>SB 10</v>
       </c>
       <c r="P52" t="str">
-        <v>Web Development</v>
+        <v>Computing Seminar</v>
       </c>
       <c r="Q52" t="str">
         <v/>
       </c>
       <c r="R52" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S52" t="str">
         <v/>
@@ -4077,49 +4071,49 @@
         <v>SP</v>
       </c>
       <c r="D53" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E53" t="str">
         <v>CS</v>
       </c>
       <c r="F53" t="str">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="G53" t="str">
         <v>A</v>
       </c>
       <c r="H53" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I53" t="str">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J53" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53" t="str">
         <v/>
       </c>
       <c r="L53" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="M53" t="str">
-        <v>08:00:00</v>
+        <v>15:05:00</v>
       </c>
       <c r="N53">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O53" t="str">
-        <v>SB 382</v>
+        <v>SB 10</v>
       </c>
       <c r="P53" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Computing Seminar</v>
       </c>
       <c r="Q53" t="str">
         <v/>
       </c>
       <c r="R53" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S53" t="str">
         <v/>
@@ -4145,7 +4139,7 @@
         <v/>
       </c>
       <c r="C54" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D54" t="str">
         <v>Second</v>
@@ -4154,13 +4148,13 @@
         <v>CS</v>
       </c>
       <c r="F54" t="str">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="G54" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H54" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Staff</v>
       </c>
       <c r="I54" t="str">
         <v>2</v>
@@ -4175,7 +4169,7 @@
         <v>MWF</v>
       </c>
       <c r="M54" t="str">
-        <v>08:00:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N54">
         <v>65</v>
@@ -4184,7 +4178,7 @@
         <v>SB 382</v>
       </c>
       <c r="P54" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="Q54" t="str">
         <v/>
@@ -4196,7 +4190,7 @@
         <v/>
       </c>
       <c r="T54" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="U54" t="str">
         <v/>
@@ -4219,25 +4213,25 @@
         <v>SP</v>
       </c>
       <c r="D55" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E55" t="str">
         <v>CS</v>
       </c>
       <c r="F55" t="str">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="G55" t="str">
         <v>A</v>
       </c>
       <c r="H55" t="str">
-        <v>Eric Araujo</v>
+        <v>Staff</v>
       </c>
       <c r="I55" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J55" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K55" t="str">
         <v/>
@@ -4246,7 +4240,7 @@
         <v>MWF</v>
       </c>
       <c r="M55" t="str">
-        <v>09:15:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N55">
         <v>65</v>
@@ -4255,7 +4249,7 @@
         <v>SB 382</v>
       </c>
       <c r="P55" t="str">
-        <v>Database Management Systems</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="Q55" t="str">
         <v/>
@@ -4287,28 +4281,28 @@
         <v/>
       </c>
       <c r="C56" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D56" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E56" t="str">
         <v>CS</v>
       </c>
       <c r="F56" t="str">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="G56" t="str">
         <v>A</v>
       </c>
       <c r="H56" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="I56" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J56" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K56" t="str">
         <v/>
@@ -4317,16 +4311,16 @@
         <v>MWF</v>
       </c>
       <c r="M56" t="str">
-        <v>11:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N56">
         <v>65</v>
       </c>
       <c r="O56" t="str">
-        <v>SB 382</v>
+        <v>HH 336</v>
       </c>
       <c r="P56" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Web Development</v>
       </c>
       <c r="Q56" t="str">
         <v/>
@@ -4361,19 +4355,19 @@
         <v>SP</v>
       </c>
       <c r="D57" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E57" t="str">
         <v>CS</v>
       </c>
       <c r="F57" t="str">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="G57" t="str">
         <v>A</v>
       </c>
       <c r="H57" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="I57" t="str">
         <v>2</v>
@@ -4388,7 +4382,7 @@
         <v>MWF</v>
       </c>
       <c r="M57" t="str">
-        <v>11:00:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N57">
         <v>65</v>
@@ -4397,7 +4391,7 @@
         <v>SB 382</v>
       </c>
       <c r="P57" t="str">
-        <v>Machine Learning</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="Q57" t="str">
         <v/>
@@ -4429,46 +4423,46 @@
         <v/>
       </c>
       <c r="C58" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D58" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E58" t="str">
         <v>CS</v>
       </c>
       <c r="F58" t="str">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="G58" t="str">
         <v>A</v>
       </c>
       <c r="H58" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="I58" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" t="str">
         <v/>
       </c>
       <c r="L58" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="M58" t="str">
-        <v>19:00:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N58">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O58" t="str">
         <v>SB 382</v>
       </c>
       <c r="P58" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="Q58" t="str">
         <v/>
@@ -4503,43 +4497,43 @@
         <v>SP</v>
       </c>
       <c r="D59" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E59" t="str">
         <v>CS</v>
       </c>
       <c r="F59" t="str">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="G59" t="str">
         <v>A</v>
       </c>
       <c r="H59" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I59" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" t="str">
         <v/>
       </c>
       <c r="L59" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="M59" t="str">
-        <v>19:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N59">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O59" t="str">
         <v>SB 382</v>
       </c>
       <c r="P59" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>Database Management Systems</v>
       </c>
       <c r="Q59" t="str">
         <v/>
@@ -4574,43 +4568,43 @@
         <v>SP</v>
       </c>
       <c r="D60" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E60" t="str">
         <v>CS</v>
       </c>
       <c r="F60" t="str">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G60" t="str">
         <v>A</v>
       </c>
       <c r="H60" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I60" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J60" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K60" t="str">
         <v/>
       </c>
       <c r="L60" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="M60" t="str">
-        <v>10:20:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N60">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O60" t="str">
-        <v>SC 203</v>
+        <v>SB 382</v>
       </c>
       <c r="P60" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="Q60" t="str">
         <v/>
@@ -4645,43 +4639,43 @@
         <v>SP</v>
       </c>
       <c r="D61" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E61" t="str">
         <v>CS</v>
       </c>
       <c r="F61" t="str">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G61" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H61" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I61" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J61" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K61" t="str">
         <v/>
       </c>
       <c r="L61" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="M61" t="str">
-        <v>12:15:00</v>
+        <v>11:00:00</v>
       </c>
       <c r="N61">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O61" t="str">
-        <v>SC 203</v>
+        <v>SB 382</v>
       </c>
       <c r="P61" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Machine Learning</v>
       </c>
       <c r="Q61" t="str">
         <v/>
@@ -4716,49 +4710,49 @@
         <v>FA</v>
       </c>
       <c r="D62" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E62" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F62" t="str">
-        <v>102</v>
+        <v>383</v>
       </c>
       <c r="G62" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H62" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I62" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" t="str">
         <v/>
       </c>
       <c r="L62" t="str">
-        <v>TR</v>
+        <v>R</v>
       </c>
       <c r="M62" t="str">
-        <v>12:15:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N62">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O62" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="P62" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="Q62" t="str">
         <v/>
       </c>
       <c r="R62" t="str">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S62" t="str">
         <v/>
@@ -4784,52 +4778,52 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D63" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E63" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F63" t="str">
-        <v>102</v>
+        <v>383</v>
       </c>
       <c r="G63" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="H63" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I63" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63" t="str">
         <v/>
       </c>
       <c r="L63" t="str">
-        <v>TR</v>
+        <v>R</v>
       </c>
       <c r="M63" t="str">
-        <v>14:10:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N63">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O63" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="P63" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="Q63" t="str">
         <v/>
       </c>
       <c r="R63" t="str">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S63" t="str">
         <v/>
@@ -4855,28 +4849,28 @@
         <v/>
       </c>
       <c r="C64" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D64" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E64" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F64" t="str">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="G64" t="str">
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="H64" t="str">
-        <v>Jim Momeyer</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I64" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J64" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K64" t="str">
         <v/>
@@ -4885,22 +4879,22 @@
         <v>TR</v>
       </c>
       <c r="M64" t="str">
-        <v>19:00:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N64">
         <v>100</v>
       </c>
       <c r="O64" t="str">
-        <v>SB 354</v>
+        <v>SC 203</v>
       </c>
       <c r="P64" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="Q64" t="str">
         <v/>
       </c>
       <c r="R64" t="str">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S64" t="str">
         <v/>
@@ -4929,25 +4923,25 @@
         <v>SP</v>
       </c>
       <c r="D65" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E65" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F65" t="str">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="G65" t="str">
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="H65" t="str">
-        <v>Jim Momeyer</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I65" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J65" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K65" t="str">
         <v/>
@@ -4956,22 +4950,22 @@
         <v>TR</v>
       </c>
       <c r="M65" t="str">
-        <v>19:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N65">
         <v>100</v>
       </c>
       <c r="O65" t="str">
-        <v>SB 354</v>
+        <v>SC 203</v>
       </c>
       <c r="P65" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="Q65" t="str">
         <v/>
       </c>
       <c r="R65" t="str">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S65" t="str">
         <v/>
@@ -5000,7 +4994,7 @@
         <v>FA</v>
       </c>
       <c r="D66" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E66" t="str">
         <v>DATA</v>
@@ -5009,7 +5003,7 @@
         <v>102</v>
       </c>
       <c r="G66" t="str">
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="H66" t="str">
         <v>Cancelled-DATA</v>
@@ -5068,10 +5062,10 @@
         <v/>
       </c>
       <c r="C67" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D67" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E67" t="str">
         <v>DATA</v>
@@ -5080,7 +5074,7 @@
         <v>102</v>
       </c>
       <c r="G67" t="str">
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="H67" t="str">
         <v>Cancelled-DATA</v>
@@ -5098,7 +5092,7 @@
         <v>TR</v>
       </c>
       <c r="M67" t="str">
-        <v>12:15:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N67">
         <v>100</v>
@@ -5142,7 +5136,7 @@
         <v>FA</v>
       </c>
       <c r="D68" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E68" t="str">
         <v>DATA</v>
@@ -5151,10 +5145,10 @@
         <v>102</v>
       </c>
       <c r="G68" t="str">
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="H68" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I68" t="str">
         <v>2</v>
@@ -5169,7 +5163,7 @@
         <v>TR</v>
       </c>
       <c r="M68" t="str">
-        <v>14:10:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N68">
         <v>100</v>
@@ -5213,7 +5207,7 @@
         <v>SP</v>
       </c>
       <c r="D69" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="E69" t="str">
         <v>DATA</v>
@@ -5222,10 +5216,10 @@
         <v>102</v>
       </c>
       <c r="G69" t="str">
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="H69" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I69" t="str">
         <v>2</v>
@@ -5240,7 +5234,7 @@
         <v>TR</v>
       </c>
       <c r="M69" t="str">
-        <v>14:10:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N69">
         <v>100</v>
@@ -5293,10 +5287,10 @@
         <v>102</v>
       </c>
       <c r="G70" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="H70" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I70" t="str">
         <v>2</v>
@@ -5311,7 +5305,7 @@
         <v>TR</v>
       </c>
       <c r="M70" t="str">
-        <v>19:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N70">
         <v>100</v>
@@ -5364,10 +5358,10 @@
         <v>102</v>
       </c>
       <c r="G71" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="H71" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I71" t="str">
         <v>2</v>
@@ -5382,7 +5376,7 @@
         <v>TR</v>
       </c>
       <c r="M71" t="str">
-        <v>19:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N71">
         <v>100</v>
@@ -5435,10 +5429,10 @@
         <v>102</v>
       </c>
       <c r="G72" t="str">
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="H72" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I72" t="str">
         <v>2</v>
@@ -5453,7 +5447,7 @@
         <v>TR</v>
       </c>
       <c r="M72" t="str">
-        <v>08:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N72">
         <v>100</v>
@@ -5494,10 +5488,10 @@
         <v/>
       </c>
       <c r="C73" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D73" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E73" t="str">
         <v>DATA</v>
@@ -5506,10 +5500,10 @@
         <v>102</v>
       </c>
       <c r="G73" t="str">
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="H73" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="I73" t="str">
         <v>2</v>
@@ -5524,7 +5518,7 @@
         <v>TR</v>
       </c>
       <c r="M73" t="str">
-        <v>08:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N73">
         <v>100</v>
@@ -5557,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" xml:space="preserve">
+    <row r="74">
       <c r="A74" t="str">
         <v>Computer Science</v>
       </c>
@@ -5565,10 +5559,10 @@
         <v/>
       </c>
       <c r="C74" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D74" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E74" t="str">
         <v>DATA</v>
@@ -5577,7 +5571,7 @@
         <v>102</v>
       </c>
       <c r="G74" t="str">
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="H74" t="str">
         <v>Jim Momeyer</v>
@@ -5595,7 +5589,7 @@
         <v>TR</v>
       </c>
       <c r="M74" t="str">
-        <v>08:00:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N74">
         <v>100</v>
@@ -5618,9 +5612,8 @@
       <c r="T74" t="str">
         <v/>
       </c>
-      <c r="U74" t="str" xml:space="preserve">
-        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
-Set as on-hold? we may not have the enrollment.</v>
+      <c r="U74" t="str">
+        <v/>
       </c>
       <c r="V74">
         <v>0</v>
@@ -5629,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" xml:space="preserve">
+    <row r="75">
       <c r="A75" t="str">
         <v>Computer Science</v>
       </c>
@@ -5649,7 +5642,7 @@
         <v>102</v>
       </c>
       <c r="G75" t="str">
-        <v>E</v>
+        <v>H</v>
       </c>
       <c r="H75" t="str">
         <v>Jim Momeyer</v>
@@ -5667,7 +5660,7 @@
         <v>TR</v>
       </c>
       <c r="M75" t="str">
-        <v>08:00:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N75">
         <v>100</v>
@@ -5690,9 +5683,8 @@
       <c r="T75" t="str">
         <v/>
       </c>
-      <c r="U75" t="str" xml:space="preserve">
-        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
-Set as on-hold? we may not have the enrollment.</v>
+      <c r="U75" t="str">
+        <v/>
       </c>
       <c r="V75">
         <v>0</v>
@@ -5709,10 +5701,10 @@
         <v/>
       </c>
       <c r="C76" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D76" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="E76" t="str">
         <v>DATA</v>
@@ -5721,10 +5713,10 @@
         <v>102</v>
       </c>
       <c r="G76" t="str">
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="H76" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I76" t="str">
         <v>2</v>
@@ -5739,7 +5731,7 @@
         <v>TR</v>
       </c>
       <c r="M76" t="str">
-        <v>12:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N76">
         <v>100</v>
@@ -5780,7 +5772,7 @@
         <v/>
       </c>
       <c r="C77" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D77" t="str">
         <v>First</v>
@@ -5792,10 +5784,10 @@
         <v>102</v>
       </c>
       <c r="G77" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="H77" t="str">
-        <v>Staff</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I77" t="str">
         <v>2</v>
@@ -5810,7 +5802,7 @@
         <v>TR</v>
       </c>
       <c r="M77" t="str">
-        <v>14:10:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N77">
         <v>100</v>
@@ -5851,52 +5843,52 @@
         <v/>
       </c>
       <c r="C78" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D78" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E78" t="str">
         <v>DATA</v>
       </c>
       <c r="F78" t="str">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="G78" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H78" t="str">
         <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I78" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J78" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K78" t="str">
         <v/>
       </c>
       <c r="L78" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M78" t="str">
-        <v>08:00:00</v>
+        <v>12:15:00</v>
       </c>
       <c r="N78">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O78" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="P78" t="str">
-        <v>Predictive Analytics</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="Q78" t="str">
         <v/>
       </c>
       <c r="R78" t="str">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S78" t="str">
         <v/>
@@ -5922,52 +5914,52 @@
         <v/>
       </c>
       <c r="C79" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D79" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E79" t="str">
         <v>DATA</v>
       </c>
       <c r="F79" t="str">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="G79" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="H79" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Staff</v>
       </c>
       <c r="I79" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J79" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K79" t="str">
         <v/>
       </c>
       <c r="L79" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M79" t="str">
-        <v>09:15:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N79">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O79" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="P79" t="str">
-        <v>Predictive Analytics</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="Q79" t="str">
         <v/>
       </c>
       <c r="R79" t="str">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S79" t="str">
         <v/>
@@ -5985,60 +5977,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" xml:space="preserve">
       <c r="A80" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B80" t="str">
         <v/>
       </c>
       <c r="C80" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D80" t="str">
         <v>First</v>
       </c>
       <c r="E80" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F80" t="str">
-        <v>300-S</v>
+        <v>102</v>
       </c>
       <c r="G80" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="H80" t="str">
-        <v>Shadow-Gold</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I80" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K80" t="str">
         <v/>
       </c>
       <c r="L80" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M80" t="str">
-        <v>11:00:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N80">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O80" t="str">
         <v>SB 354</v>
       </c>
       <c r="P80" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="Q80" t="str">
         <v/>
       </c>
       <c r="R80" t="str">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S80" t="str">
         <v/>
@@ -6046,8 +6038,9 @@
       <c r="T80" t="str">
         <v/>
       </c>
-      <c r="U80" t="str">
-        <v/>
+      <c r="U80" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Set as on-hold? we may not have the enrollment.</v>
       </c>
       <c r="V80">
         <v>0</v>
@@ -6056,9 +6049,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" xml:space="preserve">
       <c r="A81" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B81" t="str">
         <v/>
@@ -6067,49 +6060,49 @@
         <v>SP</v>
       </c>
       <c r="D81" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E81" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F81" t="str">
-        <v>300-S</v>
+        <v>102</v>
       </c>
       <c r="G81" t="str">
-        <v>A-S</v>
+        <v>E</v>
       </c>
       <c r="H81" t="str">
-        <v>Shadow-Gold</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="I81" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K81" t="str">
         <v/>
       </c>
       <c r="L81" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M81" t="str">
-        <v>12:15:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N81">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O81" t="str">
         <v>SB 354</v>
       </c>
       <c r="P81" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="Q81" t="str">
         <v/>
       </c>
       <c r="R81" t="str">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S81" t="str">
         <v/>
@@ -6117,8 +6110,9 @@
       <c r="T81" t="str">
         <v/>
       </c>
-      <c r="U81" t="str">
-        <v/>
+      <c r="U81" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Set as on-hold? we may not have the enrollment.</v>
       </c>
       <c r="V81">
         <v>0</v>
@@ -6129,7 +6123,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B82" t="str">
         <v/>
@@ -6138,25 +6132,25 @@
         <v>FA</v>
       </c>
       <c r="D82" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E82" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F82" t="str">
-        <v>300-S</v>
+        <v>202</v>
       </c>
       <c r="G82" t="str">
-        <v>B-S</v>
+        <v>A</v>
       </c>
       <c r="H82" t="str">
-        <v>Shadow-Gold</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I82" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J82" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K82" t="str">
         <v/>
@@ -6165,22 +6159,22 @@
         <v>MWF</v>
       </c>
       <c r="M82" t="str">
-        <v>11:00:00</v>
+        <v>08:00:00</v>
       </c>
       <c r="N82">
         <v>65</v>
       </c>
       <c r="O82" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="P82" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q82" t="str">
         <v/>
       </c>
       <c r="R82" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S82" t="str">
         <v/>
@@ -6200,34 +6194,34 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B83" t="str">
         <v/>
       </c>
       <c r="C83" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D83" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E83" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F83" t="str">
-        <v>338-S</v>
+        <v>202</v>
       </c>
       <c r="G83" t="str">
-        <v>A-S</v>
+        <v>B</v>
       </c>
       <c r="H83" t="str">
-        <v>Shadow-Gold</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="I83" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J83" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K83" t="str">
         <v/>
@@ -6236,22 +6230,22 @@
         <v>MWF</v>
       </c>
       <c r="M83" t="str">
-        <v>08:00:00</v>
+        <v>09:15:00</v>
       </c>
       <c r="N83">
         <v>65</v>
       </c>
       <c r="O83" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="P83" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="Q83" t="str">
         <v/>
       </c>
       <c r="R83" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S83" t="str">
         <v/>
@@ -6271,58 +6265,58 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B84" t="str">
         <v/>
       </c>
       <c r="C84" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D84" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E84" t="str">
-        <v>CS</v>
+        <v>HNRS</v>
       </c>
       <c r="F84" t="str">
-        <v>339-S</v>
+        <v>251</v>
       </c>
       <c r="G84" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="H84" t="str">
-        <v>Shadow-Gold</v>
+        <v>Staff</v>
       </c>
       <c r="I84" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K84" t="str">
         <v/>
       </c>
       <c r="L84" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M84" t="str">
-        <v>08:00:00</v>
+        <v>14:10:00</v>
       </c>
       <c r="N84">
         <v>65</v>
       </c>
       <c r="O84" t="str">
-        <v>SB 354</v>
+        <v>HL 406C</v>
       </c>
       <c r="P84" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>Agent Modeling</v>
       </c>
       <c r="Q84" t="str">
         <v/>
       </c>
       <c r="R84" t="str">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S84" t="str">
         <v/>
@@ -6342,7 +6336,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B85" t="str">
         <v/>
@@ -6351,22 +6345,22 @@
         <v>FA</v>
       </c>
       <c r="D85" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E85" t="str">
         <v>CS</v>
       </c>
       <c r="F85" t="str">
-        <v>374-S</v>
+        <v>396</v>
       </c>
       <c r="G85" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="H85" t="str">
-        <v>Shadow-Gold</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I85" t="str">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J85" t="str">
         <v>2</v>
@@ -6375,19 +6369,19 @@
         <v/>
       </c>
       <c r="L85" t="str">
-        <v>MW</v>
+        <v>T</v>
       </c>
       <c r="M85" t="str">
-        <v>14:45:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N85">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O85" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="P85" t="str">
-        <v>High-Performance Computing</v>
+        <v>Senior Project in Computing I</v>
       </c>
       <c r="Q85" t="str">
         <v/>
@@ -6413,7 +6407,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B86" t="str">
         <v/>
@@ -6422,43 +6416,43 @@
         <v>SP</v>
       </c>
       <c r="D86" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="E86" t="str">
         <v>CS</v>
       </c>
       <c r="F86" t="str">
-        <v>375-S</v>
+        <v>398</v>
       </c>
       <c r="G86" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="H86" t="str">
-        <v>Shadow-Gold</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I86" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J86" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K86" t="str">
         <v/>
       </c>
       <c r="L86" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="M86" t="str">
-        <v>11:00:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N86">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O86" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="P86" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Senior Project in Computing II</v>
       </c>
       <c r="Q86" t="str">
         <v/>
@@ -6484,52 +6478,52 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B87" t="str">
         <v/>
       </c>
       <c r="C87" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D87" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="E87" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="F87" t="str">
-        <v>376-S</v>
+        <v>396</v>
       </c>
       <c r="G87" t="str">
-        <v>B-S</v>
+        <v>A</v>
       </c>
       <c r="H87" t="str">
-        <v>Shadow-Gold</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I87" t="str">
         <v>0</v>
       </c>
       <c r="J87" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87" t="str">
         <v/>
       </c>
       <c r="L87" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="M87" t="str">
-        <v>11:00:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N87">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O87" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="P87" t="str">
-        <v>Machine Learning</v>
+        <v>Senior Project in Data Science</v>
       </c>
       <c r="Q87" t="str">
         <v/>
@@ -6555,13 +6549,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B88" t="str">
         <v/>
       </c>
       <c r="C88" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D88" t="str">
         <v>Full</v>
@@ -6570,43 +6564,43 @@
         <v>DATA</v>
       </c>
       <c r="F88" t="str">
-        <v>202-S</v>
+        <v>398</v>
       </c>
       <c r="G88" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="H88" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="I88" t="str">
         <v>0</v>
       </c>
       <c r="J88" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K88" t="str">
         <v/>
       </c>
       <c r="L88" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="M88" t="str">
-        <v>08:00:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N88">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O88" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="P88" t="str">
-        <v>Predictive Analytics</v>
+        <v>Senior Project in Data Science II</v>
       </c>
       <c r="Q88" t="str">
         <v/>
       </c>
       <c r="R88" t="str">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S88" t="str">
         <v/>
@@ -6626,34 +6620,34 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Shadow</v>
+        <v>Computer Science</v>
       </c>
       <c r="B89" t="str">
         <v/>
       </c>
       <c r="C89" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="D89" t="str">
         <v>Full</v>
       </c>
       <c r="E89" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F89" t="str">
-        <v>202-S</v>
+        <v>326</v>
       </c>
       <c r="G89" t="str">
-        <v>B-S</v>
+        <v>A</v>
       </c>
       <c r="H89" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="I89" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J89" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K89" t="str">
         <v/>
@@ -6662,28 +6656,28 @@
         <v>MWF</v>
       </c>
       <c r="M89" t="str">
-        <v>09:15:00</v>
+        <v>13:30:00</v>
       </c>
       <c r="N89">
         <v>65</v>
       </c>
       <c r="O89" t="str">
-        <v>SB 354</v>
+        <v>SB 301</v>
       </c>
       <c r="P89" t="str">
-        <v>Predictive Analytics</v>
+        <v>Embedded Systems and the Internet of Things</v>
       </c>
       <c r="Q89" t="str">
         <v/>
       </c>
       <c r="R89" t="str">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S89" t="str">
         <v/>
       </c>
       <c r="T89" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="U89" t="str">
         <v/>
@@ -6706,19 +6700,19 @@
         <v>FA</v>
       </c>
       <c r="D90" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="E90" t="str">
-        <v>HNRS</v>
+        <v>CS</v>
       </c>
       <c r="F90" t="str">
-        <v>251</v>
+        <v>360</v>
       </c>
       <c r="G90" t="str">
         <v>A</v>
       </c>
       <c r="H90" t="str">
-        <v>Staff</v>
+        <v>Brian D Paige</v>
       </c>
       <c r="I90" t="str">
         <v>2</v>
@@ -6730,25 +6724,25 @@
         <v/>
       </c>
       <c r="L90" t="str">
-        <v>TR</v>
+        <v>MR</v>
       </c>
       <c r="M90" t="str">
-        <v>14:10:00</v>
+        <v>19:00:00</v>
       </c>
       <c r="N90">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O90" t="str">
-        <v>HL 406C</v>
+        <v>SB 372</v>
       </c>
       <c r="P90" t="str">
-        <v>Agent Modeling</v>
+        <v>Fundamentals of Cybersecurity</v>
       </c>
       <c r="Q90" t="str">
         <v/>
       </c>
       <c r="R90" t="str">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S90" t="str">
         <v/>
@@ -6777,22 +6771,22 @@
         <v>FA</v>
       </c>
       <c r="D91" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="E91" t="str">
         <v>CS</v>
       </c>
       <c r="F91" t="str">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="G91" t="str">
         <v>A</v>
       </c>
       <c r="H91" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Brian D Paige</v>
       </c>
       <c r="I91" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J91" t="str">
         <v>2</v>
@@ -6801,19 +6795,19 @@
         <v/>
       </c>
       <c r="L91" t="str">
-        <v>T</v>
+        <v>MR</v>
       </c>
       <c r="M91" t="str">
         <v>19:00:00</v>
       </c>
       <c r="N91">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O91" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="P91" t="str">
-        <v>Senior Project in Computing I</v>
+        <v>Fundamentals of Cyber Defense</v>
       </c>
       <c r="Q91" t="str">
         <v/>
@@ -6845,7 +6839,7 @@
         <v/>
       </c>
       <c r="C92" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D92" t="str">
         <v>Full</v>
@@ -6854,43 +6848,43 @@
         <v>CS</v>
       </c>
       <c r="F92" t="str">
-        <v>398</v>
+        <v>106</v>
       </c>
       <c r="G92" t="str">
         <v>A</v>
       </c>
       <c r="H92" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Staff</v>
       </c>
       <c r="I92" t="str">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="J92" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K92" t="str">
         <v/>
       </c>
       <c r="L92" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="M92" t="str">
-        <v>19:00:00</v>
+        <v>14:45:00</v>
       </c>
       <c r="N92">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O92" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P92" t="str">
-        <v>Senior Project in Computing II</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="Q92" t="str">
         <v/>
       </c>
       <c r="R92" t="str">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S92" t="str">
         <v/>
@@ -6922,46 +6916,46 @@
         <v>Full</v>
       </c>
       <c r="E93" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="F93" t="str">
-        <v>396</v>
+        <v>106L</v>
       </c>
       <c r="G93" t="str">
         <v>A</v>
       </c>
       <c r="H93" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Staff</v>
       </c>
       <c r="I93" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93" t="str">
         <v/>
       </c>
       <c r="L93" t="str">
-        <v>T</v>
+        <v>R</v>
       </c>
       <c r="M93" t="str">
-        <v>19:00:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N93">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O93" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="P93" t="str">
-        <v>Senior Project in Data Science</v>
+        <v>Intro to Computing Lab</v>
       </c>
       <c r="Q93" t="str">
         <v/>
       </c>
       <c r="R93" t="str">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S93" t="str">
         <v/>
@@ -6981,58 +6975,55 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Computer Science</v>
+        <v/>
       </c>
       <c r="B94" t="str">
         <v/>
       </c>
-      <c r="C94" t="str">
-        <v>SP</v>
-      </c>
       <c r="D94" t="str">
-        <v>Full</v>
+        <v/>
       </c>
       <c r="E94" t="str">
-        <v>DATA</v>
+        <v/>
       </c>
       <c r="F94" t="str">
-        <v>398</v>
+        <v/>
       </c>
       <c r="G94" t="str">
-        <v>A</v>
+        <v/>
       </c>
       <c r="H94" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="I94" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J94" t="str">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K94" t="str">
         <v/>
       </c>
       <c r="L94" t="str">
-        <v>T</v>
+        <v/>
       </c>
       <c r="M94" t="str">
-        <v>19:00:00</v>
-      </c>
-      <c r="N94">
-        <v>50</v>
+        <v/>
+      </c>
+      <c r="N94" t="str">
+        <v/>
       </c>
       <c r="O94" t="str">
-        <v>SB 382</v>
+        <v/>
       </c>
       <c r="P94" t="str">
-        <v>Senior Project in Data Science II</v>
+        <v/>
       </c>
       <c r="Q94" t="str">
-        <v/>
+        <v>CRF</v>
       </c>
       <c r="R94" t="str">
-        <v>300</v>
+        <v/>
       </c>
       <c r="S94" t="str">
         <v/>
@@ -7058,7 +7049,7 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="D95" t="str">
         <v>Full</v>
@@ -7067,13 +7058,13 @@
         <v>CS</v>
       </c>
       <c r="F95" t="str">
-        <v>326</v>
+        <v>100</v>
       </c>
       <c r="G95" t="str">
         <v>A</v>
       </c>
       <c r="H95" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Dave Meyer</v>
       </c>
       <c r="I95" t="str">
         <v>4</v>
@@ -7085,31 +7076,31 @@
         <v/>
       </c>
       <c r="L95" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="M95" t="str">
-        <v>13:30:00</v>
+        <v>10:20:00</v>
       </c>
       <c r="N95">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O95" t="str">
-        <v>SB 301</v>
+        <v>SB 354</v>
       </c>
       <c r="P95" t="str">
-        <v>Embedded Systems and the Internet of Things</v>
+        <v>Creating Interactive Web Media</v>
       </c>
       <c r="Q95" t="str">
-        <v/>
+        <v>LEC</v>
       </c>
       <c r="R95" t="str">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S95" t="str">
         <v/>
       </c>
       <c r="T95" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="U95" t="str">
         <v/>
@@ -7118,374 +7109,19 @@
         <v>0</v>
       </c>
       <c r="W95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>Computer Science</v>
-      </c>
-      <c r="B96" t="str">
-        <v/>
-      </c>
-      <c r="C96" t="str">
-        <v>FA</v>
-      </c>
-      <c r="D96" t="str">
-        <v>First</v>
-      </c>
-      <c r="E96" t="str">
-        <v>CS</v>
-      </c>
-      <c r="F96" t="str">
-        <v>360</v>
-      </c>
-      <c r="G96" t="str">
-        <v>A</v>
-      </c>
-      <c r="H96" t="str">
-        <v>Brian D Paige</v>
-      </c>
-      <c r="I96" t="str">
-        <v>2</v>
-      </c>
-      <c r="J96" t="str">
-        <v>2</v>
-      </c>
-      <c r="K96" t="str">
-        <v/>
-      </c>
-      <c r="L96" t="str">
-        <v>MR</v>
-      </c>
-      <c r="M96" t="str">
-        <v>19:00:00</v>
-      </c>
-      <c r="N96">
-        <v>100</v>
-      </c>
-      <c r="O96" t="str">
-        <v>SB 372</v>
-      </c>
-      <c r="P96" t="str">
-        <v>Fundamentals of Cybersecurity</v>
-      </c>
-      <c r="Q96" t="str">
-        <v/>
-      </c>
-      <c r="R96" t="str">
-        <v>300</v>
-      </c>
-      <c r="S96" t="str">
-        <v/>
-      </c>
-      <c r="T96" t="str">
-        <v/>
-      </c>
-      <c r="U96" t="str">
-        <v/>
-      </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>Computer Science</v>
-      </c>
-      <c r="B97" t="str">
-        <v/>
-      </c>
-      <c r="C97" t="str">
-        <v>FA</v>
-      </c>
-      <c r="D97" t="str">
-        <v>Second</v>
-      </c>
-      <c r="E97" t="str">
-        <v>CS</v>
-      </c>
-      <c r="F97" t="str">
-        <v>361</v>
-      </c>
-      <c r="G97" t="str">
-        <v>A</v>
-      </c>
-      <c r="H97" t="str">
-        <v>Adam Vedra</v>
-      </c>
-      <c r="I97" t="str">
-        <v>2</v>
-      </c>
-      <c r="J97" t="str">
-        <v>2</v>
-      </c>
-      <c r="K97" t="str">
-        <v/>
-      </c>
-      <c r="L97" t="str">
-        <v>MR</v>
-      </c>
-      <c r="M97" t="str">
-        <v>19:00:00</v>
-      </c>
-      <c r="N97">
-        <v>100</v>
-      </c>
-      <c r="O97" t="str">
-        <v>SB 354</v>
-      </c>
-      <c r="P97" t="str">
-        <v>Fundamentals of Cyber Defense</v>
-      </c>
-      <c r="Q97" t="str">
-        <v/>
-      </c>
-      <c r="R97" t="str">
-        <v>300</v>
-      </c>
-      <c r="S97" t="str">
-        <v/>
-      </c>
-      <c r="T97" t="str">
-        <v/>
-      </c>
-      <c r="U97" t="str">
-        <v/>
-      </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>Computer Science</v>
-      </c>
-      <c r="B98" t="str">
-        <v/>
-      </c>
-      <c r="C98" t="str">
-        <v>FA</v>
-      </c>
-      <c r="D98" t="str">
-        <v>Full</v>
-      </c>
-      <c r="E98" t="str">
-        <v>CS</v>
-      </c>
-      <c r="F98" t="str">
-        <v>100</v>
-      </c>
-      <c r="G98" t="str">
-        <v>A</v>
-      </c>
-      <c r="H98" t="str">
-        <v>Staff</v>
-      </c>
-      <c r="I98" t="str">
-        <v>4</v>
-      </c>
-      <c r="J98" t="str">
-        <v>4</v>
-      </c>
-      <c r="K98" t="str">
-        <v/>
-      </c>
-      <c r="L98" t="str">
-        <v>TR</v>
-      </c>
-      <c r="M98" t="str">
-        <v>10:20:00</v>
-      </c>
-      <c r="N98">
-        <v>100</v>
-      </c>
-      <c r="O98" t="str">
-        <v>SB 354</v>
-      </c>
-      <c r="P98" t="str">
-        <v>Creating Interactive Web Media</v>
-      </c>
-      <c r="Q98" t="str">
-        <v>LEC</v>
-      </c>
-      <c r="R98" t="str">
-        <v>100</v>
-      </c>
-      <c r="S98" t="str">
-        <v/>
-      </c>
-      <c r="T98" t="str">
-        <v/>
-      </c>
-      <c r="U98" t="str">
-        <v/>
-      </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>Computer Science</v>
-      </c>
-      <c r="B99" t="str">
-        <v/>
-      </c>
-      <c r="C99" t="str">
-        <v>FA</v>
-      </c>
-      <c r="D99" t="str">
-        <v>Full</v>
-      </c>
-      <c r="E99" t="str">
-        <v>CS</v>
-      </c>
-      <c r="F99" t="str">
-        <v>106</v>
-      </c>
-      <c r="G99" t="str">
-        <v>A</v>
-      </c>
-      <c r="H99" t="str">
-        <v>Kenneth C Arnold</v>
-      </c>
-      <c r="I99" t="str">
-        <v>4</v>
-      </c>
-      <c r="J99" t="str">
-        <v>3</v>
-      </c>
-      <c r="K99" t="str">
-        <v/>
-      </c>
-      <c r="L99" t="str">
-        <v>MWF</v>
-      </c>
-      <c r="M99" t="str">
-        <v>14:45:00</v>
-      </c>
-      <c r="N99">
-        <v>65</v>
-      </c>
-      <c r="O99" t="str">
-        <v>SB 372</v>
-      </c>
-      <c r="P99" t="str">
-        <v>Intro to Computing</v>
-      </c>
-      <c r="Q99" t="str">
-        <v/>
-      </c>
-      <c r="R99" t="str">
-        <v>100</v>
-      </c>
-      <c r="S99" t="str">
-        <v/>
-      </c>
-      <c r="T99" t="str">
-        <v/>
-      </c>
-      <c r="U99" t="str">
-        <v/>
-      </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>Computer Science</v>
-      </c>
-      <c r="B100" t="str">
-        <v/>
-      </c>
-      <c r="C100" t="str">
-        <v>FA</v>
-      </c>
-      <c r="D100" t="str">
-        <v>Full</v>
-      </c>
-      <c r="E100" t="str">
-        <v>CS</v>
-      </c>
-      <c r="F100" t="str">
-        <v>106L</v>
-      </c>
-      <c r="G100" t="str">
-        <v>A</v>
-      </c>
-      <c r="H100" t="str">
-        <v>Christopher Wieringa</v>
-      </c>
-      <c r="I100" t="str">
-        <v>1</v>
-      </c>
-      <c r="J100" t="str">
-        <v>1</v>
-      </c>
-      <c r="K100" t="str">
-        <v/>
-      </c>
-      <c r="L100" t="str">
-        <v>R</v>
-      </c>
-      <c r="M100" t="str">
-        <v>10:20:00</v>
-      </c>
-      <c r="N100">
-        <v>100</v>
-      </c>
-      <c r="O100" t="str">
-        <v>SB 372</v>
-      </c>
-      <c r="P100" t="str">
-        <v>Intro to Computing Lab</v>
-      </c>
-      <c r="Q100" t="str">
-        <v/>
-      </c>
-      <c r="R100" t="str">
-        <v>100</v>
-      </c>
-      <c r="S100" t="str">
-        <v/>
-      </c>
-      <c r="T100" t="str">
-        <v/>
-      </c>
-      <c r="U100" t="str">
-        <v/>
-      </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
-      <c r="W100">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W100"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W95"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7544,9 +7180,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>FA</v>
-      </c>
       <c r="B2" t="str">
         <v/>
       </c>
@@ -7557,10 +7190,10 @@
         <v/>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -7575,7 +7208,7 @@
         <v>Full</v>
       </c>
       <c r="K2" t="str">
-        <v>FA-Full</v>
+        <v>-Full</v>
       </c>
       <c r="L2" t="str">
         <v/>
@@ -7584,10 +7217,10 @@
         <v/>
       </c>
       <c r="N2" t="str">
-        <v>Eric Araujo</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O2" t="str">
-        <v>CS 396/8 projects</v>
+        <v>Chair</v>
       </c>
       <c r="P2" t="str">
         <v/>
@@ -7597,9 +7230,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>FA</v>
-      </c>
       <c r="B3" t="str">
         <v/>
       </c>
@@ -7610,10 +7240,10 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="str">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -7628,7 +7258,7 @@
         <v>Full</v>
       </c>
       <c r="K3" t="str">
-        <v>FA-Full</v>
+        <v>-Full</v>
       </c>
       <c r="L3" t="str">
         <v/>
@@ -7637,10 +7267,10 @@
         <v/>
       </c>
       <c r="N3" t="str">
-        <v>Rocky Chang</v>
+        <v>Harry Plantinga</v>
       </c>
       <c r="O3" t="str">
-        <v>CS 396/8 projects</v>
+        <v>CCEL</v>
       </c>
       <c r="P3" t="str">
         <v/>
@@ -7663,7 +7293,7 @@
         <v>-1</v>
       </c>
       <c r="F4" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -7687,10 +7317,10 @@
         <v/>
       </c>
       <c r="N4" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O4" t="str">
-        <v>Chair</v>
+        <v>F&amp;L Fellowship</v>
       </c>
       <c r="P4" t="str">
         <v/>
@@ -7713,7 +7343,7 @@
         <v>-1</v>
       </c>
       <c r="F5" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -7737,10 +7367,10 @@
         <v/>
       </c>
       <c r="N5" t="str">
-        <v>Victor T. Norman</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O5" t="str">
-        <v>CS 396/8 projects</v>
+        <v>Legacy CRF</v>
       </c>
       <c r="P5" t="str">
         <v/>
@@ -7787,10 +7417,10 @@
         <v/>
       </c>
       <c r="N6" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O6" t="str">
-        <v>CCCS Fellowship ?</v>
+        <v>NSF Buyout</v>
       </c>
       <c r="P6" t="str">
         <v/>
@@ -7813,7 +7443,7 @@
         <v>-1</v>
       </c>
       <c r="F7" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -7825,10 +7455,7 @@
         <v/>
       </c>
       <c r="J7" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K7" t="str">
-        <v>-Full</v>
+        <v/>
       </c>
       <c r="L7" t="str">
         <v/>
@@ -7837,10 +7464,10 @@
         <v/>
       </c>
       <c r="N7" t="str">
-        <v>Eric Araujo</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O7" t="str">
-        <v>CRF ?</v>
+        <v>CS 396/8 projects</v>
       </c>
       <c r="P7" t="str">
         <v/>
@@ -7863,7 +7490,7 @@
         <v>-1</v>
       </c>
       <c r="F8" t="str">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -7875,10 +7502,7 @@
         <v/>
       </c>
       <c r="J8" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K8" t="str">
-        <v>-Full</v>
+        <v/>
       </c>
       <c r="L8" t="str">
         <v/>
@@ -7887,10 +7511,10 @@
         <v/>
       </c>
       <c r="N8" t="str">
-        <v>Harry Plantinga</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O8" t="str">
-        <v>CCEL</v>
+        <v>CS 396/8 projects</v>
       </c>
       <c r="P8" t="str">
         <v/>
@@ -7913,7 +7537,7 @@
         <v>-1</v>
       </c>
       <c r="F9" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -7937,7 +7561,7 @@
         <v>Rocky Chang</v>
       </c>
       <c r="O9" t="str">
-        <v>F&amp;L Fellowship</v>
+        <v>CS 396/8 projects</v>
       </c>
       <c r="P9" t="str">
         <v/>
@@ -7960,7 +7584,7 @@
         <v>-1</v>
       </c>
       <c r="F10" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -7981,10 +7605,10 @@
         <v/>
       </c>
       <c r="N10" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O10" t="str">
-        <v>F&amp;L Fellowship</v>
+        <v>CS 396/8 projects</v>
       </c>
       <c r="P10" t="str">
         <v/>
@@ -8007,7 +7631,7 @@
         <v>-1</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -8028,7 +7652,7 @@
         <v/>
       </c>
       <c r="N11" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O11" t="str">
         <v>CS 396/8 projects</v>
@@ -8054,7 +7678,7 @@
         <v>-1</v>
       </c>
       <c r="F12" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -8078,7 +7702,7 @@
         <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O12" t="str">
-        <v>CS 396/8 projects</v>
+        <v>DeVries Fellowship</v>
       </c>
       <c r="P12" t="str">
         <v/>
@@ -8101,7 +7725,7 @@
         <v>-1</v>
       </c>
       <c r="F13" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -8122,10 +7746,10 @@
         <v/>
       </c>
       <c r="N13" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O13" t="str">
-        <v>Legacy CRF</v>
+        <v>F&amp;L Fellowship</v>
       </c>
       <c r="P13" t="str">
         <v/>
@@ -8560,7 +8184,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B22" t="str">
         <v>CS</v>
@@ -8581,16 +8205,16 @@
         <v>MWF</v>
       </c>
       <c r="H22" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I22" t="str">
-        <v>SB 372</v>
+        <v>SB 382</v>
       </c>
       <c r="J22" t="str">
         <v>Full</v>
       </c>
       <c r="K22" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L22">
         <v>65</v>
@@ -8599,7 +8223,7 @@
         <v>Intro to Computing</v>
       </c>
       <c r="N22" t="str">
-        <v>Rocky Chang</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O22" t="str">
         <v/>
@@ -8622,7 +8246,7 @@
         <v>108</v>
       </c>
       <c r="D23" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E23" t="str">
         <v>3</v>
@@ -8634,7 +8258,7 @@
         <v>MWF</v>
       </c>
       <c r="H23" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I23" t="str">
         <v>SB 382</v>
@@ -8652,7 +8276,7 @@
         <v>Intro to Computing</v>
       </c>
       <c r="N23" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Staff</v>
       </c>
       <c r="O23" t="str">
         <v/>
@@ -8675,7 +8299,7 @@
         <v>108</v>
       </c>
       <c r="D24" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E24" t="str">
         <v>3</v>
@@ -8687,10 +8311,10 @@
         <v>MWF</v>
       </c>
       <c r="H24" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I24" t="str">
-        <v>SB 372</v>
+        <v>NH 64</v>
       </c>
       <c r="J24" t="str">
         <v>Full</v>
@@ -8719,7 +8343,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B25" t="str">
         <v>CS</v>
@@ -8740,16 +8364,16 @@
         <v>MWF</v>
       </c>
       <c r="H25" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I25" t="str">
-        <v>SB 382</v>
+        <v>NH 64</v>
       </c>
       <c r="J25" t="str">
         <v>Full</v>
       </c>
       <c r="K25" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L25">
         <v>65</v>
@@ -8758,7 +8382,7 @@
         <v>Intro to Computing</v>
       </c>
       <c r="N25" t="str">
-        <v>Staff</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O25" t="str">
         <v/>
@@ -9632,10 +9256,10 @@
         <v>A</v>
       </c>
       <c r="E42" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G42" t="str">
         <v>MW</v>
@@ -9685,19 +9309,19 @@
         <v>B</v>
       </c>
       <c r="E43" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43" t="str">
-        <v>F</v>
+        <v>MW</v>
       </c>
       <c r="H43" t="str">
-        <v>14:45:00 - 17:05:00</v>
+        <v>16:00:00 - 17:05:00</v>
       </c>
       <c r="I43" t="str">
-        <v>SB 372, SB 372</v>
+        <v>SB 372</v>
       </c>
       <c r="J43" t="str">
         <v>Full</v>
@@ -9706,7 +9330,7 @@
         <v>SP-Full</v>
       </c>
       <c r="L43">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="M43" t="str">
         <v>Programming Lang Concepts</v>
@@ -9732,25 +9356,25 @@
         <v>CS</v>
       </c>
       <c r="C44" t="str">
-        <v>232</v>
+        <v>214L</v>
       </c>
       <c r="D44" t="str">
         <v>A</v>
       </c>
       <c r="E44" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G44" t="str">
-        <v>MWF</v>
+        <v>F</v>
       </c>
       <c r="H44" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>14:45:00 - 17:05:00</v>
       </c>
       <c r="I44" t="str">
-        <v>SB 372</v>
+        <v>SB 354</v>
       </c>
       <c r="J44" t="str">
         <v>Full</v>
@@ -9759,13 +9383,13 @@
         <v>SP-Full</v>
       </c>
       <c r="L44">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="M44" t="str">
-        <v>Operating Systems and Networki</v>
+        <v>Programming Lang Concepts Lab</v>
       </c>
       <c r="N44" t="str">
-        <v>Rocky Chang</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O44" t="str">
         <v/>
@@ -9785,25 +9409,25 @@
         <v>CS</v>
       </c>
       <c r="C45" t="str">
-        <v>232</v>
+        <v>214L</v>
       </c>
       <c r="D45" t="str">
         <v>B</v>
       </c>
       <c r="E45" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F45" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45" t="str">
-        <v>MWF</v>
+        <v>F</v>
       </c>
       <c r="H45" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>14:45:00 - 17:05:00</v>
       </c>
       <c r="I45" t="str">
-        <v>SB 372</v>
+        <v>SB 337</v>
       </c>
       <c r="J45" t="str">
         <v>Full</v>
@@ -9812,13 +9436,13 @@
         <v>SP-Full</v>
       </c>
       <c r="L45">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="M45" t="str">
-        <v>Operating Systems and Networki</v>
+        <v>Programming Lang Concepts Lab</v>
       </c>
       <c r="N45" t="str">
-        <v>Rocky Chang</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O45" t="str">
         <v/>
@@ -9832,13 +9456,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B46" t="str">
         <v>CS</v>
       </c>
       <c r="C46" t="str">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="D46" t="str">
         <v>A</v>
@@ -9850,28 +9474,28 @@
         <v>4</v>
       </c>
       <c r="G46" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="H46" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I46" t="str">
-        <v>SC 120, SB 354</v>
+        <v>SB 372</v>
       </c>
       <c r="J46" t="str">
         <v>Full</v>
       </c>
       <c r="K46" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L46">
         <v>65</v>
       </c>
       <c r="M46" t="str">
-        <v>Software Engineering</v>
+        <v>Operating Systems and Networki</v>
       </c>
       <c r="N46" t="str">
-        <v>Victor T. Norman</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O46" t="str">
         <v/>
@@ -9885,13 +9509,13 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B47" t="str">
         <v>CS</v>
       </c>
       <c r="C47" t="str">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="D47" t="str">
         <v>B</v>
@@ -9903,28 +9527,28 @@
         <v>4</v>
       </c>
       <c r="G47" t="str">
-        <v>MW</v>
+        <v>MWF</v>
       </c>
       <c r="H47" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I47" t="str">
-        <v>SC 120, SB 337</v>
+        <v>SB 372</v>
       </c>
       <c r="J47" t="str">
         <v>Full</v>
       </c>
       <c r="K47" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L47">
         <v>65</v>
       </c>
       <c r="M47" t="str">
-        <v>Software Engineering</v>
+        <v>Operating Systems and Networki</v>
       </c>
       <c r="N47" t="str">
-        <v>Victor T. Norman</v>
+        <v>Rocky Chang</v>
       </c>
       <c r="O47" t="str">
         <v/>
@@ -9944,25 +9568,25 @@
         <v>CS</v>
       </c>
       <c r="C48" t="str">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D48" t="str">
         <v>A</v>
       </c>
       <c r="E48" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48" t="str">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G48" t="str">
-        <v>T</v>
+        <v>MW</v>
       </c>
       <c r="H48" t="str">
-        <v>15:05:00 - 15:55:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I48" t="str">
-        <v>SB 10</v>
+        <v>SC 120, SB 354</v>
       </c>
       <c r="J48" t="str">
         <v>Full</v>
@@ -9971,10 +9595,10 @@
         <v>FA-Full</v>
       </c>
       <c r="L48">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M48" t="str">
-        <v>Computing Seminar</v>
+        <v>Software Engineering</v>
       </c>
       <c r="N48" t="str">
         <v>Victor T. Norman</v>
@@ -9991,43 +9615,43 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B49" t="str">
         <v>CS</v>
       </c>
       <c r="C49" t="str">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D49" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E49" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F49" t="str">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G49" t="str">
-        <v>T</v>
+        <v>MW</v>
       </c>
       <c r="H49" t="str">
-        <v>15:05:00 - 15:55:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I49" t="str">
-        <v>SB 10</v>
+        <v>SC 120, SB 337</v>
       </c>
       <c r="J49" t="str">
         <v>Full</v>
       </c>
       <c r="K49" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L49">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M49" t="str">
-        <v>Computing Seminar</v>
+        <v>Software Engineering</v>
       </c>
       <c r="N49" t="str">
         <v>Victor T. Norman</v>
@@ -10050,46 +9674,46 @@
         <v>CS</v>
       </c>
       <c r="C50" t="str">
-        <v>300</v>
+        <v>262L</v>
       </c>
       <c r="D50" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E50" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="str">
-        <v>MWF</v>
+        <v>F</v>
       </c>
       <c r="H50" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>13:30:00 - 15:50:00</v>
       </c>
       <c r="I50" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="J50" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K50" t="str">
-        <v>FA-Second</v>
+        <v>FA-Full</v>
       </c>
       <c r="L50">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="M50" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Software Engineering Lab</v>
       </c>
       <c r="N50" t="str">
-        <v>Staff</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O50" t="str">
         <v/>
       </c>
       <c r="P50" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="Q50" t="str">
         <v/>
@@ -10097,46 +9721,46 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B51" t="str">
         <v>CS</v>
       </c>
       <c r="C51" t="str">
-        <v>300</v>
+        <v>262L</v>
       </c>
       <c r="D51" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E51" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F51" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G51" t="str">
-        <v>MWF</v>
+        <v>F</v>
       </c>
       <c r="H51" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>13:30:00 - 15:50:00</v>
       </c>
       <c r="I51" t="str">
-        <v>SB 382</v>
+        <v>SC 120, SB 337</v>
       </c>
       <c r="J51" t="str">
         <v>Full</v>
       </c>
       <c r="K51" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L51">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="M51" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Software Engineering Lab</v>
       </c>
       <c r="N51" t="str">
-        <v>Staff</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O51" t="str">
         <v/>
@@ -10156,25 +9780,25 @@
         <v>CS</v>
       </c>
       <c r="C52" t="str">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="D52" t="str">
         <v>A</v>
       </c>
       <c r="E52" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F52" t="str">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G52" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="H52" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>15:05:00 - 15:55:00</v>
       </c>
       <c r="I52" t="str">
-        <v>HH 336</v>
+        <v>SB 10</v>
       </c>
       <c r="J52" t="str">
         <v>Full</v>
@@ -10183,10 +9807,10 @@
         <v>FA-Full</v>
       </c>
       <c r="L52">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M52" t="str">
-        <v>Web Development</v>
+        <v>Computing Seminar</v>
       </c>
       <c r="N52" t="str">
         <v>Victor T. Norman</v>
@@ -10209,40 +9833,40 @@
         <v>CS</v>
       </c>
       <c r="C53" t="str">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="D53" t="str">
         <v>A</v>
       </c>
       <c r="E53" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53" t="str">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G53" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="H53" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>15:05:00 - 15:55:00</v>
       </c>
       <c r="I53" t="str">
-        <v>SB 382</v>
+        <v>SB 10</v>
       </c>
       <c r="J53" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K53" t="str">
-        <v>SP-First</v>
+        <v>SP-Full</v>
       </c>
       <c r="L53">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M53" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Computing Seminar</v>
       </c>
       <c r="N53" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O53" t="str">
         <v/>
@@ -10256,16 +9880,16 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B54" t="str">
         <v>CS</v>
       </c>
       <c r="C54" t="str">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="D54" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E54" t="str">
         <v>2</v>
@@ -10277,7 +9901,7 @@
         <v>MWF</v>
       </c>
       <c r="H54" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I54" t="str">
         <v>SB 382</v>
@@ -10286,22 +9910,22 @@
         <v>Second</v>
       </c>
       <c r="K54" t="str">
-        <v>SP-Second</v>
+        <v>FA-Second</v>
       </c>
       <c r="L54">
         <v>65</v>
       </c>
       <c r="M54" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="N54" t="str">
-        <v>Christopher Wieringa</v>
+        <v>Staff</v>
       </c>
       <c r="O54" t="str">
         <v/>
       </c>
       <c r="P54" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="Q54" t="str">
         <v/>
@@ -10315,40 +9939,40 @@
         <v>CS</v>
       </c>
       <c r="C55" t="str">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="D55" t="str">
         <v>A</v>
       </c>
       <c r="E55" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55" t="str">
         <v>MWF</v>
       </c>
       <c r="H55" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>12:15:00 - 13:20:00</v>
       </c>
       <c r="I55" t="str">
         <v>SB 382</v>
       </c>
       <c r="J55" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K55" t="str">
-        <v>SP-Second</v>
+        <v>SP-Full</v>
       </c>
       <c r="L55">
         <v>65</v>
       </c>
       <c r="M55" t="str">
-        <v>Database Management Systems</v>
+        <v>Applied Machine Learning</v>
       </c>
       <c r="N55" t="str">
-        <v>Eric Araujo</v>
+        <v>Staff</v>
       </c>
       <c r="O55" t="str">
         <v/>
@@ -10362,46 +9986,46 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B56" t="str">
         <v>CS</v>
       </c>
       <c r="C56" t="str">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="D56" t="str">
         <v>A</v>
       </c>
       <c r="E56" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G56" t="str">
         <v>MWF</v>
       </c>
       <c r="H56" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I56" t="str">
-        <v>SB 382</v>
+        <v>HH 336</v>
       </c>
       <c r="J56" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K56" t="str">
-        <v>SP-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L56">
         <v>65</v>
       </c>
       <c r="M56" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Web Development</v>
       </c>
       <c r="N56" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Victor T. Norman</v>
       </c>
       <c r="O56" t="str">
         <v/>
@@ -10421,7 +10045,7 @@
         <v>CS</v>
       </c>
       <c r="C57" t="str">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="D57" t="str">
         <v>A</v>
@@ -10436,25 +10060,25 @@
         <v>MWF</v>
       </c>
       <c r="H57" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I57" t="str">
         <v>SB 382</v>
       </c>
       <c r="J57" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K57" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L57">
         <v>65</v>
       </c>
       <c r="M57" t="str">
-        <v>Machine Learning</v>
+        <v>System Administration: Infrastructure</v>
       </c>
       <c r="N57" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="O57" t="str">
         <v/>
@@ -10468,46 +10092,46 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B58" t="str">
         <v>CS</v>
       </c>
       <c r="C58" t="str">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="D58" t="str">
         <v>A</v>
       </c>
       <c r="E58" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G58" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="H58" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I58" t="str">
         <v>SB 382</v>
       </c>
       <c r="J58" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K58" t="str">
-        <v>FA-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L58">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M58" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>System Administration: Cloud Services</v>
       </c>
       <c r="N58" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Christopher Wieringa</v>
       </c>
       <c r="O58" t="str">
         <v/>
@@ -10527,40 +10151,40 @@
         <v>CS</v>
       </c>
       <c r="C59" t="str">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="D59" t="str">
         <v>A</v>
       </c>
       <c r="E59" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" t="str">
-        <v>R</v>
+        <v>MWF</v>
       </c>
       <c r="H59" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I59" t="str">
         <v>SB 382</v>
       </c>
       <c r="J59" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K59" t="str">
-        <v>SP-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L59">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M59" t="str">
-        <v>Senior Internship in Computing</v>
+        <v>Database Management Systems</v>
       </c>
       <c r="N59" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O59" t="str">
         <v/>
@@ -10580,40 +10204,40 @@
         <v>CS</v>
       </c>
       <c r="C60" t="str">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D60" t="str">
         <v>A</v>
       </c>
       <c r="E60" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F60" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G60" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="H60" t="str">
-        <v>10:20:00 - 12:00:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I60" t="str">
-        <v>SC 203</v>
+        <v>SB 382</v>
       </c>
       <c r="J60" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K60" t="str">
-        <v>SP-Full</v>
+        <v>SP-First</v>
       </c>
       <c r="L60">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M60" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="N60" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O60" t="str">
         <v/>
@@ -10633,40 +10257,40 @@
         <v>CS</v>
       </c>
       <c r="C61" t="str">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D61" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E61" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61" t="str">
-        <v>TR</v>
+        <v>MWF</v>
       </c>
       <c r="H61" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>11:00:00 - 12:05:00</v>
       </c>
       <c r="I61" t="str">
-        <v>SC 203</v>
+        <v>SB 382</v>
       </c>
       <c r="J61" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K61" t="str">
-        <v>SP-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L61">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M61" t="str">
-        <v>Perspectives on Computing</v>
+        <v>Machine Learning</v>
       </c>
       <c r="N61" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O61" t="str">
         <v/>
@@ -10683,43 +10307,43 @@
         <v>FA</v>
       </c>
       <c r="B62" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C62" t="str">
-        <v>102</v>
+        <v>383</v>
       </c>
       <c r="D62" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E62" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G62" t="str">
-        <v>TR</v>
+        <v>R</v>
       </c>
       <c r="H62" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I62" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="J62" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K62" t="str">
-        <v>FA-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L62">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M62" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="N62" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O62" t="str">
         <v/>
@@ -10733,46 +10357,46 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B63" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C63" t="str">
-        <v>102</v>
+        <v>383</v>
       </c>
       <c r="D63" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="E63" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63" t="str">
-        <v>TR</v>
+        <v>R</v>
       </c>
       <c r="H63" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I63" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="J63" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K63" t="str">
-        <v>FA-First</v>
+        <v>SP-Full</v>
       </c>
       <c r="L63">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M63" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Senior Internship in Computing</v>
       </c>
       <c r="N63" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O63" t="str">
         <v/>
@@ -10786,46 +10410,46 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B64" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C64" t="str">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="D64" t="str">
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="E64" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F64" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G64" t="str">
         <v>TR</v>
       </c>
       <c r="H64" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I64" t="str">
-        <v>SB 354</v>
+        <v>SC 203</v>
       </c>
       <c r="J64" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K64" t="str">
-        <v>FA-First</v>
+        <v>SP-Full</v>
       </c>
       <c r="L64">
         <v>100</v>
       </c>
       <c r="M64" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="N64" t="str">
-        <v>Jim Momeyer</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O64" t="str">
         <v/>
@@ -10842,43 +10466,43 @@
         <v>SP</v>
       </c>
       <c r="B65" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C65" t="str">
-        <v>102</v>
+        <v>384</v>
       </c>
       <c r="D65" t="str">
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="E65" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G65" t="str">
         <v>TR</v>
       </c>
       <c r="H65" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I65" t="str">
-        <v>SB 354</v>
+        <v>SC 203</v>
       </c>
       <c r="J65" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K65" t="str">
-        <v>SP-First</v>
+        <v>SP-Full</v>
       </c>
       <c r="L65">
         <v>100</v>
       </c>
       <c r="M65" t="str">
-        <v>Foundations of Data Science and Analytics</v>
+        <v>Perspectives on Computing</v>
       </c>
       <c r="N65" t="str">
-        <v>Jim Momeyer</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O65" t="str">
         <v/>
@@ -10901,7 +10525,7 @@
         <v>102</v>
       </c>
       <c r="D66" t="str">
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="E66" t="str">
         <v>2</v>
@@ -10919,10 +10543,10 @@
         <v>SB 354</v>
       </c>
       <c r="J66" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K66" t="str">
-        <v>FA-Second</v>
+        <v>FA-First</v>
       </c>
       <c r="L66">
         <v>100</v>
@@ -10945,7 +10569,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B67" t="str">
         <v>DATA</v>
@@ -10954,7 +10578,7 @@
         <v>102</v>
       </c>
       <c r="D67" t="str">
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="E67" t="str">
         <v>2</v>
@@ -10966,16 +10590,16 @@
         <v>TR</v>
       </c>
       <c r="H67" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I67" t="str">
         <v>SB 354</v>
       </c>
       <c r="J67" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K67" t="str">
-        <v>SP-Second</v>
+        <v>FA-First</v>
       </c>
       <c r="L67">
         <v>100</v>
@@ -11007,7 +10631,7 @@
         <v>102</v>
       </c>
       <c r="D68" t="str">
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="E68" t="str">
         <v>2</v>
@@ -11019,16 +10643,16 @@
         <v>TR</v>
       </c>
       <c r="H68" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I68" t="str">
         <v>SB 354</v>
       </c>
       <c r="J68" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K68" t="str">
-        <v>FA-Second</v>
+        <v>FA-First</v>
       </c>
       <c r="L68">
         <v>100</v>
@@ -11037,7 +10661,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N68" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O68" t="str">
         <v/>
@@ -11060,7 +10684,7 @@
         <v>102</v>
       </c>
       <c r="D69" t="str">
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="E69" t="str">
         <v>2</v>
@@ -11072,16 +10696,16 @@
         <v>TR</v>
       </c>
       <c r="H69" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I69" t="str">
         <v>SB 354</v>
       </c>
       <c r="J69" t="str">
-        <v>Second</v>
+        <v>First</v>
       </c>
       <c r="K69" t="str">
-        <v>SP-Second</v>
+        <v>SP-First</v>
       </c>
       <c r="L69">
         <v>100</v>
@@ -11090,7 +10714,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N69" t="str">
-        <v>Cancelled-DATA</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O69" t="str">
         <v/>
@@ -11113,7 +10737,7 @@
         <v>102</v>
       </c>
       <c r="D70" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="E70" t="str">
         <v>2</v>
@@ -11125,7 +10749,7 @@
         <v>TR</v>
       </c>
       <c r="H70" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I70" t="str">
         <v>SB 354</v>
@@ -11143,7 +10767,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N70" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O70" t="str">
         <v/>
@@ -11166,7 +10790,7 @@
         <v>102</v>
       </c>
       <c r="D71" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="E71" t="str">
         <v>2</v>
@@ -11178,7 +10802,7 @@
         <v>TR</v>
       </c>
       <c r="H71" t="str">
-        <v>19:00:00 - 20:40:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I71" t="str">
         <v>SB 354</v>
@@ -11196,7 +10820,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N71" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O71" t="str">
         <v/>
@@ -11219,7 +10843,7 @@
         <v>102</v>
       </c>
       <c r="D72" t="str">
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="E72" t="str">
         <v>2</v>
@@ -11231,7 +10855,7 @@
         <v>TR</v>
       </c>
       <c r="H72" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I72" t="str">
         <v>SB 354</v>
@@ -11249,7 +10873,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N72" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O72" t="str">
         <v/>
@@ -11263,7 +10887,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B73" t="str">
         <v>DATA</v>
@@ -11272,7 +10896,7 @@
         <v>102</v>
       </c>
       <c r="D73" t="str">
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="E73" t="str">
         <v>2</v>
@@ -11284,16 +10908,16 @@
         <v>TR</v>
       </c>
       <c r="H73" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I73" t="str">
         <v>SB 354</v>
       </c>
       <c r="J73" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K73" t="str">
-        <v>FA-First</v>
+        <v>SP-Second</v>
       </c>
       <c r="L73">
         <v>100</v>
@@ -11302,7 +10926,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N73" t="str">
-        <v>Jim Momeyer</v>
+        <v>Cancelled-DATA</v>
       </c>
       <c r="O73" t="str">
         <v/>
@@ -11314,9 +10938,9 @@
         <v/>
       </c>
     </row>
-    <row r="74" xml:space="preserve">
+    <row r="74">
       <c r="A74" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B74" t="str">
         <v>DATA</v>
@@ -11325,7 +10949,7 @@
         <v>102</v>
       </c>
       <c r="D74" t="str">
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="E74" t="str">
         <v>2</v>
@@ -11337,16 +10961,16 @@
         <v>TR</v>
       </c>
       <c r="H74" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I74" t="str">
         <v>SB 354</v>
       </c>
       <c r="J74" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K74" t="str">
-        <v>SP-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L74">
         <v>100</v>
@@ -11363,12 +10987,11 @@
       <c r="P74" t="str">
         <v/>
       </c>
-      <c r="Q74" t="str" xml:space="preserve">
-        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
-Set as on-hold? we may not have the enrollment.</v>
-      </c>
-    </row>
-    <row r="75" xml:space="preserve">
+      <c r="Q74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" t="str">
         <v>SP</v>
       </c>
@@ -11379,7 +11002,7 @@
         <v>102</v>
       </c>
       <c r="D75" t="str">
-        <v>E</v>
+        <v>H</v>
       </c>
       <c r="E75" t="str">
         <v>2</v>
@@ -11391,7 +11014,7 @@
         <v>TR</v>
       </c>
       <c r="H75" t="str">
-        <v>08:00:00 - 09:40:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I75" t="str">
         <v>SB 354</v>
@@ -11417,14 +11040,13 @@
       <c r="P75" t="str">
         <v/>
       </c>
-      <c r="Q75" t="str" xml:space="preserve">
-        <v xml:space="preserve">Monica is busy with ENGR labs all day Thursday.
-Set as on-hold? we may not have the enrollment.</v>
+      <c r="Q75" t="str">
+        <v/>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B76" t="str">
         <v>DATA</v>
@@ -11433,7 +11055,7 @@
         <v>102</v>
       </c>
       <c r="D76" t="str">
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="E76" t="str">
         <v>2</v>
@@ -11445,16 +11067,16 @@
         <v>TR</v>
       </c>
       <c r="H76" t="str">
-        <v>12:15:00 - 13:55:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I76" t="str">
         <v>SB 354</v>
       </c>
       <c r="J76" t="str">
-        <v>First</v>
+        <v>Second</v>
       </c>
       <c r="K76" t="str">
-        <v>SP-First</v>
+        <v>FA-Second</v>
       </c>
       <c r="L76">
         <v>100</v>
@@ -11463,7 +11085,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N76" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O76" t="str">
         <v/>
@@ -11477,7 +11099,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B77" t="str">
         <v>DATA</v>
@@ -11486,7 +11108,7 @@
         <v>102</v>
       </c>
       <c r="D77" t="str">
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="E77" t="str">
         <v>2</v>
@@ -11498,7 +11120,7 @@
         <v>TR</v>
       </c>
       <c r="H77" t="str">
-        <v>14:10:00 - 15:50:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I77" t="str">
         <v>SB 354</v>
@@ -11507,7 +11129,7 @@
         <v>First</v>
       </c>
       <c r="K77" t="str">
-        <v>SP-First</v>
+        <v>FA-First</v>
       </c>
       <c r="L77">
         <v>100</v>
@@ -11516,7 +11138,7 @@
         <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N77" t="str">
-        <v>Staff</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O77" t="str">
         <v/>
@@ -11530,43 +11152,43 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B78" t="str">
         <v>DATA</v>
       </c>
       <c r="C78" t="str">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="D78" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E78" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F78" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G78" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H78" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>12:15:00 - 13:55:00</v>
       </c>
       <c r="I78" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="J78" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K78" t="str">
-        <v>FA-Full</v>
+        <v>SP-First</v>
       </c>
       <c r="L78">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M78" t="str">
-        <v>Predictive Analytics</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N78" t="str">
         <v>Fernando Pasquini Santos</v>
@@ -11583,46 +11205,46 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B79" t="str">
         <v>DATA</v>
       </c>
       <c r="C79" t="str">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="D79" t="str">
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="E79" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F79" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H79" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>14:10:00 - 15:50:00</v>
       </c>
       <c r="I79" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="J79" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K79" t="str">
-        <v>FA-Full</v>
+        <v>SP-First</v>
       </c>
       <c r="L79">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M79" t="str">
-        <v>Predictive Analytics</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N79" t="str">
-        <v>Fernando Pasquini Santos</v>
+        <v>Staff</v>
       </c>
       <c r="O79" t="str">
         <v/>
@@ -11634,30 +11256,30 @@
         <v/>
       </c>
     </row>
-    <row r="80">
+    <row r="80" xml:space="preserve">
       <c r="A80" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B80" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C80" t="str">
-        <v>300-S</v>
+        <v>102</v>
       </c>
       <c r="D80" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="E80" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G80" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H80" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I80" t="str">
         <v>SB 354</v>
@@ -11666,16 +11288,16 @@
         <v>First</v>
       </c>
       <c r="K80" t="str">
-        <v>FA-First</v>
+        <v>SP-First</v>
       </c>
       <c r="L80">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M80" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N80" t="str">
-        <v>Shadow-Gold</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O80" t="str">
         <v/>
@@ -11683,52 +11305,53 @@
       <c r="P80" t="str">
         <v/>
       </c>
-      <c r="Q80" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="81">
+      <c r="Q80" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Set as on-hold? we may not have the enrollment.</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
       <c r="A81" t="str">
         <v>SP</v>
       </c>
       <c r="B81" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C81" t="str">
-        <v>300-S</v>
+        <v>102</v>
       </c>
       <c r="D81" t="str">
-        <v>A-S</v>
+        <v>E</v>
       </c>
       <c r="E81" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F81" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G81" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H81" t="str">
-        <v>12:15:00 - 13:20:00</v>
+        <v>08:00:00 - 09:40:00</v>
       </c>
       <c r="I81" t="str">
         <v>SB 354</v>
       </c>
       <c r="J81" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K81" t="str">
-        <v>SP-Full</v>
+        <v>SP-Second</v>
       </c>
       <c r="L81">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M81" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Foundations of Data Science and Analytics</v>
       </c>
       <c r="N81" t="str">
-        <v>Shadow-Gold</v>
+        <v>Jim Momeyer</v>
       </c>
       <c r="O81" t="str">
         <v/>
@@ -11736,8 +11359,9 @@
       <c r="P81" t="str">
         <v/>
       </c>
-      <c r="Q81" t="str">
-        <v/>
+      <c r="Q81" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Set as on-hold? we may not have the enrollment.</v>
       </c>
     </row>
     <row r="82">
@@ -11745,43 +11369,43 @@
         <v>FA</v>
       </c>
       <c r="B82" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C82" t="str">
-        <v>300-S</v>
+        <v>202</v>
       </c>
       <c r="D82" t="str">
-        <v>B-S</v>
+        <v>A</v>
       </c>
       <c r="E82" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F82" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G82" t="str">
         <v>MWF</v>
       </c>
       <c r="H82" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>08:00:00 - 09:05:00</v>
       </c>
       <c r="I82" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="J82" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K82" t="str">
-        <v>FA-Second</v>
+        <v>FA-Full</v>
       </c>
       <c r="L82">
         <v>65</v>
       </c>
       <c r="M82" t="str">
-        <v>Applied Machine Learning</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N82" t="str">
-        <v>Shadow-Gold</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O82" t="str">
         <v/>
@@ -11795,46 +11419,46 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B83" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C83" t="str">
-        <v>338-S</v>
+        <v>202</v>
       </c>
       <c r="D83" t="str">
-        <v>A-S</v>
+        <v>B</v>
       </c>
       <c r="E83" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F83" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G83" t="str">
         <v>MWF</v>
       </c>
       <c r="H83" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>09:15:00 - 10:20:00</v>
       </c>
       <c r="I83" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="J83" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K83" t="str">
-        <v>SP-First</v>
+        <v>FA-Full</v>
       </c>
       <c r="L83">
         <v>65</v>
       </c>
       <c r="M83" t="str">
-        <v>System Administration: Infrastructure</v>
+        <v>Predictive Analytics</v>
       </c>
       <c r="N83" t="str">
-        <v>Shadow-Gold</v>
+        <v>Fernando Pasquini Santos</v>
       </c>
       <c r="O83" t="str">
         <v/>
@@ -11848,46 +11472,46 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B84" t="str">
-        <v>CS</v>
+        <v>HNRS</v>
       </c>
       <c r="C84" t="str">
-        <v>339-S</v>
+        <v>251</v>
       </c>
       <c r="D84" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="E84" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G84" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H84" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>14:10:00 - 15:15:00</v>
       </c>
       <c r="I84" t="str">
-        <v>SB 354</v>
+        <v>HL 406C</v>
       </c>
       <c r="J84" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K84" t="str">
-        <v>SP-Second</v>
+        <v>FA-Full</v>
       </c>
       <c r="L84">
         <v>65</v>
       </c>
       <c r="M84" t="str">
-        <v>System Administration: Cloud Services</v>
+        <v>Agent Modeling</v>
       </c>
       <c r="N84" t="str">
-        <v>Shadow-Gold</v>
+        <v>Staff</v>
       </c>
       <c r="O84" t="str">
         <v/>
@@ -11907,40 +11531,40 @@
         <v>CS</v>
       </c>
       <c r="C85" t="str">
-        <v>374-S</v>
+        <v>396</v>
       </c>
       <c r="D85" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="E85" t="str">
         <v>2</v>
       </c>
       <c r="F85" t="str">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G85" t="str">
-        <v>MW</v>
+        <v>T</v>
       </c>
       <c r="H85" t="str">
-        <v>14:45:00 - 15:50:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I85" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="J85" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K85" t="str">
-        <v>FA-Second</v>
+        <v>FA-Full</v>
       </c>
       <c r="L85">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M85" t="str">
-        <v>High-Performance Computing</v>
+        <v>Senior Project in Computing I</v>
       </c>
       <c r="N85" t="str">
-        <v>Shadow-Gold</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O85" t="str">
         <v/>
@@ -11960,40 +11584,40 @@
         <v>CS</v>
       </c>
       <c r="C86" t="str">
-        <v>375-S</v>
+        <v>398</v>
       </c>
       <c r="D86" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="E86" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F86" t="str">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G86" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="H86" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I86" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="J86" t="str">
-        <v>First</v>
+        <v>Full</v>
       </c>
       <c r="K86" t="str">
-        <v>SP-First</v>
+        <v>SP-Full</v>
       </c>
       <c r="L86">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M86" t="str">
-        <v>Artificial Intelligence</v>
+        <v>Senior Project in Computing II</v>
       </c>
       <c r="N86" t="str">
-        <v>Shadow-Gold</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O86" t="str">
         <v/>
@@ -12007,46 +11631,46 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B87" t="str">
-        <v>CS</v>
+        <v>DATA</v>
       </c>
       <c r="C87" t="str">
-        <v>376-S</v>
+        <v>396</v>
       </c>
       <c r="D87" t="str">
-        <v>B-S</v>
+        <v>A</v>
       </c>
       <c r="E87" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" t="str">
         <v>0</v>
       </c>
       <c r="G87" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="H87" t="str">
-        <v>11:00:00 - 12:05:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I87" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="J87" t="str">
-        <v>Second</v>
+        <v>Full</v>
       </c>
       <c r="K87" t="str">
-        <v>SP-Second</v>
+        <v>FA-Full</v>
       </c>
       <c r="L87">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M87" t="str">
-        <v>Machine Learning</v>
+        <v>Senior Project in Data Science</v>
       </c>
       <c r="N87" t="str">
-        <v>Shadow-Gold</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O87" t="str">
         <v/>
@@ -12060,46 +11684,46 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B88" t="str">
         <v>DATA</v>
       </c>
       <c r="C88" t="str">
-        <v>202-S</v>
+        <v>398</v>
       </c>
       <c r="D88" t="str">
-        <v>A-S</v>
+        <v>A</v>
       </c>
       <c r="E88" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F88" t="str">
         <v>0</v>
       </c>
       <c r="G88" t="str">
-        <v>MWF</v>
+        <v>T</v>
       </c>
       <c r="H88" t="str">
-        <v>08:00:00 - 09:05:00</v>
+        <v>19:00:00 - 19:50:00</v>
       </c>
       <c r="I88" t="str">
-        <v>SB 354</v>
+        <v>SB 382</v>
       </c>
       <c r="J88" t="str">
         <v>Full</v>
       </c>
       <c r="K88" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L88">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M88" t="str">
-        <v>Predictive Analytics</v>
+        <v>Senior Project in Data Science II</v>
       </c>
       <c r="N88" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Kenneth C Arnold</v>
       </c>
       <c r="O88" t="str">
         <v/>
@@ -12113,52 +11737,52 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>FA</v>
+        <v>SP</v>
       </c>
       <c r="B89" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C89" t="str">
-        <v>202-S</v>
+        <v>326</v>
       </c>
       <c r="D89" t="str">
-        <v>B-S</v>
+        <v>A</v>
       </c>
       <c r="E89" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F89" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G89" t="str">
         <v>MWF</v>
       </c>
       <c r="H89" t="str">
-        <v>09:15:00 - 10:20:00</v>
+        <v>13:30:00 - 14:35:00</v>
       </c>
       <c r="I89" t="str">
-        <v>SB 354</v>
+        <v>SB 301</v>
       </c>
       <c r="J89" t="str">
         <v>Full</v>
       </c>
       <c r="K89" t="str">
-        <v>FA-Full</v>
+        <v>SP-Full</v>
       </c>
       <c r="L89">
         <v>65</v>
       </c>
       <c r="M89" t="str">
-        <v>Predictive Analytics</v>
+        <v>Embedded Systems and the Internet of Things</v>
       </c>
       <c r="N89" t="str">
-        <v>Shadow-Maroon</v>
+        <v>Derek C Schuurman</v>
       </c>
       <c r="O89" t="str">
         <v/>
       </c>
       <c r="P89" t="str">
-        <v/>
+        <v>In-Person</v>
       </c>
       <c r="Q89" t="str">
         <v/>
@@ -12169,10 +11793,10 @@
         <v>FA</v>
       </c>
       <c r="B90" t="str">
-        <v>HNRS</v>
+        <v>CS</v>
       </c>
       <c r="C90" t="str">
-        <v>251</v>
+        <v>360</v>
       </c>
       <c r="D90" t="str">
         <v>A</v>
@@ -12184,28 +11808,28 @@
         <v>2</v>
       </c>
       <c r="G90" t="str">
-        <v>TR</v>
+        <v>MR</v>
       </c>
       <c r="H90" t="str">
-        <v>14:10:00 - 15:15:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I90" t="str">
-        <v>HL 406C</v>
+        <v>SB 372</v>
       </c>
       <c r="J90" t="str">
-        <v>Full</v>
+        <v>First</v>
       </c>
       <c r="K90" t="str">
-        <v>FA-Full</v>
+        <v>FA-First</v>
       </c>
       <c r="L90">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M90" t="str">
-        <v>Agent Modeling</v>
+        <v>Fundamentals of Cybersecurity</v>
       </c>
       <c r="N90" t="str">
-        <v>Staff</v>
+        <v>Brian D Paige</v>
       </c>
       <c r="O90" t="str">
         <v/>
@@ -12225,7 +11849,7 @@
         <v>CS</v>
       </c>
       <c r="C91" t="str">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="D91" t="str">
         <v>A</v>
@@ -12234,31 +11858,31 @@
         <v>2</v>
       </c>
       <c r="F91" t="str">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G91" t="str">
-        <v>T</v>
+        <v>MR</v>
       </c>
       <c r="H91" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>19:00:00 - 20:40:00</v>
       </c>
       <c r="I91" t="str">
-        <v>SB 382</v>
+        <v>SB 354</v>
       </c>
       <c r="J91" t="str">
-        <v>Full</v>
+        <v>Second</v>
       </c>
       <c r="K91" t="str">
-        <v>FA-Full</v>
+        <v>FA-Second</v>
       </c>
       <c r="L91">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M91" t="str">
-        <v>Senior Project in Computing I</v>
+        <v>Fundamentals of Cyber Defense</v>
       </c>
       <c r="N91" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Brian D Paige</v>
       </c>
       <c r="O91" t="str">
         <v/>
@@ -12272,46 +11896,46 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B92" t="str">
         <v>CS</v>
       </c>
       <c r="C92" t="str">
-        <v>398</v>
+        <v>106</v>
       </c>
       <c r="D92" t="str">
         <v>A</v>
       </c>
       <c r="E92" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F92" t="str">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G92" t="str">
-        <v>T</v>
+        <v>MWF</v>
       </c>
       <c r="H92" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>14:45:00 - 15:50:00</v>
       </c>
       <c r="I92" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J92" t="str">
         <v>Full</v>
       </c>
       <c r="K92" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L92">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M92" t="str">
-        <v>Senior Project in Computing II</v>
+        <v>Intro to Computing</v>
       </c>
       <c r="N92" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Staff</v>
       </c>
       <c r="O92" t="str">
         <v/>
@@ -12328,28 +11952,28 @@
         <v>FA</v>
       </c>
       <c r="B93" t="str">
-        <v>DATA</v>
+        <v>CS</v>
       </c>
       <c r="C93" t="str">
-        <v>396</v>
+        <v>106L</v>
       </c>
       <c r="D93" t="str">
         <v>A</v>
       </c>
       <c r="E93" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="str">
-        <v>T</v>
+        <v>R</v>
       </c>
       <c r="H93" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I93" t="str">
-        <v>SB 382</v>
+        <v>SB 372</v>
       </c>
       <c r="J93" t="str">
         <v>Full</v>
@@ -12358,13 +11982,13 @@
         <v>FA-Full</v>
       </c>
       <c r="L93">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M93" t="str">
-        <v>Senior Project in Data Science</v>
+        <v>Intro to Computing Lab</v>
       </c>
       <c r="N93" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Staff</v>
       </c>
       <c r="O93" t="str">
         <v/>
@@ -12377,50 +12001,44 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="str">
-        <v>SP</v>
-      </c>
       <c r="B94" t="str">
-        <v>DATA</v>
+        <v/>
       </c>
       <c r="C94" t="str">
-        <v>398</v>
+        <v/>
       </c>
       <c r="D94" t="str">
-        <v>A</v>
+        <v/>
       </c>
       <c r="E94" t="str">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F94" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G94" t="str">
-        <v>T</v>
+        <v/>
       </c>
       <c r="H94" t="str">
-        <v>19:00:00 - 19:50:00</v>
+        <v/>
       </c>
       <c r="I94" t="str">
-        <v>SB 382</v>
+        <v/>
       </c>
       <c r="J94" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K94" t="str">
-        <v>SP-Full</v>
-      </c>
-      <c r="L94">
-        <v>50</v>
+        <v/>
+      </c>
+      <c r="L94" t="str">
+        <v/>
       </c>
       <c r="M94" t="str">
-        <v>Senior Project in Data Science II</v>
+        <v/>
       </c>
       <c r="N94" t="str">
-        <v>Kenneth C Arnold</v>
+        <v>Eric Araujo</v>
       </c>
       <c r="O94" t="str">
-        <v/>
+        <v>CRF</v>
       </c>
       <c r="P94" t="str">
         <v/>
@@ -12431,13 +12049,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>SP</v>
+        <v>FA</v>
       </c>
       <c r="B95" t="str">
         <v>CS</v>
       </c>
       <c r="C95" t="str">
-        <v>326</v>
+        <v>100</v>
       </c>
       <c r="D95" t="str">
         <v>A</v>
@@ -12449,307 +12067,42 @@
         <v>4</v>
       </c>
       <c r="G95" t="str">
-        <v>MWF</v>
+        <v>TR</v>
       </c>
       <c r="H95" t="str">
-        <v>13:30:00 - 14:35:00</v>
+        <v>10:20:00 - 12:00:00</v>
       </c>
       <c r="I95" t="str">
-        <v>SB 301</v>
+        <v>SB 354</v>
       </c>
       <c r="J95" t="str">
         <v>Full</v>
       </c>
       <c r="K95" t="str">
-        <v>SP-Full</v>
+        <v>FA-Full</v>
       </c>
       <c r="L95">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M95" t="str">
-        <v>Embedded Systems and the Internet of Things</v>
+        <v>Creating Interactive Web Media</v>
       </c>
       <c r="N95" t="str">
-        <v>Derek C Schuurman</v>
+        <v>Dave Meyer</v>
       </c>
       <c r="O95" t="str">
-        <v/>
+        <v>LEC</v>
       </c>
       <c r="P95" t="str">
-        <v>In-Person</v>
+        <v/>
       </c>
       <c r="Q95" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>FA</v>
-      </c>
-      <c r="B96" t="str">
-        <v>CS</v>
-      </c>
-      <c r="C96" t="str">
-        <v>360</v>
-      </c>
-      <c r="D96" t="str">
-        <v>A</v>
-      </c>
-      <c r="E96" t="str">
-        <v>2</v>
-      </c>
-      <c r="F96" t="str">
-        <v>2</v>
-      </c>
-      <c r="G96" t="str">
-        <v>MR</v>
-      </c>
-      <c r="H96" t="str">
-        <v>19:00:00 - 20:40:00</v>
-      </c>
-      <c r="I96" t="str">
-        <v>SB 372</v>
-      </c>
-      <c r="J96" t="str">
-        <v>First</v>
-      </c>
-      <c r="K96" t="str">
-        <v>FA-First</v>
-      </c>
-      <c r="L96">
-        <v>100</v>
-      </c>
-      <c r="M96" t="str">
-        <v>Fundamentals of Cybersecurity</v>
-      </c>
-      <c r="N96" t="str">
-        <v>Brian D Paige</v>
-      </c>
-      <c r="O96" t="str">
-        <v/>
-      </c>
-      <c r="P96" t="str">
-        <v/>
-      </c>
-      <c r="Q96" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>FA</v>
-      </c>
-      <c r="B97" t="str">
-        <v>CS</v>
-      </c>
-      <c r="C97" t="str">
-        <v>361</v>
-      </c>
-      <c r="D97" t="str">
-        <v>A</v>
-      </c>
-      <c r="E97" t="str">
-        <v>2</v>
-      </c>
-      <c r="F97" t="str">
-        <v>2</v>
-      </c>
-      <c r="G97" t="str">
-        <v>MR</v>
-      </c>
-      <c r="H97" t="str">
-        <v>19:00:00 - 20:40:00</v>
-      </c>
-      <c r="I97" t="str">
-        <v>SB 354</v>
-      </c>
-      <c r="J97" t="str">
-        <v>Second</v>
-      </c>
-      <c r="K97" t="str">
-        <v>FA-Second</v>
-      </c>
-      <c r="L97">
-        <v>100</v>
-      </c>
-      <c r="M97" t="str">
-        <v>Fundamentals of Cyber Defense</v>
-      </c>
-      <c r="N97" t="str">
-        <v>Adam Vedra</v>
-      </c>
-      <c r="O97" t="str">
-        <v/>
-      </c>
-      <c r="P97" t="str">
-        <v/>
-      </c>
-      <c r="Q97" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>FA</v>
-      </c>
-      <c r="B98" t="str">
-        <v>CS</v>
-      </c>
-      <c r="C98" t="str">
-        <v>100</v>
-      </c>
-      <c r="D98" t="str">
-        <v>A</v>
-      </c>
-      <c r="E98" t="str">
-        <v>4</v>
-      </c>
-      <c r="F98" t="str">
-        <v>4</v>
-      </c>
-      <c r="G98" t="str">
-        <v>TR</v>
-      </c>
-      <c r="H98" t="str">
-        <v>10:20:00 - 12:00:00</v>
-      </c>
-      <c r="I98" t="str">
-        <v>SB 354</v>
-      </c>
-      <c r="J98" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K98" t="str">
-        <v>FA-Full</v>
-      </c>
-      <c r="L98">
-        <v>100</v>
-      </c>
-      <c r="M98" t="str">
-        <v>Creating Interactive Web Media</v>
-      </c>
-      <c r="N98" t="str">
-        <v>Staff</v>
-      </c>
-      <c r="O98" t="str">
-        <v>LEC</v>
-      </c>
-      <c r="P98" t="str">
-        <v/>
-      </c>
-      <c r="Q98" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>FA</v>
-      </c>
-      <c r="B99" t="str">
-        <v>CS</v>
-      </c>
-      <c r="C99" t="str">
-        <v>106</v>
-      </c>
-      <c r="D99" t="str">
-        <v>A</v>
-      </c>
-      <c r="E99" t="str">
-        <v>3</v>
-      </c>
-      <c r="F99" t="str">
-        <v>4</v>
-      </c>
-      <c r="G99" t="str">
-        <v>MWF</v>
-      </c>
-      <c r="H99" t="str">
-        <v>14:45:00 - 15:50:00</v>
-      </c>
-      <c r="I99" t="str">
-        <v>SB 372</v>
-      </c>
-      <c r="J99" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K99" t="str">
-        <v>FA-Full</v>
-      </c>
-      <c r="L99">
-        <v>65</v>
-      </c>
-      <c r="M99" t="str">
-        <v>Intro to Computing</v>
-      </c>
-      <c r="N99" t="str">
-        <v>Kenneth C Arnold</v>
-      </c>
-      <c r="O99" t="str">
-        <v/>
-      </c>
-      <c r="P99" t="str">
-        <v/>
-      </c>
-      <c r="Q99" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>FA</v>
-      </c>
-      <c r="B100" t="str">
-        <v>CS</v>
-      </c>
-      <c r="C100" t="str">
-        <v>106L</v>
-      </c>
-      <c r="D100" t="str">
-        <v>A</v>
-      </c>
-      <c r="E100" t="str">
-        <v>1</v>
-      </c>
-      <c r="F100" t="str">
-        <v>1</v>
-      </c>
-      <c r="G100" t="str">
-        <v>R</v>
-      </c>
-      <c r="H100" t="str">
-        <v>10:20:00 - 12:00:00</v>
-      </c>
-      <c r="I100" t="str">
-        <v>SB 372</v>
-      </c>
-      <c r="J100" t="str">
-        <v>Full</v>
-      </c>
-      <c r="K100" t="str">
-        <v>FA-Full</v>
-      </c>
-      <c r="L100">
-        <v>100</v>
-      </c>
-      <c r="M100" t="str">
-        <v>Intro to Computing Lab</v>
-      </c>
-      <c r="N100" t="str">
-        <v>Christopher Wieringa</v>
-      </c>
-      <c r="O100" t="str">
-        <v/>
-      </c>
-      <c r="P100" t="str">
-        <v/>
-      </c>
-      <c r="Q100" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q100"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q95"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12768,7 +12121,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-11-20 11:11:29</v>
+        <v>2025-11-28 15:26:50</v>
       </c>
     </row>
   </sheetData>
